--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7456500</v>
+        <v>7222700</v>
       </c>
       <c r="E8" s="3">
-        <v>7279700</v>
+        <v>8905100</v>
       </c>
       <c r="F8" s="3">
-        <v>6689000</v>
+        <v>7521700</v>
       </c>
       <c r="G8" s="3">
-        <v>8155900</v>
+        <v>7343400</v>
       </c>
       <c r="H8" s="3">
-        <v>6610000</v>
+        <v>6747500</v>
       </c>
       <c r="I8" s="3">
+        <v>8227300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6667800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6586900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5776600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7635100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6271900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>6486200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6203600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7891500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2125700</v>
+        <v>2216300</v>
       </c>
       <c r="E9" s="3">
-        <v>2227800</v>
+        <v>2331500</v>
       </c>
       <c r="F9" s="3">
-        <v>2162000</v>
+        <v>2144300</v>
       </c>
       <c r="G9" s="3">
-        <v>2131200</v>
+        <v>2247300</v>
       </c>
       <c r="H9" s="3">
-        <v>2017000</v>
+        <v>2180900</v>
       </c>
       <c r="I9" s="3">
+        <v>2149900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2034700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1992900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1752400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1963500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1794100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1920800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1966100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2021300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5330800</v>
+        <v>5006400</v>
       </c>
       <c r="E10" s="3">
-        <v>5051900</v>
+        <v>6573600</v>
       </c>
       <c r="F10" s="3">
-        <v>4527100</v>
+        <v>5377400</v>
       </c>
       <c r="G10" s="3">
-        <v>6024700</v>
+        <v>5096100</v>
       </c>
       <c r="H10" s="3">
-        <v>4592900</v>
+        <v>4566600</v>
       </c>
       <c r="I10" s="3">
+        <v>6077400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4633100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4594000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4024200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>5671700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4477900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>4565400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4237500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>5870200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1068400</v>
+        <v>1161900</v>
       </c>
       <c r="E12" s="3">
-        <v>1155100</v>
+        <v>1330200</v>
       </c>
       <c r="F12" s="3">
-        <v>1160600</v>
+        <v>1077700</v>
       </c>
       <c r="G12" s="3">
-        <v>1032100</v>
+        <v>1165200</v>
       </c>
       <c r="H12" s="3">
-        <v>1005800</v>
+        <v>1170700</v>
       </c>
       <c r="I12" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1014600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1038700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>891600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>980600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>872900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>942500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>996600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>1006000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>206400</v>
+        <v>196000</v>
       </c>
       <c r="E14" s="3">
-        <v>395300</v>
+        <v>226000</v>
       </c>
       <c r="F14" s="3">
-        <v>1111200</v>
+        <v>208200</v>
       </c>
       <c r="G14" s="3">
-        <v>161400</v>
+        <v>398700</v>
       </c>
       <c r="H14" s="3">
-        <v>161400</v>
+        <v>1120900</v>
       </c>
       <c r="I14" s="3">
+        <v>162800</v>
+      </c>
+      <c r="J14" s="3">
+        <v>162800</v>
+      </c>
+      <c r="K14" s="3">
         <v>175700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>151500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>164900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>80800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>435300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>189000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>213600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5613000</v>
+        <v>5882500</v>
       </c>
       <c r="E17" s="3">
-        <v>6371700</v>
+        <v>6575800</v>
       </c>
       <c r="F17" s="3">
-        <v>6838300</v>
+        <v>5662100</v>
       </c>
       <c r="G17" s="3">
-        <v>5521800</v>
+        <v>6427400</v>
       </c>
       <c r="H17" s="3">
-        <v>5252800</v>
+        <v>6898100</v>
       </c>
       <c r="I17" s="3">
+        <v>5570100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5298800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5440600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4651100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>5431600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4797600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5447300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5413600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5601400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1843500</v>
+        <v>1340200</v>
       </c>
       <c r="E18" s="3">
-        <v>908000</v>
+        <v>2329300</v>
       </c>
       <c r="F18" s="3">
-        <v>-149300</v>
+        <v>1859700</v>
       </c>
       <c r="G18" s="3">
-        <v>2634100</v>
+        <v>916000</v>
       </c>
       <c r="H18" s="3">
-        <v>1357100</v>
+        <v>-150600</v>
       </c>
       <c r="I18" s="3">
+        <v>2657100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1369000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1146300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1125500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2203600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1474300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1039000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>790000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>2290100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,125 +1243,139 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>80200</v>
+        <v>-97500</v>
       </c>
       <c r="E20" s="3">
+        <v>183900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>80900</v>
+      </c>
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
-        <v>9900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-105400</v>
-      </c>
       <c r="H20" s="3">
-        <v>73600</v>
+        <v>10000</v>
       </c>
       <c r="I20" s="3">
+        <v>-106300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-27500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-41700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>111100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>85300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-20200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>14100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2444100</v>
+        <v>1756700</v>
       </c>
       <c r="E21" s="3">
-        <v>1408700</v>
+        <v>3068100</v>
       </c>
       <c r="F21" s="3">
-        <v>345900</v>
+        <v>2465500</v>
       </c>
       <c r="G21" s="3">
-        <v>2941500</v>
+        <v>1421100</v>
       </c>
       <c r="H21" s="3">
-        <v>1816100</v>
+        <v>348900</v>
       </c>
       <c r="I21" s="3">
+        <v>2967300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1832000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1483400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1416400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2663600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1917500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1380000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1159700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2698600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>54900</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="3">
-        <v>14300</v>
+        <v>55400</v>
       </c>
       <c r="F22" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
+        <v>55400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>14400</v>
       </c>
       <c r="H22" s="3">
-        <v>25300</v>
+        <v>14400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>25500</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1868800</v>
+        <v>1242700</v>
       </c>
       <c r="E23" s="3">
-        <v>894900</v>
+        <v>2457800</v>
       </c>
       <c r="F23" s="3">
-        <v>-153700</v>
+        <v>1885100</v>
       </c>
       <c r="G23" s="3">
-        <v>2528700</v>
+        <v>902700</v>
       </c>
       <c r="H23" s="3">
-        <v>1405400</v>
+        <v>-155100</v>
       </c>
       <c r="I23" s="3">
+        <v>2550800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1417700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1118900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1083700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>2314700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1559600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1018800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>784100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>2304200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>486400</v>
+        <v>343400</v>
       </c>
       <c r="E24" s="3">
-        <v>256900</v>
+        <v>644600</v>
       </c>
       <c r="F24" s="3">
-        <v>-36200</v>
+        <v>490700</v>
       </c>
       <c r="G24" s="3">
-        <v>676400</v>
+        <v>259200</v>
       </c>
       <c r="H24" s="3">
-        <v>339300</v>
+        <v>-36600</v>
       </c>
       <c r="I24" s="3">
+        <v>682300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>342200</v>
+      </c>
+      <c r="K24" s="3">
         <v>329400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>307400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>231100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>446600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>270400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>162000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>513000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1382400</v>
+        <v>899400</v>
       </c>
       <c r="E26" s="3">
-        <v>637900</v>
+        <v>1813100</v>
       </c>
       <c r="F26" s="3">
-        <v>-117500</v>
+        <v>1394500</v>
       </c>
       <c r="G26" s="3">
-        <v>1852300</v>
+        <v>643500</v>
       </c>
       <c r="H26" s="3">
-        <v>1066200</v>
+        <v>-118500</v>
       </c>
       <c r="I26" s="3">
+        <v>1868500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K26" s="3">
         <v>789500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>776300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2083500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1113000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>748400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>622100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>1791200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1368100</v>
+        <v>901600</v>
       </c>
       <c r="E27" s="3">
-        <v>624800</v>
+        <v>1794300</v>
       </c>
       <c r="F27" s="3">
-        <v>-125200</v>
+        <v>1380100</v>
       </c>
       <c r="G27" s="3">
-        <v>1847900</v>
+        <v>630200</v>
       </c>
       <c r="H27" s="3">
-        <v>1066200</v>
+        <v>-126300</v>
       </c>
       <c r="I27" s="3">
+        <v>1864100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K27" s="3">
         <v>787300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>776300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2060000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1102900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>749500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>611600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>1793600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1609,17 +1730,23 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-80200</v>
+        <v>97500</v>
       </c>
       <c r="E32" s="3">
+        <v>-183900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-80900</v>
+      </c>
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>105400</v>
-      </c>
       <c r="H32" s="3">
-        <v>-73600</v>
+        <v>-10000</v>
       </c>
       <c r="I32" s="3">
+        <v>106300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K32" s="3">
         <v>27500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>41700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-111100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-85300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>20200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-14100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1368100</v>
+        <v>901600</v>
       </c>
       <c r="E33" s="3">
-        <v>624800</v>
+        <v>1794300</v>
       </c>
       <c r="F33" s="3">
-        <v>-125200</v>
+        <v>1380100</v>
       </c>
       <c r="G33" s="3">
-        <v>1847900</v>
+        <v>630200</v>
       </c>
       <c r="H33" s="3">
-        <v>1066200</v>
+        <v>-126300</v>
       </c>
       <c r="I33" s="3">
+        <v>1864100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K33" s="3">
         <v>787300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>776300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>2060000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1102900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>749500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>611600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>1793600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1368100</v>
+        <v>901600</v>
       </c>
       <c r="E35" s="3">
-        <v>624800</v>
+        <v>1794300</v>
       </c>
       <c r="F35" s="3">
-        <v>-125200</v>
+        <v>1380100</v>
       </c>
       <c r="G35" s="3">
-        <v>1847900</v>
+        <v>630200</v>
       </c>
       <c r="H35" s="3">
-        <v>1066200</v>
+        <v>-126300</v>
       </c>
       <c r="I35" s="3">
+        <v>1864100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K35" s="3">
         <v>787300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>776300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>2060000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1102900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>749500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>611600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>1793600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6066500</v>
+        <v>8657000</v>
       </c>
       <c r="E41" s="3">
-        <v>5674500</v>
+        <v>5885800</v>
       </c>
       <c r="F41" s="3">
-        <v>8050500</v>
+        <v>6119500</v>
       </c>
       <c r="G41" s="3">
-        <v>9472400</v>
+        <v>5724100</v>
       </c>
       <c r="H41" s="3">
-        <v>4948700</v>
+        <v>8120900</v>
       </c>
       <c r="I41" s="3">
+        <v>9555300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4992000</v>
+      </c>
+      <c r="K41" s="3">
         <v>4957500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>8342600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4500300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4734800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4752700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>6968900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4345400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>360100</v>
+        <v>396500</v>
       </c>
       <c r="E42" s="3">
-        <v>441400</v>
+        <v>329000</v>
       </c>
       <c r="F42" s="3">
-        <v>648900</v>
+        <v>363300</v>
       </c>
       <c r="G42" s="3">
-        <v>491900</v>
+        <v>445300</v>
       </c>
       <c r="H42" s="3">
-        <v>531400</v>
+        <v>654600</v>
       </c>
       <c r="I42" s="3">
+        <v>496200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>536100</v>
+      </c>
+      <c r="K42" s="3">
         <v>434800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>942100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1154500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1136600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>973900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1813500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1319400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1184700</v>
+        <v>8758900</v>
       </c>
       <c r="E43" s="3">
-        <v>7433500</v>
+        <v>9319300</v>
       </c>
       <c r="F43" s="3">
-        <v>372200</v>
+        <v>7670100</v>
       </c>
       <c r="G43" s="3">
-        <v>321700</v>
+        <v>7498500</v>
       </c>
       <c r="H43" s="3">
-        <v>487500</v>
+        <v>7857300</v>
       </c>
       <c r="I43" s="3">
+        <v>7371100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5953400</v>
+      </c>
+      <c r="K43" s="3">
         <v>6073000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>374400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>20987900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>5868000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>6488500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>345100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>273500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,228 +2334,264 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1435100</v>
+        <v>1385600</v>
       </c>
       <c r="E45" s="3">
-        <v>1329700</v>
+        <v>1315800</v>
       </c>
       <c r="F45" s="3">
-        <v>1147400</v>
+        <v>1447600</v>
       </c>
       <c r="G45" s="3">
-        <v>977200</v>
+        <v>1341300</v>
       </c>
       <c r="H45" s="3">
-        <v>1125500</v>
+        <v>1157400</v>
       </c>
       <c r="I45" s="3">
+        <v>985800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>1135300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1104600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>932200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>989600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>848200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>842600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>909700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>682000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15465300</v>
+        <v>19198000</v>
       </c>
       <c r="E46" s="3">
-        <v>14879000</v>
+        <v>16849900</v>
       </c>
       <c r="F46" s="3">
-        <v>17636100</v>
+        <v>15600500</v>
       </c>
       <c r="G46" s="3">
-        <v>18248800</v>
+        <v>15009100</v>
       </c>
       <c r="H46" s="3">
-        <v>12507300</v>
+        <v>17790300</v>
       </c>
       <c r="I46" s="3">
+        <v>18408300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>12616700</v>
+      </c>
+      <c r="K46" s="3">
         <v>12569900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>16556700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13385300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>12587600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>13057700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>17779700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13573900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3242400</v>
+        <v>3339400</v>
       </c>
       <c r="E47" s="3">
-        <v>2757100</v>
+        <v>3212000</v>
       </c>
       <c r="F47" s="3">
-        <v>2506700</v>
+        <v>3270700</v>
       </c>
       <c r="G47" s="3">
-        <v>2381600</v>
+        <v>2781200</v>
       </c>
       <c r="H47" s="3">
-        <v>2220200</v>
+        <v>2528700</v>
       </c>
       <c r="I47" s="3">
+        <v>2402400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2239600</v>
+      </c>
+      <c r="K47" s="3">
         <v>2159800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1878700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1955600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>2009500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>2305700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>2371100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2270100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5983000</v>
+        <v>5962200</v>
       </c>
       <c r="E48" s="3">
-        <v>5934700</v>
+        <v>6087400</v>
       </c>
       <c r="F48" s="3">
-        <v>6064300</v>
+        <v>6035300</v>
       </c>
       <c r="G48" s="3">
-        <v>3901200</v>
+        <v>5986600</v>
       </c>
       <c r="H48" s="3">
-        <v>3755200</v>
+        <v>6117300</v>
       </c>
       <c r="I48" s="3">
+        <v>3935300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3788000</v>
+      </c>
+      <c r="K48" s="3">
         <v>3605800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3342300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3328900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3148300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3050700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3075400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3028400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37956800</v>
+        <v>37803500</v>
       </c>
       <c r="E49" s="3">
-        <v>36817000</v>
+        <v>37274100</v>
       </c>
       <c r="F49" s="3">
-        <v>37361600</v>
+        <v>38288600</v>
       </c>
       <c r="G49" s="3">
-        <v>29605400</v>
+        <v>37138900</v>
       </c>
       <c r="H49" s="3">
-        <v>29391300</v>
+        <v>37688300</v>
       </c>
       <c r="I49" s="3">
+        <v>29864200</v>
+      </c>
+      <c r="J49" s="3">
+        <v>29648200</v>
+      </c>
+      <c r="K49" s="3">
         <v>29382500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>26013800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>27194800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>27366500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>28298800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>31375900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>31806700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3012900</v>
+        <v>3416900</v>
       </c>
       <c r="E52" s="3">
-        <v>2974500</v>
+        <v>3270700</v>
       </c>
       <c r="F52" s="3">
-        <v>2965700</v>
+        <v>3039300</v>
       </c>
       <c r="G52" s="3">
-        <v>2540800</v>
+        <v>3000500</v>
       </c>
       <c r="H52" s="3">
-        <v>2245400</v>
+        <v>2991600</v>
       </c>
       <c r="I52" s="3">
+        <v>2563000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2265000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2220200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>2137800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1935400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1372200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1420400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1416800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1293500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>65660400</v>
+        <v>69720100</v>
       </c>
       <c r="E54" s="3">
-        <v>63362300</v>
+        <v>66694100</v>
       </c>
       <c r="F54" s="3">
-        <v>66534400</v>
+        <v>66234500</v>
       </c>
       <c r="G54" s="3">
-        <v>56549200</v>
+        <v>63916300</v>
       </c>
       <c r="H54" s="3">
-        <v>50119300</v>
+        <v>67116100</v>
       </c>
       <c r="I54" s="3">
+        <v>57043600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>50557500</v>
+      </c>
+      <c r="K54" s="3">
         <v>49938100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>49929400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>47666600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>46484000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>48133400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>56018900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>51972800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1658000</v>
+        <v>1614900</v>
       </c>
       <c r="E57" s="3">
-        <v>1616300</v>
+        <v>1751100</v>
       </c>
       <c r="F57" s="3">
-        <v>1807300</v>
+        <v>1672500</v>
       </c>
       <c r="G57" s="3">
-        <v>1637100</v>
+        <v>1630400</v>
       </c>
       <c r="H57" s="3">
-        <v>1368100</v>
+        <v>1823100</v>
       </c>
       <c r="I57" s="3">
+        <v>1651400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1380100</v>
+      </c>
+      <c r="K57" s="3">
         <v>1290200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1170500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1291400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1221800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1281300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1388600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1503700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3064500</v>
+        <v>5695300</v>
       </c>
       <c r="E58" s="3">
-        <v>1991800</v>
+        <v>2816600</v>
       </c>
       <c r="F58" s="3">
-        <v>1776600</v>
+        <v>3091300</v>
       </c>
       <c r="G58" s="3">
-        <v>2078500</v>
+        <v>2009200</v>
       </c>
       <c r="H58" s="3">
-        <v>1233100</v>
+        <v>1792100</v>
       </c>
       <c r="I58" s="3">
+        <v>2096700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1243800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1281400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1750200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>3207800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1446200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>608100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2083500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2128100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10522100</v>
+        <v>12036300</v>
       </c>
       <c r="E59" s="3">
-        <v>11997800</v>
+        <v>11450400</v>
       </c>
       <c r="F59" s="3">
-        <v>12501800</v>
+        <v>10614100</v>
       </c>
       <c r="G59" s="3">
-        <v>9033200</v>
+        <v>12102700</v>
       </c>
       <c r="H59" s="3">
-        <v>8482100</v>
+        <v>12611100</v>
       </c>
       <c r="I59" s="3">
+        <v>9112200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>8556200</v>
+      </c>
+      <c r="K59" s="3">
         <v>9986300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>9629500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>12110800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7998700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9687300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11375400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7723700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15244600</v>
+        <v>19346400</v>
       </c>
       <c r="E60" s="3">
-        <v>15605900</v>
+        <v>16018100</v>
       </c>
       <c r="F60" s="3">
-        <v>16085700</v>
+        <v>15377900</v>
       </c>
       <c r="G60" s="3">
-        <v>11513600</v>
+        <v>15742300</v>
       </c>
       <c r="H60" s="3">
-        <v>11083200</v>
+        <v>16226300</v>
       </c>
       <c r="I60" s="3">
+        <v>11614300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11180100</v>
+      </c>
+      <c r="K60" s="3">
         <v>12557800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12550100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>11455500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>10666800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11576700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14847500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11355400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>14986600</v>
+        <v>13852800</v>
       </c>
       <c r="E61" s="3">
-        <v>15445600</v>
+        <v>12294400</v>
       </c>
       <c r="F61" s="3">
-        <v>16179000</v>
+        <v>15117600</v>
       </c>
       <c r="G61" s="3">
-        <v>11587200</v>
+        <v>15580600</v>
       </c>
       <c r="H61" s="3">
-        <v>7468600</v>
+        <v>16320500</v>
       </c>
       <c r="I61" s="3">
+        <v>11668600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>7533900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7146900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>7113900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5612200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>6519900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6984400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>7575800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7569900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2238800</v>
+        <v>2440000</v>
       </c>
       <c r="E62" s="3">
-        <v>1961000</v>
+        <v>4243200</v>
       </c>
       <c r="F62" s="3">
-        <v>2177300</v>
+        <v>2258400</v>
       </c>
       <c r="G62" s="3">
-        <v>1761200</v>
+        <v>1978200</v>
       </c>
       <c r="H62" s="3">
-        <v>1914900</v>
+        <v>2196400</v>
       </c>
       <c r="I62" s="3">
+        <v>1776600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1931700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1842400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2059800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2093600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1954500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2055500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2175100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2062400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32545800</v>
+        <v>35720100</v>
       </c>
       <c r="E66" s="3">
-        <v>33078300</v>
+        <v>32639900</v>
       </c>
       <c r="F66" s="3">
-        <v>34498100</v>
+        <v>32830400</v>
       </c>
       <c r="G66" s="3">
-        <v>24891700</v>
+        <v>33367600</v>
       </c>
       <c r="H66" s="3">
-        <v>20513900</v>
+        <v>34799700</v>
       </c>
       <c r="I66" s="3">
+        <v>25109300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20693300</v>
+      </c>
+      <c r="K66" s="3">
         <v>21595500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21756900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19073800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19142300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20624400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>24634800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21012400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32901600</v>
+        <v>35436600</v>
       </c>
       <c r="E72" s="3">
-        <v>28517300</v>
+        <v>31880100</v>
       </c>
       <c r="F72" s="3">
-        <v>31823300</v>
+        <v>33189200</v>
       </c>
       <c r="G72" s="3">
-        <v>31447800</v>
+        <v>28766600</v>
       </c>
       <c r="H72" s="3">
-        <v>29396800</v>
+        <v>32101600</v>
       </c>
       <c r="I72" s="3">
+        <v>31722800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>29653800</v>
+      </c>
+      <c r="K72" s="3">
         <v>27163400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>27940800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>28360500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>26873900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>24688300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>30535500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>30105900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>33114600</v>
+        <v>34000000</v>
       </c>
       <c r="E76" s="3">
-        <v>30283900</v>
+        <v>34054300</v>
       </c>
       <c r="F76" s="3">
-        <v>32036300</v>
+        <v>33404100</v>
       </c>
       <c r="G76" s="3">
-        <v>31657500</v>
+        <v>30548700</v>
       </c>
       <c r="H76" s="3">
-        <v>29605400</v>
+        <v>32316400</v>
       </c>
       <c r="I76" s="3">
+        <v>31934300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>29864200</v>
+      </c>
+      <c r="K76" s="3">
         <v>28342700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28172500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>28592800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>27341800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>27509000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>31384200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>30960400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1368100</v>
+        <v>901600</v>
       </c>
       <c r="E81" s="3">
-        <v>624800</v>
+        <v>1794300</v>
       </c>
       <c r="F81" s="3">
-        <v>-125200</v>
+        <v>1380100</v>
       </c>
       <c r="G81" s="3">
-        <v>1847900</v>
+        <v>630200</v>
       </c>
       <c r="H81" s="3">
-        <v>1066200</v>
+        <v>-126300</v>
       </c>
       <c r="I81" s="3">
+        <v>1864100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K81" s="3">
         <v>787300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>776300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>2060000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1102900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>749500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>611600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>1793600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>520500</v>
+        <v>513900</v>
       </c>
       <c r="E83" s="3">
-        <v>499600</v>
+        <v>554900</v>
       </c>
       <c r="F83" s="3">
-        <v>485300</v>
+        <v>525000</v>
       </c>
       <c r="G83" s="3">
-        <v>412800</v>
+        <v>504000</v>
       </c>
       <c r="H83" s="3">
-        <v>385400</v>
+        <v>489600</v>
       </c>
       <c r="I83" s="3">
+        <v>416500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>388800</v>
+      </c>
+      <c r="K83" s="3">
         <v>364500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>332700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>348900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>357900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>361300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>375600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>394400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>699400</v>
+        <v>3305100</v>
       </c>
       <c r="E89" s="3">
-        <v>-135100</v>
+        <v>199400</v>
       </c>
       <c r="F89" s="3">
-        <v>3076600</v>
+        <v>705500</v>
       </c>
       <c r="G89" s="3">
-        <v>899300</v>
+        <v>-136200</v>
       </c>
       <c r="H89" s="3">
-        <v>547900</v>
+        <v>3103500</v>
       </c>
       <c r="I89" s="3">
+        <v>907100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>552700</v>
+      </c>
+      <c r="K89" s="3">
         <v>448000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2829500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1032200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>686700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>719200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>3371200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1173800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-180100</v>
+        <v>-368800</v>
       </c>
       <c r="E91" s="3">
-        <v>-197600</v>
+        <v>-126300</v>
       </c>
       <c r="F91" s="3">
-        <v>-394200</v>
+        <v>-181600</v>
       </c>
       <c r="G91" s="3">
-        <v>-342600</v>
+        <v>-199400</v>
       </c>
       <c r="H91" s="3">
-        <v>-360100</v>
+        <v>-397600</v>
       </c>
       <c r="I91" s="3">
+        <v>-345600</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-363300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-429300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-468800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-348900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-397200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-357900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-341600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-393200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-312900</v>
+        <v>-413100</v>
       </c>
       <c r="E94" s="3">
-        <v>-217400</v>
+        <v>-39900</v>
       </c>
       <c r="F94" s="3">
-        <v>-7139200</v>
+        <v>-315700</v>
       </c>
       <c r="G94" s="3">
-        <v>-501800</v>
+        <v>-219300</v>
       </c>
       <c r="H94" s="3">
-        <v>-418300</v>
+        <v>-7201600</v>
       </c>
       <c r="I94" s="3">
+        <v>-506200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-422000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-405200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-534100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-304100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>313000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-755900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-136200</v>
+        <v>-247000</v>
       </c>
       <c r="E100" s="3">
-        <v>-2103800</v>
+        <v>-322300</v>
       </c>
       <c r="F100" s="3">
-        <v>2671400</v>
+        <v>-137300</v>
       </c>
       <c r="G100" s="3">
-        <v>4120800</v>
+        <v>-2122200</v>
       </c>
       <c r="H100" s="3">
-        <v>-161400</v>
+        <v>2694800</v>
       </c>
       <c r="I100" s="3">
+        <v>4156800</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-162800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1627200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-673200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-336600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-422600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>141600</v>
+        <v>125200</v>
       </c>
       <c r="E101" s="3">
-        <v>80200</v>
+        <v>-70900</v>
       </c>
       <c r="F101" s="3">
-        <v>-30700</v>
+        <v>142900</v>
       </c>
       <c r="G101" s="3">
+        <v>80900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="I101" s="3">
         <v>6600</v>
       </c>
-      <c r="H101" s="3">
-        <v>23100</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K101" s="3">
         <v>190000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-113100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-59500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-64000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-126800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-29300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>392000</v>
+        <v>2770100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2376100</v>
+        <v>-233700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1421900</v>
+        <v>395400</v>
       </c>
       <c r="G102" s="3">
-        <v>4524900</v>
+        <v>-2396800</v>
       </c>
       <c r="H102" s="3">
-        <v>-8800</v>
+        <v>-1434300</v>
       </c>
       <c r="I102" s="3">
+        <v>4564400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3938500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-234500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-18000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2622300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-482400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7222700</v>
+        <v>7976300</v>
       </c>
       <c r="E8" s="3">
-        <v>8905100</v>
+        <v>7713700</v>
       </c>
       <c r="F8" s="3">
-        <v>7521700</v>
+        <v>9510500</v>
       </c>
       <c r="G8" s="3">
-        <v>7343400</v>
+        <v>8033100</v>
       </c>
       <c r="H8" s="3">
-        <v>6747500</v>
+        <v>7842600</v>
       </c>
       <c r="I8" s="3">
-        <v>8227300</v>
+        <v>7206200</v>
       </c>
       <c r="J8" s="3">
+        <v>8786600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6667800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6586900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5776600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7635100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6271900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6486200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6203600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7891500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2216300</v>
+        <v>2323200</v>
       </c>
       <c r="E9" s="3">
-        <v>2331500</v>
+        <v>2367000</v>
       </c>
       <c r="F9" s="3">
-        <v>2144300</v>
+        <v>2490000</v>
       </c>
       <c r="G9" s="3">
-        <v>2247300</v>
+        <v>2290100</v>
       </c>
       <c r="H9" s="3">
-        <v>2180900</v>
+        <v>2400100</v>
       </c>
       <c r="I9" s="3">
-        <v>2149900</v>
+        <v>2329100</v>
       </c>
       <c r="J9" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="K9" s="3">
         <v>2034700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1992900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1752400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1963500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1794100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1920800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1966100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2021300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5006400</v>
+        <v>5653100</v>
       </c>
       <c r="E10" s="3">
-        <v>6573600</v>
+        <v>5346700</v>
       </c>
       <c r="F10" s="3">
-        <v>5377400</v>
+        <v>7020500</v>
       </c>
       <c r="G10" s="3">
-        <v>5096100</v>
+        <v>5743000</v>
       </c>
       <c r="H10" s="3">
-        <v>4566600</v>
+        <v>5442500</v>
       </c>
       <c r="I10" s="3">
-        <v>6077400</v>
+        <v>4877100</v>
       </c>
       <c r="J10" s="3">
+        <v>6490600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4633100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4594000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4024200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5671700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4477900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4565400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4237500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5870200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1161900</v>
+        <v>1368600</v>
       </c>
       <c r="E12" s="3">
-        <v>1330200</v>
+        <v>1240900</v>
       </c>
       <c r="F12" s="3">
-        <v>1077700</v>
+        <v>1420700</v>
       </c>
       <c r="G12" s="3">
-        <v>1165200</v>
+        <v>1151000</v>
       </c>
       <c r="H12" s="3">
-        <v>1170700</v>
+        <v>1244400</v>
       </c>
       <c r="I12" s="3">
-        <v>1041100</v>
+        <v>1250300</v>
       </c>
       <c r="J12" s="3">
+        <v>1111900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1014600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1038700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>891600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>980600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>872900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>942500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>996600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1006000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>196000</v>
+        <v>189300</v>
       </c>
       <c r="E14" s="3">
-        <v>226000</v>
+        <v>209400</v>
       </c>
       <c r="F14" s="3">
-        <v>208200</v>
+        <v>241300</v>
       </c>
       <c r="G14" s="3">
-        <v>398700</v>
+        <v>222400</v>
       </c>
       <c r="H14" s="3">
-        <v>1120900</v>
+        <v>425800</v>
       </c>
       <c r="I14" s="3">
+        <v>1197100</v>
+      </c>
+      <c r="J14" s="3">
+        <v>173900</v>
+      </c>
+      <c r="K14" s="3">
         <v>162800</v>
       </c>
-      <c r="J14" s="3">
-        <v>162800</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>175700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>151500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>164900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>80800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>435300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>189000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>213600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5882500</v>
+        <v>6457500</v>
       </c>
       <c r="E17" s="3">
-        <v>6575800</v>
+        <v>6282400</v>
       </c>
       <c r="F17" s="3">
-        <v>5662100</v>
+        <v>7022900</v>
       </c>
       <c r="G17" s="3">
-        <v>6427400</v>
+        <v>6047000</v>
       </c>
       <c r="H17" s="3">
-        <v>6898100</v>
+        <v>6864400</v>
       </c>
       <c r="I17" s="3">
-        <v>5570100</v>
+        <v>7367100</v>
       </c>
       <c r="J17" s="3">
+        <v>5948800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5298800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5440600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4651100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5431600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4797600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5447300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5413600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5601400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1340200</v>
+        <v>1518800</v>
       </c>
       <c r="E18" s="3">
-        <v>2329300</v>
+        <v>1431300</v>
       </c>
       <c r="F18" s="3">
-        <v>1859700</v>
+        <v>2487600</v>
       </c>
       <c r="G18" s="3">
-        <v>916000</v>
+        <v>1986100</v>
       </c>
       <c r="H18" s="3">
-        <v>-150600</v>
+        <v>978300</v>
       </c>
       <c r="I18" s="3">
-        <v>2657100</v>
+        <v>-160900</v>
       </c>
       <c r="J18" s="3">
+        <v>2837800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1369000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1146300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1125500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2203600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1474300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1039000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>790000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2290100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,140 +1278,147 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-97500</v>
+        <v>45000</v>
       </c>
       <c r="E20" s="3">
-        <v>183900</v>
+        <v>-104100</v>
       </c>
       <c r="F20" s="3">
-        <v>80900</v>
+        <v>196400</v>
       </c>
       <c r="G20" s="3">
-        <v>1100</v>
+        <v>86400</v>
       </c>
       <c r="H20" s="3">
-        <v>10000</v>
+        <v>1200</v>
       </c>
       <c r="I20" s="3">
-        <v>-106300</v>
+        <v>10600</v>
       </c>
       <c r="J20" s="3">
+        <v>-113600</v>
+      </c>
+      <c r="K20" s="3">
         <v>74200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-27500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-41700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>111100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>85300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>14100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1756700</v>
+        <v>2109100</v>
       </c>
       <c r="E21" s="3">
-        <v>3068100</v>
+        <v>1876100</v>
       </c>
       <c r="F21" s="3">
-        <v>2465500</v>
+        <v>3276600</v>
       </c>
       <c r="G21" s="3">
-        <v>1421100</v>
+        <v>2633100</v>
       </c>
       <c r="H21" s="3">
-        <v>348900</v>
+        <v>1517700</v>
       </c>
       <c r="I21" s="3">
-        <v>2967300</v>
+        <v>372600</v>
       </c>
       <c r="J21" s="3">
+        <v>3169000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1832000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1483400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1416400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2663600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1917500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1380000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1159700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2698600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3">
-        <v>55400</v>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F22" s="3">
-        <v>55400</v>
+        <v>59100</v>
       </c>
       <c r="G22" s="3">
-        <v>14400</v>
+        <v>59100</v>
       </c>
       <c r="H22" s="3">
-        <v>14400</v>
-      </c>
-      <c r="I22" s="3" t="s">
+        <v>15400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15400</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>25500</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1242700</v>
+        <v>1563800</v>
       </c>
       <c r="E23" s="3">
-        <v>2457800</v>
+        <v>1327200</v>
       </c>
       <c r="F23" s="3">
-        <v>1885100</v>
+        <v>2624900</v>
       </c>
       <c r="G23" s="3">
-        <v>902700</v>
+        <v>2013300</v>
       </c>
       <c r="H23" s="3">
-        <v>-155100</v>
+        <v>964100</v>
       </c>
       <c r="I23" s="3">
-        <v>2550800</v>
+        <v>-165600</v>
       </c>
       <c r="J23" s="3">
+        <v>2724200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1417700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1118900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1083700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2314700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1559600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1018800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>784100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2304200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>343400</v>
+        <v>516900</v>
       </c>
       <c r="E24" s="3">
-        <v>644600</v>
+        <v>366700</v>
       </c>
       <c r="F24" s="3">
-        <v>490700</v>
+        <v>688400</v>
       </c>
       <c r="G24" s="3">
-        <v>259200</v>
+        <v>524000</v>
       </c>
       <c r="H24" s="3">
-        <v>-36600</v>
+        <v>276800</v>
       </c>
       <c r="I24" s="3">
-        <v>682300</v>
+        <v>-39000</v>
       </c>
       <c r="J24" s="3">
+        <v>728700</v>
+      </c>
+      <c r="K24" s="3">
         <v>342200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>329400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>307400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>231100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>446600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>270400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>162000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>513000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>899400</v>
+        <v>1046900</v>
       </c>
       <c r="E26" s="3">
-        <v>1813100</v>
+        <v>960500</v>
       </c>
       <c r="F26" s="3">
-        <v>1394500</v>
+        <v>1936400</v>
       </c>
       <c r="G26" s="3">
-        <v>643500</v>
+        <v>1489300</v>
       </c>
       <c r="H26" s="3">
-        <v>-118500</v>
+        <v>687300</v>
       </c>
       <c r="I26" s="3">
-        <v>1868500</v>
+        <v>-126600</v>
       </c>
       <c r="J26" s="3">
+        <v>1995600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1075500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>789500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>776300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2083500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1113000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>748400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>622100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1791200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>901600</v>
+        <v>1025600</v>
       </c>
       <c r="E27" s="3">
-        <v>1794300</v>
+        <v>962900</v>
       </c>
       <c r="F27" s="3">
-        <v>1380100</v>
+        <v>1916300</v>
       </c>
       <c r="G27" s="3">
-        <v>630200</v>
+        <v>1473900</v>
       </c>
       <c r="H27" s="3">
-        <v>-126300</v>
+        <v>673100</v>
       </c>
       <c r="I27" s="3">
-        <v>1864100</v>
+        <v>-134900</v>
       </c>
       <c r="J27" s="3">
+        <v>1990800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1075500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>787300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>776300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2060000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1102900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>749500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>611600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1793600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1736,8 +1797,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>97500</v>
+        <v>-45000</v>
       </c>
       <c r="E32" s="3">
-        <v>-183900</v>
+        <v>104100</v>
       </c>
       <c r="F32" s="3">
-        <v>-80900</v>
+        <v>-196400</v>
       </c>
       <c r="G32" s="3">
-        <v>-1100</v>
+        <v>-86400</v>
       </c>
       <c r="H32" s="3">
-        <v>-10000</v>
+        <v>-1200</v>
       </c>
       <c r="I32" s="3">
-        <v>106300</v>
+        <v>-10600</v>
       </c>
       <c r="J32" s="3">
+        <v>113600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-74200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>27500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>41700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-111100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-85300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-14100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>901600</v>
+        <v>1025600</v>
       </c>
       <c r="E33" s="3">
-        <v>1794300</v>
+        <v>962900</v>
       </c>
       <c r="F33" s="3">
-        <v>1380100</v>
+        <v>1916300</v>
       </c>
       <c r="G33" s="3">
-        <v>630200</v>
+        <v>1473900</v>
       </c>
       <c r="H33" s="3">
-        <v>-126300</v>
+        <v>673100</v>
       </c>
       <c r="I33" s="3">
-        <v>1864100</v>
+        <v>-134900</v>
       </c>
       <c r="J33" s="3">
+        <v>1990800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1075500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>787300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>776300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2060000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1102900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>749500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>611600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1793600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>901600</v>
+        <v>1025600</v>
       </c>
       <c r="E35" s="3">
-        <v>1794300</v>
+        <v>962900</v>
       </c>
       <c r="F35" s="3">
-        <v>1380100</v>
+        <v>1916300</v>
       </c>
       <c r="G35" s="3">
-        <v>630200</v>
+        <v>1473900</v>
       </c>
       <c r="H35" s="3">
-        <v>-126300</v>
+        <v>673100</v>
       </c>
       <c r="I35" s="3">
-        <v>1864100</v>
+        <v>-134900</v>
       </c>
       <c r="J35" s="3">
+        <v>1990800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1075500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>787300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>776300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2060000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1102900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>749500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>611600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1793600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,158 +2226,168 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8657000</v>
+        <v>7339900</v>
       </c>
       <c r="E41" s="3">
-        <v>5885800</v>
+        <v>9245500</v>
       </c>
       <c r="F41" s="3">
-        <v>6119500</v>
+        <v>6285900</v>
       </c>
       <c r="G41" s="3">
-        <v>5724100</v>
+        <v>6535500</v>
       </c>
       <c r="H41" s="3">
-        <v>8120900</v>
+        <v>6113200</v>
       </c>
       <c r="I41" s="3">
-        <v>9555300</v>
+        <v>8673000</v>
       </c>
       <c r="J41" s="3">
+        <v>10204900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4992000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4957500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8342600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4500300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4734800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4752700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6968900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4345400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>396500</v>
+        <v>1678500</v>
       </c>
       <c r="E42" s="3">
-        <v>329000</v>
+        <v>423500</v>
       </c>
       <c r="F42" s="3">
-        <v>363300</v>
+        <v>351300</v>
       </c>
       <c r="G42" s="3">
-        <v>445300</v>
+        <v>388000</v>
       </c>
       <c r="H42" s="3">
-        <v>654600</v>
+        <v>475500</v>
       </c>
       <c r="I42" s="3">
-        <v>496200</v>
+        <v>699100</v>
       </c>
       <c r="J42" s="3">
+        <v>529900</v>
+      </c>
+      <c r="K42" s="3">
         <v>536100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>434800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>942100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1154500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1136600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>973900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1813500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1319400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8758900</v>
+        <v>8351300</v>
       </c>
       <c r="E43" s="3">
-        <v>9319300</v>
+        <v>742900</v>
       </c>
       <c r="F43" s="3">
-        <v>7670100</v>
+        <v>9952900</v>
       </c>
       <c r="G43" s="3">
-        <v>7498500</v>
+        <v>1276300</v>
       </c>
       <c r="H43" s="3">
-        <v>7857300</v>
+        <v>8008200</v>
       </c>
       <c r="I43" s="3">
-        <v>7371100</v>
+        <v>401000</v>
       </c>
       <c r="J43" s="3">
+        <v>346600</v>
+      </c>
+      <c r="K43" s="3">
         <v>5953400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6073000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>374400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>20987900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5868000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6488500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>345100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>273500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,258 +2436,276 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1385600</v>
+        <v>1607600</v>
       </c>
       <c r="E45" s="3">
-        <v>1315800</v>
+        <v>1479800</v>
       </c>
       <c r="F45" s="3">
-        <v>1447600</v>
+        <v>1405300</v>
       </c>
       <c r="G45" s="3">
-        <v>1341300</v>
+        <v>1546100</v>
       </c>
       <c r="H45" s="3">
-        <v>1157400</v>
+        <v>1432500</v>
       </c>
       <c r="I45" s="3">
-        <v>985800</v>
+        <v>1236100</v>
       </c>
       <c r="J45" s="3">
+        <v>1052800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1135300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1104600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>932200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>989600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>848200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>842600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>909700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>682000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19198000</v>
+        <v>18977300</v>
       </c>
       <c r="E46" s="3">
-        <v>16849900</v>
+        <v>20503200</v>
       </c>
       <c r="F46" s="3">
-        <v>15600500</v>
+        <v>17995500</v>
       </c>
       <c r="G46" s="3">
-        <v>15009100</v>
+        <v>16661100</v>
       </c>
       <c r="H46" s="3">
-        <v>17790300</v>
+        <v>16029500</v>
       </c>
       <c r="I46" s="3">
-        <v>18408300</v>
+        <v>18999700</v>
       </c>
       <c r="J46" s="3">
+        <v>19659800</v>
+      </c>
+      <c r="K46" s="3">
         <v>12616700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12569900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16556700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13385300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12587600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13057700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17779700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13573900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3339400</v>
+        <v>3547500</v>
       </c>
       <c r="E47" s="3">
-        <v>3212000</v>
+        <v>3566400</v>
       </c>
       <c r="F47" s="3">
-        <v>3270700</v>
+        <v>3430400</v>
       </c>
       <c r="G47" s="3">
-        <v>2781200</v>
+        <v>3493100</v>
       </c>
       <c r="H47" s="3">
-        <v>2528700</v>
+        <v>2970300</v>
       </c>
       <c r="I47" s="3">
-        <v>2402400</v>
+        <v>2700600</v>
       </c>
       <c r="J47" s="3">
+        <v>2565700</v>
+      </c>
+      <c r="K47" s="3">
         <v>2239600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2159800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1878700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1955600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2009500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2305700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2371100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2270100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5962200</v>
+        <v>6236200</v>
       </c>
       <c r="E48" s="3">
-        <v>6087400</v>
+        <v>6367600</v>
       </c>
       <c r="F48" s="3">
-        <v>6035300</v>
+        <v>6501200</v>
       </c>
       <c r="G48" s="3">
-        <v>5986600</v>
+        <v>6445600</v>
       </c>
       <c r="H48" s="3">
-        <v>6117300</v>
+        <v>6393600</v>
       </c>
       <c r="I48" s="3">
-        <v>3935300</v>
+        <v>6533200</v>
       </c>
       <c r="J48" s="3">
+        <v>4202800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3788000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3605800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3342300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3328900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3148300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3050700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3075400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3028400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37803500</v>
+        <v>39475700</v>
       </c>
       <c r="E49" s="3">
-        <v>37274100</v>
+        <v>40373600</v>
       </c>
       <c r="F49" s="3">
-        <v>38288600</v>
+        <v>39808100</v>
       </c>
       <c r="G49" s="3">
-        <v>37138900</v>
+        <v>40891700</v>
       </c>
       <c r="H49" s="3">
-        <v>37688300</v>
+        <v>39663800</v>
       </c>
       <c r="I49" s="3">
-        <v>29864200</v>
+        <v>40250500</v>
       </c>
       <c r="J49" s="3">
+        <v>31894500</v>
+      </c>
+      <c r="K49" s="3">
         <v>29648200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29382500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>26013800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>27194800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27366500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>28298800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31375900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31806700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3416900</v>
+        <v>3575900</v>
       </c>
       <c r="E52" s="3">
-        <v>3270700</v>
+        <v>3649200</v>
       </c>
       <c r="F52" s="3">
-        <v>3039300</v>
+        <v>3493100</v>
       </c>
       <c r="G52" s="3">
-        <v>3000500</v>
+        <v>3245900</v>
       </c>
       <c r="H52" s="3">
-        <v>2991600</v>
+        <v>3204500</v>
       </c>
       <c r="I52" s="3">
-        <v>2563000</v>
+        <v>3195000</v>
       </c>
       <c r="J52" s="3">
+        <v>2737200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2265000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2220200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2137800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1935400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1372200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1420400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1416800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1293500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>69720100</v>
+        <v>71812700</v>
       </c>
       <c r="E54" s="3">
-        <v>66694100</v>
+        <v>74460000</v>
       </c>
       <c r="F54" s="3">
-        <v>66234500</v>
+        <v>71228300</v>
       </c>
       <c r="G54" s="3">
-        <v>63916300</v>
+        <v>70737400</v>
       </c>
       <c r="H54" s="3">
-        <v>67116100</v>
+        <v>68261600</v>
       </c>
       <c r="I54" s="3">
-        <v>57043600</v>
+        <v>71679000</v>
       </c>
       <c r="J54" s="3">
+        <v>60921700</v>
+      </c>
+      <c r="K54" s="3">
         <v>50557500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49938100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49929400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47666600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>46484000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>48133400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>56018900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>51972800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1614900</v>
+        <v>1550800</v>
       </c>
       <c r="E57" s="3">
-        <v>1751100</v>
+        <v>1724700</v>
       </c>
       <c r="F57" s="3">
-        <v>1672500</v>
+        <v>1870200</v>
       </c>
       <c r="G57" s="3">
-        <v>1630400</v>
+        <v>1786200</v>
       </c>
       <c r="H57" s="3">
-        <v>1823100</v>
+        <v>1741200</v>
       </c>
       <c r="I57" s="3">
-        <v>1651400</v>
+        <v>1947100</v>
       </c>
       <c r="J57" s="3">
+        <v>1763700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1380100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1290200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1170500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1291400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1221800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1281300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1388600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1503700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5695300</v>
+        <v>3057800</v>
       </c>
       <c r="E58" s="3">
-        <v>2816600</v>
+        <v>6082500</v>
       </c>
       <c r="F58" s="3">
-        <v>3091300</v>
+        <v>3008100</v>
       </c>
       <c r="G58" s="3">
-        <v>2009200</v>
+        <v>3301500</v>
       </c>
       <c r="H58" s="3">
-        <v>1792100</v>
+        <v>2145800</v>
       </c>
       <c r="I58" s="3">
-        <v>2096700</v>
+        <v>1913900</v>
       </c>
       <c r="J58" s="3">
+        <v>2239200</v>
+      </c>
+      <c r="K58" s="3">
         <v>1243800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1281400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1750200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3207800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1446200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>608100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2083500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2128100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12036300</v>
+        <v>13489800</v>
       </c>
       <c r="E59" s="3">
-        <v>11450400</v>
+        <v>12854600</v>
       </c>
       <c r="F59" s="3">
-        <v>10614100</v>
+        <v>12228800</v>
       </c>
       <c r="G59" s="3">
-        <v>12102700</v>
+        <v>11335700</v>
       </c>
       <c r="H59" s="3">
-        <v>12611100</v>
+        <v>12925500</v>
       </c>
       <c r="I59" s="3">
-        <v>9112200</v>
+        <v>13468500</v>
       </c>
       <c r="J59" s="3">
+        <v>9731700</v>
+      </c>
+      <c r="K59" s="3">
         <v>8556200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9986300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9629500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12110800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7998700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9687300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11375400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7723700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19346400</v>
+        <v>18098400</v>
       </c>
       <c r="E60" s="3">
-        <v>16018100</v>
+        <v>20661700</v>
       </c>
       <c r="F60" s="3">
-        <v>15377900</v>
+        <v>17107100</v>
       </c>
       <c r="G60" s="3">
-        <v>15742300</v>
+        <v>16423400</v>
       </c>
       <c r="H60" s="3">
-        <v>16226300</v>
+        <v>16812600</v>
       </c>
       <c r="I60" s="3">
-        <v>11614300</v>
+        <v>17329500</v>
       </c>
       <c r="J60" s="3">
+        <v>12403900</v>
+      </c>
+      <c r="K60" s="3">
         <v>11180100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12557800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12550100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11455500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10666800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11576700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14847500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11355400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13852800</v>
+        <v>17142600</v>
       </c>
       <c r="E61" s="3">
-        <v>12294400</v>
+        <v>14794500</v>
       </c>
       <c r="F61" s="3">
-        <v>15117600</v>
+        <v>13130200</v>
       </c>
       <c r="G61" s="3">
-        <v>15580600</v>
+        <v>16145400</v>
       </c>
       <c r="H61" s="3">
-        <v>16320500</v>
+        <v>16639900</v>
       </c>
       <c r="I61" s="3">
-        <v>11668600</v>
+        <v>17430000</v>
       </c>
       <c r="J61" s="3">
+        <v>12461900</v>
+      </c>
+      <c r="K61" s="3">
         <v>7533900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7146900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7113900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5612200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6519900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6984400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7575800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7569900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2440000</v>
+        <v>2182500</v>
       </c>
       <c r="E62" s="3">
-        <v>4243200</v>
+        <v>2605900</v>
       </c>
       <c r="F62" s="3">
-        <v>2258400</v>
+        <v>4531700</v>
       </c>
       <c r="G62" s="3">
-        <v>1978200</v>
+        <v>2411900</v>
       </c>
       <c r="H62" s="3">
-        <v>2196400</v>
+        <v>2112700</v>
       </c>
       <c r="I62" s="3">
-        <v>1776600</v>
+        <v>2345700</v>
       </c>
       <c r="J62" s="3">
+        <v>1897400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1931700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1842400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2059800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2093600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1954500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2055500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2175100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2062400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35720100</v>
+        <v>37528700</v>
       </c>
       <c r="E66" s="3">
-        <v>32639900</v>
+        <v>38148500</v>
       </c>
       <c r="F66" s="3">
-        <v>32830400</v>
+        <v>34858900</v>
       </c>
       <c r="G66" s="3">
-        <v>33367600</v>
+        <v>35062300</v>
       </c>
       <c r="H66" s="3">
-        <v>34799700</v>
+        <v>35636000</v>
       </c>
       <c r="I66" s="3">
-        <v>25109300</v>
+        <v>37165500</v>
       </c>
       <c r="J66" s="3">
+        <v>26816300</v>
+      </c>
+      <c r="K66" s="3">
         <v>20693300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21595500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21756900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19073800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19142300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20624400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24634800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21012400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35436600</v>
+        <v>33747000</v>
       </c>
       <c r="E72" s="3">
-        <v>31880100</v>
+        <v>37845700</v>
       </c>
       <c r="F72" s="3">
-        <v>33189200</v>
+        <v>34047400</v>
       </c>
       <c r="G72" s="3">
-        <v>28766600</v>
+        <v>35445600</v>
       </c>
       <c r="H72" s="3">
-        <v>32101600</v>
+        <v>30722300</v>
       </c>
       <c r="I72" s="3">
-        <v>31722800</v>
+        <v>34284000</v>
       </c>
       <c r="J72" s="3">
+        <v>33879400</v>
+      </c>
+      <c r="K72" s="3">
         <v>29653800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27163400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27940800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>28360500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>26873900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>24688300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30535500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30105900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34000000</v>
+        <v>34284000</v>
       </c>
       <c r="E76" s="3">
-        <v>34054300</v>
+        <v>36311500</v>
       </c>
       <c r="F76" s="3">
-        <v>33404100</v>
+        <v>36369400</v>
       </c>
       <c r="G76" s="3">
-        <v>30548700</v>
+        <v>35675100</v>
       </c>
       <c r="H76" s="3">
-        <v>32316400</v>
+        <v>32625600</v>
       </c>
       <c r="I76" s="3">
-        <v>31934300</v>
+        <v>34513500</v>
       </c>
       <c r="J76" s="3">
+        <v>34105400</v>
+      </c>
+      <c r="K76" s="3">
         <v>29864200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28342700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28172500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28592800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>27341800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27509000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31384200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30960400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>901600</v>
+        <v>1025600</v>
       </c>
       <c r="E81" s="3">
-        <v>1794300</v>
+        <v>962900</v>
       </c>
       <c r="F81" s="3">
-        <v>1380100</v>
+        <v>1916300</v>
       </c>
       <c r="G81" s="3">
-        <v>630200</v>
+        <v>1473900</v>
       </c>
       <c r="H81" s="3">
-        <v>-126300</v>
+        <v>673100</v>
       </c>
       <c r="I81" s="3">
-        <v>1864100</v>
+        <v>-134900</v>
       </c>
       <c r="J81" s="3">
+        <v>1990800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1075500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>787300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>776300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2060000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1102900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>749500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>611600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1793600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>513900</v>
+        <v>545300</v>
       </c>
       <c r="E83" s="3">
-        <v>554900</v>
+        <v>548900</v>
       </c>
       <c r="F83" s="3">
-        <v>525000</v>
+        <v>592600</v>
       </c>
       <c r="G83" s="3">
-        <v>504000</v>
+        <v>560700</v>
       </c>
       <c r="H83" s="3">
-        <v>489600</v>
+        <v>538200</v>
       </c>
       <c r="I83" s="3">
-        <v>416500</v>
+        <v>522800</v>
       </c>
       <c r="J83" s="3">
+        <v>444800</v>
+      </c>
+      <c r="K83" s="3">
         <v>388800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>364500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>332700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>348900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>357900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>361300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>375600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>394400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3305100</v>
+        <v>932100</v>
       </c>
       <c r="E89" s="3">
-        <v>199400</v>
+        <v>3529800</v>
       </c>
       <c r="F89" s="3">
-        <v>705500</v>
+        <v>212900</v>
       </c>
       <c r="G89" s="3">
-        <v>-136200</v>
+        <v>753500</v>
       </c>
       <c r="H89" s="3">
-        <v>3103500</v>
+        <v>-145500</v>
       </c>
       <c r="I89" s="3">
-        <v>907100</v>
+        <v>3314500</v>
       </c>
       <c r="J89" s="3">
+        <v>968800</v>
+      </c>
+      <c r="K89" s="3">
         <v>552700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>448000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2829500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1032200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>686700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>719200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3371200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1173800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-368800</v>
+        <v>-194000</v>
       </c>
       <c r="E91" s="3">
-        <v>-126300</v>
+        <v>-393900</v>
       </c>
       <c r="F91" s="3">
-        <v>-181600</v>
+        <v>-134900</v>
       </c>
       <c r="G91" s="3">
-        <v>-199400</v>
+        <v>-194000</v>
       </c>
       <c r="H91" s="3">
-        <v>-397600</v>
+        <v>-212900</v>
       </c>
       <c r="I91" s="3">
-        <v>-345600</v>
+        <v>-424700</v>
       </c>
       <c r="J91" s="3">
+        <v>-369100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-363300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-429300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-468800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-348900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-397200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-357900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-341600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-393200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-413100</v>
+        <v>-1507000</v>
       </c>
       <c r="E94" s="3">
-        <v>-39900</v>
+        <v>-441200</v>
       </c>
       <c r="F94" s="3">
-        <v>-315700</v>
+        <v>-42600</v>
       </c>
       <c r="G94" s="3">
-        <v>-219300</v>
+        <v>-337100</v>
       </c>
       <c r="H94" s="3">
-        <v>-7201600</v>
+        <v>-234200</v>
       </c>
       <c r="I94" s="3">
-        <v>-506200</v>
+        <v>-7691200</v>
       </c>
       <c r="J94" s="3">
+        <v>-540600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-422000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-405200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-534100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-304100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>313000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-755900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-247000</v>
+        <v>-1251500</v>
       </c>
       <c r="E100" s="3">
-        <v>-322300</v>
+        <v>-263800</v>
       </c>
       <c r="F100" s="3">
-        <v>-137300</v>
+        <v>-344200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2122200</v>
+        <v>-146700</v>
       </c>
       <c r="H100" s="3">
-        <v>2694800</v>
+        <v>-2266400</v>
       </c>
       <c r="I100" s="3">
-        <v>4156800</v>
+        <v>2878000</v>
       </c>
       <c r="J100" s="3">
+        <v>4439400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-162800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1627200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-673200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-336600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-422600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>125200</v>
+        <v>-79300</v>
       </c>
       <c r="E101" s="3">
-        <v>-70900</v>
+        <v>133700</v>
       </c>
       <c r="F101" s="3">
-        <v>142900</v>
+        <v>-75700</v>
       </c>
       <c r="G101" s="3">
-        <v>80900</v>
+        <v>152600</v>
       </c>
       <c r="H101" s="3">
-        <v>-31000</v>
+        <v>86400</v>
       </c>
       <c r="I101" s="3">
-        <v>6600</v>
+        <v>-33100</v>
       </c>
       <c r="J101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K101" s="3">
         <v>23300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>190000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-113100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-59500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-64000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-126800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-29300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2770100</v>
+        <v>-1905700</v>
       </c>
       <c r="E102" s="3">
-        <v>-233700</v>
+        <v>2958400</v>
       </c>
       <c r="F102" s="3">
-        <v>395400</v>
+        <v>-249600</v>
       </c>
       <c r="G102" s="3">
-        <v>-2396800</v>
+        <v>422300</v>
       </c>
       <c r="H102" s="3">
-        <v>-1434300</v>
+        <v>-2559800</v>
       </c>
       <c r="I102" s="3">
-        <v>4564400</v>
+        <v>-1531900</v>
       </c>
       <c r="J102" s="3">
+        <v>4874700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3938500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-234500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-18000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2622300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-482400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7976300</v>
+        <v>7817200</v>
       </c>
       <c r="E8" s="3">
-        <v>7713700</v>
+        <v>8066000</v>
       </c>
       <c r="F8" s="3">
-        <v>9510500</v>
+        <v>7800400</v>
       </c>
       <c r="G8" s="3">
-        <v>8033100</v>
+        <v>9617400</v>
       </c>
       <c r="H8" s="3">
-        <v>7842600</v>
+        <v>8123400</v>
       </c>
       <c r="I8" s="3">
-        <v>7206200</v>
+        <v>7930800</v>
       </c>
       <c r="J8" s="3">
+        <v>7287300</v>
+      </c>
+      <c r="K8" s="3">
         <v>8786600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6667800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6586900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5776600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7635100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6271900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6486200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6203600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7891500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2323200</v>
+        <v>2187800</v>
       </c>
       <c r="E9" s="3">
-        <v>2367000</v>
+        <v>2349300</v>
       </c>
       <c r="F9" s="3">
-        <v>2490000</v>
+        <v>2393600</v>
       </c>
       <c r="G9" s="3">
-        <v>2290100</v>
+        <v>2518000</v>
       </c>
       <c r="H9" s="3">
-        <v>2400100</v>
+        <v>2315800</v>
       </c>
       <c r="I9" s="3">
-        <v>2329100</v>
+        <v>2427100</v>
       </c>
       <c r="J9" s="3">
+        <v>2355300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2296000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2034700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1992900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1752400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1963500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1794100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1920800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1966100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2021300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5653100</v>
+        <v>5629300</v>
       </c>
       <c r="E10" s="3">
-        <v>5346700</v>
+        <v>5716600</v>
       </c>
       <c r="F10" s="3">
-        <v>7020500</v>
+        <v>5406800</v>
       </c>
       <c r="G10" s="3">
-        <v>5743000</v>
+        <v>7099400</v>
       </c>
       <c r="H10" s="3">
-        <v>5442500</v>
+        <v>5807600</v>
       </c>
       <c r="I10" s="3">
-        <v>4877100</v>
+        <v>5503700</v>
       </c>
       <c r="J10" s="3">
+        <v>4931900</v>
+      </c>
+      <c r="K10" s="3">
         <v>6490600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4633100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4594000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4024200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5671700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4477900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4565400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4237500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5870200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1368600</v>
+        <v>1329000</v>
       </c>
       <c r="E12" s="3">
-        <v>1240900</v>
+        <v>1384000</v>
       </c>
       <c r="F12" s="3">
-        <v>1420700</v>
+        <v>1254800</v>
       </c>
       <c r="G12" s="3">
-        <v>1151000</v>
+        <v>1436600</v>
       </c>
       <c r="H12" s="3">
-        <v>1244400</v>
+        <v>1163900</v>
       </c>
       <c r="I12" s="3">
-        <v>1250300</v>
+        <v>1258400</v>
       </c>
       <c r="J12" s="3">
+        <v>1264400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1111900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1014600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1038700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>891600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>980600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>872900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>942500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>996600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1006000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,61 +1045,67 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>189300</v>
+        <v>172300</v>
       </c>
       <c r="E14" s="3">
-        <v>209400</v>
+        <v>191400</v>
       </c>
       <c r="F14" s="3">
-        <v>241300</v>
+        <v>211700</v>
       </c>
       <c r="G14" s="3">
-        <v>222400</v>
+        <v>244000</v>
       </c>
       <c r="H14" s="3">
-        <v>425800</v>
+        <v>224900</v>
       </c>
       <c r="I14" s="3">
-        <v>1197100</v>
+        <v>430600</v>
       </c>
       <c r="J14" s="3">
+        <v>1210600</v>
+      </c>
+      <c r="K14" s="3">
         <v>173900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>162800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>175700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>151500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>164900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>80800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>435300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>189000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>213600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6457500</v>
+        <v>6055200</v>
       </c>
       <c r="E17" s="3">
-        <v>6282400</v>
+        <v>6530100</v>
       </c>
       <c r="F17" s="3">
-        <v>7022900</v>
+        <v>6353000</v>
       </c>
       <c r="G17" s="3">
-        <v>6047000</v>
+        <v>7101800</v>
       </c>
       <c r="H17" s="3">
-        <v>6864400</v>
+        <v>6115000</v>
       </c>
       <c r="I17" s="3">
-        <v>7367100</v>
+        <v>6941500</v>
       </c>
       <c r="J17" s="3">
+        <v>7449900</v>
+      </c>
+      <c r="K17" s="3">
         <v>5948800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5298800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5440600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4651100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5431600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4797600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5447300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5413600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5601400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1518800</v>
+        <v>1762000</v>
       </c>
       <c r="E18" s="3">
-        <v>1431300</v>
+        <v>1535900</v>
       </c>
       <c r="F18" s="3">
-        <v>2487600</v>
+        <v>1447400</v>
       </c>
       <c r="G18" s="3">
-        <v>1986100</v>
+        <v>2515600</v>
       </c>
       <c r="H18" s="3">
-        <v>978300</v>
+        <v>2008400</v>
       </c>
       <c r="I18" s="3">
-        <v>-160900</v>
+        <v>989300</v>
       </c>
       <c r="J18" s="3">
+        <v>-162700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2837800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1369000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1146300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1125500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2203600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1474300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1039000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>790000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2290100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,149 +1312,156 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>45000</v>
+        <v>765600</v>
       </c>
       <c r="E20" s="3">
-        <v>-104100</v>
+        <v>45500</v>
       </c>
       <c r="F20" s="3">
-        <v>196400</v>
+        <v>-105300</v>
       </c>
       <c r="G20" s="3">
-        <v>86400</v>
+        <v>198600</v>
       </c>
       <c r="H20" s="3">
+        <v>87300</v>
+      </c>
+      <c r="I20" s="3">
         <v>1200</v>
       </c>
-      <c r="I20" s="3">
-        <v>10600</v>
-      </c>
       <c r="J20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-113600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>74200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-27500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-41700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>111100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>85300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>14100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2109100</v>
+        <v>3058700</v>
       </c>
       <c r="E21" s="3">
-        <v>1876100</v>
+        <v>2132800</v>
       </c>
       <c r="F21" s="3">
-        <v>3276600</v>
+        <v>1897200</v>
       </c>
       <c r="G21" s="3">
-        <v>2633100</v>
+        <v>3313500</v>
       </c>
       <c r="H21" s="3">
-        <v>1517700</v>
+        <v>2662700</v>
       </c>
       <c r="I21" s="3">
-        <v>372600</v>
+        <v>1534700</v>
       </c>
       <c r="J21" s="3">
+        <v>376800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3169000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1832000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1483400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1416400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2663600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1917500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1380000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1159700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2698600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>24</v>
+      <c r="D22" s="3">
+        <v>51400</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="3">
-        <v>59100</v>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="3">
-        <v>59100</v>
+        <v>59800</v>
       </c>
       <c r="H22" s="3">
-        <v>15400</v>
+        <v>59800</v>
       </c>
       <c r="I22" s="3">
-        <v>15400</v>
-      </c>
-      <c r="J22" s="3" t="s">
+        <v>15600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15600</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>25500</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1563800</v>
+        <v>2476100</v>
       </c>
       <c r="E23" s="3">
-        <v>1327200</v>
+        <v>1581400</v>
       </c>
       <c r="F23" s="3">
-        <v>2624900</v>
+        <v>1342100</v>
       </c>
       <c r="G23" s="3">
-        <v>2013300</v>
+        <v>2654400</v>
       </c>
       <c r="H23" s="3">
-        <v>964100</v>
+        <v>2035900</v>
       </c>
       <c r="I23" s="3">
-        <v>-165600</v>
+        <v>974900</v>
       </c>
       <c r="J23" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2724200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1417700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1118900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1083700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2314700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1559600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>784100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2304200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>516900</v>
+        <v>500000</v>
       </c>
       <c r="E24" s="3">
-        <v>366700</v>
+        <v>522700</v>
       </c>
       <c r="F24" s="3">
-        <v>688400</v>
+        <v>370800</v>
       </c>
       <c r="G24" s="3">
-        <v>524000</v>
+        <v>696200</v>
       </c>
       <c r="H24" s="3">
-        <v>276800</v>
+        <v>529900</v>
       </c>
       <c r="I24" s="3">
-        <v>-39000</v>
+        <v>279900</v>
       </c>
       <c r="J24" s="3">
+        <v>-39500</v>
+      </c>
+      <c r="K24" s="3">
         <v>728700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>342200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>329400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>307400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>231100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>446600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>270400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>162000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>513000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1046900</v>
+        <v>1976100</v>
       </c>
       <c r="E26" s="3">
-        <v>960500</v>
+        <v>1058600</v>
       </c>
       <c r="F26" s="3">
-        <v>1936400</v>
+        <v>971300</v>
       </c>
       <c r="G26" s="3">
-        <v>1489300</v>
+        <v>1958200</v>
       </c>
       <c r="H26" s="3">
-        <v>687300</v>
+        <v>1506000</v>
       </c>
       <c r="I26" s="3">
-        <v>-126600</v>
+        <v>695000</v>
       </c>
       <c r="J26" s="3">
+        <v>-128000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1995600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1075500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>789500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>776300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2083500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1113000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>748400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>622100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1791200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1025600</v>
+        <v>1861300</v>
       </c>
       <c r="E27" s="3">
-        <v>962900</v>
+        <v>1037100</v>
       </c>
       <c r="F27" s="3">
-        <v>1916300</v>
+        <v>973700</v>
       </c>
       <c r="G27" s="3">
-        <v>1473900</v>
+        <v>1937800</v>
       </c>
       <c r="H27" s="3">
-        <v>673100</v>
+        <v>1490500</v>
       </c>
       <c r="I27" s="3">
-        <v>-134900</v>
+        <v>680600</v>
       </c>
       <c r="J27" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1990800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1075500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>787300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>776300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2060000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1102900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>749500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>611600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1793600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1800,8 +1861,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45000</v>
+        <v>-765600</v>
       </c>
       <c r="E32" s="3">
-        <v>104100</v>
+        <v>-45500</v>
       </c>
       <c r="F32" s="3">
-        <v>-196400</v>
+        <v>105300</v>
       </c>
       <c r="G32" s="3">
-        <v>-86400</v>
+        <v>-198600</v>
       </c>
       <c r="H32" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-10600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K32" s="3">
         <v>113600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-74200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>27500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>41700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-111100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-85300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-14100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1025600</v>
+        <v>1861300</v>
       </c>
       <c r="E33" s="3">
-        <v>962900</v>
+        <v>1037100</v>
       </c>
       <c r="F33" s="3">
-        <v>1916300</v>
+        <v>973700</v>
       </c>
       <c r="G33" s="3">
-        <v>1473900</v>
+        <v>1937800</v>
       </c>
       <c r="H33" s="3">
-        <v>673100</v>
+        <v>1490500</v>
       </c>
       <c r="I33" s="3">
-        <v>-134900</v>
+        <v>680600</v>
       </c>
       <c r="J33" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1990800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1075500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>787300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>776300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2060000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1102900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>749500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>611600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1793600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1025600</v>
+        <v>1861300</v>
       </c>
       <c r="E35" s="3">
-        <v>962900</v>
+        <v>1037100</v>
       </c>
       <c r="F35" s="3">
-        <v>1916300</v>
+        <v>973700</v>
       </c>
       <c r="G35" s="3">
-        <v>1473900</v>
+        <v>1937800</v>
       </c>
       <c r="H35" s="3">
-        <v>673100</v>
+        <v>1490500</v>
       </c>
       <c r="I35" s="3">
-        <v>-134900</v>
+        <v>680600</v>
       </c>
       <c r="J35" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1990800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1075500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>787300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>776300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2060000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1102900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>749500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>611600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1793600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,167 +2313,177 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7339900</v>
+        <v>8892600</v>
       </c>
       <c r="E41" s="3">
-        <v>9245500</v>
+        <v>7422400</v>
       </c>
       <c r="F41" s="3">
-        <v>6285900</v>
+        <v>9349500</v>
       </c>
       <c r="G41" s="3">
-        <v>6535500</v>
+        <v>6356600</v>
       </c>
       <c r="H41" s="3">
-        <v>6113200</v>
+        <v>6609000</v>
       </c>
       <c r="I41" s="3">
-        <v>8673000</v>
+        <v>6182000</v>
       </c>
       <c r="J41" s="3">
+        <v>8770500</v>
+      </c>
+      <c r="K41" s="3">
         <v>10204900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4992000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4957500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8342600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4500300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4734800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4752700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6968900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4345400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1678500</v>
+        <v>634000</v>
       </c>
       <c r="E42" s="3">
-        <v>423500</v>
+        <v>1697400</v>
       </c>
       <c r="F42" s="3">
-        <v>351300</v>
+        <v>428200</v>
       </c>
       <c r="G42" s="3">
-        <v>388000</v>
+        <v>355300</v>
       </c>
       <c r="H42" s="3">
-        <v>475500</v>
+        <v>392400</v>
       </c>
       <c r="I42" s="3">
-        <v>699100</v>
+        <v>480900</v>
       </c>
       <c r="J42" s="3">
+        <v>707000</v>
+      </c>
+      <c r="K42" s="3">
         <v>529900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>536100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>434800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>942100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1154500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1136600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>973900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1813500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1319400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8351300</v>
+        <v>820600</v>
       </c>
       <c r="E43" s="3">
-        <v>742900</v>
+        <v>8445200</v>
       </c>
       <c r="F43" s="3">
-        <v>9952900</v>
+        <v>751200</v>
       </c>
       <c r="G43" s="3">
-        <v>1276300</v>
+        <v>10064800</v>
       </c>
       <c r="H43" s="3">
-        <v>8008200</v>
+        <v>1290700</v>
       </c>
       <c r="I43" s="3">
-        <v>401000</v>
+        <v>8098300</v>
       </c>
       <c r="J43" s="3">
+        <v>405500</v>
+      </c>
+      <c r="K43" s="3">
         <v>346600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5953400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6073000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>374400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>20987900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5868000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6488500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>345100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>273500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,273 +2535,291 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1607600</v>
+        <v>1641200</v>
       </c>
       <c r="E45" s="3">
-        <v>1479800</v>
+        <v>1625600</v>
       </c>
       <c r="F45" s="3">
-        <v>1405300</v>
+        <v>1496400</v>
       </c>
       <c r="G45" s="3">
-        <v>1546100</v>
+        <v>1421100</v>
       </c>
       <c r="H45" s="3">
-        <v>1432500</v>
+        <v>1563400</v>
       </c>
       <c r="I45" s="3">
-        <v>1236100</v>
+        <v>1448600</v>
       </c>
       <c r="J45" s="3">
+        <v>1250000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1052800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1135300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1104600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>932200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>989600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>848200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>842600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>909700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>682000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18977300</v>
+        <v>18681100</v>
       </c>
       <c r="E46" s="3">
-        <v>20503200</v>
+        <v>19190600</v>
       </c>
       <c r="F46" s="3">
-        <v>17995500</v>
+        <v>20733700</v>
       </c>
       <c r="G46" s="3">
-        <v>16661100</v>
+        <v>18197800</v>
       </c>
       <c r="H46" s="3">
-        <v>16029500</v>
+        <v>16848500</v>
       </c>
       <c r="I46" s="3">
-        <v>18999700</v>
+        <v>16209700</v>
       </c>
       <c r="J46" s="3">
+        <v>19213400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19659800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>12616700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12569900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16556700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13385300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12587600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13057700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17779700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13573900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3547500</v>
+        <v>4266800</v>
       </c>
       <c r="E47" s="3">
-        <v>3566400</v>
+        <v>3587400</v>
       </c>
       <c r="F47" s="3">
-        <v>3430400</v>
+        <v>3606500</v>
       </c>
       <c r="G47" s="3">
-        <v>3493100</v>
+        <v>3469000</v>
       </c>
       <c r="H47" s="3">
-        <v>2970300</v>
+        <v>3532400</v>
       </c>
       <c r="I47" s="3">
-        <v>2700600</v>
+        <v>3003700</v>
       </c>
       <c r="J47" s="3">
+        <v>2730900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2565700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2239600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2159800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1878700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1955600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2009500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2305700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2371100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2270100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6236200</v>
+        <v>6117400</v>
       </c>
       <c r="E48" s="3">
-        <v>6367600</v>
+        <v>6306400</v>
       </c>
       <c r="F48" s="3">
-        <v>6501200</v>
+        <v>6439100</v>
       </c>
       <c r="G48" s="3">
-        <v>6445600</v>
+        <v>6574300</v>
       </c>
       <c r="H48" s="3">
-        <v>6393600</v>
+        <v>6518100</v>
       </c>
       <c r="I48" s="3">
-        <v>6533200</v>
+        <v>6465500</v>
       </c>
       <c r="J48" s="3">
+        <v>6606600</v>
+      </c>
+      <c r="K48" s="3">
         <v>4202800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3788000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3605800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3342300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3328900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3148300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3050700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3075400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3028400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39475700</v>
+        <v>38310700</v>
       </c>
       <c r="E49" s="3">
-        <v>40373600</v>
+        <v>39919600</v>
       </c>
       <c r="F49" s="3">
-        <v>39808100</v>
+        <v>40827500</v>
       </c>
       <c r="G49" s="3">
-        <v>40891700</v>
+        <v>40255700</v>
       </c>
       <c r="H49" s="3">
-        <v>39663800</v>
+        <v>41351400</v>
       </c>
       <c r="I49" s="3">
-        <v>40250500</v>
+        <v>40109800</v>
       </c>
       <c r="J49" s="3">
+        <v>40703100</v>
+      </c>
+      <c r="K49" s="3">
         <v>31894500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29648200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29382500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>26013800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>27194800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27366500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>28298800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31375900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31806700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3575900</v>
+        <v>3532400</v>
       </c>
       <c r="E52" s="3">
-        <v>3649200</v>
+        <v>3616100</v>
       </c>
       <c r="F52" s="3">
-        <v>3493100</v>
+        <v>3690300</v>
       </c>
       <c r="G52" s="3">
-        <v>3245900</v>
+        <v>3532400</v>
       </c>
       <c r="H52" s="3">
-        <v>3204500</v>
+        <v>3282400</v>
       </c>
       <c r="I52" s="3">
-        <v>3195000</v>
+        <v>3240500</v>
       </c>
       <c r="J52" s="3">
+        <v>3230900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2737200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2265000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2220200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2137800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1935400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1372200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1420400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1416800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1293500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>71812700</v>
+        <v>70908300</v>
       </c>
       <c r="E54" s="3">
-        <v>74460000</v>
+        <v>72620100</v>
       </c>
       <c r="F54" s="3">
-        <v>71228300</v>
+        <v>75297200</v>
       </c>
       <c r="G54" s="3">
-        <v>70737400</v>
+        <v>72029200</v>
       </c>
       <c r="H54" s="3">
-        <v>68261600</v>
+        <v>71532800</v>
       </c>
       <c r="I54" s="3">
-        <v>71679000</v>
+        <v>69029100</v>
       </c>
       <c r="J54" s="3">
+        <v>72484900</v>
+      </c>
+      <c r="K54" s="3">
         <v>60921700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>50557500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>49938100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49929400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47666600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46484000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>48133400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>56018900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>51972800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1550800</v>
+        <v>1529900</v>
       </c>
       <c r="E57" s="3">
-        <v>1724700</v>
+        <v>1568200</v>
       </c>
       <c r="F57" s="3">
-        <v>1870200</v>
+        <v>1744100</v>
       </c>
       <c r="G57" s="3">
-        <v>1786200</v>
+        <v>1891200</v>
       </c>
       <c r="H57" s="3">
-        <v>1741200</v>
+        <v>1806300</v>
       </c>
       <c r="I57" s="3">
-        <v>1947100</v>
+        <v>1760800</v>
       </c>
       <c r="J57" s="3">
+        <v>1968900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1763700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1380100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1290200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1170500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1291400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1221800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1281300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1388600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1503700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3057800</v>
+        <v>4625700</v>
       </c>
       <c r="E58" s="3">
-        <v>6082500</v>
+        <v>3092200</v>
       </c>
       <c r="F58" s="3">
-        <v>3008100</v>
+        <v>6150900</v>
       </c>
       <c r="G58" s="3">
-        <v>3301500</v>
+        <v>3492900</v>
       </c>
       <c r="H58" s="3">
-        <v>2145800</v>
+        <v>3338600</v>
       </c>
       <c r="I58" s="3">
-        <v>1913900</v>
+        <v>2169900</v>
       </c>
       <c r="J58" s="3">
+        <v>1935500</v>
+      </c>
+      <c r="K58" s="3">
         <v>2239200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1243800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1281400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1750200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3207800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1446200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>608100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2083500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2128100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13489800</v>
+        <v>10363900</v>
       </c>
       <c r="E59" s="3">
-        <v>12854600</v>
+        <v>13641500</v>
       </c>
       <c r="F59" s="3">
-        <v>12228800</v>
+        <v>12999100</v>
       </c>
       <c r="G59" s="3">
-        <v>11335700</v>
+        <v>11915300</v>
       </c>
       <c r="H59" s="3">
-        <v>12925500</v>
+        <v>11463200</v>
       </c>
       <c r="I59" s="3">
-        <v>13468500</v>
+        <v>13070900</v>
       </c>
       <c r="J59" s="3">
+        <v>13619900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9731700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8556200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9986300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9629500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12110800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7998700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9687300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11375400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7723700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18098400</v>
+        <v>16519500</v>
       </c>
       <c r="E60" s="3">
-        <v>20661700</v>
+        <v>18301900</v>
       </c>
       <c r="F60" s="3">
-        <v>17107100</v>
+        <v>20894000</v>
       </c>
       <c r="G60" s="3">
-        <v>16423400</v>
+        <v>17299400</v>
       </c>
       <c r="H60" s="3">
-        <v>16812600</v>
+        <v>16608000</v>
       </c>
       <c r="I60" s="3">
-        <v>17329500</v>
+        <v>17001600</v>
       </c>
       <c r="J60" s="3">
+        <v>17524300</v>
+      </c>
+      <c r="K60" s="3">
         <v>12403900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11180100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12557800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12550100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11455500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10666800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11576700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14847500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11355400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17142600</v>
+        <v>16919100</v>
       </c>
       <c r="E61" s="3">
-        <v>14794500</v>
+        <v>17335300</v>
       </c>
       <c r="F61" s="3">
-        <v>13130200</v>
+        <v>14960900</v>
       </c>
       <c r="G61" s="3">
-        <v>16145400</v>
+        <v>15431000</v>
       </c>
       <c r="H61" s="3">
-        <v>16639900</v>
+        <v>16326900</v>
       </c>
       <c r="I61" s="3">
-        <v>17430000</v>
+        <v>16826900</v>
       </c>
       <c r="J61" s="3">
+        <v>17626000</v>
+      </c>
+      <c r="K61" s="3">
         <v>12461900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>7533900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7146900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7113900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5612200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6519900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6984400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7575800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7569900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2182500</v>
+        <v>2337400</v>
       </c>
       <c r="E62" s="3">
-        <v>2605900</v>
+        <v>2207000</v>
       </c>
       <c r="F62" s="3">
-        <v>4531700</v>
+        <v>2635200</v>
       </c>
       <c r="G62" s="3">
-        <v>2411900</v>
+        <v>2429500</v>
       </c>
       <c r="H62" s="3">
-        <v>2112700</v>
+        <v>2439100</v>
       </c>
       <c r="I62" s="3">
-        <v>2345700</v>
+        <v>2136400</v>
       </c>
       <c r="J62" s="3">
+        <v>2372100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1897400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1931700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1842400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2059800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2093600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1954500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2055500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2175100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2062400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37528700</v>
+        <v>35991300</v>
       </c>
       <c r="E66" s="3">
-        <v>38148500</v>
+        <v>37950600</v>
       </c>
       <c r="F66" s="3">
-        <v>34858900</v>
+        <v>38577500</v>
       </c>
       <c r="G66" s="3">
-        <v>35062300</v>
+        <v>35250800</v>
       </c>
       <c r="H66" s="3">
-        <v>35636000</v>
+        <v>35456600</v>
       </c>
       <c r="I66" s="3">
-        <v>37165500</v>
+        <v>36036700</v>
       </c>
       <c r="J66" s="3">
+        <v>37583400</v>
+      </c>
+      <c r="K66" s="3">
         <v>26816300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20693300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21595500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21756900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>19073800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19142300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20624400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24634800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21012400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>33747000</v>
+        <v>36467400</v>
       </c>
       <c r="E72" s="3">
-        <v>37845700</v>
+        <v>34126400</v>
       </c>
       <c r="F72" s="3">
-        <v>34047400</v>
+        <v>38271200</v>
       </c>
       <c r="G72" s="3">
-        <v>35445600</v>
+        <v>34430200</v>
       </c>
       <c r="H72" s="3">
-        <v>30722300</v>
+        <v>35844100</v>
       </c>
       <c r="I72" s="3">
-        <v>34284000</v>
+        <v>31067700</v>
       </c>
       <c r="J72" s="3">
+        <v>34669500</v>
+      </c>
+      <c r="K72" s="3">
         <v>33879400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29653800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27163400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27940800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>28360500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>26873900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>24688300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30535500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30105900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34284000</v>
+        <v>34917100</v>
       </c>
       <c r="E76" s="3">
-        <v>36311500</v>
+        <v>34669500</v>
       </c>
       <c r="F76" s="3">
-        <v>36369400</v>
+        <v>36719800</v>
       </c>
       <c r="G76" s="3">
-        <v>35675100</v>
+        <v>36778400</v>
       </c>
       <c r="H76" s="3">
-        <v>32625600</v>
+        <v>36076200</v>
       </c>
       <c r="I76" s="3">
-        <v>34513500</v>
+        <v>32992400</v>
       </c>
       <c r="J76" s="3">
+        <v>34901500</v>
+      </c>
+      <c r="K76" s="3">
         <v>34105400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29864200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28342700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28172500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28592800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>27341800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27509000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>31384200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30960400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1025600</v>
+        <v>1861300</v>
       </c>
       <c r="E81" s="3">
-        <v>962900</v>
+        <v>1037100</v>
       </c>
       <c r="F81" s="3">
-        <v>1916300</v>
+        <v>973700</v>
       </c>
       <c r="G81" s="3">
-        <v>1473900</v>
+        <v>1937800</v>
       </c>
       <c r="H81" s="3">
-        <v>673100</v>
+        <v>1490500</v>
       </c>
       <c r="I81" s="3">
-        <v>-134900</v>
+        <v>680600</v>
       </c>
       <c r="J81" s="3">
+        <v>-136400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1990800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1075500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>787300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>776300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2060000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1102900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>749500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>611600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1793600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>545300</v>
+        <v>531100</v>
       </c>
       <c r="E83" s="3">
-        <v>548900</v>
+        <v>551400</v>
       </c>
       <c r="F83" s="3">
-        <v>592600</v>
+        <v>555000</v>
       </c>
       <c r="G83" s="3">
-        <v>560700</v>
+        <v>599300</v>
       </c>
       <c r="H83" s="3">
-        <v>538200</v>
+        <v>567000</v>
       </c>
       <c r="I83" s="3">
-        <v>522800</v>
+        <v>544300</v>
       </c>
       <c r="J83" s="3">
+        <v>528700</v>
+      </c>
+      <c r="K83" s="3">
         <v>444800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>388800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>364500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>332700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>348900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>357900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>361300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>375600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>394400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>932100</v>
+        <v>1580200</v>
       </c>
       <c r="E89" s="3">
-        <v>3529800</v>
+        <v>942600</v>
       </c>
       <c r="F89" s="3">
-        <v>212900</v>
+        <v>3569500</v>
       </c>
       <c r="G89" s="3">
-        <v>753500</v>
+        <v>215300</v>
       </c>
       <c r="H89" s="3">
-        <v>-145500</v>
+        <v>762000</v>
       </c>
       <c r="I89" s="3">
-        <v>3314500</v>
+        <v>-147100</v>
       </c>
       <c r="J89" s="3">
+        <v>3351800</v>
+      </c>
+      <c r="K89" s="3">
         <v>968800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>552700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>448000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2829500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1032200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>686700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>719200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3371200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1173800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-194000</v>
+        <v>-185400</v>
       </c>
       <c r="E91" s="3">
-        <v>-393900</v>
+        <v>-196200</v>
       </c>
       <c r="F91" s="3">
-        <v>-134900</v>
+        <v>-398300</v>
       </c>
       <c r="G91" s="3">
-        <v>-194000</v>
+        <v>-136400</v>
       </c>
       <c r="H91" s="3">
-        <v>-212900</v>
+        <v>-196200</v>
       </c>
       <c r="I91" s="3">
-        <v>-424700</v>
+        <v>-215300</v>
       </c>
       <c r="J91" s="3">
+        <v>-429400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-369100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-363300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-429300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-468800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-348900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-397200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-357900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-341600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-393200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1507000</v>
+        <v>751200</v>
       </c>
       <c r="E94" s="3">
-        <v>-441200</v>
+        <v>-1524000</v>
       </c>
       <c r="F94" s="3">
-        <v>-42600</v>
+        <v>-446200</v>
       </c>
       <c r="G94" s="3">
-        <v>-337100</v>
+        <v>-43100</v>
       </c>
       <c r="H94" s="3">
-        <v>-234200</v>
+        <v>-340900</v>
       </c>
       <c r="I94" s="3">
-        <v>-7691200</v>
+        <v>-236800</v>
       </c>
       <c r="J94" s="3">
+        <v>-7777700</v>
+      </c>
+      <c r="K94" s="3">
         <v>-540600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-422000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-405200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-534100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-304100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>313000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-755900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1251500</v>
+        <v>-745200</v>
       </c>
       <c r="E100" s="3">
-        <v>-263800</v>
+        <v>-1265600</v>
       </c>
       <c r="F100" s="3">
-        <v>-344200</v>
+        <v>-266800</v>
       </c>
       <c r="G100" s="3">
-        <v>-146700</v>
+        <v>-348100</v>
       </c>
       <c r="H100" s="3">
-        <v>-2266400</v>
+        <v>-148300</v>
       </c>
       <c r="I100" s="3">
-        <v>2878000</v>
+        <v>-2291900</v>
       </c>
       <c r="J100" s="3">
+        <v>2910400</v>
+      </c>
+      <c r="K100" s="3">
         <v>4439400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-162800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1627200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-673200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-336600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-422600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-79300</v>
+        <v>-116000</v>
       </c>
       <c r="E101" s="3">
-        <v>133700</v>
+        <v>-80100</v>
       </c>
       <c r="F101" s="3">
-        <v>-75700</v>
+        <v>135200</v>
       </c>
       <c r="G101" s="3">
-        <v>152600</v>
+        <v>-76600</v>
       </c>
       <c r="H101" s="3">
-        <v>86400</v>
+        <v>154300</v>
       </c>
       <c r="I101" s="3">
-        <v>-33100</v>
+        <v>87300</v>
       </c>
       <c r="J101" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="K101" s="3">
         <v>7100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>23300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>190000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-113100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-59500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-64000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-126800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-29300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1905700</v>
+        <v>1470100</v>
       </c>
       <c r="E102" s="3">
-        <v>2958400</v>
+        <v>-1927100</v>
       </c>
       <c r="F102" s="3">
-        <v>-249600</v>
+        <v>2991700</v>
       </c>
       <c r="G102" s="3">
-        <v>422300</v>
+        <v>-252400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2559800</v>
+        <v>427000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1531900</v>
+        <v>-2588600</v>
       </c>
       <c r="J102" s="3">
+        <v>-1549100</v>
+      </c>
+      <c r="K102" s="3">
         <v>4874700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3938500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-234500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-18000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2622300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-482400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7817200</v>
+        <v>8867700</v>
       </c>
       <c r="E8" s="3">
-        <v>8066000</v>
+        <v>7687800</v>
       </c>
       <c r="F8" s="3">
-        <v>7800400</v>
+        <v>7932500</v>
       </c>
       <c r="G8" s="3">
-        <v>9617400</v>
+        <v>7671300</v>
       </c>
       <c r="H8" s="3">
-        <v>8123400</v>
+        <v>9458300</v>
       </c>
       <c r="I8" s="3">
-        <v>7930800</v>
+        <v>7988900</v>
       </c>
       <c r="J8" s="3">
+        <v>7799500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7287300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8786600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6667800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6586900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5776600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7635100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6271900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6486200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6203600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7891500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2187800</v>
+        <v>2163400</v>
       </c>
       <c r="E9" s="3">
-        <v>2349300</v>
+        <v>2151600</v>
       </c>
       <c r="F9" s="3">
-        <v>2393600</v>
+        <v>2310400</v>
       </c>
       <c r="G9" s="3">
-        <v>2518000</v>
+        <v>2354000</v>
       </c>
       <c r="H9" s="3">
-        <v>2315800</v>
+        <v>2476300</v>
       </c>
       <c r="I9" s="3">
-        <v>2427100</v>
+        <v>2277500</v>
       </c>
       <c r="J9" s="3">
+        <v>2386900</v>
+      </c>
+      <c r="K9" s="3">
         <v>2355300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2296000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2034700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1992900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1752400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1963500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1794100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1920800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1966100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2021300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5629300</v>
+        <v>6704300</v>
       </c>
       <c r="E10" s="3">
-        <v>5716600</v>
+        <v>5536100</v>
       </c>
       <c r="F10" s="3">
-        <v>5406800</v>
+        <v>5622000</v>
       </c>
       <c r="G10" s="3">
-        <v>7099400</v>
+        <v>5317300</v>
       </c>
       <c r="H10" s="3">
-        <v>5807600</v>
+        <v>6981900</v>
       </c>
       <c r="I10" s="3">
-        <v>5503700</v>
+        <v>5711400</v>
       </c>
       <c r="J10" s="3">
+        <v>5412600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4931900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6490600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4633100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4594000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4024200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5671700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4477900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4565400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4237500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5870200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1329000</v>
+        <v>1329300</v>
       </c>
       <c r="E12" s="3">
-        <v>1384000</v>
+        <v>1307000</v>
       </c>
       <c r="F12" s="3">
-        <v>1254800</v>
+        <v>1361100</v>
       </c>
       <c r="G12" s="3">
-        <v>1436600</v>
+        <v>1234000</v>
       </c>
       <c r="H12" s="3">
-        <v>1163900</v>
+        <v>1412900</v>
       </c>
       <c r="I12" s="3">
-        <v>1258400</v>
+        <v>1144600</v>
       </c>
       <c r="J12" s="3">
+        <v>1237600</v>
+      </c>
+      <c r="K12" s="3">
         <v>1264400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1111900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1014600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1038700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>891600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>980600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>872900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>942500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>996600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1006000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>172300</v>
+        <v>185900</v>
       </c>
       <c r="E14" s="3">
-        <v>191400</v>
+        <v>169400</v>
       </c>
       <c r="F14" s="3">
-        <v>211700</v>
+        <v>188200</v>
       </c>
       <c r="G14" s="3">
-        <v>244000</v>
+        <v>208200</v>
       </c>
       <c r="H14" s="3">
-        <v>224900</v>
+        <v>240000</v>
       </c>
       <c r="I14" s="3">
-        <v>430600</v>
+        <v>221200</v>
       </c>
       <c r="J14" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K14" s="3">
         <v>1210600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>173900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>162800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>175700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>151500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>164900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>80800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>435300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>189000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>213600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6055200</v>
+        <v>5743200</v>
       </c>
       <c r="E17" s="3">
-        <v>6530100</v>
+        <v>5954900</v>
       </c>
       <c r="F17" s="3">
-        <v>6353000</v>
+        <v>6422000</v>
       </c>
       <c r="G17" s="3">
-        <v>7101800</v>
+        <v>6247900</v>
       </c>
       <c r="H17" s="3">
-        <v>6115000</v>
+        <v>6984300</v>
       </c>
       <c r="I17" s="3">
-        <v>6941500</v>
+        <v>6013800</v>
       </c>
       <c r="J17" s="3">
+        <v>6826600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7449900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5948800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5298800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5440600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4651100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5431600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4797600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5447300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5413600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5601400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1762000</v>
+        <v>3124500</v>
       </c>
       <c r="E18" s="3">
-        <v>1535900</v>
+        <v>1732800</v>
       </c>
       <c r="F18" s="3">
-        <v>1447400</v>
+        <v>1510500</v>
       </c>
       <c r="G18" s="3">
-        <v>2515600</v>
+        <v>1423400</v>
       </c>
       <c r="H18" s="3">
-        <v>2008400</v>
+        <v>2474000</v>
       </c>
       <c r="I18" s="3">
-        <v>989300</v>
+        <v>1975200</v>
       </c>
       <c r="J18" s="3">
+        <v>972900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-162700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2837800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1369000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1146300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1125500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2203600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1474300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1039000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>790000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2290100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,158 +1345,165 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>765600</v>
+        <v>110600</v>
       </c>
       <c r="E20" s="3">
-        <v>45500</v>
+        <v>752900</v>
       </c>
       <c r="F20" s="3">
-        <v>-105300</v>
+        <v>44700</v>
       </c>
       <c r="G20" s="3">
-        <v>198600</v>
+        <v>-103500</v>
       </c>
       <c r="H20" s="3">
-        <v>87300</v>
+        <v>195300</v>
       </c>
       <c r="I20" s="3">
+        <v>85900</v>
+      </c>
+      <c r="J20" s="3">
         <v>1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>10800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-113600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>74200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-27500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-41700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>111100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>85300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>14100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3058700</v>
+        <v>3778600</v>
       </c>
       <c r="E21" s="3">
-        <v>2132800</v>
+        <v>3008100</v>
       </c>
       <c r="F21" s="3">
-        <v>1897200</v>
+        <v>2097500</v>
       </c>
       <c r="G21" s="3">
-        <v>3313500</v>
+        <v>1865800</v>
       </c>
       <c r="H21" s="3">
-        <v>2662700</v>
+        <v>3258600</v>
       </c>
       <c r="I21" s="3">
-        <v>1534700</v>
+        <v>2618700</v>
       </c>
       <c r="J21" s="3">
+        <v>1509300</v>
+      </c>
+      <c r="K21" s="3">
         <v>376800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3169000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1832000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1483400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1416400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2663600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1917500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1380000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1159700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2698600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>51400</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>24</v>
+        <v>51800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>50600</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3">
-        <v>59800</v>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H22" s="3">
-        <v>59800</v>
+        <v>58800</v>
       </c>
       <c r="I22" s="3">
+        <v>58800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K22" s="3">
         <v>15600</v>
       </c>
-      <c r="J22" s="3">
-        <v>15600</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>25500</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2476100</v>
+        <v>3183300</v>
       </c>
       <c r="E23" s="3">
-        <v>1581400</v>
+        <v>2435100</v>
       </c>
       <c r="F23" s="3">
-        <v>1342100</v>
+        <v>1555200</v>
       </c>
       <c r="G23" s="3">
-        <v>2654400</v>
+        <v>1319900</v>
       </c>
       <c r="H23" s="3">
-        <v>2035900</v>
+        <v>2610400</v>
       </c>
       <c r="I23" s="3">
-        <v>974900</v>
+        <v>2002200</v>
       </c>
       <c r="J23" s="3">
+        <v>958800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-167500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2724200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1417700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1118900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1083700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2314700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1559600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1018800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>784100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2304200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>500000</v>
+        <v>908200</v>
       </c>
       <c r="E24" s="3">
-        <v>522700</v>
+        <v>491700</v>
       </c>
       <c r="F24" s="3">
-        <v>370800</v>
+        <v>514100</v>
       </c>
       <c r="G24" s="3">
-        <v>696200</v>
+        <v>364700</v>
       </c>
       <c r="H24" s="3">
-        <v>529900</v>
+        <v>684700</v>
       </c>
       <c r="I24" s="3">
-        <v>279900</v>
+        <v>521100</v>
       </c>
       <c r="J24" s="3">
+        <v>275300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-39500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>728700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>342200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>329400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>307400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>231100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>446600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>270400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>162000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>513000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1976100</v>
+        <v>2275200</v>
       </c>
       <c r="E26" s="3">
-        <v>1058600</v>
+        <v>1943400</v>
       </c>
       <c r="F26" s="3">
-        <v>971300</v>
+        <v>1041100</v>
       </c>
       <c r="G26" s="3">
-        <v>1958200</v>
+        <v>955200</v>
       </c>
       <c r="H26" s="3">
-        <v>1506000</v>
+        <v>1925800</v>
       </c>
       <c r="I26" s="3">
-        <v>695000</v>
+        <v>1481100</v>
       </c>
       <c r="J26" s="3">
+        <v>683500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-128000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1995600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1075500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>789500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>776300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2083500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1113000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>748400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>622100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1791200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1861300</v>
+        <v>2244600</v>
       </c>
       <c r="E27" s="3">
-        <v>1037100</v>
+        <v>1830500</v>
       </c>
       <c r="F27" s="3">
-        <v>973700</v>
+        <v>1019900</v>
       </c>
       <c r="G27" s="3">
-        <v>1937800</v>
+        <v>957600</v>
       </c>
       <c r="H27" s="3">
-        <v>1490500</v>
+        <v>1905800</v>
       </c>
       <c r="I27" s="3">
-        <v>680600</v>
+        <v>1465800</v>
       </c>
       <c r="J27" s="3">
+        <v>669400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-136400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1990800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1075500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>787300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>776300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2060000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>749500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>611600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1793600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1864,8 +1924,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-765600</v>
+        <v>-110600</v>
       </c>
       <c r="E32" s="3">
-        <v>-45500</v>
+        <v>-752900</v>
       </c>
       <c r="F32" s="3">
-        <v>105300</v>
+        <v>-44700</v>
       </c>
       <c r="G32" s="3">
-        <v>-198600</v>
+        <v>103500</v>
       </c>
       <c r="H32" s="3">
-        <v>-87300</v>
+        <v>-195300</v>
       </c>
       <c r="I32" s="3">
+        <v>-85900</v>
+      </c>
+      <c r="J32" s="3">
         <v>-1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-10800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>113600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-74200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>27500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>41700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-111100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-85300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-14100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1861300</v>
+        <v>2244600</v>
       </c>
       <c r="E33" s="3">
-        <v>1037100</v>
+        <v>1830500</v>
       </c>
       <c r="F33" s="3">
-        <v>973700</v>
+        <v>1019900</v>
       </c>
       <c r="G33" s="3">
-        <v>1937800</v>
+        <v>957600</v>
       </c>
       <c r="H33" s="3">
-        <v>1490500</v>
+        <v>1905800</v>
       </c>
       <c r="I33" s="3">
-        <v>680600</v>
+        <v>1465800</v>
       </c>
       <c r="J33" s="3">
+        <v>669400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-136400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1990800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1075500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>787300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>776300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2060000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>749500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>611600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1793600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1861300</v>
+        <v>2244600</v>
       </c>
       <c r="E35" s="3">
-        <v>1037100</v>
+        <v>1830500</v>
       </c>
       <c r="F35" s="3">
-        <v>973700</v>
+        <v>1019900</v>
       </c>
       <c r="G35" s="3">
-        <v>1937800</v>
+        <v>957600</v>
       </c>
       <c r="H35" s="3">
-        <v>1490500</v>
+        <v>1905800</v>
       </c>
       <c r="I35" s="3">
-        <v>680600</v>
+        <v>1465800</v>
       </c>
       <c r="J35" s="3">
+        <v>669400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-136400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1990800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1075500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>787300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>776300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2060000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>749500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>611600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1793600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,176 +2399,186 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8892600</v>
+        <v>6247900</v>
       </c>
       <c r="E41" s="3">
-        <v>7422400</v>
+        <v>8745400</v>
       </c>
       <c r="F41" s="3">
-        <v>9349500</v>
+        <v>7299600</v>
       </c>
       <c r="G41" s="3">
-        <v>6356600</v>
+        <v>9194700</v>
       </c>
       <c r="H41" s="3">
-        <v>6609000</v>
+        <v>6251400</v>
       </c>
       <c r="I41" s="3">
-        <v>6182000</v>
+        <v>6499600</v>
       </c>
       <c r="J41" s="3">
+        <v>6079600</v>
+      </c>
+      <c r="K41" s="3">
         <v>8770500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10204900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4992000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4957500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8342600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4500300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4734800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4752700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6968900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4345400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>634000</v>
+        <v>1923400</v>
       </c>
       <c r="E42" s="3">
-        <v>1697400</v>
+        <v>623500</v>
       </c>
       <c r="F42" s="3">
-        <v>428200</v>
+        <v>1669300</v>
       </c>
       <c r="G42" s="3">
-        <v>355300</v>
+        <v>421200</v>
       </c>
       <c r="H42" s="3">
-        <v>392400</v>
+        <v>349400</v>
       </c>
       <c r="I42" s="3">
-        <v>480900</v>
+        <v>385900</v>
       </c>
       <c r="J42" s="3">
+        <v>472900</v>
+      </c>
+      <c r="K42" s="3">
         <v>707000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>529900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>536100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>434800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>942100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1154500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1136600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>973900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1813500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1319400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>820600</v>
+        <v>8003000</v>
       </c>
       <c r="E43" s="3">
-        <v>8445200</v>
+        <v>7389000</v>
       </c>
       <c r="F43" s="3">
-        <v>751200</v>
+        <v>8305400</v>
       </c>
       <c r="G43" s="3">
-        <v>10064800</v>
+        <v>9303000</v>
       </c>
       <c r="H43" s="3">
-        <v>1290700</v>
+        <v>9898200</v>
       </c>
       <c r="I43" s="3">
-        <v>8098300</v>
+        <v>8146600</v>
       </c>
       <c r="J43" s="3">
+        <v>7964200</v>
+      </c>
+      <c r="K43" s="3">
         <v>405500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>346600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5953400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6073000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>374400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>20987900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5868000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6488500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>345100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>273500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,288 +2633,306 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1641200</v>
+        <v>1552800</v>
       </c>
       <c r="E45" s="3">
-        <v>1625600</v>
+        <v>1614000</v>
       </c>
       <c r="F45" s="3">
-        <v>1496400</v>
+        <v>1598700</v>
       </c>
       <c r="G45" s="3">
-        <v>1421100</v>
+        <v>1471700</v>
       </c>
       <c r="H45" s="3">
-        <v>1563400</v>
+        <v>1397600</v>
       </c>
       <c r="I45" s="3">
-        <v>1448600</v>
+        <v>1537600</v>
       </c>
       <c r="J45" s="3">
+        <v>1424600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1250000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1052800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1135300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1104600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>932200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>989600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>848200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>842600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>909700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>682000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18681100</v>
+        <v>17727200</v>
       </c>
       <c r="E46" s="3">
-        <v>19190600</v>
+        <v>18371800</v>
       </c>
       <c r="F46" s="3">
-        <v>20733700</v>
+        <v>18873000</v>
       </c>
       <c r="G46" s="3">
-        <v>18197800</v>
+        <v>20390500</v>
       </c>
       <c r="H46" s="3">
-        <v>16848500</v>
+        <v>17896600</v>
       </c>
       <c r="I46" s="3">
-        <v>16209700</v>
+        <v>16569600</v>
       </c>
       <c r="J46" s="3">
+        <v>15941400</v>
+      </c>
+      <c r="K46" s="3">
         <v>19213400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19659800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12616700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12569900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16556700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13385300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12587600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13057700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17779700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13573900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4266800</v>
+        <v>4611500</v>
       </c>
       <c r="E47" s="3">
-        <v>3587400</v>
+        <v>4196200</v>
       </c>
       <c r="F47" s="3">
-        <v>3606500</v>
+        <v>3528000</v>
       </c>
       <c r="G47" s="3">
-        <v>3469000</v>
+        <v>3546800</v>
       </c>
       <c r="H47" s="3">
-        <v>3532400</v>
+        <v>3411600</v>
       </c>
       <c r="I47" s="3">
-        <v>3003700</v>
+        <v>3473900</v>
       </c>
       <c r="J47" s="3">
+        <v>2953900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2730900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2565700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2239600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2159800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1878700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1955600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2009500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2305700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2371100</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2270100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6117400</v>
+        <v>5930200</v>
       </c>
       <c r="E48" s="3">
-        <v>6306400</v>
+        <v>6016100</v>
       </c>
       <c r="F48" s="3">
-        <v>6439100</v>
+        <v>6202000</v>
       </c>
       <c r="G48" s="3">
-        <v>6574300</v>
+        <v>6332600</v>
       </c>
       <c r="H48" s="3">
-        <v>6518100</v>
+        <v>6465500</v>
       </c>
       <c r="I48" s="3">
-        <v>6465500</v>
+        <v>6410200</v>
       </c>
       <c r="J48" s="3">
+        <v>6358400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6606600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4202800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3788000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3605800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3342300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3328900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3148300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3050700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3075400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3028400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38310700</v>
+        <v>36873100</v>
       </c>
       <c r="E49" s="3">
-        <v>39919600</v>
+        <v>37676600</v>
       </c>
       <c r="F49" s="3">
-        <v>40827500</v>
+        <v>39258800</v>
       </c>
       <c r="G49" s="3">
-        <v>40255700</v>
+        <v>40151700</v>
       </c>
       <c r="H49" s="3">
-        <v>41351400</v>
+        <v>39589400</v>
       </c>
       <c r="I49" s="3">
-        <v>40109800</v>
+        <v>40667000</v>
       </c>
       <c r="J49" s="3">
+        <v>39445900</v>
+      </c>
+      <c r="K49" s="3">
         <v>40703100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31894500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29648200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29382500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>26013800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>27194800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27366500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>28298800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31375900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31806700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3532400</v>
+        <v>3644500</v>
       </c>
       <c r="E52" s="3">
-        <v>3616100</v>
+        <v>3473900</v>
       </c>
       <c r="F52" s="3">
-        <v>3690300</v>
+        <v>3556300</v>
       </c>
       <c r="G52" s="3">
-        <v>3532400</v>
+        <v>3629200</v>
       </c>
       <c r="H52" s="3">
-        <v>3282400</v>
+        <v>3473900</v>
       </c>
       <c r="I52" s="3">
-        <v>3240500</v>
+        <v>3228000</v>
       </c>
       <c r="J52" s="3">
+        <v>3186900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3230900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2737200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2265000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2220200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2137800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1935400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1372200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1420400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1416800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1293500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>70908300</v>
+        <v>68786500</v>
       </c>
       <c r="E54" s="3">
-        <v>72620100</v>
+        <v>69734600</v>
       </c>
       <c r="F54" s="3">
-        <v>75297200</v>
+        <v>71418100</v>
       </c>
       <c r="G54" s="3">
-        <v>72029200</v>
+        <v>74050900</v>
       </c>
       <c r="H54" s="3">
-        <v>71532800</v>
+        <v>70836900</v>
       </c>
       <c r="I54" s="3">
-        <v>69029100</v>
+        <v>70348700</v>
       </c>
       <c r="J54" s="3">
+        <v>67886500</v>
+      </c>
+      <c r="K54" s="3">
         <v>72484900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>60921700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>50557500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49938100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49929400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>47666600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46484000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>48133400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>56018900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>51972800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1529900</v>
+        <v>1427000</v>
       </c>
       <c r="E57" s="3">
-        <v>1568200</v>
+        <v>1504600</v>
       </c>
       <c r="F57" s="3">
-        <v>1744100</v>
+        <v>1542300</v>
       </c>
       <c r="G57" s="3">
-        <v>1891200</v>
+        <v>1715200</v>
       </c>
       <c r="H57" s="3">
-        <v>1806300</v>
+        <v>1859900</v>
       </c>
       <c r="I57" s="3">
-        <v>1760800</v>
+        <v>1776400</v>
       </c>
       <c r="J57" s="3">
+        <v>1731700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1968900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1763700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1380100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1290200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1170500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1291400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1221800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1281300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1388600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1503700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4625700</v>
+        <v>2190500</v>
       </c>
       <c r="E58" s="3">
-        <v>3092200</v>
+        <v>4549100</v>
       </c>
       <c r="F58" s="3">
-        <v>6150900</v>
+        <v>3041000</v>
       </c>
       <c r="G58" s="3">
-        <v>3492900</v>
+        <v>6049000</v>
       </c>
       <c r="H58" s="3">
-        <v>3338600</v>
+        <v>3435100</v>
       </c>
       <c r="I58" s="3">
-        <v>2169900</v>
+        <v>3283300</v>
       </c>
       <c r="J58" s="3">
+        <v>2134000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1935500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2239200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1243800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1281400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1750200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3207800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1446200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>608100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2083500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2128100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10363900</v>
+        <v>11489900</v>
       </c>
       <c r="E59" s="3">
-        <v>13641500</v>
+        <v>10192300</v>
       </c>
       <c r="F59" s="3">
-        <v>12999100</v>
+        <v>13415700</v>
       </c>
       <c r="G59" s="3">
-        <v>11915300</v>
+        <v>12783900</v>
       </c>
       <c r="H59" s="3">
-        <v>11463200</v>
+        <v>11718100</v>
       </c>
       <c r="I59" s="3">
-        <v>13070900</v>
+        <v>11273400</v>
       </c>
       <c r="J59" s="3">
+        <v>12854500</v>
+      </c>
+      <c r="K59" s="3">
         <v>13619900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9731700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8556200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9986300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9629500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12110800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7998700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9687300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11375400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7723700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16519500</v>
+        <v>15107300</v>
       </c>
       <c r="E60" s="3">
-        <v>18301900</v>
+        <v>16246100</v>
       </c>
       <c r="F60" s="3">
-        <v>20894000</v>
+        <v>17998900</v>
       </c>
       <c r="G60" s="3">
-        <v>17299400</v>
+        <v>20548200</v>
       </c>
       <c r="H60" s="3">
-        <v>16608000</v>
+        <v>17013100</v>
       </c>
       <c r="I60" s="3">
-        <v>17001600</v>
+        <v>16333100</v>
       </c>
       <c r="J60" s="3">
+        <v>16720200</v>
+      </c>
+      <c r="K60" s="3">
         <v>17524300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12403900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11180100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12557800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12550100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11455500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10666800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11576700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14847500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11355400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>16919100</v>
+        <v>15999000</v>
       </c>
       <c r="E61" s="3">
-        <v>17335300</v>
+        <v>16639000</v>
       </c>
       <c r="F61" s="3">
-        <v>14960900</v>
+        <v>17048400</v>
       </c>
       <c r="G61" s="3">
-        <v>15431000</v>
+        <v>14713200</v>
       </c>
       <c r="H61" s="3">
-        <v>16326900</v>
+        <v>15175600</v>
       </c>
       <c r="I61" s="3">
-        <v>16826900</v>
+        <v>16056700</v>
       </c>
       <c r="J61" s="3">
+        <v>16548400</v>
+      </c>
+      <c r="K61" s="3">
         <v>17626000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12461900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7533900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7146900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7113900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5612200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6519900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6984400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7575800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7569900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2337400</v>
+        <v>2472800</v>
       </c>
       <c r="E62" s="3">
-        <v>2207000</v>
+        <v>2298700</v>
       </c>
       <c r="F62" s="3">
-        <v>2635200</v>
+        <v>2170500</v>
       </c>
       <c r="G62" s="3">
-        <v>2429500</v>
+        <v>2591600</v>
       </c>
       <c r="H62" s="3">
-        <v>2439100</v>
+        <v>2389300</v>
       </c>
       <c r="I62" s="3">
-        <v>2136400</v>
+        <v>2398700</v>
       </c>
       <c r="J62" s="3">
+        <v>2101100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2372100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1897400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1931700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1842400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2059800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2093600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1954500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2055500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2175100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2062400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35991300</v>
+        <v>33827400</v>
       </c>
       <c r="E66" s="3">
-        <v>37950600</v>
+        <v>35395500</v>
       </c>
       <c r="F66" s="3">
-        <v>38577500</v>
+        <v>37322500</v>
       </c>
       <c r="G66" s="3">
-        <v>35250800</v>
+        <v>37938900</v>
       </c>
       <c r="H66" s="3">
-        <v>35456600</v>
+        <v>34667300</v>
       </c>
       <c r="I66" s="3">
-        <v>36036700</v>
+        <v>34869700</v>
       </c>
       <c r="J66" s="3">
+        <v>35440200</v>
+      </c>
+      <c r="K66" s="3">
         <v>37583400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26816300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20693300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21595500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21756900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19073800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19142300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20624400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24634800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21012400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>36467400</v>
+        <v>37675400</v>
       </c>
       <c r="E72" s="3">
-        <v>34126400</v>
+        <v>35863700</v>
       </c>
       <c r="F72" s="3">
-        <v>38271200</v>
+        <v>33561500</v>
       </c>
       <c r="G72" s="3">
-        <v>34430200</v>
+        <v>37637700</v>
       </c>
       <c r="H72" s="3">
-        <v>35844100</v>
+        <v>33860300</v>
       </c>
       <c r="I72" s="3">
-        <v>31067700</v>
+        <v>35250800</v>
       </c>
       <c r="J72" s="3">
+        <v>30553500</v>
+      </c>
+      <c r="K72" s="3">
         <v>34669500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33879400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29653800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27163400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27940800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>28360500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>26873900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>24688300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30535500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30105900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34917100</v>
+        <v>34959100</v>
       </c>
       <c r="E76" s="3">
-        <v>34669500</v>
+        <v>34339100</v>
       </c>
       <c r="F76" s="3">
-        <v>36719800</v>
+        <v>34095600</v>
       </c>
       <c r="G76" s="3">
-        <v>36778400</v>
+        <v>36112000</v>
       </c>
       <c r="H76" s="3">
-        <v>36076200</v>
+        <v>36169600</v>
       </c>
       <c r="I76" s="3">
-        <v>32992400</v>
+        <v>35479000</v>
       </c>
       <c r="J76" s="3">
+        <v>32446300</v>
+      </c>
+      <c r="K76" s="3">
         <v>34901500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34105400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29864200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>28342700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28172500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28592800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>27341800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27509000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>31384200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>30960400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1861300</v>
+        <v>2244600</v>
       </c>
       <c r="E81" s="3">
-        <v>1037100</v>
+        <v>1830500</v>
       </c>
       <c r="F81" s="3">
-        <v>973700</v>
+        <v>1019900</v>
       </c>
       <c r="G81" s="3">
-        <v>1937800</v>
+        <v>957600</v>
       </c>
       <c r="H81" s="3">
-        <v>1490500</v>
+        <v>1905800</v>
       </c>
       <c r="I81" s="3">
-        <v>680600</v>
+        <v>1465800</v>
       </c>
       <c r="J81" s="3">
+        <v>669400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-136400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1990800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1075500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>787300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>776300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2060000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1102900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>749500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>611600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1793600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>531100</v>
+        <v>543500</v>
       </c>
       <c r="E83" s="3">
-        <v>551400</v>
+        <v>522300</v>
       </c>
       <c r="F83" s="3">
-        <v>555000</v>
+        <v>542300</v>
       </c>
       <c r="G83" s="3">
-        <v>599300</v>
+        <v>545800</v>
       </c>
       <c r="H83" s="3">
-        <v>567000</v>
+        <v>589400</v>
       </c>
       <c r="I83" s="3">
-        <v>544300</v>
+        <v>557600</v>
       </c>
       <c r="J83" s="3">
+        <v>535300</v>
+      </c>
+      <c r="K83" s="3">
         <v>528700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>444800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>388800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>364500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>332700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>348900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>357900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>361300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>375600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>394400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1580200</v>
+        <v>2470400</v>
       </c>
       <c r="E89" s="3">
-        <v>942600</v>
+        <v>1554000</v>
       </c>
       <c r="F89" s="3">
-        <v>3569500</v>
+        <v>927000</v>
       </c>
       <c r="G89" s="3">
-        <v>215300</v>
+        <v>3510400</v>
       </c>
       <c r="H89" s="3">
-        <v>762000</v>
+        <v>211800</v>
       </c>
       <c r="I89" s="3">
-        <v>-147100</v>
+        <v>749400</v>
       </c>
       <c r="J89" s="3">
+        <v>-144700</v>
+      </c>
+      <c r="K89" s="3">
         <v>3351800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>968800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>552700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>448000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2829500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1032200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>686700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>719200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3371200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1173800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-185400</v>
+        <v>-192900</v>
       </c>
       <c r="E91" s="3">
-        <v>-196200</v>
+        <v>-182300</v>
       </c>
       <c r="F91" s="3">
-        <v>-398300</v>
+        <v>-192900</v>
       </c>
       <c r="G91" s="3">
-        <v>-136400</v>
+        <v>-391700</v>
       </c>
       <c r="H91" s="3">
-        <v>-196200</v>
+        <v>-134100</v>
       </c>
       <c r="I91" s="3">
-        <v>-215300</v>
+        <v>-192900</v>
       </c>
       <c r="J91" s="3">
+        <v>-211800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-429400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-369100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-363300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-429300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-468800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-348900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-397200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-357900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-341600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-393200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>751200</v>
+        <v>-2314000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1524000</v>
+        <v>738800</v>
       </c>
       <c r="F94" s="3">
-        <v>-446200</v>
+        <v>-1498700</v>
       </c>
       <c r="G94" s="3">
-        <v>-43100</v>
+        <v>-438800</v>
       </c>
       <c r="H94" s="3">
-        <v>-340900</v>
+        <v>-42400</v>
       </c>
       <c r="I94" s="3">
-        <v>-236800</v>
+        <v>-335300</v>
       </c>
       <c r="J94" s="3">
+        <v>-232900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-540600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-422000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-405200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-534100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>313000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-755900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-745200</v>
+        <v>-2462200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1265600</v>
+        <v>-732900</v>
       </c>
       <c r="F100" s="3">
-        <v>-266800</v>
+        <v>-1244600</v>
       </c>
       <c r="G100" s="3">
-        <v>-348100</v>
+        <v>-262300</v>
       </c>
       <c r="H100" s="3">
-        <v>-148300</v>
+        <v>-342300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2291900</v>
+        <v>-145900</v>
       </c>
       <c r="J100" s="3">
+        <v>-2254000</v>
+      </c>
+      <c r="K100" s="3">
         <v>2910400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4439400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-162800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1627200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-673200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-336600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-422600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-116000</v>
+        <v>-191800</v>
       </c>
       <c r="E101" s="3">
-        <v>-80100</v>
+        <v>-114100</v>
       </c>
       <c r="F101" s="3">
-        <v>135200</v>
+        <v>-78800</v>
       </c>
       <c r="G101" s="3">
-        <v>-76600</v>
+        <v>132900</v>
       </c>
       <c r="H101" s="3">
-        <v>154300</v>
+        <v>-75300</v>
       </c>
       <c r="I101" s="3">
-        <v>87300</v>
+        <v>151800</v>
       </c>
       <c r="J101" s="3">
+        <v>85900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-33500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>23300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>190000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-113100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-59500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-126800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-29300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1470100</v>
+        <v>-2497500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1927100</v>
+        <v>1445800</v>
       </c>
       <c r="F102" s="3">
-        <v>2991700</v>
+        <v>-1895200</v>
       </c>
       <c r="G102" s="3">
-        <v>-252400</v>
+        <v>2942200</v>
       </c>
       <c r="H102" s="3">
-        <v>427000</v>
+        <v>-248200</v>
       </c>
       <c r="I102" s="3">
-        <v>-2588600</v>
+        <v>420000</v>
       </c>
       <c r="J102" s="3">
+        <v>-2545700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4874700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3938500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-234500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2622300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-482400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8867700</v>
+        <v>7776200</v>
       </c>
       <c r="E8" s="3">
-        <v>7687800</v>
+        <v>9234000</v>
       </c>
       <c r="F8" s="3">
-        <v>7932500</v>
+        <v>8005300</v>
       </c>
       <c r="G8" s="3">
-        <v>7671300</v>
+        <v>8260100</v>
       </c>
       <c r="H8" s="3">
-        <v>9458300</v>
+        <v>7988200</v>
       </c>
       <c r="I8" s="3">
-        <v>7988900</v>
+        <v>9848900</v>
       </c>
       <c r="J8" s="3">
+        <v>8318900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7799500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7287300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8786600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6667800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6586900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5776600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7635100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6271900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6486200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6203600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7891500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2163400</v>
+        <v>2254000</v>
       </c>
       <c r="E9" s="3">
-        <v>2151600</v>
+        <v>2252800</v>
       </c>
       <c r="F9" s="3">
-        <v>2310400</v>
+        <v>2240500</v>
       </c>
       <c r="G9" s="3">
-        <v>2354000</v>
+        <v>2405900</v>
       </c>
       <c r="H9" s="3">
-        <v>2476300</v>
+        <v>2451200</v>
       </c>
       <c r="I9" s="3">
-        <v>2277500</v>
+        <v>2578600</v>
       </c>
       <c r="J9" s="3">
+        <v>2371600</v>
+      </c>
+      <c r="K9" s="3">
         <v>2386900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2355300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2296000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2034700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1992900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1752400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1963500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1794100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1920800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1966100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2021300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6704300</v>
+        <v>5522300</v>
       </c>
       <c r="E10" s="3">
-        <v>5536100</v>
+        <v>6981200</v>
       </c>
       <c r="F10" s="3">
-        <v>5622000</v>
+        <v>5764800</v>
       </c>
       <c r="G10" s="3">
-        <v>5317300</v>
+        <v>5854200</v>
       </c>
       <c r="H10" s="3">
-        <v>6981900</v>
+        <v>5537000</v>
       </c>
       <c r="I10" s="3">
-        <v>5711400</v>
+        <v>7270300</v>
       </c>
       <c r="J10" s="3">
+        <v>5947300</v>
+      </c>
+      <c r="K10" s="3">
         <v>5412600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4931900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6490600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4633100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4594000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4024200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5671700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4477900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4565400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4237500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5870200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1329300</v>
+        <v>1432000</v>
       </c>
       <c r="E12" s="3">
-        <v>1307000</v>
+        <v>1384200</v>
       </c>
       <c r="F12" s="3">
-        <v>1361100</v>
+        <v>1361000</v>
       </c>
       <c r="G12" s="3">
-        <v>1234000</v>
+        <v>1417300</v>
       </c>
       <c r="H12" s="3">
-        <v>1412900</v>
+        <v>1285000</v>
       </c>
       <c r="I12" s="3">
-        <v>1144600</v>
+        <v>1471200</v>
       </c>
       <c r="J12" s="3">
+        <v>1191900</v>
+      </c>
+      <c r="K12" s="3">
         <v>1237600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1264400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1111900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1014600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1038700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>891600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>980600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>872900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>942500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>996600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1006000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>185900</v>
+        <v>358900</v>
       </c>
       <c r="E14" s="3">
-        <v>169400</v>
+        <v>193500</v>
       </c>
       <c r="F14" s="3">
-        <v>188200</v>
+        <v>176400</v>
       </c>
       <c r="G14" s="3">
-        <v>208200</v>
+        <v>196000</v>
       </c>
       <c r="H14" s="3">
-        <v>240000</v>
+        <v>216800</v>
       </c>
       <c r="I14" s="3">
-        <v>221200</v>
+        <v>249900</v>
       </c>
       <c r="J14" s="3">
+        <v>230300</v>
+      </c>
+      <c r="K14" s="3">
         <v>423500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1210600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>173900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>162800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>175700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>151500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>164900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>80800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>435300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>189000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>213600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5743200</v>
+        <v>6600200</v>
       </c>
       <c r="E17" s="3">
-        <v>5954900</v>
+        <v>5980400</v>
       </c>
       <c r="F17" s="3">
-        <v>6422000</v>
+        <v>6200900</v>
       </c>
       <c r="G17" s="3">
-        <v>6247900</v>
+        <v>6687200</v>
       </c>
       <c r="H17" s="3">
-        <v>6984300</v>
+        <v>6505900</v>
       </c>
       <c r="I17" s="3">
-        <v>6013800</v>
+        <v>7272800</v>
       </c>
       <c r="J17" s="3">
+        <v>6262100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6826600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7449900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5948800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5298800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5440600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4651100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5431600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4797600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5447300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5413600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5601400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>3124500</v>
+        <v>1176000</v>
       </c>
       <c r="E18" s="3">
-        <v>1732800</v>
+        <v>3253600</v>
       </c>
       <c r="F18" s="3">
-        <v>1510500</v>
+        <v>1804400</v>
       </c>
       <c r="G18" s="3">
-        <v>1423400</v>
+        <v>1572900</v>
       </c>
       <c r="H18" s="3">
-        <v>2474000</v>
+        <v>1482200</v>
       </c>
       <c r="I18" s="3">
-        <v>1975200</v>
+        <v>2576200</v>
       </c>
       <c r="J18" s="3">
+        <v>2056800</v>
+      </c>
+      <c r="K18" s="3">
         <v>972900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-162700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2837800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1369000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1146300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1125500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2203600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1474300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1039000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>790000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2290100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,167 +1379,174 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>110600</v>
+        <v>461800</v>
       </c>
       <c r="E20" s="3">
-        <v>752900</v>
+        <v>115100</v>
       </c>
       <c r="F20" s="3">
-        <v>44700</v>
+        <v>784000</v>
       </c>
       <c r="G20" s="3">
-        <v>-103500</v>
+        <v>46500</v>
       </c>
       <c r="H20" s="3">
-        <v>195300</v>
+        <v>-107800</v>
       </c>
       <c r="I20" s="3">
-        <v>85900</v>
+        <v>203300</v>
       </c>
       <c r="J20" s="3">
+        <v>89400</v>
+      </c>
+      <c r="K20" s="3">
         <v>1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>10800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-113600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>74200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-27500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-41700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>111100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>85300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-20200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>14100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3778600</v>
+        <v>2171900</v>
       </c>
       <c r="E21" s="3">
-        <v>3008100</v>
+        <v>3934700</v>
       </c>
       <c r="F21" s="3">
-        <v>2097500</v>
+        <v>3132300</v>
       </c>
       <c r="G21" s="3">
-        <v>1865800</v>
+        <v>2184200</v>
       </c>
       <c r="H21" s="3">
-        <v>3258600</v>
+        <v>1942800</v>
       </c>
       <c r="I21" s="3">
-        <v>2618700</v>
+        <v>3393200</v>
       </c>
       <c r="J21" s="3">
+        <v>2726800</v>
+      </c>
+      <c r="K21" s="3">
         <v>1509300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>376800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3169000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1832000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1483400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1416400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2663600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1917500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1380000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1159700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2698600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="3">
-        <v>51800</v>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E22" s="3">
-        <v>50600</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>24</v>
+        <v>53900</v>
+      </c>
+      <c r="F22" s="3">
+        <v>52700</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3">
-        <v>58800</v>
+      <c r="H22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="3">
-        <v>58800</v>
+        <v>61200</v>
       </c>
       <c r="J22" s="3">
+        <v>61200</v>
+      </c>
+      <c r="K22" s="3">
         <v>15300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15600</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>25500</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>3183300</v>
+        <v>1637800</v>
       </c>
       <c r="E23" s="3">
-        <v>2435100</v>
+        <v>3314800</v>
       </c>
       <c r="F23" s="3">
-        <v>1555200</v>
+        <v>2535700</v>
       </c>
       <c r="G23" s="3">
-        <v>1319900</v>
+        <v>1619400</v>
       </c>
       <c r="H23" s="3">
-        <v>2610400</v>
+        <v>1374400</v>
       </c>
       <c r="I23" s="3">
-        <v>2002200</v>
+        <v>2718300</v>
       </c>
       <c r="J23" s="3">
+        <v>2084900</v>
+      </c>
+      <c r="K23" s="3">
         <v>958800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-167500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2724200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1417700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1118900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1083700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2314700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1559600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1018800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>784100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2304200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>908200</v>
+        <v>327100</v>
       </c>
       <c r="E24" s="3">
-        <v>491700</v>
+        <v>945700</v>
       </c>
       <c r="F24" s="3">
-        <v>514100</v>
+        <v>512000</v>
       </c>
       <c r="G24" s="3">
-        <v>364700</v>
+        <v>535300</v>
       </c>
       <c r="H24" s="3">
-        <v>684700</v>
+        <v>379700</v>
       </c>
       <c r="I24" s="3">
-        <v>521100</v>
+        <v>712900</v>
       </c>
       <c r="J24" s="3">
+        <v>542700</v>
+      </c>
+      <c r="K24" s="3">
         <v>275300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-39500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>728700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>342200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>329400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>307400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>231100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>446600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>270400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>162000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>513000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2275200</v>
+        <v>1310700</v>
       </c>
       <c r="E26" s="3">
-        <v>1943400</v>
+        <v>2369100</v>
       </c>
       <c r="F26" s="3">
-        <v>1041100</v>
+        <v>2023700</v>
       </c>
       <c r="G26" s="3">
-        <v>955200</v>
+        <v>1084100</v>
       </c>
       <c r="H26" s="3">
-        <v>1925800</v>
+        <v>994700</v>
       </c>
       <c r="I26" s="3">
-        <v>1481100</v>
+        <v>2005300</v>
       </c>
       <c r="J26" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="K26" s="3">
         <v>683500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-128000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1995600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1075500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>789500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>776300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2083500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1113000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>748400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>622100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1791200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2244600</v>
+        <v>1274000</v>
       </c>
       <c r="E27" s="3">
-        <v>1830500</v>
+        <v>2337300</v>
       </c>
       <c r="F27" s="3">
-        <v>1019900</v>
+        <v>1906100</v>
       </c>
       <c r="G27" s="3">
-        <v>957600</v>
+        <v>1062100</v>
       </c>
       <c r="H27" s="3">
-        <v>1905800</v>
+        <v>997100</v>
       </c>
       <c r="I27" s="3">
-        <v>1465800</v>
+        <v>1984500</v>
       </c>
       <c r="J27" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="K27" s="3">
         <v>669400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-136400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1990800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1075500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>787300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>776300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1102900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>749500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>611600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1793600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1927,8 +1988,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-110600</v>
+        <v>-461800</v>
       </c>
       <c r="E32" s="3">
-        <v>-752900</v>
+        <v>-115100</v>
       </c>
       <c r="F32" s="3">
-        <v>-44700</v>
+        <v>-784000</v>
       </c>
       <c r="G32" s="3">
-        <v>103500</v>
+        <v>-46500</v>
       </c>
       <c r="H32" s="3">
-        <v>-195300</v>
+        <v>107800</v>
       </c>
       <c r="I32" s="3">
-        <v>-85900</v>
+        <v>-203300</v>
       </c>
       <c r="J32" s="3">
+        <v>-89400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-10800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>113600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-74200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>27500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>41700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-111100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-85300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>20200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-14100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2244600</v>
+        <v>1274000</v>
       </c>
       <c r="E33" s="3">
-        <v>1830500</v>
+        <v>2337300</v>
       </c>
       <c r="F33" s="3">
-        <v>1019900</v>
+        <v>1906100</v>
       </c>
       <c r="G33" s="3">
-        <v>957600</v>
+        <v>1062100</v>
       </c>
       <c r="H33" s="3">
-        <v>1905800</v>
+        <v>997100</v>
       </c>
       <c r="I33" s="3">
-        <v>1465800</v>
+        <v>1984500</v>
       </c>
       <c r="J33" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="K33" s="3">
         <v>669400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-136400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1990800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1075500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>787300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>776300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1102900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>749500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>611600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1793600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2244600</v>
+        <v>1274000</v>
       </c>
       <c r="E35" s="3">
-        <v>1830500</v>
+        <v>2337300</v>
       </c>
       <c r="F35" s="3">
-        <v>1019900</v>
+        <v>1906100</v>
       </c>
       <c r="G35" s="3">
-        <v>957600</v>
+        <v>1062100</v>
       </c>
       <c r="H35" s="3">
-        <v>1905800</v>
+        <v>997100</v>
       </c>
       <c r="I35" s="3">
-        <v>1465800</v>
+        <v>1984500</v>
       </c>
       <c r="J35" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="K35" s="3">
         <v>669400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-136400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1990800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1075500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>787300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>776300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1102900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>749500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>611600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1793600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,185 +2486,195 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6247900</v>
+        <v>12656600</v>
       </c>
       <c r="E41" s="3">
-        <v>8745400</v>
+        <v>6505900</v>
       </c>
       <c r="F41" s="3">
-        <v>7299600</v>
+        <v>9106600</v>
       </c>
       <c r="G41" s="3">
-        <v>9194700</v>
+        <v>7601100</v>
       </c>
       <c r="H41" s="3">
-        <v>6251400</v>
+        <v>9574500</v>
       </c>
       <c r="I41" s="3">
-        <v>6499600</v>
+        <v>6509600</v>
       </c>
       <c r="J41" s="3">
+        <v>6768100</v>
+      </c>
+      <c r="K41" s="3">
         <v>6079600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8770500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10204900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4992000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4957500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8342600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4500300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4734800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4752700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6968900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4345400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1923400</v>
+        <v>1730900</v>
       </c>
       <c r="E42" s="3">
-        <v>623500</v>
+        <v>2002900</v>
       </c>
       <c r="F42" s="3">
-        <v>1669300</v>
+        <v>649200</v>
       </c>
       <c r="G42" s="3">
-        <v>421200</v>
+        <v>1738300</v>
       </c>
       <c r="H42" s="3">
-        <v>349400</v>
+        <v>438500</v>
       </c>
       <c r="I42" s="3">
-        <v>385900</v>
+        <v>363800</v>
       </c>
       <c r="J42" s="3">
+        <v>401800</v>
+      </c>
+      <c r="K42" s="3">
         <v>472900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>707000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>529900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>536100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>434800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>942100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1154500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1136600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>973900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1813500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1319400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8003000</v>
+        <v>345400</v>
       </c>
       <c r="E43" s="3">
-        <v>7389000</v>
+        <v>8333600</v>
       </c>
       <c r="F43" s="3">
-        <v>8305400</v>
+        <v>840300</v>
       </c>
       <c r="G43" s="3">
-        <v>9303000</v>
+        <v>8648400</v>
       </c>
       <c r="H43" s="3">
-        <v>9898200</v>
+        <v>769300</v>
       </c>
       <c r="I43" s="3">
-        <v>8146600</v>
+        <v>10307100</v>
       </c>
       <c r="J43" s="3">
+        <v>1321800</v>
+      </c>
+      <c r="K43" s="3">
         <v>7964200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>405500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>346600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5953400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6073000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>374400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>20987900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5868000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6488500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>345100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>273500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,303 +2732,321 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1552800</v>
+        <v>1756600</v>
       </c>
       <c r="E45" s="3">
-        <v>1614000</v>
+        <v>1617000</v>
       </c>
       <c r="F45" s="3">
-        <v>1598700</v>
+        <v>1680700</v>
       </c>
       <c r="G45" s="3">
-        <v>1471700</v>
+        <v>1664800</v>
       </c>
       <c r="H45" s="3">
-        <v>1397600</v>
+        <v>1532500</v>
       </c>
       <c r="I45" s="3">
-        <v>1537600</v>
+        <v>1455300</v>
       </c>
       <c r="J45" s="3">
+        <v>1601100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1424600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1250000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1052800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1135300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1104600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>932200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>989600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>848200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>842600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>909700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>682000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17727200</v>
+        <v>24595300</v>
       </c>
       <c r="E46" s="3">
-        <v>18371800</v>
+        <v>18459400</v>
       </c>
       <c r="F46" s="3">
-        <v>18873000</v>
+        <v>19130700</v>
       </c>
       <c r="G46" s="3">
-        <v>20390500</v>
+        <v>19652500</v>
       </c>
       <c r="H46" s="3">
-        <v>17896600</v>
+        <v>21232800</v>
       </c>
       <c r="I46" s="3">
-        <v>16569600</v>
+        <v>18635800</v>
       </c>
       <c r="J46" s="3">
+        <v>17254000</v>
+      </c>
+      <c r="K46" s="3">
         <v>15941400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19213400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19659800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12616700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12569900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16556700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13385300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12587600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13057700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17779700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13573900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4611500</v>
+        <v>5549200</v>
       </c>
       <c r="E47" s="3">
-        <v>4196200</v>
+        <v>4802000</v>
       </c>
       <c r="F47" s="3">
-        <v>3528000</v>
+        <v>4369500</v>
       </c>
       <c r="G47" s="3">
-        <v>3546800</v>
+        <v>3673700</v>
       </c>
       <c r="H47" s="3">
-        <v>3411600</v>
+        <v>3693300</v>
       </c>
       <c r="I47" s="3">
-        <v>3473900</v>
+        <v>3552500</v>
       </c>
       <c r="J47" s="3">
+        <v>3617400</v>
+      </c>
+      <c r="K47" s="3">
         <v>2953900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2730900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2565700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2239600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2159800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1878700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1955600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2009500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2305700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2371100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2270100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5930200</v>
+        <v>6060000</v>
       </c>
       <c r="E48" s="3">
-        <v>6016100</v>
+        <v>6175200</v>
       </c>
       <c r="F48" s="3">
-        <v>6202000</v>
+        <v>6264600</v>
       </c>
       <c r="G48" s="3">
-        <v>6332600</v>
+        <v>6458100</v>
       </c>
       <c r="H48" s="3">
-        <v>6465500</v>
+        <v>6594100</v>
       </c>
       <c r="I48" s="3">
-        <v>6410200</v>
+        <v>6732500</v>
       </c>
       <c r="J48" s="3">
+        <v>6675000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6358400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6606600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4202800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3788000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3605800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3342300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3328900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3148300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3050700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3075400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3028400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36873100</v>
+        <v>40983300</v>
       </c>
       <c r="E49" s="3">
-        <v>37676600</v>
+        <v>38396100</v>
       </c>
       <c r="F49" s="3">
-        <v>39258800</v>
+        <v>39232800</v>
       </c>
       <c r="G49" s="3">
-        <v>40151700</v>
+        <v>40880400</v>
       </c>
       <c r="H49" s="3">
-        <v>39589400</v>
+        <v>41810100</v>
       </c>
       <c r="I49" s="3">
-        <v>40667000</v>
+        <v>41224600</v>
       </c>
       <c r="J49" s="3">
+        <v>42346700</v>
+      </c>
+      <c r="K49" s="3">
         <v>39445900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40703100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31894500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29648200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29382500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>26013800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>27194800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27366500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>28298800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31375900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31806700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3644500</v>
+        <v>4267900</v>
       </c>
       <c r="E52" s="3">
-        <v>3473900</v>
+        <v>3795000</v>
       </c>
       <c r="F52" s="3">
-        <v>3556300</v>
+        <v>3617400</v>
       </c>
       <c r="G52" s="3">
-        <v>3629200</v>
+        <v>3703100</v>
       </c>
       <c r="H52" s="3">
-        <v>3473900</v>
+        <v>3779100</v>
       </c>
       <c r="I52" s="3">
-        <v>3228000</v>
+        <v>3617400</v>
       </c>
       <c r="J52" s="3">
+        <v>3361400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3186900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3230900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2737200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2265000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2220200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2137800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1935400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1372200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1420400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1416800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1293500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68786500</v>
+        <v>81455700</v>
       </c>
       <c r="E54" s="3">
-        <v>69734600</v>
+        <v>71627600</v>
       </c>
       <c r="F54" s="3">
-        <v>71418100</v>
+        <v>72615000</v>
       </c>
       <c r="G54" s="3">
-        <v>74050900</v>
+        <v>74367900</v>
       </c>
       <c r="H54" s="3">
-        <v>70836900</v>
+        <v>77109400</v>
       </c>
       <c r="I54" s="3">
-        <v>70348700</v>
+        <v>73762800</v>
       </c>
       <c r="J54" s="3">
+        <v>73254400</v>
+      </c>
+      <c r="K54" s="3">
         <v>67886500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72484900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>60921700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>50557500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49938100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49929400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>47666600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46484000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>48133400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>56018900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>51972800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1427000</v>
+        <v>1473700</v>
       </c>
       <c r="E57" s="3">
-        <v>1504600</v>
+        <v>1485900</v>
       </c>
       <c r="F57" s="3">
-        <v>1542300</v>
+        <v>1566800</v>
       </c>
       <c r="G57" s="3">
-        <v>1715200</v>
+        <v>1606000</v>
       </c>
       <c r="H57" s="3">
-        <v>1859900</v>
+        <v>1786000</v>
       </c>
       <c r="I57" s="3">
-        <v>1776400</v>
+        <v>1936700</v>
       </c>
       <c r="J57" s="3">
+        <v>1849700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1731700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1968900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1763700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1380100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1290200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1170500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1291400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1221800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1281300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1388600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1503700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2190500</v>
+        <v>5627600</v>
       </c>
       <c r="E58" s="3">
-        <v>4549100</v>
+        <v>2280900</v>
       </c>
       <c r="F58" s="3">
-        <v>3041000</v>
+        <v>4737000</v>
       </c>
       <c r="G58" s="3">
-        <v>6049000</v>
+        <v>3166600</v>
       </c>
       <c r="H58" s="3">
-        <v>3435100</v>
+        <v>6298900</v>
       </c>
       <c r="I58" s="3">
-        <v>3283300</v>
+        <v>3577000</v>
       </c>
       <c r="J58" s="3">
+        <v>3418900</v>
+      </c>
+      <c r="K58" s="3">
         <v>2134000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1935500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2239200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1243800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1281400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1750200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3207800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1446200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>608100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2083500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2128100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11489900</v>
+        <v>13461400</v>
       </c>
       <c r="E59" s="3">
-        <v>10192300</v>
+        <v>11964500</v>
       </c>
       <c r="F59" s="3">
-        <v>13415700</v>
+        <v>10613300</v>
       </c>
       <c r="G59" s="3">
-        <v>12783900</v>
+        <v>13969800</v>
       </c>
       <c r="H59" s="3">
-        <v>11718100</v>
+        <v>13312000</v>
       </c>
       <c r="I59" s="3">
-        <v>11273400</v>
+        <v>12202100</v>
       </c>
       <c r="J59" s="3">
+        <v>11739100</v>
+      </c>
+      <c r="K59" s="3">
         <v>12854500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>13619900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9731700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8556200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9986300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9629500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12110800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7998700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9687300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11375400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7723700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15107300</v>
+        <v>20562700</v>
       </c>
       <c r="E60" s="3">
-        <v>16246100</v>
+        <v>15731300</v>
       </c>
       <c r="F60" s="3">
-        <v>17998900</v>
+        <v>16917100</v>
       </c>
       <c r="G60" s="3">
-        <v>20548200</v>
+        <v>18742300</v>
       </c>
       <c r="H60" s="3">
-        <v>17013100</v>
+        <v>21396900</v>
       </c>
       <c r="I60" s="3">
-        <v>16333100</v>
+        <v>17715800</v>
       </c>
       <c r="J60" s="3">
+        <v>17007800</v>
+      </c>
+      <c r="K60" s="3">
         <v>16720200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17524300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12403900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11180100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12557800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12550100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11455500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10666800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11576700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>14847500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11355400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15999000</v>
+        <v>15151900</v>
       </c>
       <c r="E61" s="3">
-        <v>16639000</v>
+        <v>16659900</v>
       </c>
       <c r="F61" s="3">
-        <v>17048400</v>
+        <v>17326300</v>
       </c>
       <c r="G61" s="3">
-        <v>14713200</v>
+        <v>17752600</v>
       </c>
       <c r="H61" s="3">
-        <v>15175600</v>
+        <v>15320900</v>
       </c>
       <c r="I61" s="3">
-        <v>16056700</v>
+        <v>15802400</v>
       </c>
       <c r="J61" s="3">
+        <v>16719900</v>
+      </c>
+      <c r="K61" s="3">
         <v>16548400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>17626000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12461900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7533900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7146900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7113900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5612200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6519900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6984400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7575800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7569900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2472800</v>
+        <v>3067400</v>
       </c>
       <c r="E62" s="3">
-        <v>2298700</v>
+        <v>2574900</v>
       </c>
       <c r="F62" s="3">
-        <v>2170500</v>
+        <v>2393600</v>
       </c>
       <c r="G62" s="3">
-        <v>2591600</v>
+        <v>2260100</v>
       </c>
       <c r="H62" s="3">
-        <v>2389300</v>
+        <v>2698700</v>
       </c>
       <c r="I62" s="3">
-        <v>2398700</v>
+        <v>2488000</v>
       </c>
       <c r="J62" s="3">
+        <v>2497800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2101100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2372100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1897400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1931700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1842400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2059800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2093600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1954500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2055500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2175100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2062400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33827400</v>
+        <v>40347500</v>
       </c>
       <c r="E66" s="3">
-        <v>35395500</v>
+        <v>35224600</v>
       </c>
       <c r="F66" s="3">
-        <v>37322500</v>
+        <v>36857500</v>
       </c>
       <c r="G66" s="3">
-        <v>37938900</v>
+        <v>38864000</v>
       </c>
       <c r="H66" s="3">
-        <v>34667300</v>
+        <v>39505900</v>
       </c>
       <c r="I66" s="3">
-        <v>34869700</v>
+        <v>36099200</v>
       </c>
       <c r="J66" s="3">
+        <v>36309900</v>
+      </c>
+      <c r="K66" s="3">
         <v>35440200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37583400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26816300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20693300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>21595500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21756900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19073800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19142300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20624400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24634800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21012400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>37675400</v>
+        <v>42178900</v>
       </c>
       <c r="E72" s="3">
-        <v>35863700</v>
+        <v>39231500</v>
       </c>
       <c r="F72" s="3">
-        <v>33561500</v>
+        <v>37345000</v>
       </c>
       <c r="G72" s="3">
-        <v>37637700</v>
+        <v>34947700</v>
       </c>
       <c r="H72" s="3">
-        <v>33860300</v>
+        <v>39192300</v>
       </c>
       <c r="I72" s="3">
-        <v>35250800</v>
+        <v>35258900</v>
       </c>
       <c r="J72" s="3">
+        <v>36706800</v>
+      </c>
+      <c r="K72" s="3">
         <v>30553500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34669500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33879400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29653800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27163400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27940800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>28360500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26873900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24688300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30535500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30105900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>34959100</v>
+        <v>41108200</v>
       </c>
       <c r="E76" s="3">
-        <v>34339100</v>
+        <v>36403000</v>
       </c>
       <c r="F76" s="3">
-        <v>34095600</v>
+        <v>35757500</v>
       </c>
       <c r="G76" s="3">
-        <v>36112000</v>
+        <v>35503900</v>
       </c>
       <c r="H76" s="3">
-        <v>36169600</v>
+        <v>37603500</v>
       </c>
       <c r="I76" s="3">
-        <v>35479000</v>
+        <v>37663500</v>
       </c>
       <c r="J76" s="3">
+        <v>36944500</v>
+      </c>
+      <c r="K76" s="3">
         <v>32446300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34901500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34105400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29864200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>28342700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28172500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28592800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>27341800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27509000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31384200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30960400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2244600</v>
+        <v>1274000</v>
       </c>
       <c r="E81" s="3">
-        <v>1830500</v>
+        <v>2337300</v>
       </c>
       <c r="F81" s="3">
-        <v>1019900</v>
+        <v>1906100</v>
       </c>
       <c r="G81" s="3">
-        <v>957600</v>
+        <v>1062100</v>
       </c>
       <c r="H81" s="3">
-        <v>1905800</v>
+        <v>997100</v>
       </c>
       <c r="I81" s="3">
-        <v>1465800</v>
+        <v>1984500</v>
       </c>
       <c r="J81" s="3">
+        <v>1526300</v>
+      </c>
+      <c r="K81" s="3">
         <v>669400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-136400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1990800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1075500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>787300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>776300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1102900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>749500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>611600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1793600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>543500</v>
+        <v>534100</v>
       </c>
       <c r="E83" s="3">
-        <v>522300</v>
+        <v>565900</v>
       </c>
       <c r="F83" s="3">
-        <v>542300</v>
+        <v>543900</v>
       </c>
       <c r="G83" s="3">
-        <v>545800</v>
+        <v>564700</v>
       </c>
       <c r="H83" s="3">
-        <v>589400</v>
+        <v>568400</v>
       </c>
       <c r="I83" s="3">
-        <v>557600</v>
+        <v>613700</v>
       </c>
       <c r="J83" s="3">
+        <v>580600</v>
+      </c>
+      <c r="K83" s="3">
         <v>535300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>528700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>444800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>388800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>364500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>332700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>348900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>357900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>361300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>375600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>394400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2470400</v>
+        <v>3779100</v>
       </c>
       <c r="E89" s="3">
-        <v>1554000</v>
+        <v>2572500</v>
       </c>
       <c r="F89" s="3">
-        <v>927000</v>
+        <v>1618200</v>
       </c>
       <c r="G89" s="3">
-        <v>3510400</v>
+        <v>965300</v>
       </c>
       <c r="H89" s="3">
-        <v>211800</v>
+        <v>3655400</v>
       </c>
       <c r="I89" s="3">
-        <v>749400</v>
+        <v>220500</v>
       </c>
       <c r="J89" s="3">
+        <v>780300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-144700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3351800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>968800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>552700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>448000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2829500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1032200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>686700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>719200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3371200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1173800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-192900</v>
+        <v>-187400</v>
       </c>
       <c r="E91" s="3">
-        <v>-182300</v>
+        <v>-200900</v>
       </c>
       <c r="F91" s="3">
-        <v>-192900</v>
+        <v>-189900</v>
       </c>
       <c r="G91" s="3">
-        <v>-391700</v>
+        <v>-200900</v>
       </c>
       <c r="H91" s="3">
-        <v>-134100</v>
+        <v>-407900</v>
       </c>
       <c r="I91" s="3">
-        <v>-192900</v>
+        <v>-139600</v>
       </c>
       <c r="J91" s="3">
+        <v>-200900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-211800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-429400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-369100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-363300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-429300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-468800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-348900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-397200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-357900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-341600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-393200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2314000</v>
+        <v>-1184600</v>
       </c>
       <c r="E94" s="3">
-        <v>738800</v>
+        <v>-2409600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1498700</v>
+        <v>769300</v>
       </c>
       <c r="G94" s="3">
-        <v>-438800</v>
+        <v>-1560600</v>
       </c>
       <c r="H94" s="3">
-        <v>-42400</v>
+        <v>-456900</v>
       </c>
       <c r="I94" s="3">
-        <v>-335300</v>
+        <v>-44100</v>
       </c>
       <c r="J94" s="3">
+        <v>-349100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-232900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-540600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-422000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-405200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-534100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-304100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>313000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-755900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2462200</v>
+        <v>3259700</v>
       </c>
       <c r="E100" s="3">
-        <v>-732900</v>
+        <v>-2563900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1244600</v>
+        <v>-763200</v>
       </c>
       <c r="G100" s="3">
-        <v>-262300</v>
+        <v>-1296000</v>
       </c>
       <c r="H100" s="3">
-        <v>-342300</v>
+        <v>-273200</v>
       </c>
       <c r="I100" s="3">
-        <v>-145900</v>
+        <v>-356500</v>
       </c>
       <c r="J100" s="3">
+        <v>-151900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2910400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4439400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-162800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1627200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-673200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-336600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-422600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-191800</v>
+        <v>297700</v>
       </c>
       <c r="E101" s="3">
-        <v>-114100</v>
+        <v>-199700</v>
       </c>
       <c r="F101" s="3">
-        <v>-78800</v>
+        <v>-118800</v>
       </c>
       <c r="G101" s="3">
-        <v>132900</v>
+        <v>-82100</v>
       </c>
       <c r="H101" s="3">
-        <v>-75300</v>
+        <v>138400</v>
       </c>
       <c r="I101" s="3">
-        <v>151800</v>
+        <v>-78400</v>
       </c>
       <c r="J101" s="3">
+        <v>158000</v>
+      </c>
+      <c r="K101" s="3">
         <v>85900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-33500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>23300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>190000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-113100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-64000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-126800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-29300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2497500</v>
+        <v>6151900</v>
       </c>
       <c r="E102" s="3">
-        <v>1445800</v>
+        <v>-2600700</v>
       </c>
       <c r="F102" s="3">
-        <v>-1895200</v>
+        <v>1505500</v>
       </c>
       <c r="G102" s="3">
-        <v>2942200</v>
+        <v>-1973500</v>
       </c>
       <c r="H102" s="3">
-        <v>-248200</v>
+        <v>3063700</v>
       </c>
       <c r="I102" s="3">
-        <v>420000</v>
+        <v>-258500</v>
       </c>
       <c r="J102" s="3">
+        <v>437300</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>4874700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3938500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-234500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-18000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2622300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-482400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7776200</v>
+        <v>7785500</v>
       </c>
       <c r="E8" s="3">
-        <v>9234000</v>
+        <v>7410700</v>
       </c>
       <c r="F8" s="3">
-        <v>8005300</v>
+        <v>8799900</v>
       </c>
       <c r="G8" s="3">
-        <v>8260100</v>
+        <v>7629000</v>
       </c>
       <c r="H8" s="3">
-        <v>7988200</v>
+        <v>7871800</v>
       </c>
       <c r="I8" s="3">
-        <v>9848900</v>
+        <v>7612700</v>
       </c>
       <c r="J8" s="3">
+        <v>9386000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8318900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7799500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7287300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8786600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6667800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6586900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5776600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7635100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6271900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6486200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6203600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7891500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2254000</v>
+        <v>2208700</v>
       </c>
       <c r="E9" s="3">
-        <v>2252800</v>
+        <v>2138700</v>
       </c>
       <c r="F9" s="3">
-        <v>2240500</v>
+        <v>2146900</v>
       </c>
       <c r="G9" s="3">
-        <v>2405900</v>
+        <v>2135200</v>
       </c>
       <c r="H9" s="3">
-        <v>2451200</v>
+        <v>2292800</v>
       </c>
       <c r="I9" s="3">
-        <v>2578600</v>
+        <v>2336000</v>
       </c>
       <c r="J9" s="3">
+        <v>2457400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2371600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2386900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2355300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2296000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2034700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1992900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1752400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1963500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1794100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1920800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1966100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2021300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5522300</v>
+        <v>5576700</v>
       </c>
       <c r="E10" s="3">
-        <v>6981200</v>
+        <v>5272000</v>
       </c>
       <c r="F10" s="3">
-        <v>5764800</v>
+        <v>6653100</v>
       </c>
       <c r="G10" s="3">
-        <v>5854200</v>
+        <v>5493800</v>
       </c>
       <c r="H10" s="3">
-        <v>5537000</v>
+        <v>5579100</v>
       </c>
       <c r="I10" s="3">
-        <v>7270300</v>
+        <v>5276700</v>
       </c>
       <c r="J10" s="3">
+        <v>6928600</v>
+      </c>
+      <c r="K10" s="3">
         <v>5947300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5412600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4931900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6490600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4633100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4594000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4024200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5671700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4477900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4565400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4237500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5870200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1432000</v>
+        <v>1524600</v>
       </c>
       <c r="E12" s="3">
-        <v>1384200</v>
+        <v>1364700</v>
       </c>
       <c r="F12" s="3">
-        <v>1361000</v>
+        <v>1319200</v>
       </c>
       <c r="G12" s="3">
-        <v>1417300</v>
+        <v>1297000</v>
       </c>
       <c r="H12" s="3">
-        <v>1285000</v>
+        <v>1350700</v>
       </c>
       <c r="I12" s="3">
-        <v>1471200</v>
+        <v>1224600</v>
       </c>
       <c r="J12" s="3">
+        <v>1402100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1191900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1237600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1264400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1111900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1014600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1038700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>891600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>980600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>872900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>942500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>996600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1006000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>358900</v>
+        <v>178600</v>
       </c>
       <c r="E14" s="3">
-        <v>193500</v>
+        <v>351400</v>
       </c>
       <c r="F14" s="3">
-        <v>176400</v>
+        <v>184500</v>
       </c>
       <c r="G14" s="3">
-        <v>196000</v>
+        <v>168100</v>
       </c>
       <c r="H14" s="3">
-        <v>216800</v>
+        <v>186800</v>
       </c>
       <c r="I14" s="3">
-        <v>249900</v>
+        <v>206600</v>
       </c>
       <c r="J14" s="3">
+        <v>238200</v>
+      </c>
+      <c r="K14" s="3">
         <v>230300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>423500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1210600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>173900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>162800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>175700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>151500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>164900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>80800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>435300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>189000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>213600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6600200</v>
+        <v>6636700</v>
       </c>
       <c r="E17" s="3">
-        <v>5980400</v>
+        <v>6290000</v>
       </c>
       <c r="F17" s="3">
-        <v>6200900</v>
+        <v>5699300</v>
       </c>
       <c r="G17" s="3">
-        <v>6687200</v>
+        <v>5909400</v>
       </c>
       <c r="H17" s="3">
-        <v>6505900</v>
+        <v>6372900</v>
       </c>
       <c r="I17" s="3">
-        <v>7272800</v>
+        <v>6200100</v>
       </c>
       <c r="J17" s="3">
+        <v>6930900</v>
+      </c>
+      <c r="K17" s="3">
         <v>6262100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6826600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7449900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5948800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5298800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5440600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4651100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5431600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4797600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5447300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5413600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5601400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1176000</v>
+        <v>1148700</v>
       </c>
       <c r="E18" s="3">
-        <v>3253600</v>
+        <v>1120700</v>
       </c>
       <c r="F18" s="3">
-        <v>1804400</v>
+        <v>3100600</v>
       </c>
       <c r="G18" s="3">
-        <v>1572900</v>
+        <v>1719600</v>
       </c>
       <c r="H18" s="3">
-        <v>1482200</v>
+        <v>1499000</v>
       </c>
       <c r="I18" s="3">
-        <v>2576200</v>
+        <v>1412600</v>
       </c>
       <c r="J18" s="3">
+        <v>2455100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2056800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>972900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-162700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2837800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1369000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1146300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1125500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2203600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1474300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1039000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>790000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2290100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,176 +1413,183 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>461800</v>
+        <v>957300</v>
       </c>
       <c r="E20" s="3">
-        <v>115100</v>
+        <v>440100</v>
       </c>
       <c r="F20" s="3">
-        <v>784000</v>
+        <v>58400</v>
       </c>
       <c r="G20" s="3">
-        <v>46500</v>
+        <v>747100</v>
       </c>
       <c r="H20" s="3">
-        <v>-107800</v>
+        <v>44400</v>
       </c>
       <c r="I20" s="3">
-        <v>203300</v>
+        <v>-102700</v>
       </c>
       <c r="J20" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K20" s="3">
         <v>89400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>10800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-113600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>74200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-27500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-41700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>111100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>85300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>14100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2171900</v>
+        <v>2613800</v>
       </c>
       <c r="E21" s="3">
-        <v>3934700</v>
+        <v>2069800</v>
       </c>
       <c r="F21" s="3">
-        <v>3132300</v>
+        <v>3698400</v>
       </c>
       <c r="G21" s="3">
-        <v>2184200</v>
+        <v>2985100</v>
       </c>
       <c r="H21" s="3">
-        <v>1942800</v>
+        <v>2081500</v>
       </c>
       <c r="I21" s="3">
-        <v>3393200</v>
+        <v>1851500</v>
       </c>
       <c r="J21" s="3">
+        <v>3233700</v>
+      </c>
+      <c r="K21" s="3">
         <v>2726800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1509300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>376800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3169000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1832000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1483400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1416400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2663600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1917500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1380000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1159700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2698600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F22" s="3">
-        <v>52700</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>50200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K22" s="3">
         <v>61200</v>
       </c>
-      <c r="J22" s="3">
-        <v>61200</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>15300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15600</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>25500</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1637800</v>
+        <v>2106000</v>
       </c>
       <c r="E23" s="3">
-        <v>3314800</v>
+        <v>1560800</v>
       </c>
       <c r="F23" s="3">
-        <v>2535700</v>
+        <v>3159000</v>
       </c>
       <c r="G23" s="3">
-        <v>1619400</v>
+        <v>2416500</v>
       </c>
       <c r="H23" s="3">
-        <v>1374400</v>
+        <v>1543300</v>
       </c>
       <c r="I23" s="3">
-        <v>2718300</v>
+        <v>1309800</v>
       </c>
       <c r="J23" s="3">
+        <v>2590500</v>
+      </c>
+      <c r="K23" s="3">
         <v>2084900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>958800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-167500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2724200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1417700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1118900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1083700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2314700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1559600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1018800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>784100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2304200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>327100</v>
+        <v>414400</v>
       </c>
       <c r="E24" s="3">
-        <v>945700</v>
+        <v>311700</v>
       </c>
       <c r="F24" s="3">
-        <v>512000</v>
+        <v>901200</v>
       </c>
       <c r="G24" s="3">
-        <v>535300</v>
+        <v>488000</v>
       </c>
       <c r="H24" s="3">
-        <v>379700</v>
+        <v>510200</v>
       </c>
       <c r="I24" s="3">
-        <v>712900</v>
+        <v>361900</v>
       </c>
       <c r="J24" s="3">
+        <v>679400</v>
+      </c>
+      <c r="K24" s="3">
         <v>542700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>275300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-39500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>728700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>342200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>329400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>307400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>231100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>446600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>270400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>162000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>513000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1310700</v>
+        <v>1691600</v>
       </c>
       <c r="E26" s="3">
-        <v>2369100</v>
+        <v>1249100</v>
       </c>
       <c r="F26" s="3">
-        <v>2023700</v>
+        <v>2257800</v>
       </c>
       <c r="G26" s="3">
-        <v>1084100</v>
+        <v>1928600</v>
       </c>
       <c r="H26" s="3">
-        <v>994700</v>
+        <v>1033200</v>
       </c>
       <c r="I26" s="3">
-        <v>2005300</v>
+        <v>947900</v>
       </c>
       <c r="J26" s="3">
+        <v>1911100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1542300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>683500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-128000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1995600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1075500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>789500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>776300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2083500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1113000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>748400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>622100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1791200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1274000</v>
+        <v>1583000</v>
       </c>
       <c r="E27" s="3">
-        <v>2337300</v>
+        <v>1214100</v>
       </c>
       <c r="F27" s="3">
-        <v>1906100</v>
+        <v>2227400</v>
       </c>
       <c r="G27" s="3">
-        <v>1062100</v>
+        <v>1816500</v>
       </c>
       <c r="H27" s="3">
-        <v>997100</v>
+        <v>1012100</v>
       </c>
       <c r="I27" s="3">
-        <v>1984500</v>
+        <v>950300</v>
       </c>
       <c r="J27" s="3">
+        <v>1891200</v>
+      </c>
+      <c r="K27" s="3">
         <v>1526300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>669400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-136400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1990800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1075500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>787300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>776300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>2060000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1102900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>749500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>611600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1793600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1991,8 +2052,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-461800</v>
+        <v>-957300</v>
       </c>
       <c r="E32" s="3">
-        <v>-115100</v>
+        <v>-440100</v>
       </c>
       <c r="F32" s="3">
-        <v>-784000</v>
+        <v>-58400</v>
       </c>
       <c r="G32" s="3">
-        <v>-46500</v>
+        <v>-747100</v>
       </c>
       <c r="H32" s="3">
-        <v>107800</v>
+        <v>-44400</v>
       </c>
       <c r="I32" s="3">
-        <v>-203300</v>
+        <v>102700</v>
       </c>
       <c r="J32" s="3">
+        <v>-193800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-89400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-10800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>113600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-74200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>27500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>41700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-111100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-85300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-14100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1274000</v>
+        <v>1583000</v>
       </c>
       <c r="E33" s="3">
-        <v>2337300</v>
+        <v>1214100</v>
       </c>
       <c r="F33" s="3">
-        <v>1906100</v>
+        <v>2227400</v>
       </c>
       <c r="G33" s="3">
-        <v>1062100</v>
+        <v>1816500</v>
       </c>
       <c r="H33" s="3">
-        <v>997100</v>
+        <v>1012100</v>
       </c>
       <c r="I33" s="3">
-        <v>1984500</v>
+        <v>950300</v>
       </c>
       <c r="J33" s="3">
+        <v>1891200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1526300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>669400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-136400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1990800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1075500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>787300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>776300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>2060000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1102900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>749500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>611600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1793600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1274000</v>
+        <v>1583000</v>
       </c>
       <c r="E35" s="3">
-        <v>2337300</v>
+        <v>1214100</v>
       </c>
       <c r="F35" s="3">
-        <v>1906100</v>
+        <v>2227400</v>
       </c>
       <c r="G35" s="3">
-        <v>1062100</v>
+        <v>1816500</v>
       </c>
       <c r="H35" s="3">
-        <v>997100</v>
+        <v>1012100</v>
       </c>
       <c r="I35" s="3">
-        <v>1984500</v>
+        <v>950300</v>
       </c>
       <c r="J35" s="3">
+        <v>1891200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1526300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>669400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-136400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1990800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1075500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>787300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>776300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>2060000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1102900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>749500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>611600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1793600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,194 +2573,204 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12656600</v>
+        <v>9063800</v>
       </c>
       <c r="E41" s="3">
-        <v>6505900</v>
+        <v>12061700</v>
       </c>
       <c r="F41" s="3">
-        <v>9106600</v>
+        <v>6200100</v>
       </c>
       <c r="G41" s="3">
-        <v>7601100</v>
+        <v>8678500</v>
       </c>
       <c r="H41" s="3">
-        <v>9574500</v>
+        <v>7243800</v>
       </c>
       <c r="I41" s="3">
-        <v>6509600</v>
+        <v>9124500</v>
       </c>
       <c r="J41" s="3">
+        <v>6203600</v>
+      </c>
+      <c r="K41" s="3">
         <v>6768100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6079600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8770500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10204900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4992000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4957500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8342600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4500300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4734800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4752700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6968900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4345400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1730900</v>
+        <v>1026200</v>
       </c>
       <c r="E42" s="3">
-        <v>2002900</v>
+        <v>1649600</v>
       </c>
       <c r="F42" s="3">
-        <v>649200</v>
+        <v>1908700</v>
       </c>
       <c r="G42" s="3">
-        <v>1738300</v>
+        <v>618700</v>
       </c>
       <c r="H42" s="3">
-        <v>438500</v>
+        <v>1656600</v>
       </c>
       <c r="I42" s="3">
-        <v>363800</v>
+        <v>417900</v>
       </c>
       <c r="J42" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K42" s="3">
         <v>401800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>472900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>707000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>529900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>536100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>434800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>942100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1154500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1136600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>973900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1813500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1319400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>345400</v>
+        <v>7339500</v>
       </c>
       <c r="E43" s="3">
-        <v>8333600</v>
+        <v>329200</v>
       </c>
       <c r="F43" s="3">
-        <v>840300</v>
+        <v>7941900</v>
       </c>
       <c r="G43" s="3">
-        <v>8648400</v>
+        <v>800800</v>
       </c>
       <c r="H43" s="3">
-        <v>769300</v>
+        <v>8241900</v>
       </c>
       <c r="I43" s="3">
-        <v>10307100</v>
+        <v>733100</v>
       </c>
       <c r="J43" s="3">
+        <v>9822600</v>
+      </c>
+      <c r="K43" s="3">
         <v>1321800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7964200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>405500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>346600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5953400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6073000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>374400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>20987900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5868000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6488500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>345100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>273500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,318 +2831,336 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1756600</v>
+        <v>1835200</v>
       </c>
       <c r="E45" s="3">
-        <v>1617000</v>
+        <v>1674100</v>
       </c>
       <c r="F45" s="3">
-        <v>1680700</v>
+        <v>1541000</v>
       </c>
       <c r="G45" s="3">
-        <v>1664800</v>
+        <v>1601700</v>
       </c>
       <c r="H45" s="3">
-        <v>1532500</v>
+        <v>1586500</v>
       </c>
       <c r="I45" s="3">
-        <v>1455300</v>
+        <v>1460400</v>
       </c>
       <c r="J45" s="3">
+        <v>1386900</v>
+      </c>
+      <c r="K45" s="3">
         <v>1601100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1424600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1250000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1052800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1135300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1104600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>932200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>989600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>848200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>842600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>909700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>682000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24595300</v>
+        <v>19264600</v>
       </c>
       <c r="E46" s="3">
-        <v>18459400</v>
+        <v>23439300</v>
       </c>
       <c r="F46" s="3">
-        <v>19130700</v>
+        <v>17591700</v>
       </c>
       <c r="G46" s="3">
-        <v>19652500</v>
+        <v>18231400</v>
       </c>
       <c r="H46" s="3">
-        <v>21232800</v>
+        <v>18728800</v>
       </c>
       <c r="I46" s="3">
-        <v>18635800</v>
+        <v>20234700</v>
       </c>
       <c r="J46" s="3">
+        <v>17759800</v>
+      </c>
+      <c r="K46" s="3">
         <v>17254000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15941400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19213400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19659800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12616700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12569900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>16556700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13385300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12587600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13057700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>17779700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13573900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5549200</v>
+        <v>6238600</v>
       </c>
       <c r="E47" s="3">
-        <v>4802000</v>
+        <v>5288400</v>
       </c>
       <c r="F47" s="3">
-        <v>4369500</v>
+        <v>4576200</v>
       </c>
       <c r="G47" s="3">
-        <v>3673700</v>
+        <v>4164200</v>
       </c>
       <c r="H47" s="3">
-        <v>3693300</v>
+        <v>3501100</v>
       </c>
       <c r="I47" s="3">
-        <v>3552500</v>
+        <v>3519700</v>
       </c>
       <c r="J47" s="3">
+        <v>3385500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3617400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2953900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2730900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2565700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2239600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2159800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1878700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1955600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2009500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2305700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2371100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2270100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6060000</v>
+        <v>5635100</v>
       </c>
       <c r="E48" s="3">
-        <v>6175200</v>
+        <v>5775200</v>
       </c>
       <c r="F48" s="3">
-        <v>6264600</v>
+        <v>5884900</v>
       </c>
       <c r="G48" s="3">
-        <v>6458100</v>
+        <v>5970100</v>
       </c>
       <c r="H48" s="3">
-        <v>6594100</v>
+        <v>6154600</v>
       </c>
       <c r="I48" s="3">
-        <v>6732500</v>
+        <v>6284200</v>
       </c>
       <c r="J48" s="3">
+        <v>6416100</v>
+      </c>
+      <c r="K48" s="3">
         <v>6675000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6358400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6606600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4202800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3788000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3605800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3342300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3328900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3148300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3050700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3075400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3028400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40983300</v>
+        <v>38497700</v>
       </c>
       <c r="E49" s="3">
-        <v>38396100</v>
+        <v>39056900</v>
       </c>
       <c r="F49" s="3">
-        <v>39232800</v>
+        <v>36591300</v>
       </c>
       <c r="G49" s="3">
-        <v>40880400</v>
+        <v>37388600</v>
       </c>
       <c r="H49" s="3">
-        <v>41810100</v>
+        <v>38958800</v>
       </c>
       <c r="I49" s="3">
-        <v>41224600</v>
+        <v>39844900</v>
       </c>
       <c r="J49" s="3">
+        <v>39286800</v>
+      </c>
+      <c r="K49" s="3">
         <v>42346700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39445900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40703100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31894500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29648200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29382500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>26013800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>27194800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27366500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>28298800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31375900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31806700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4267900</v>
+        <v>4021700</v>
       </c>
       <c r="E52" s="3">
-        <v>3795000</v>
+        <v>4067300</v>
       </c>
       <c r="F52" s="3">
-        <v>3617400</v>
+        <v>3616600</v>
       </c>
       <c r="G52" s="3">
-        <v>3703100</v>
+        <v>3447400</v>
       </c>
       <c r="H52" s="3">
-        <v>3779100</v>
+        <v>3529100</v>
       </c>
       <c r="I52" s="3">
-        <v>3617400</v>
+        <v>3601500</v>
       </c>
       <c r="J52" s="3">
+        <v>3447400</v>
+      </c>
+      <c r="K52" s="3">
         <v>3361400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3186900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3230900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2737200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2265000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2220200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2137800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1935400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1372200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1420400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1416800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1293500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>81455700</v>
+        <v>73657700</v>
       </c>
       <c r="E54" s="3">
-        <v>71627600</v>
+        <v>77626900</v>
       </c>
       <c r="F54" s="3">
-        <v>72615000</v>
+        <v>68260800</v>
       </c>
       <c r="G54" s="3">
-        <v>74367900</v>
+        <v>69201700</v>
       </c>
       <c r="H54" s="3">
-        <v>77109400</v>
+        <v>70872300</v>
       </c>
       <c r="I54" s="3">
-        <v>73762800</v>
+        <v>73485000</v>
       </c>
       <c r="J54" s="3">
+        <v>70295600</v>
+      </c>
+      <c r="K54" s="3">
         <v>73254400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67886500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72484900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>60921700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>50557500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49938100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49929400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47666600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>46484000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>48133400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>56018900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>51972800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1473700</v>
+        <v>1256100</v>
       </c>
       <c r="E57" s="3">
-        <v>1485900</v>
+        <v>1404400</v>
       </c>
       <c r="F57" s="3">
-        <v>1566800</v>
+        <v>1416100</v>
       </c>
       <c r="G57" s="3">
-        <v>1606000</v>
+        <v>1493100</v>
       </c>
       <c r="H57" s="3">
-        <v>1786000</v>
+        <v>1530500</v>
       </c>
       <c r="I57" s="3">
-        <v>1936700</v>
+        <v>1702100</v>
       </c>
       <c r="J57" s="3">
+        <v>1845700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1849700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1731700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1968900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1763700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1380100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1290200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1170500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1291400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1221800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1281300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1388600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1503700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5627600</v>
+        <v>4475800</v>
       </c>
       <c r="E58" s="3">
-        <v>2280900</v>
+        <v>5363100</v>
       </c>
       <c r="F58" s="3">
-        <v>4737000</v>
+        <v>2173700</v>
       </c>
       <c r="G58" s="3">
-        <v>3166600</v>
+        <v>4514400</v>
       </c>
       <c r="H58" s="3">
-        <v>6298900</v>
+        <v>3017800</v>
       </c>
       <c r="I58" s="3">
-        <v>3577000</v>
+        <v>6002800</v>
       </c>
       <c r="J58" s="3">
+        <v>3408800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3418900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2134000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1935500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2239200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1243800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1281400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1750200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3207800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1446200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>608100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2083500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2128100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>13461400</v>
+        <v>12201800</v>
       </c>
       <c r="E59" s="3">
-        <v>11964500</v>
+        <v>12828700</v>
       </c>
       <c r="F59" s="3">
-        <v>10613300</v>
+        <v>11402100</v>
       </c>
       <c r="G59" s="3">
-        <v>13969800</v>
+        <v>10114400</v>
       </c>
       <c r="H59" s="3">
-        <v>13312000</v>
+        <v>13313100</v>
       </c>
       <c r="I59" s="3">
-        <v>12202100</v>
+        <v>12686200</v>
       </c>
       <c r="J59" s="3">
+        <v>11628600</v>
+      </c>
+      <c r="K59" s="3">
         <v>11739100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12854500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>13619900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9731700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8556200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9986300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9629500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12110800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7998700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9687300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>11375400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7723700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20562700</v>
+        <v>17933800</v>
       </c>
       <c r="E60" s="3">
-        <v>15731300</v>
+        <v>19596100</v>
       </c>
       <c r="F60" s="3">
-        <v>16917100</v>
+        <v>14991900</v>
       </c>
       <c r="G60" s="3">
-        <v>18742300</v>
+        <v>16121900</v>
       </c>
       <c r="H60" s="3">
-        <v>21396900</v>
+        <v>17861400</v>
       </c>
       <c r="I60" s="3">
-        <v>17715800</v>
+        <v>20391200</v>
       </c>
       <c r="J60" s="3">
+        <v>16883100</v>
+      </c>
+      <c r="K60" s="3">
         <v>17007800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16720200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17524300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12403900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11180100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12557800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12550100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11455500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10666800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11576700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>14847500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11355400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15151900</v>
+        <v>13258300</v>
       </c>
       <c r="E61" s="3">
-        <v>16659900</v>
+        <v>14439700</v>
       </c>
       <c r="F61" s="3">
-        <v>17326300</v>
+        <v>15876800</v>
       </c>
       <c r="G61" s="3">
-        <v>17752600</v>
+        <v>16511800</v>
       </c>
       <c r="H61" s="3">
-        <v>15320900</v>
+        <v>16918100</v>
       </c>
       <c r="I61" s="3">
-        <v>15802400</v>
+        <v>14600800</v>
       </c>
       <c r="J61" s="3">
+        <v>15059600</v>
+      </c>
+      <c r="K61" s="3">
         <v>16719900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16548400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>17626000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12461900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7533900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7146900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7113900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5612200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>6519900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6984400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7575800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7569900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3067400</v>
+        <v>2631300</v>
       </c>
       <c r="E62" s="3">
-        <v>2574900</v>
+        <v>2923200</v>
       </c>
       <c r="F62" s="3">
-        <v>2393600</v>
+        <v>2453900</v>
       </c>
       <c r="G62" s="3">
-        <v>2260100</v>
+        <v>2281100</v>
       </c>
       <c r="H62" s="3">
-        <v>2698700</v>
+        <v>2153900</v>
       </c>
       <c r="I62" s="3">
-        <v>2488000</v>
+        <v>2571800</v>
       </c>
       <c r="J62" s="3">
+        <v>2371000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2497800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2101100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2372100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1897400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1931700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1842400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2059800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2093600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1954500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2055500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2175100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2062400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>40347500</v>
+        <v>35565100</v>
       </c>
       <c r="E66" s="3">
-        <v>35224600</v>
+        <v>38451000</v>
       </c>
       <c r="F66" s="3">
-        <v>36857500</v>
+        <v>33568900</v>
       </c>
       <c r="G66" s="3">
-        <v>38864000</v>
+        <v>35125000</v>
       </c>
       <c r="H66" s="3">
-        <v>39505900</v>
+        <v>37037200</v>
       </c>
       <c r="I66" s="3">
-        <v>36099200</v>
+        <v>37649000</v>
       </c>
       <c r="J66" s="3">
+        <v>34402400</v>
+      </c>
+      <c r="K66" s="3">
         <v>36309900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>35440200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>37583400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26816300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20693300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>21595500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21756900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>19073800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19142300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20624400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24634800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21012400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42178900</v>
+        <v>38654100</v>
       </c>
       <c r="E72" s="3">
-        <v>39231500</v>
+        <v>40196300</v>
       </c>
       <c r="F72" s="3">
-        <v>37345000</v>
+        <v>37387500</v>
       </c>
       <c r="G72" s="3">
-        <v>34947700</v>
+        <v>35589700</v>
       </c>
       <c r="H72" s="3">
-        <v>39192300</v>
+        <v>33305000</v>
       </c>
       <c r="I72" s="3">
-        <v>35258900</v>
+        <v>37350100</v>
       </c>
       <c r="J72" s="3">
+        <v>33601600</v>
+      </c>
+      <c r="K72" s="3">
         <v>36706800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30553500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34669500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33879400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29653800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>27163400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27940800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>28360500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26873900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24688300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30535500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30105900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41108200</v>
+        <v>38092600</v>
       </c>
       <c r="E76" s="3">
-        <v>36403000</v>
+        <v>39175900</v>
       </c>
       <c r="F76" s="3">
-        <v>35757500</v>
+        <v>34691900</v>
       </c>
       <c r="G76" s="3">
-        <v>35503900</v>
+        <v>34076700</v>
       </c>
       <c r="H76" s="3">
-        <v>37603500</v>
+        <v>33835000</v>
       </c>
       <c r="I76" s="3">
-        <v>37663500</v>
+        <v>35836000</v>
       </c>
       <c r="J76" s="3">
+        <v>35893200</v>
+      </c>
+      <c r="K76" s="3">
         <v>36944500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32446300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34901500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34105400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29864200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>28342700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28172500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28592800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>27341800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27509000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31384200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30960400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1274000</v>
+        <v>1583000</v>
       </c>
       <c r="E81" s="3">
-        <v>2337300</v>
+        <v>1214100</v>
       </c>
       <c r="F81" s="3">
-        <v>1906100</v>
+        <v>2227400</v>
       </c>
       <c r="G81" s="3">
-        <v>1062100</v>
+        <v>1816500</v>
       </c>
       <c r="H81" s="3">
-        <v>997100</v>
+        <v>1012100</v>
       </c>
       <c r="I81" s="3">
-        <v>1984500</v>
+        <v>950300</v>
       </c>
       <c r="J81" s="3">
+        <v>1891200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1526300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>669400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-136400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1990800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1075500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>787300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>776300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>2060000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1102900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>749500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>611600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1793600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>534100</v>
+        <v>507800</v>
       </c>
       <c r="E83" s="3">
-        <v>565900</v>
+        <v>509000</v>
       </c>
       <c r="F83" s="3">
-        <v>543900</v>
+        <v>539300</v>
       </c>
       <c r="G83" s="3">
-        <v>564700</v>
+        <v>518300</v>
       </c>
       <c r="H83" s="3">
-        <v>568400</v>
+        <v>538200</v>
       </c>
       <c r="I83" s="3">
-        <v>613700</v>
+        <v>541700</v>
       </c>
       <c r="J83" s="3">
+        <v>584900</v>
+      </c>
+      <c r="K83" s="3">
         <v>580600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>535300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>528700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>444800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>388800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>364500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>332700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>348900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>357900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>361300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>375600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>394400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3779100</v>
+        <v>800800</v>
       </c>
       <c r="E89" s="3">
-        <v>2572500</v>
+        <v>3601500</v>
       </c>
       <c r="F89" s="3">
-        <v>1618200</v>
+        <v>2451600</v>
       </c>
       <c r="G89" s="3">
-        <v>965300</v>
+        <v>1542100</v>
       </c>
       <c r="H89" s="3">
-        <v>3655400</v>
+        <v>919900</v>
       </c>
       <c r="I89" s="3">
-        <v>220500</v>
+        <v>3483600</v>
       </c>
       <c r="J89" s="3">
+        <v>210100</v>
+      </c>
+      <c r="K89" s="3">
         <v>780300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-144700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3351800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>968800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>552700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>448000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2829500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1032200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>686700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>719200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3371200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1173800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-187400</v>
+        <v>-223000</v>
       </c>
       <c r="E91" s="3">
+        <v>-178600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-191500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-180900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-191500</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-388700</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-133100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200900</v>
       </c>
-      <c r="F91" s="3">
-        <v>-189900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-407900</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-139600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200900</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-211800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-429400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-369100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-363300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-429300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-468800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-348900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-397200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-357900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-341600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-393200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1184600</v>
+        <v>279000</v>
       </c>
       <c r="E94" s="3">
-        <v>-2409600</v>
+        <v>-1128900</v>
       </c>
       <c r="F94" s="3">
-        <v>769300</v>
+        <v>-2296300</v>
       </c>
       <c r="G94" s="3">
-        <v>-1560600</v>
+        <v>733100</v>
       </c>
       <c r="H94" s="3">
-        <v>-456900</v>
+        <v>-1487300</v>
       </c>
       <c r="I94" s="3">
-        <v>-44100</v>
+        <v>-435400</v>
       </c>
       <c r="J94" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-349100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-232900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-540600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-422000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-405200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-534100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-304100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>313000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-755900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3259700</v>
+        <v>-3957500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2563900</v>
+        <v>3106500</v>
       </c>
       <c r="F100" s="3">
-        <v>-763200</v>
+        <v>-2443400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1296000</v>
+        <v>-727300</v>
       </c>
       <c r="H100" s="3">
-        <v>-273200</v>
+        <v>-1235100</v>
       </c>
       <c r="I100" s="3">
-        <v>-356500</v>
+        <v>-260300</v>
       </c>
       <c r="J100" s="3">
+        <v>-339700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-151900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2910400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4439400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-162800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1627200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-673200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-336600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-422600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>297700</v>
+        <v>-121400</v>
       </c>
       <c r="E101" s="3">
-        <v>-199700</v>
+        <v>283700</v>
       </c>
       <c r="F101" s="3">
-        <v>-118800</v>
+        <v>-190300</v>
       </c>
       <c r="G101" s="3">
-        <v>-82100</v>
+        <v>-113200</v>
       </c>
       <c r="H101" s="3">
-        <v>138400</v>
+        <v>-78200</v>
       </c>
       <c r="I101" s="3">
-        <v>-78400</v>
+        <v>131900</v>
       </c>
       <c r="J101" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="K101" s="3">
         <v>158000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>85900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-33500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>23300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>190000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-113100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-59500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-64000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-126800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-29300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>6151900</v>
+        <v>-2999100</v>
       </c>
       <c r="E102" s="3">
-        <v>-2600700</v>
+        <v>5862700</v>
       </c>
       <c r="F102" s="3">
-        <v>1505500</v>
+        <v>-2478400</v>
       </c>
       <c r="G102" s="3">
-        <v>-1973500</v>
+        <v>1434700</v>
       </c>
       <c r="H102" s="3">
-        <v>3063700</v>
+        <v>-1880700</v>
       </c>
       <c r="I102" s="3">
-        <v>-258500</v>
+        <v>2919700</v>
       </c>
       <c r="J102" s="3">
+        <v>-246300</v>
+      </c>
+      <c r="K102" s="3">
         <v>437300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>4874700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3938500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-234500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2622300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-482400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7785500</v>
+        <v>7728700</v>
       </c>
       <c r="E8" s="3">
-        <v>7410700</v>
+        <v>7530000</v>
       </c>
       <c r="F8" s="3">
-        <v>8799900</v>
+        <v>7167500</v>
       </c>
       <c r="G8" s="3">
-        <v>7629000</v>
+        <v>8511200</v>
       </c>
       <c r="H8" s="3">
-        <v>7871800</v>
+        <v>7378700</v>
       </c>
       <c r="I8" s="3">
-        <v>7612700</v>
+        <v>7613500</v>
       </c>
       <c r="J8" s="3">
+        <v>7362900</v>
+      </c>
+      <c r="K8" s="3">
         <v>9386000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8318900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7799500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7287300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8786600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6667800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6586900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5776600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7635100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6271900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6486200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6203600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7891500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2208700</v>
+        <v>2148700</v>
       </c>
       <c r="E9" s="3">
-        <v>2138700</v>
+        <v>2136300</v>
       </c>
       <c r="F9" s="3">
-        <v>2146900</v>
+        <v>2068500</v>
       </c>
       <c r="G9" s="3">
-        <v>2135200</v>
+        <v>2076400</v>
       </c>
       <c r="H9" s="3">
-        <v>2292800</v>
+        <v>2065100</v>
       </c>
       <c r="I9" s="3">
-        <v>2336000</v>
+        <v>2217600</v>
       </c>
       <c r="J9" s="3">
+        <v>2259300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2457400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2371600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2386900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2355300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2296000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2034700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1992900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1752400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1963500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1794100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1920800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1966100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2021300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5576700</v>
+        <v>5580000</v>
       </c>
       <c r="E10" s="3">
-        <v>5272000</v>
+        <v>5393700</v>
       </c>
       <c r="F10" s="3">
-        <v>6653100</v>
+        <v>5099000</v>
       </c>
       <c r="G10" s="3">
-        <v>5493800</v>
+        <v>6434700</v>
       </c>
       <c r="H10" s="3">
-        <v>5579100</v>
+        <v>5313500</v>
       </c>
       <c r="I10" s="3">
-        <v>5276700</v>
+        <v>5396000</v>
       </c>
       <c r="J10" s="3">
+        <v>5103500</v>
+      </c>
+      <c r="K10" s="3">
         <v>6928600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5947300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5412600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4931900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6490600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4633100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4594000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4024200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5671700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4477900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4565400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4237500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5870200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1524600</v>
+        <v>1465600</v>
       </c>
       <c r="E12" s="3">
-        <v>1364700</v>
+        <v>1474600</v>
       </c>
       <c r="F12" s="3">
-        <v>1319200</v>
+        <v>1319900</v>
       </c>
       <c r="G12" s="3">
-        <v>1297000</v>
+        <v>1275900</v>
       </c>
       <c r="H12" s="3">
-        <v>1350700</v>
+        <v>1254400</v>
       </c>
       <c r="I12" s="3">
-        <v>1224600</v>
+        <v>1306400</v>
       </c>
       <c r="J12" s="3">
+        <v>1184400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1402100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1191900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1237600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1264400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1111900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1014600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1038700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>891600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>980600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>872900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>942500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>996600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1006000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,73 +1124,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>178600</v>
+        <v>166000</v>
       </c>
       <c r="E14" s="3">
-        <v>351400</v>
+        <v>172800</v>
       </c>
       <c r="F14" s="3">
-        <v>184500</v>
+        <v>339900</v>
       </c>
       <c r="G14" s="3">
-        <v>168100</v>
+        <v>178400</v>
       </c>
       <c r="H14" s="3">
-        <v>186800</v>
+        <v>162600</v>
       </c>
       <c r="I14" s="3">
-        <v>206600</v>
+        <v>180700</v>
       </c>
       <c r="J14" s="3">
+        <v>199900</v>
+      </c>
+      <c r="K14" s="3">
         <v>238200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>230300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>423500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1210600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>173900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>162800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>175700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>151500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>164900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>80800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>435300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>189000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>213600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6636700</v>
+        <v>6318400</v>
       </c>
       <c r="E17" s="3">
-        <v>6290000</v>
+        <v>6418900</v>
       </c>
       <c r="F17" s="3">
-        <v>5699300</v>
+        <v>6083600</v>
       </c>
       <c r="G17" s="3">
-        <v>5909400</v>
+        <v>5512300</v>
       </c>
       <c r="H17" s="3">
-        <v>6372900</v>
+        <v>5715500</v>
       </c>
       <c r="I17" s="3">
-        <v>6200100</v>
+        <v>6163800</v>
       </c>
       <c r="J17" s="3">
+        <v>5996700</v>
+      </c>
+      <c r="K17" s="3">
         <v>6930900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6262100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6826600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7449900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5948800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5298800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5440600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4651100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5431600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4797600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5447300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5413600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5601400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1148700</v>
+        <v>1410200</v>
       </c>
       <c r="E18" s="3">
-        <v>1120700</v>
+        <v>1111000</v>
       </c>
       <c r="F18" s="3">
-        <v>3100600</v>
+        <v>1083900</v>
       </c>
       <c r="G18" s="3">
-        <v>1719600</v>
+        <v>2998900</v>
       </c>
       <c r="H18" s="3">
-        <v>1499000</v>
+        <v>1663200</v>
       </c>
       <c r="I18" s="3">
-        <v>1412600</v>
+        <v>1449800</v>
       </c>
       <c r="J18" s="3">
+        <v>1366200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2455100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2056800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>972900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-162700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2837800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1369000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1146300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1125500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2203600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1474300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1039000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>790000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2290100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,138 +1447,145 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>957300</v>
+        <v>564600</v>
       </c>
       <c r="E20" s="3">
-        <v>440100</v>
+        <v>925900</v>
       </c>
       <c r="F20" s="3">
-        <v>58400</v>
+        <v>425700</v>
       </c>
       <c r="G20" s="3">
-        <v>747100</v>
+        <v>56500</v>
       </c>
       <c r="H20" s="3">
-        <v>44400</v>
+        <v>722600</v>
       </c>
       <c r="I20" s="3">
-        <v>-102700</v>
+        <v>42900</v>
       </c>
       <c r="J20" s="3">
+        <v>-99400</v>
+      </c>
+      <c r="K20" s="3">
         <v>193800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>89400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-113600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>74200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-27500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-41700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>111100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>85300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-5900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>14100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2613800</v>
+        <v>2468200</v>
       </c>
       <c r="E21" s="3">
-        <v>2069800</v>
+        <v>2528100</v>
       </c>
       <c r="F21" s="3">
-        <v>3698400</v>
+        <v>2001900</v>
       </c>
       <c r="G21" s="3">
-        <v>2985100</v>
+        <v>3577000</v>
       </c>
       <c r="H21" s="3">
-        <v>2081500</v>
+        <v>2887100</v>
       </c>
       <c r="I21" s="3">
-        <v>1851500</v>
+        <v>2013200</v>
       </c>
       <c r="J21" s="3">
+        <v>1790800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3233700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2726800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1509300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>376800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3169000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1832000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1483400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1416400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2663600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1917500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1380000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1159700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2698600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1558,41 +1598,41 @@
       <c r="F22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3">
-        <v>50200</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H22" s="3">
+        <v>48600</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3">
         <v>58400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>61200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>15300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15600</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>25500</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1609,138 +1649,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2106000</v>
+        <v>1974800</v>
       </c>
       <c r="E23" s="3">
-        <v>1560800</v>
+        <v>2036900</v>
       </c>
       <c r="F23" s="3">
-        <v>3159000</v>
+        <v>1509600</v>
       </c>
       <c r="G23" s="3">
-        <v>2416500</v>
+        <v>3055300</v>
       </c>
       <c r="H23" s="3">
-        <v>1543300</v>
+        <v>2337200</v>
       </c>
       <c r="I23" s="3">
-        <v>1309800</v>
+        <v>1492700</v>
       </c>
       <c r="J23" s="3">
+        <v>1266900</v>
+      </c>
+      <c r="K23" s="3">
         <v>2590500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2084900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>958800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-167500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2724200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1417700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1118900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1083700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2314700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1559600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1018800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>784100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2304200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>414400</v>
+        <v>373700</v>
       </c>
       <c r="E24" s="3">
-        <v>311700</v>
+        <v>400800</v>
       </c>
       <c r="F24" s="3">
-        <v>901200</v>
+        <v>301500</v>
       </c>
       <c r="G24" s="3">
-        <v>488000</v>
+        <v>871700</v>
       </c>
       <c r="H24" s="3">
-        <v>510200</v>
+        <v>472000</v>
       </c>
       <c r="I24" s="3">
-        <v>361900</v>
+        <v>493400</v>
       </c>
       <c r="J24" s="3">
+        <v>350000</v>
+      </c>
+      <c r="K24" s="3">
         <v>679400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>542700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>275300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-39500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>728700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>342200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>329400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>307400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>231100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>446600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>270400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>162000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>513000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1691600</v>
+        <v>1601100</v>
       </c>
       <c r="E26" s="3">
-        <v>1249100</v>
+        <v>1636100</v>
       </c>
       <c r="F26" s="3">
-        <v>2257800</v>
+        <v>1208100</v>
       </c>
       <c r="G26" s="3">
-        <v>1928600</v>
+        <v>2183700</v>
       </c>
       <c r="H26" s="3">
-        <v>1033200</v>
+        <v>1865300</v>
       </c>
       <c r="I26" s="3">
-        <v>947900</v>
+        <v>999300</v>
       </c>
       <c r="J26" s="3">
+        <v>916800</v>
+      </c>
+      <c r="K26" s="3">
         <v>1911100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1542300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>683500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-128000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1995600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1075500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>789500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>776300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2083500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1113000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>748400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>622100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1791200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1583000</v>
+        <v>1587500</v>
       </c>
       <c r="E27" s="3">
-        <v>1214100</v>
+        <v>1531100</v>
       </c>
       <c r="F27" s="3">
-        <v>2227400</v>
+        <v>1174300</v>
       </c>
       <c r="G27" s="3">
-        <v>1816500</v>
+        <v>2154300</v>
       </c>
       <c r="H27" s="3">
-        <v>1012100</v>
+        <v>1756900</v>
       </c>
       <c r="I27" s="3">
-        <v>950300</v>
+        <v>978900</v>
       </c>
       <c r="J27" s="3">
+        <v>919100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1891200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1526300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>669400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-136400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1990800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1075500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>787300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>776300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2060000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1102900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>749500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>611600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1793600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2055,8 +2116,8 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-957300</v>
+        <v>-564600</v>
       </c>
       <c r="E32" s="3">
-        <v>-440100</v>
+        <v>-925900</v>
       </c>
       <c r="F32" s="3">
-        <v>-58400</v>
+        <v>-425700</v>
       </c>
       <c r="G32" s="3">
-        <v>-747100</v>
+        <v>-56500</v>
       </c>
       <c r="H32" s="3">
-        <v>-44400</v>
+        <v>-722600</v>
       </c>
       <c r="I32" s="3">
-        <v>102700</v>
+        <v>-42900</v>
       </c>
       <c r="J32" s="3">
+        <v>99400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-193800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-89400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>113600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-74200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>27500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>41700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-111100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-85300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>5900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-14100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1583000</v>
+        <v>1587500</v>
       </c>
       <c r="E33" s="3">
-        <v>1214100</v>
+        <v>1531100</v>
       </c>
       <c r="F33" s="3">
-        <v>2227400</v>
+        <v>1174300</v>
       </c>
       <c r="G33" s="3">
-        <v>1816500</v>
+        <v>2154300</v>
       </c>
       <c r="H33" s="3">
-        <v>1012100</v>
+        <v>1756900</v>
       </c>
       <c r="I33" s="3">
-        <v>950300</v>
+        <v>978900</v>
       </c>
       <c r="J33" s="3">
+        <v>919100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1891200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1526300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>669400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-136400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1990800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1075500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>787300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>776300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>2060000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1102900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>749500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>611600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1793600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1583000</v>
+        <v>1587500</v>
       </c>
       <c r="E35" s="3">
-        <v>1214100</v>
+        <v>1531100</v>
       </c>
       <c r="F35" s="3">
-        <v>2227400</v>
+        <v>1174300</v>
       </c>
       <c r="G35" s="3">
-        <v>1816500</v>
+        <v>2154300</v>
       </c>
       <c r="H35" s="3">
-        <v>1012100</v>
+        <v>1756900</v>
       </c>
       <c r="I35" s="3">
-        <v>950300</v>
+        <v>978900</v>
       </c>
       <c r="J35" s="3">
+        <v>919100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1891200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1526300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>669400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-136400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1990800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1075500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>787300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>776300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>2060000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1102900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>749500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>611600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1793600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,203 +2660,213 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9063800</v>
+        <v>8968400</v>
       </c>
       <c r="E41" s="3">
-        <v>12061700</v>
+        <v>8766300</v>
       </c>
       <c r="F41" s="3">
-        <v>6200100</v>
+        <v>11665900</v>
       </c>
       <c r="G41" s="3">
-        <v>8678500</v>
+        <v>5996700</v>
       </c>
       <c r="H41" s="3">
-        <v>7243800</v>
+        <v>8393700</v>
       </c>
       <c r="I41" s="3">
-        <v>9124500</v>
+        <v>7006100</v>
       </c>
       <c r="J41" s="3">
+        <v>8825000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6203600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6768100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6079600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8770500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10204900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4992000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4957500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8342600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4500300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4734800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4752700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6968900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4345400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1026200</v>
+        <v>1758000</v>
       </c>
       <c r="E42" s="3">
-        <v>1649600</v>
+        <v>992500</v>
       </c>
       <c r="F42" s="3">
-        <v>1908700</v>
+        <v>1595400</v>
       </c>
       <c r="G42" s="3">
-        <v>618700</v>
+        <v>1846100</v>
       </c>
       <c r="H42" s="3">
-        <v>1656600</v>
+        <v>598400</v>
       </c>
       <c r="I42" s="3">
-        <v>417900</v>
+        <v>1602200</v>
       </c>
       <c r="J42" s="3">
+        <v>404200</v>
+      </c>
+      <c r="K42" s="3">
         <v>346700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>401800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>472900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>707000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>529900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>536100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>434800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>942100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1154500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1136600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>973900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1813500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1319400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7339500</v>
+        <v>854700</v>
       </c>
       <c r="E43" s="3">
-        <v>329200</v>
+        <v>7098700</v>
       </c>
       <c r="F43" s="3">
-        <v>7941900</v>
+        <v>318400</v>
       </c>
       <c r="G43" s="3">
-        <v>800800</v>
+        <v>7681300</v>
       </c>
       <c r="H43" s="3">
-        <v>8241900</v>
+        <v>774600</v>
       </c>
       <c r="I43" s="3">
-        <v>733100</v>
+        <v>7971400</v>
       </c>
       <c r="J43" s="3">
+        <v>709100</v>
+      </c>
+      <c r="K43" s="3">
         <v>9822600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1321800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7964200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>405500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>346600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5953400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6073000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>374400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>20987900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5868000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6488500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>345100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>273500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,333 +2930,351 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1835200</v>
+        <v>1851700</v>
       </c>
       <c r="E45" s="3">
-        <v>1674100</v>
+        <v>1774900</v>
       </c>
       <c r="F45" s="3">
-        <v>1541000</v>
+        <v>1619100</v>
       </c>
       <c r="G45" s="3">
-        <v>1601700</v>
+        <v>1490400</v>
       </c>
       <c r="H45" s="3">
-        <v>1586500</v>
+        <v>1549100</v>
       </c>
       <c r="I45" s="3">
-        <v>1460400</v>
+        <v>1534400</v>
       </c>
       <c r="J45" s="3">
+        <v>1412500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1386900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1601100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1424600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1250000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1052800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1135300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1104600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>932200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>989600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>848200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>842600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>909700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>682000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19264600</v>
+        <v>19112300</v>
       </c>
       <c r="E46" s="3">
-        <v>23439300</v>
+        <v>18632400</v>
       </c>
       <c r="F46" s="3">
-        <v>17591700</v>
+        <v>22670100</v>
       </c>
       <c r="G46" s="3">
-        <v>18231400</v>
+        <v>17014400</v>
       </c>
       <c r="H46" s="3">
-        <v>18728800</v>
+        <v>17633200</v>
       </c>
       <c r="I46" s="3">
-        <v>20234700</v>
+        <v>18114200</v>
       </c>
       <c r="J46" s="3">
+        <v>19570700</v>
+      </c>
+      <c r="K46" s="3">
         <v>17759800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17254000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15941400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19213400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19659800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>12616700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12569900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>16556700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13385300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12587600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13057700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17779700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13573900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6238600</v>
+        <v>6964300</v>
       </c>
       <c r="E47" s="3">
-        <v>5288400</v>
+        <v>6033900</v>
       </c>
       <c r="F47" s="3">
-        <v>4576200</v>
+        <v>5114800</v>
       </c>
       <c r="G47" s="3">
-        <v>4164200</v>
+        <v>4580800</v>
       </c>
       <c r="H47" s="3">
-        <v>3501100</v>
+        <v>4027500</v>
       </c>
       <c r="I47" s="3">
-        <v>3519700</v>
+        <v>3386200</v>
       </c>
       <c r="J47" s="3">
+        <v>3404200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3385500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3617400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2953900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2730900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2565700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2239600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2159800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1878700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1955600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2009500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2305700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2371100</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2270100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5635100</v>
+        <v>5458100</v>
       </c>
       <c r="E48" s="3">
-        <v>5775200</v>
+        <v>5450200</v>
       </c>
       <c r="F48" s="3">
-        <v>5884900</v>
+        <v>5585700</v>
       </c>
       <c r="G48" s="3">
-        <v>5970100</v>
+        <v>11383600</v>
       </c>
       <c r="H48" s="3">
-        <v>6154600</v>
+        <v>5774200</v>
       </c>
       <c r="I48" s="3">
-        <v>6284200</v>
+        <v>5952600</v>
       </c>
       <c r="J48" s="3">
+        <v>6077900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6416100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6675000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6358400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6606600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4202800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3788000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3605800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3342300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3328900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3148300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3050700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3075400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3028400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38497700</v>
+        <v>37784200</v>
       </c>
       <c r="E49" s="3">
-        <v>39056900</v>
+        <v>37234300</v>
       </c>
       <c r="F49" s="3">
-        <v>36591300</v>
+        <v>37775200</v>
       </c>
       <c r="G49" s="3">
-        <v>37388600</v>
+        <v>35383700</v>
       </c>
       <c r="H49" s="3">
-        <v>38958800</v>
+        <v>36161700</v>
       </c>
       <c r="I49" s="3">
-        <v>39844900</v>
+        <v>37680300</v>
       </c>
       <c r="J49" s="3">
+        <v>38537300</v>
+      </c>
+      <c r="K49" s="3">
         <v>39286800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42346700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39445900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40703100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31894500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>29648200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29382500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>26013800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>27194800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27366500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>28298800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31375900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31806700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4021700</v>
+        <v>4106500</v>
       </c>
       <c r="E52" s="3">
-        <v>4067300</v>
+        <v>3889700</v>
       </c>
       <c r="F52" s="3">
-        <v>3616600</v>
+        <v>3933800</v>
       </c>
       <c r="G52" s="3">
+        <v>3495700</v>
+      </c>
+      <c r="H52" s="3">
+        <v>3334200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>3413300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3483300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3447400</v>
       </c>
-      <c r="H52" s="3">
-        <v>3529100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>3601500</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3447400</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3361400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3186900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3230900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2737200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2265000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2220200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2137800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1935400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1372200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1420400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1416800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1293500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73657700</v>
+        <v>73425400</v>
       </c>
       <c r="E54" s="3">
-        <v>77626900</v>
+        <v>71240600</v>
       </c>
       <c r="F54" s="3">
-        <v>68260800</v>
+        <v>75079500</v>
       </c>
       <c r="G54" s="3">
-        <v>69201700</v>
+        <v>66012800</v>
       </c>
       <c r="H54" s="3">
-        <v>70872300</v>
+        <v>66930800</v>
       </c>
       <c r="I54" s="3">
-        <v>73485000</v>
+        <v>68546500</v>
       </c>
       <c r="J54" s="3">
+        <v>71073500</v>
+      </c>
+      <c r="K54" s="3">
         <v>70295600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73254400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67886500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72484900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>60921700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>50557500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>49938100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49929400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47666600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>46484000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>48133400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>56018900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>51972800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1256100</v>
+        <v>1289400</v>
       </c>
       <c r="E57" s="3">
-        <v>1404400</v>
+        <v>1214900</v>
       </c>
       <c r="F57" s="3">
-        <v>1416100</v>
+        <v>1358300</v>
       </c>
       <c r="G57" s="3">
-        <v>1493100</v>
+        <v>1369600</v>
       </c>
       <c r="H57" s="3">
-        <v>1530500</v>
+        <v>1444100</v>
       </c>
       <c r="I57" s="3">
-        <v>1702100</v>
+        <v>1480300</v>
       </c>
       <c r="J57" s="3">
+        <v>1646200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1845700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1849700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1731700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1968900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1763700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1380100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1290200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1170500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1291400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1221800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1281300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1388600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1503700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4475800</v>
+        <v>4747900</v>
       </c>
       <c r="E58" s="3">
-        <v>5363100</v>
+        <v>4329000</v>
       </c>
       <c r="F58" s="3">
-        <v>2173700</v>
+        <v>5187100</v>
       </c>
       <c r="G58" s="3">
-        <v>4514400</v>
+        <v>4753500</v>
       </c>
       <c r="H58" s="3">
-        <v>3017800</v>
+        <v>4366200</v>
       </c>
       <c r="I58" s="3">
-        <v>6002800</v>
+        <v>2918700</v>
       </c>
       <c r="J58" s="3">
+        <v>5805800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3408800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3418900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2134000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1935500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2239200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1243800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1281400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1750200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3207800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1446200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>608100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2083500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2128100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12201800</v>
+        <v>10347100</v>
       </c>
       <c r="E59" s="3">
-        <v>12828700</v>
+        <v>11801400</v>
       </c>
       <c r="F59" s="3">
-        <v>11402100</v>
+        <v>12407700</v>
       </c>
       <c r="G59" s="3">
-        <v>10114400</v>
+        <v>11027900</v>
       </c>
       <c r="H59" s="3">
-        <v>13313100</v>
+        <v>9782500</v>
       </c>
       <c r="I59" s="3">
-        <v>12686200</v>
+        <v>12876300</v>
       </c>
       <c r="J59" s="3">
+        <v>12269900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11628600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11739100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12854500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>13619900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9731700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8556200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9986300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9629500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12110800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7998700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9687300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>11375400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7723700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17933800</v>
+        <v>16384400</v>
       </c>
       <c r="E60" s="3">
-        <v>19596100</v>
+        <v>17345200</v>
       </c>
       <c r="F60" s="3">
-        <v>14991900</v>
+        <v>18953100</v>
       </c>
       <c r="G60" s="3">
-        <v>16121900</v>
+        <v>14499900</v>
       </c>
       <c r="H60" s="3">
-        <v>17861400</v>
+        <v>15592900</v>
       </c>
       <c r="I60" s="3">
-        <v>20391200</v>
+        <v>17275200</v>
       </c>
       <c r="J60" s="3">
+        <v>19722000</v>
+      </c>
+      <c r="K60" s="3">
         <v>16883100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17007800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16720200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17524300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12403900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11180100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12557800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12550100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11455500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>10666800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11576700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14847500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11355400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>13258300</v>
+        <v>12806300</v>
       </c>
       <c r="E61" s="3">
-        <v>14439700</v>
+        <v>12823200</v>
       </c>
       <c r="F61" s="3">
-        <v>15876800</v>
+        <v>13965800</v>
       </c>
       <c r="G61" s="3">
-        <v>16511800</v>
+        <v>15361400</v>
       </c>
       <c r="H61" s="3">
-        <v>16918100</v>
+        <v>15970000</v>
       </c>
       <c r="I61" s="3">
-        <v>14600800</v>
+        <v>16362900</v>
       </c>
       <c r="J61" s="3">
+        <v>14121700</v>
+      </c>
+      <c r="K61" s="3">
         <v>15059600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16719900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16548400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>17626000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>12461900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7533900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7146900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7113900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5612200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6519900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6984400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7575800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7569900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2631300</v>
+        <v>2657900</v>
       </c>
       <c r="E62" s="3">
-        <v>2923200</v>
+        <v>2545000</v>
       </c>
       <c r="F62" s="3">
-        <v>2453900</v>
+        <v>2827300</v>
       </c>
       <c r="G62" s="3">
-        <v>2281100</v>
+        <v>2365500</v>
       </c>
       <c r="H62" s="3">
-        <v>2153900</v>
+        <v>2206300</v>
       </c>
       <c r="I62" s="3">
-        <v>2571800</v>
+        <v>2083200</v>
       </c>
       <c r="J62" s="3">
+        <v>2487400</v>
+      </c>
+      <c r="K62" s="3">
         <v>2371000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2497800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2101100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2372100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1897400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1931700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1842400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2059800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2093600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1954500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2055500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2175100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2062400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35565100</v>
+        <v>33678800</v>
       </c>
       <c r="E66" s="3">
-        <v>38451000</v>
+        <v>34398000</v>
       </c>
       <c r="F66" s="3">
-        <v>33568900</v>
+        <v>37189200</v>
       </c>
       <c r="G66" s="3">
-        <v>35125000</v>
+        <v>32459400</v>
       </c>
       <c r="H66" s="3">
-        <v>37037200</v>
+        <v>33972400</v>
       </c>
       <c r="I66" s="3">
-        <v>37649000</v>
+        <v>35821800</v>
       </c>
       <c r="J66" s="3">
+        <v>36413500</v>
+      </c>
+      <c r="K66" s="3">
         <v>34402400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36309900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>35440200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>37583400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26816300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20693300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>21595500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21756900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>19073800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19142300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20624400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24634800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21012400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38654100</v>
+        <v>40016400</v>
       </c>
       <c r="E72" s="3">
-        <v>40196300</v>
+        <v>37385600</v>
       </c>
       <c r="F72" s="3">
-        <v>37387500</v>
+        <v>38877200</v>
       </c>
       <c r="G72" s="3">
-        <v>35589700</v>
+        <v>35019000</v>
       </c>
       <c r="H72" s="3">
-        <v>33305000</v>
+        <v>34421700</v>
       </c>
       <c r="I72" s="3">
-        <v>37350100</v>
+        <v>32212100</v>
       </c>
       <c r="J72" s="3">
+        <v>36124400</v>
+      </c>
+      <c r="K72" s="3">
         <v>33601600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36706800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30553500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34669500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33879400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29653800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>27163400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27940800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>28360500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26873900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24688300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>30535500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>30105900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>38092600</v>
+        <v>39746600</v>
       </c>
       <c r="E76" s="3">
-        <v>39175900</v>
+        <v>36842500</v>
       </c>
       <c r="F76" s="3">
-        <v>34691900</v>
+        <v>37890300</v>
       </c>
       <c r="G76" s="3">
-        <v>34076700</v>
+        <v>33553500</v>
       </c>
       <c r="H76" s="3">
-        <v>33835000</v>
+        <v>32958400</v>
       </c>
       <c r="I76" s="3">
-        <v>35836000</v>
+        <v>32724700</v>
       </c>
       <c r="J76" s="3">
+        <v>34660000</v>
+      </c>
+      <c r="K76" s="3">
         <v>35893200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>36944500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32446300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34901500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34105400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>29864200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>28342700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28172500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28592800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>27341800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27509000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>31384200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30960400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1583000</v>
+        <v>1587500</v>
       </c>
       <c r="E81" s="3">
-        <v>1214100</v>
+        <v>1531100</v>
       </c>
       <c r="F81" s="3">
-        <v>2227400</v>
+        <v>1174300</v>
       </c>
       <c r="G81" s="3">
-        <v>1816500</v>
+        <v>2154300</v>
       </c>
       <c r="H81" s="3">
-        <v>1012100</v>
+        <v>1756900</v>
       </c>
       <c r="I81" s="3">
-        <v>950300</v>
+        <v>978900</v>
       </c>
       <c r="J81" s="3">
+        <v>919100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1891200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1526300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>669400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-136400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1990800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1075500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>787300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>776300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>2060000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1102900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>749500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>611600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1793600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>507800</v>
+        <v>493400</v>
       </c>
       <c r="E83" s="3">
-        <v>509000</v>
+        <v>491200</v>
       </c>
       <c r="F83" s="3">
-        <v>539300</v>
+        <v>492300</v>
       </c>
       <c r="G83" s="3">
-        <v>518300</v>
+        <v>521600</v>
       </c>
       <c r="H83" s="3">
-        <v>538200</v>
+        <v>501300</v>
       </c>
       <c r="I83" s="3">
-        <v>541700</v>
+        <v>520500</v>
       </c>
       <c r="J83" s="3">
+        <v>523900</v>
+      </c>
+      <c r="K83" s="3">
         <v>584900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>580600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>535300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>528700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>444800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>388800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>364500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>332700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>348900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>357900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>361300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>375600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>394400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>800800</v>
+        <v>1335700</v>
       </c>
       <c r="E89" s="3">
-        <v>3601500</v>
+        <v>774600</v>
       </c>
       <c r="F89" s="3">
-        <v>2451600</v>
+        <v>3483300</v>
       </c>
       <c r="G89" s="3">
-        <v>1542100</v>
+        <v>2371100</v>
       </c>
       <c r="H89" s="3">
-        <v>919900</v>
+        <v>1491500</v>
       </c>
       <c r="I89" s="3">
-        <v>3483600</v>
+        <v>889700</v>
       </c>
       <c r="J89" s="3">
+        <v>3369200</v>
+      </c>
+      <c r="K89" s="3">
         <v>210100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>780300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-144700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3351800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>968800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>552700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>448000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2829500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1032200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>686700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>719200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3371200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1173800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-223000</v>
+        <v>-228100</v>
       </c>
       <c r="E91" s="3">
-        <v>-178600</v>
+        <v>-215700</v>
       </c>
       <c r="F91" s="3">
-        <v>-191500</v>
+        <v>-172800</v>
       </c>
       <c r="G91" s="3">
-        <v>-180900</v>
+        <v>-185200</v>
       </c>
       <c r="H91" s="3">
-        <v>-191500</v>
+        <v>-175000</v>
       </c>
       <c r="I91" s="3">
-        <v>-388700</v>
+        <v>-185200</v>
       </c>
       <c r="J91" s="3">
+        <v>-376000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-133100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-211800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-429400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-369100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-363300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-429300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-468800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-348900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-397200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-357900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-341600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-393200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>279000</v>
+        <v>-1061400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1128900</v>
+        <v>269900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2296300</v>
+        <v>-1091800</v>
       </c>
       <c r="G94" s="3">
-        <v>733100</v>
+        <v>-2220900</v>
       </c>
       <c r="H94" s="3">
-        <v>-1487300</v>
+        <v>709100</v>
       </c>
       <c r="I94" s="3">
-        <v>-435400</v>
+        <v>-1438500</v>
       </c>
       <c r="J94" s="3">
+        <v>-421200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-42000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-349100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-232900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-540600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-422000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-405200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-534100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-304100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>313000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-755900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3957500</v>
+        <v>-282300</v>
       </c>
       <c r="E100" s="3">
-        <v>3106500</v>
+        <v>-3827600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2443400</v>
+        <v>3004500</v>
       </c>
       <c r="G100" s="3">
-        <v>-727300</v>
+        <v>-2363200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1235100</v>
+        <v>-703400</v>
       </c>
       <c r="I100" s="3">
-        <v>-260300</v>
+        <v>-1194600</v>
       </c>
       <c r="J100" s="3">
+        <v>-251800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-339700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-151900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2910400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4439400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-162800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1627200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-673200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-336600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-422600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-121400</v>
+        <v>211100</v>
       </c>
       <c r="E101" s="3">
-        <v>283700</v>
+        <v>-117400</v>
       </c>
       <c r="F101" s="3">
-        <v>-190300</v>
+        <v>274400</v>
       </c>
       <c r="G101" s="3">
-        <v>-113200</v>
+        <v>-184000</v>
       </c>
       <c r="H101" s="3">
-        <v>-78200</v>
+        <v>-109500</v>
       </c>
       <c r="I101" s="3">
-        <v>131900</v>
+        <v>-75600</v>
       </c>
       <c r="J101" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-74700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>158000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>85900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-33500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>23300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>190000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-113100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-59500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-64000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-126800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>5900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-29300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2999100</v>
+        <v>203200</v>
       </c>
       <c r="E102" s="3">
-        <v>5862700</v>
+        <v>-2900700</v>
       </c>
       <c r="F102" s="3">
-        <v>-2478400</v>
+        <v>5670300</v>
       </c>
       <c r="G102" s="3">
-        <v>1434700</v>
+        <v>-2397100</v>
       </c>
       <c r="H102" s="3">
-        <v>-1880700</v>
+        <v>1387700</v>
       </c>
       <c r="I102" s="3">
-        <v>2919700</v>
+        <v>-1819000</v>
       </c>
       <c r="J102" s="3">
+        <v>2823900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-246300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>437300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4874700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3938500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-234500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2622300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-482400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7728700</v>
+        <v>8706600</v>
       </c>
       <c r="E8" s="3">
-        <v>7530000</v>
+        <v>7467300</v>
       </c>
       <c r="F8" s="3">
-        <v>7167500</v>
+        <v>7275300</v>
       </c>
       <c r="G8" s="3">
-        <v>8511200</v>
+        <v>6925100</v>
       </c>
       <c r="H8" s="3">
-        <v>7378700</v>
+        <v>8223300</v>
       </c>
       <c r="I8" s="3">
-        <v>7613500</v>
+        <v>7129100</v>
       </c>
       <c r="J8" s="3">
+        <v>7356000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7362900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9386000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8318900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7799500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7287300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8786600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6667800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6586900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5776600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7635100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6271900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6486200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6203600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7891500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2148700</v>
+        <v>2287600</v>
       </c>
       <c r="E9" s="3">
-        <v>2136300</v>
+        <v>2076000</v>
       </c>
       <c r="F9" s="3">
-        <v>2068500</v>
+        <v>2064000</v>
       </c>
       <c r="G9" s="3">
-        <v>2076400</v>
+        <v>1998500</v>
       </c>
       <c r="H9" s="3">
-        <v>2065100</v>
+        <v>2006200</v>
       </c>
       <c r="I9" s="3">
-        <v>2217600</v>
+        <v>1995300</v>
       </c>
       <c r="J9" s="3">
+        <v>2142500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2259300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2457400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2371600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2386900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2355300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2296000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2034700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1992900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1752400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1963500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1794100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1920800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1966100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2021300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5580000</v>
+        <v>6418900</v>
       </c>
       <c r="E10" s="3">
-        <v>5393700</v>
+        <v>5391300</v>
       </c>
       <c r="F10" s="3">
-        <v>5099000</v>
+        <v>5211300</v>
       </c>
       <c r="G10" s="3">
-        <v>6434700</v>
+        <v>4926500</v>
       </c>
       <c r="H10" s="3">
-        <v>5313500</v>
+        <v>6217100</v>
       </c>
       <c r="I10" s="3">
-        <v>5396000</v>
+        <v>5133800</v>
       </c>
       <c r="J10" s="3">
+        <v>5213500</v>
+      </c>
+      <c r="K10" s="3">
         <v>5103500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6928600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5947300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5412600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4931900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6490600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4633100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4594000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4024200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5671700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4477900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4565400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4237500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5870200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1465600</v>
+        <v>1536000</v>
       </c>
       <c r="E12" s="3">
-        <v>1474600</v>
+        <v>1416000</v>
       </c>
       <c r="F12" s="3">
-        <v>1319900</v>
+        <v>1424700</v>
       </c>
       <c r="G12" s="3">
-        <v>1275900</v>
+        <v>1275300</v>
       </c>
       <c r="H12" s="3">
-        <v>1254400</v>
+        <v>1232700</v>
       </c>
       <c r="I12" s="3">
-        <v>1306400</v>
+        <v>1212000</v>
       </c>
       <c r="J12" s="3">
+        <v>1262200</v>
+      </c>
+      <c r="K12" s="3">
         <v>1184400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1402100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1191900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1237600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1264400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1111900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1014600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1038700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>891600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>980600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>872900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>942500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>996600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1006000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,76 +1143,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>166000</v>
+        <v>186500</v>
       </c>
       <c r="E14" s="3">
-        <v>172800</v>
+        <v>76400</v>
       </c>
       <c r="F14" s="3">
-        <v>339900</v>
+        <v>166900</v>
       </c>
       <c r="G14" s="3">
-        <v>178400</v>
+        <v>328400</v>
       </c>
       <c r="H14" s="3">
-        <v>162600</v>
+        <v>172400</v>
       </c>
       <c r="I14" s="3">
-        <v>180700</v>
+        <v>157100</v>
       </c>
       <c r="J14" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K14" s="3">
         <v>199900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>238200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>230300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>423500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1210600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>173900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>162800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>175700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>151500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>164900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>80800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>435300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>189000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>213600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6318400</v>
+        <v>7110600</v>
       </c>
       <c r="E17" s="3">
-        <v>6418900</v>
+        <v>6104700</v>
       </c>
       <c r="F17" s="3">
-        <v>6083600</v>
+        <v>6201800</v>
       </c>
       <c r="G17" s="3">
-        <v>5512300</v>
+        <v>5877800</v>
       </c>
       <c r="H17" s="3">
-        <v>5715500</v>
+        <v>5325800</v>
       </c>
       <c r="I17" s="3">
-        <v>6163800</v>
+        <v>5522200</v>
       </c>
       <c r="J17" s="3">
+        <v>5955300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5996700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6930900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6262100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6826600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7449900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5948800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5298800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5440600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4651100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5431600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4797600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5447300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5413600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5601400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1410200</v>
+        <v>1596000</v>
       </c>
       <c r="E18" s="3">
-        <v>1111000</v>
+        <v>1362500</v>
       </c>
       <c r="F18" s="3">
-        <v>1083900</v>
+        <v>1073500</v>
       </c>
       <c r="G18" s="3">
-        <v>2998900</v>
+        <v>1047300</v>
       </c>
       <c r="H18" s="3">
-        <v>1663200</v>
+        <v>2897500</v>
       </c>
       <c r="I18" s="3">
-        <v>1449800</v>
+        <v>1606900</v>
       </c>
       <c r="J18" s="3">
+        <v>1400700</v>
+      </c>
+      <c r="K18" s="3">
         <v>1366200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2455100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2056800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>972900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-162700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2837800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1369000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1146300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1125500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2203600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1474300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1039000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>790000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2290100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,144 +1480,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>564600</v>
+        <v>538900</v>
       </c>
       <c r="E20" s="3">
-        <v>925900</v>
+        <v>545500</v>
       </c>
       <c r="F20" s="3">
-        <v>425700</v>
+        <v>894500</v>
       </c>
       <c r="G20" s="3">
-        <v>56500</v>
+        <v>411300</v>
       </c>
       <c r="H20" s="3">
-        <v>722600</v>
+        <v>54500</v>
       </c>
       <c r="I20" s="3">
-        <v>42900</v>
+        <v>698200</v>
       </c>
       <c r="J20" s="3">
+        <v>41500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-99400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>193800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>89400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-113600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>74200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-27500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-41700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>111100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>85300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-20200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-5900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>14100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2468200</v>
+        <v>2644400</v>
       </c>
       <c r="E21" s="3">
-        <v>2528100</v>
+        <v>2384700</v>
       </c>
       <c r="F21" s="3">
-        <v>2001900</v>
+        <v>2442500</v>
       </c>
       <c r="G21" s="3">
-        <v>3577000</v>
+        <v>1934200</v>
       </c>
       <c r="H21" s="3">
-        <v>2887100</v>
+        <v>3456000</v>
       </c>
       <c r="I21" s="3">
-        <v>2013200</v>
+        <v>2789500</v>
       </c>
       <c r="J21" s="3">
+        <v>1945100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1790800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3233700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2726800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1509300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>376800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3169000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1832000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1483400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1416400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2663600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1917500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1380000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1159700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2698600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1601,41 +1640,41 @@
       <c r="G22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="3">
-        <v>48600</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="H22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I22" s="3">
+        <v>46900</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3">
         <v>58400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>61200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15600</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>25500</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1652,144 +1691,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1974800</v>
+        <v>2134900</v>
       </c>
       <c r="E23" s="3">
-        <v>2036900</v>
+        <v>1908000</v>
       </c>
       <c r="F23" s="3">
-        <v>1509600</v>
+        <v>1968000</v>
       </c>
       <c r="G23" s="3">
-        <v>3055300</v>
+        <v>1458500</v>
       </c>
       <c r="H23" s="3">
-        <v>2337200</v>
+        <v>2952000</v>
       </c>
       <c r="I23" s="3">
-        <v>1492700</v>
+        <v>2258200</v>
       </c>
       <c r="J23" s="3">
+        <v>1442200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1266900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2590500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2084900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>958800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-167500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2724200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1417700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1118900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1083700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2314700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1559600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1018800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>784100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2304200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>373700</v>
+        <v>564000</v>
       </c>
       <c r="E24" s="3">
-        <v>400800</v>
+        <v>361100</v>
       </c>
       <c r="F24" s="3">
-        <v>301500</v>
+        <v>387300</v>
       </c>
       <c r="G24" s="3">
-        <v>871700</v>
+        <v>291300</v>
       </c>
       <c r="H24" s="3">
-        <v>472000</v>
+        <v>842200</v>
       </c>
       <c r="I24" s="3">
-        <v>493400</v>
+        <v>456000</v>
       </c>
       <c r="J24" s="3">
+        <v>476700</v>
+      </c>
+      <c r="K24" s="3">
         <v>350000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>679400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>542700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>275300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-39500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>728700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>342200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>329400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>307400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>231100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>446600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>270400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>162000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>513000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1601100</v>
+        <v>1570900</v>
       </c>
       <c r="E26" s="3">
-        <v>1636100</v>
+        <v>1546900</v>
       </c>
       <c r="F26" s="3">
-        <v>1208100</v>
+        <v>1580700</v>
       </c>
       <c r="G26" s="3">
-        <v>2183700</v>
+        <v>1167300</v>
       </c>
       <c r="H26" s="3">
-        <v>1865300</v>
+        <v>2109800</v>
       </c>
       <c r="I26" s="3">
-        <v>999300</v>
+        <v>1802200</v>
       </c>
       <c r="J26" s="3">
+        <v>965500</v>
+      </c>
+      <c r="K26" s="3">
         <v>916800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1911100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1542300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>683500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-128000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1995600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>789500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>776300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2083500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1113000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>748400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>622100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1791200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1587500</v>
+        <v>1586200</v>
       </c>
       <c r="E27" s="3">
-        <v>1531100</v>
+        <v>1533800</v>
       </c>
       <c r="F27" s="3">
-        <v>1174300</v>
+        <v>1479300</v>
       </c>
       <c r="G27" s="3">
-        <v>2154300</v>
+        <v>1134500</v>
       </c>
       <c r="H27" s="3">
-        <v>1756900</v>
+        <v>2081500</v>
       </c>
       <c r="I27" s="3">
-        <v>978900</v>
+        <v>1697500</v>
       </c>
       <c r="J27" s="3">
+        <v>945800</v>
+      </c>
+      <c r="K27" s="3">
         <v>919100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1891200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1526300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>669400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-136400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1990800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>787300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>776300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2060000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1102900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>749500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>611600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1793600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2119,8 +2179,8 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-564600</v>
+        <v>-538900</v>
       </c>
       <c r="E32" s="3">
-        <v>-925900</v>
+        <v>-545500</v>
       </c>
       <c r="F32" s="3">
-        <v>-425700</v>
+        <v>-894500</v>
       </c>
       <c r="G32" s="3">
-        <v>-56500</v>
+        <v>-411300</v>
       </c>
       <c r="H32" s="3">
-        <v>-722600</v>
+        <v>-54500</v>
       </c>
       <c r="I32" s="3">
-        <v>-42900</v>
+        <v>-698200</v>
       </c>
       <c r="J32" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="K32" s="3">
         <v>99400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-193800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-89400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>113600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>27500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>41700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-111100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-85300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>20200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>5900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-14100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1587500</v>
+        <v>1586200</v>
       </c>
       <c r="E33" s="3">
-        <v>1531100</v>
+        <v>1533800</v>
       </c>
       <c r="F33" s="3">
-        <v>1174300</v>
+        <v>1479300</v>
       </c>
       <c r="G33" s="3">
-        <v>2154300</v>
+        <v>1134500</v>
       </c>
       <c r="H33" s="3">
-        <v>1756900</v>
+        <v>2081500</v>
       </c>
       <c r="I33" s="3">
-        <v>978900</v>
+        <v>1697500</v>
       </c>
       <c r="J33" s="3">
+        <v>945800</v>
+      </c>
+      <c r="K33" s="3">
         <v>919100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1891200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1526300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>669400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-136400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1990800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>787300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>776300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>2060000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1102900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>749500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>611600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1793600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1587500</v>
+        <v>1586200</v>
       </c>
       <c r="E35" s="3">
-        <v>1531100</v>
+        <v>1533800</v>
       </c>
       <c r="F35" s="3">
-        <v>1174300</v>
+        <v>1479300</v>
       </c>
       <c r="G35" s="3">
-        <v>2154300</v>
+        <v>1134500</v>
       </c>
       <c r="H35" s="3">
-        <v>1756900</v>
+        <v>2081500</v>
       </c>
       <c r="I35" s="3">
-        <v>978900</v>
+        <v>1697500</v>
       </c>
       <c r="J35" s="3">
+        <v>945800</v>
+      </c>
+      <c r="K35" s="3">
         <v>919100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1891200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1526300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>669400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-136400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1990800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>787300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>776300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>2060000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1102900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>749500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>611600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1793600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,212 +2746,222 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8968400</v>
+        <v>9706900</v>
       </c>
       <c r="E41" s="3">
-        <v>8766300</v>
+        <v>8665100</v>
       </c>
       <c r="F41" s="3">
-        <v>11665900</v>
+        <v>8469800</v>
       </c>
       <c r="G41" s="3">
-        <v>5996700</v>
+        <v>11271300</v>
       </c>
       <c r="H41" s="3">
-        <v>8393700</v>
+        <v>5793800</v>
       </c>
       <c r="I41" s="3">
-        <v>7006100</v>
+        <v>8109800</v>
       </c>
       <c r="J41" s="3">
+        <v>6769100</v>
+      </c>
+      <c r="K41" s="3">
         <v>8825000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6203600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6768100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6079600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8770500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10204900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4992000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4957500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8342600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4500300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4734800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4752700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6968900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4345400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1758000</v>
+        <v>3008700</v>
       </c>
       <c r="E42" s="3">
-        <v>992500</v>
+        <v>1698500</v>
       </c>
       <c r="F42" s="3">
-        <v>1595400</v>
+        <v>958900</v>
       </c>
       <c r="G42" s="3">
-        <v>1846100</v>
+        <v>1541500</v>
       </c>
       <c r="H42" s="3">
-        <v>598400</v>
+        <v>1783600</v>
       </c>
       <c r="I42" s="3">
-        <v>1602200</v>
+        <v>578200</v>
       </c>
       <c r="J42" s="3">
+        <v>1548000</v>
+      </c>
+      <c r="K42" s="3">
         <v>404200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>346700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>401800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>472900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>707000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>529900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>536100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>434800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>942100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1154500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1136600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>973900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1813500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1319400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>854700</v>
+        <v>7369100</v>
       </c>
       <c r="E43" s="3">
-        <v>7098700</v>
+        <v>825800</v>
       </c>
       <c r="F43" s="3">
-        <v>318400</v>
+        <v>6858600</v>
       </c>
       <c r="G43" s="3">
-        <v>7681300</v>
+        <v>307600</v>
       </c>
       <c r="H43" s="3">
-        <v>774600</v>
+        <v>7421500</v>
       </c>
       <c r="I43" s="3">
-        <v>7971400</v>
+        <v>748400</v>
       </c>
       <c r="J43" s="3">
+        <v>7701800</v>
+      </c>
+      <c r="K43" s="3">
         <v>709100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9822600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1321800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7964200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>405500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>346600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5953400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6073000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>374400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>20987900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5868000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6488500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>345100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>273500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,348 +3028,366 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1851700</v>
+        <v>1781500</v>
       </c>
       <c r="E45" s="3">
-        <v>1774900</v>
+        <v>1789100</v>
       </c>
       <c r="F45" s="3">
-        <v>1619100</v>
+        <v>1714900</v>
       </c>
       <c r="G45" s="3">
-        <v>1490400</v>
+        <v>1564400</v>
       </c>
       <c r="H45" s="3">
-        <v>1549100</v>
+        <v>1440000</v>
       </c>
       <c r="I45" s="3">
-        <v>1534400</v>
+        <v>1496700</v>
       </c>
       <c r="J45" s="3">
+        <v>1482500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1412500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1386900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1601100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1424600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1250000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1052800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1135300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1104600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>932200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>989600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>848200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>842600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>909700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>682000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19112300</v>
+        <v>21866200</v>
       </c>
       <c r="E46" s="3">
-        <v>18632400</v>
+        <v>18465800</v>
       </c>
       <c r="F46" s="3">
-        <v>22670100</v>
+        <v>18002200</v>
       </c>
       <c r="G46" s="3">
-        <v>17014400</v>
+        <v>21903300</v>
       </c>
       <c r="H46" s="3">
-        <v>17633200</v>
+        <v>16438900</v>
       </c>
       <c r="I46" s="3">
-        <v>18114200</v>
+        <v>17036700</v>
       </c>
       <c r="J46" s="3">
+        <v>17501500</v>
+      </c>
+      <c r="K46" s="3">
         <v>19570700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17759800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17254000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15941400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19213400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19659800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>12616700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12569900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>16556700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13385300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12587600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13057700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17779700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13573900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6964300</v>
+        <v>7292700</v>
       </c>
       <c r="E47" s="3">
-        <v>6033900</v>
+        <v>6728700</v>
       </c>
       <c r="F47" s="3">
-        <v>5114800</v>
+        <v>5829800</v>
       </c>
       <c r="G47" s="3">
-        <v>4580800</v>
+        <v>4941800</v>
       </c>
       <c r="H47" s="3">
-        <v>4027500</v>
+        <v>4425800</v>
       </c>
       <c r="I47" s="3">
-        <v>3386200</v>
+        <v>3891300</v>
       </c>
       <c r="J47" s="3">
+        <v>3271600</v>
+      </c>
+      <c r="K47" s="3">
         <v>3404200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3385500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3617400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2953900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2730900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2565700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2239600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2159800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1878700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1955600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2009500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2305700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2371100</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2270100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5458100</v>
+        <v>5429500</v>
       </c>
       <c r="E48" s="3">
-        <v>5450200</v>
+        <v>5273500</v>
       </c>
       <c r="F48" s="3">
-        <v>5585700</v>
+        <v>5265800</v>
       </c>
       <c r="G48" s="3">
-        <v>11383600</v>
+        <v>5396700</v>
       </c>
       <c r="H48" s="3">
-        <v>5774200</v>
+        <v>10998600</v>
       </c>
       <c r="I48" s="3">
-        <v>5952600</v>
+        <v>5578900</v>
       </c>
       <c r="J48" s="3">
+        <v>5751300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6077900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6416100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6675000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6358400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6606600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4202800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3788000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3605800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3342300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3328900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3148300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3050700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3075400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3028400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37784200</v>
+        <v>38242900</v>
       </c>
       <c r="E49" s="3">
-        <v>37234300</v>
+        <v>36506200</v>
       </c>
       <c r="F49" s="3">
-        <v>37775200</v>
+        <v>35974900</v>
       </c>
       <c r="G49" s="3">
-        <v>35383700</v>
+        <v>36497500</v>
       </c>
       <c r="H49" s="3">
-        <v>36161700</v>
+        <v>34169500</v>
       </c>
       <c r="I49" s="3">
-        <v>37680300</v>
+        <v>34938600</v>
       </c>
       <c r="J49" s="3">
+        <v>36405800</v>
+      </c>
+      <c r="K49" s="3">
         <v>38537300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39286800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42346700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39445900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40703100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>31894500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>29648200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29382500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>26013800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>27194800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27366500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>28298800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31375900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31806700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4106500</v>
+        <v>4807600</v>
       </c>
       <c r="E52" s="3">
-        <v>3889700</v>
+        <v>3967600</v>
       </c>
       <c r="F52" s="3">
-        <v>3933800</v>
+        <v>3758200</v>
       </c>
       <c r="G52" s="3">
-        <v>3495700</v>
+        <v>3800700</v>
       </c>
       <c r="H52" s="3">
-        <v>3334200</v>
+        <v>3393800</v>
       </c>
       <c r="I52" s="3">
-        <v>3413300</v>
+        <v>3221500</v>
       </c>
       <c r="J52" s="3">
+        <v>3297800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3483300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3447400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3361400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3186900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3230900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2737200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2265000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2220200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2137800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1935400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1372200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1420400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1416800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1293500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>73425400</v>
+        <v>77639000</v>
       </c>
       <c r="E54" s="3">
-        <v>71240600</v>
+        <v>70941900</v>
       </c>
       <c r="F54" s="3">
-        <v>75079500</v>
+        <v>68831000</v>
       </c>
       <c r="G54" s="3">
-        <v>66012800</v>
+        <v>72540100</v>
       </c>
       <c r="H54" s="3">
-        <v>66930800</v>
+        <v>63779000</v>
       </c>
       <c r="I54" s="3">
-        <v>68546500</v>
+        <v>64667000</v>
       </c>
       <c r="J54" s="3">
+        <v>66228100</v>
+      </c>
+      <c r="K54" s="3">
         <v>71073500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70295600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>73254400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67886500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72484900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>60921700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>50557500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>49938100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49929400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>47666600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46484000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>48133400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>56018900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>51972800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1289400</v>
+        <v>1723600</v>
       </c>
       <c r="E57" s="3">
-        <v>1214900</v>
+        <v>1245800</v>
       </c>
       <c r="F57" s="3">
-        <v>1358300</v>
+        <v>1173800</v>
       </c>
       <c r="G57" s="3">
-        <v>1369600</v>
+        <v>1312400</v>
       </c>
       <c r="H57" s="3">
-        <v>1444100</v>
+        <v>1323300</v>
       </c>
       <c r="I57" s="3">
-        <v>1480300</v>
+        <v>1395300</v>
       </c>
       <c r="J57" s="3">
+        <v>1430200</v>
+      </c>
+      <c r="K57" s="3">
         <v>1646200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1845700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1849700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1731700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1968900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1763700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1380100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1290200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1170500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1291400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1221800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1281300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1388600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1503700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4747900</v>
+        <v>4545800</v>
       </c>
       <c r="E58" s="3">
-        <v>4329000</v>
+        <v>4587300</v>
       </c>
       <c r="F58" s="3">
-        <v>5187100</v>
+        <v>4182500</v>
       </c>
       <c r="G58" s="3">
-        <v>4753500</v>
+        <v>5011600</v>
       </c>
       <c r="H58" s="3">
-        <v>4366200</v>
+        <v>4592700</v>
       </c>
       <c r="I58" s="3">
-        <v>2918700</v>
+        <v>4218500</v>
       </c>
       <c r="J58" s="3">
+        <v>2820000</v>
+      </c>
+      <c r="K58" s="3">
         <v>5805800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3408800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3418900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2134000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1935500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2239200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1243800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1281400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1750200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3207800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1446200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>608100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2083500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2128100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10347100</v>
+        <v>11333500</v>
       </c>
       <c r="E59" s="3">
-        <v>11801400</v>
+        <v>9997100</v>
       </c>
       <c r="F59" s="3">
-        <v>12407700</v>
+        <v>11402200</v>
       </c>
       <c r="G59" s="3">
-        <v>11027900</v>
+        <v>11988000</v>
       </c>
       <c r="H59" s="3">
-        <v>9782500</v>
+        <v>10654900</v>
       </c>
       <c r="I59" s="3">
-        <v>12876300</v>
+        <v>9451600</v>
       </c>
       <c r="J59" s="3">
+        <v>12440700</v>
+      </c>
+      <c r="K59" s="3">
         <v>12269900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11628600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11739100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12854500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>13619900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9731700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8556200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9986300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9629500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12110800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7998700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9687300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>11375400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7723700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16384400</v>
+        <v>17602900</v>
       </c>
       <c r="E60" s="3">
-        <v>17345200</v>
+        <v>15830200</v>
       </c>
       <c r="F60" s="3">
-        <v>18953100</v>
+        <v>16758600</v>
       </c>
       <c r="G60" s="3">
-        <v>14499900</v>
+        <v>18312000</v>
       </c>
       <c r="H60" s="3">
-        <v>15592900</v>
+        <v>14009500</v>
       </c>
       <c r="I60" s="3">
-        <v>17275200</v>
+        <v>15065500</v>
       </c>
       <c r="J60" s="3">
+        <v>16690900</v>
+      </c>
+      <c r="K60" s="3">
         <v>19722000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16883100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17007800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16720200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17524300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12403900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11180100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12557800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12550100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11455500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10666800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11576700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14847500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11355400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12806300</v>
+        <v>11978200</v>
       </c>
       <c r="E61" s="3">
-        <v>12823200</v>
+        <v>12373100</v>
       </c>
       <c r="F61" s="3">
-        <v>13965800</v>
+        <v>12389500</v>
       </c>
       <c r="G61" s="3">
-        <v>15361400</v>
+        <v>13493500</v>
       </c>
       <c r="H61" s="3">
-        <v>15970000</v>
+        <v>14841800</v>
       </c>
       <c r="I61" s="3">
-        <v>16362900</v>
+        <v>15429800</v>
       </c>
       <c r="J61" s="3">
+        <v>15809500</v>
+      </c>
+      <c r="K61" s="3">
         <v>14121700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15059600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16719900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16548400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>17626000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12461900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7533900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7146900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7113900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5612200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6519900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6984400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7575800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7569900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2657900</v>
+        <v>2760000</v>
       </c>
       <c r="E62" s="3">
-        <v>2545000</v>
+        <v>2568000</v>
       </c>
       <c r="F62" s="3">
-        <v>2827300</v>
+        <v>2458900</v>
       </c>
       <c r="G62" s="3">
-        <v>2365500</v>
+        <v>2731600</v>
       </c>
       <c r="H62" s="3">
-        <v>2206300</v>
+        <v>2285500</v>
       </c>
       <c r="I62" s="3">
-        <v>2083200</v>
+        <v>2131600</v>
       </c>
       <c r="J62" s="3">
+        <v>2012700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2487400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2371000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2497800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2101100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2372100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1897400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1931700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1842400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2059800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2093600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1954500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2055500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2175100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2062400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33678800</v>
+        <v>35253800</v>
       </c>
       <c r="E66" s="3">
-        <v>34398000</v>
+        <v>32539700</v>
       </c>
       <c r="F66" s="3">
-        <v>37189200</v>
+        <v>33234600</v>
       </c>
       <c r="G66" s="3">
-        <v>32459400</v>
+        <v>35931300</v>
       </c>
       <c r="H66" s="3">
-        <v>33972400</v>
+        <v>31361500</v>
       </c>
       <c r="I66" s="3">
-        <v>35821800</v>
+        <v>32823300</v>
       </c>
       <c r="J66" s="3">
+        <v>34610200</v>
+      </c>
+      <c r="K66" s="3">
         <v>36413500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34402400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36309900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35440200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37583400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26816300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20693300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>21595500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21756900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19073800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19142300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20624400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24634800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21012400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40016400</v>
+        <v>40387700</v>
       </c>
       <c r="E72" s="3">
-        <v>37385600</v>
+        <v>38662900</v>
       </c>
       <c r="F72" s="3">
-        <v>38877200</v>
+        <v>36121100</v>
       </c>
       <c r="G72" s="3">
-        <v>35019000</v>
+        <v>37562200</v>
       </c>
       <c r="H72" s="3">
-        <v>34421700</v>
+        <v>33833500</v>
       </c>
       <c r="I72" s="3">
-        <v>32212100</v>
+        <v>33257500</v>
       </c>
       <c r="J72" s="3">
+        <v>31122600</v>
+      </c>
+      <c r="K72" s="3">
         <v>36124400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33601600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36706800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30553500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34669500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33879400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>29653800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>27163400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27940800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>28360500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26873900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24688300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>30535500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>30105900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39746600</v>
+        <v>42385100</v>
       </c>
       <c r="E76" s="3">
-        <v>36842500</v>
+        <v>38402200</v>
       </c>
       <c r="F76" s="3">
-        <v>37890300</v>
+        <v>35596400</v>
       </c>
       <c r="G76" s="3">
-        <v>33553500</v>
+        <v>36608800</v>
       </c>
       <c r="H76" s="3">
-        <v>32958400</v>
+        <v>32417500</v>
       </c>
       <c r="I76" s="3">
-        <v>32724700</v>
+        <v>31843700</v>
       </c>
       <c r="J76" s="3">
+        <v>31617800</v>
+      </c>
+      <c r="K76" s="3">
         <v>34660000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>35893200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>36944500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>32446300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34901500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34105400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>29864200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>28342700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28172500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28592800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>27341800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27509000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31384200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30960400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1587500</v>
+        <v>1586200</v>
       </c>
       <c r="E81" s="3">
-        <v>1531100</v>
+        <v>1533800</v>
       </c>
       <c r="F81" s="3">
-        <v>1174300</v>
+        <v>1479300</v>
       </c>
       <c r="G81" s="3">
-        <v>2154300</v>
+        <v>1134500</v>
       </c>
       <c r="H81" s="3">
-        <v>1756900</v>
+        <v>2081500</v>
       </c>
       <c r="I81" s="3">
-        <v>978900</v>
+        <v>1697500</v>
       </c>
       <c r="J81" s="3">
+        <v>945800</v>
+      </c>
+      <c r="K81" s="3">
         <v>919100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1891200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1526300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>669400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-136400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1990800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>787300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>776300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>2060000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1102900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>749500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>611600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1793600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>493400</v>
+        <v>509500</v>
       </c>
       <c r="E83" s="3">
-        <v>491200</v>
+        <v>476700</v>
       </c>
       <c r="F83" s="3">
-        <v>492300</v>
+        <v>474500</v>
       </c>
       <c r="G83" s="3">
-        <v>521600</v>
+        <v>475600</v>
       </c>
       <c r="H83" s="3">
-        <v>501300</v>
+        <v>504000</v>
       </c>
       <c r="I83" s="3">
-        <v>520500</v>
+        <v>484400</v>
       </c>
       <c r="J83" s="3">
+        <v>502900</v>
+      </c>
+      <c r="K83" s="3">
         <v>523900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>584900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>580600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>535300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>528700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>444800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>388800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>364500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>332700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>348900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>357900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>361300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>375600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>394400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1335700</v>
+        <v>1383300</v>
       </c>
       <c r="E89" s="3">
-        <v>774600</v>
+        <v>1290500</v>
       </c>
       <c r="F89" s="3">
-        <v>3483300</v>
+        <v>748400</v>
       </c>
       <c r="G89" s="3">
-        <v>2371100</v>
+        <v>3365500</v>
       </c>
       <c r="H89" s="3">
-        <v>1491500</v>
+        <v>2290900</v>
       </c>
       <c r="I89" s="3">
-        <v>889700</v>
+        <v>1441100</v>
       </c>
       <c r="J89" s="3">
+        <v>859600</v>
+      </c>
+      <c r="K89" s="3">
         <v>3369200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>210100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>780300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-144700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3351800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>968800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>552700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>448000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2829500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1032200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>686700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>719200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>3371200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1173800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-228100</v>
+        <v>-277100</v>
       </c>
       <c r="E91" s="3">
-        <v>-215700</v>
+        <v>-220400</v>
       </c>
       <c r="F91" s="3">
-        <v>-172800</v>
+        <v>-208400</v>
       </c>
       <c r="G91" s="3">
-        <v>-185200</v>
+        <v>-166900</v>
       </c>
       <c r="H91" s="3">
-        <v>-175000</v>
+        <v>-178900</v>
       </c>
       <c r="I91" s="3">
-        <v>-185200</v>
+        <v>-169100</v>
       </c>
       <c r="J91" s="3">
+        <v>-178900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-376000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-133100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-211800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-429400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-369100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-363300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-429300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-468800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-348900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-397200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-357900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-341600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-393200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1061400</v>
+        <v>-1521800</v>
       </c>
       <c r="E94" s="3">
-        <v>269900</v>
+        <v>-1025500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1091800</v>
+        <v>260700</v>
       </c>
       <c r="G94" s="3">
-        <v>-2220900</v>
+        <v>-1054900</v>
       </c>
       <c r="H94" s="3">
-        <v>709100</v>
+        <v>-2145800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1438500</v>
+        <v>685100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1389800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-421200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-42000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-349100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-232900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-540600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-422000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-405200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-534100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-304100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>313000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-755900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-282300</v>
+        <v>1006900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3827600</v>
+        <v>-272700</v>
       </c>
       <c r="F100" s="3">
-        <v>3004500</v>
+        <v>-3698200</v>
       </c>
       <c r="G100" s="3">
-        <v>-2363200</v>
+        <v>2902900</v>
       </c>
       <c r="H100" s="3">
-        <v>-703400</v>
+        <v>-2283300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1194600</v>
+        <v>-679600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-251800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-339700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-151900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2910400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4439400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-162800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1627200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-673200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-336600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-422600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>211100</v>
+        <v>172400</v>
       </c>
       <c r="E101" s="3">
-        <v>-117400</v>
+        <v>204000</v>
       </c>
       <c r="F101" s="3">
-        <v>274400</v>
+        <v>-113500</v>
       </c>
       <c r="G101" s="3">
-        <v>-184000</v>
+        <v>265100</v>
       </c>
       <c r="H101" s="3">
-        <v>-109500</v>
+        <v>-177800</v>
       </c>
       <c r="I101" s="3">
-        <v>-75600</v>
+        <v>-105800</v>
       </c>
       <c r="J101" s="3">
+        <v>-73100</v>
+      </c>
+      <c r="K101" s="3">
         <v>127600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-74700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>158000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>85900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-33500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>23300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>190000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-113100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-59500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-64000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-126800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>5900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-29300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>203200</v>
+        <v>1040700</v>
       </c>
       <c r="E102" s="3">
-        <v>-2900700</v>
+        <v>196400</v>
       </c>
       <c r="F102" s="3">
-        <v>5670300</v>
+        <v>-2802500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2397100</v>
+        <v>5478600</v>
       </c>
       <c r="H102" s="3">
-        <v>1387700</v>
+        <v>-2316000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1819000</v>
+        <v>1340700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1757500</v>
+      </c>
+      <c r="K102" s="3">
         <v>2823900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-246300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>437300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4874700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3938500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-234500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2622300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-482400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8706600</v>
+        <v>7345200</v>
       </c>
       <c r="E8" s="3">
-        <v>7467300</v>
+        <v>8283500</v>
       </c>
       <c r="F8" s="3">
-        <v>7275300</v>
+        <v>7104400</v>
       </c>
       <c r="G8" s="3">
-        <v>6925100</v>
+        <v>6921800</v>
       </c>
       <c r="H8" s="3">
-        <v>8223300</v>
+        <v>6588600</v>
       </c>
       <c r="I8" s="3">
-        <v>7129100</v>
+        <v>7823700</v>
       </c>
       <c r="J8" s="3">
+        <v>6782700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7356000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7362900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9386000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8318900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7799500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7287300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8786600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6667800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6586900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5776600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7635100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6271900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6486200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6203600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7891500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2287600</v>
+        <v>2121500</v>
       </c>
       <c r="E9" s="3">
-        <v>2076000</v>
+        <v>2176500</v>
       </c>
       <c r="F9" s="3">
-        <v>2064000</v>
+        <v>1975100</v>
       </c>
       <c r="G9" s="3">
-        <v>1998500</v>
+        <v>1963700</v>
       </c>
       <c r="H9" s="3">
-        <v>2006200</v>
+        <v>1901400</v>
       </c>
       <c r="I9" s="3">
-        <v>1995300</v>
+        <v>1908700</v>
       </c>
       <c r="J9" s="3">
+        <v>1898300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2142500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2259300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2457400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2371600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2386900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2355300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2296000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2034700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1992900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1752400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1963500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1794100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1920800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1966100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2021300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6418900</v>
+        <v>5223800</v>
       </c>
       <c r="E10" s="3">
-        <v>5391300</v>
+        <v>6107000</v>
       </c>
       <c r="F10" s="3">
-        <v>5211300</v>
+        <v>5129300</v>
       </c>
       <c r="G10" s="3">
-        <v>4926500</v>
+        <v>4958000</v>
       </c>
       <c r="H10" s="3">
-        <v>6217100</v>
+        <v>4687200</v>
       </c>
       <c r="I10" s="3">
-        <v>5133800</v>
+        <v>5915000</v>
       </c>
       <c r="J10" s="3">
+        <v>4884400</v>
+      </c>
+      <c r="K10" s="3">
         <v>5213500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5103500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>6928600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5947300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5412600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4931900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6490600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4633100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4594000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4024200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5671700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4477900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4565400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4237500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5870200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1536000</v>
+        <v>1476900</v>
       </c>
       <c r="E12" s="3">
-        <v>1416000</v>
+        <v>1461400</v>
       </c>
       <c r="F12" s="3">
-        <v>1424700</v>
+        <v>1347200</v>
       </c>
       <c r="G12" s="3">
-        <v>1275300</v>
+        <v>1355500</v>
       </c>
       <c r="H12" s="3">
-        <v>1232700</v>
+        <v>1213300</v>
       </c>
       <c r="I12" s="3">
-        <v>1212000</v>
+        <v>1172800</v>
       </c>
       <c r="J12" s="3">
+        <v>1153100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1262200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1184400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1402100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1191900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1237600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1264400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1111900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1014600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1038700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>891600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>980600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>872900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>942500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>996600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1006000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>186500</v>
+        <v>159800</v>
       </c>
       <c r="E14" s="3">
-        <v>76400</v>
+        <v>177500</v>
       </c>
       <c r="F14" s="3">
-        <v>166900</v>
+        <v>72700</v>
       </c>
       <c r="G14" s="3">
-        <v>328400</v>
+        <v>158800</v>
       </c>
       <c r="H14" s="3">
-        <v>172400</v>
+        <v>312400</v>
       </c>
       <c r="I14" s="3">
-        <v>157100</v>
+        <v>164000</v>
       </c>
       <c r="J14" s="3">
+        <v>149500</v>
+      </c>
+      <c r="K14" s="3">
         <v>174500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>199900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>238200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>230300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>423500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1210600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>173900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>162800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>175700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>151500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>164900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>80800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>435300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>189000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>213600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7110600</v>
+        <v>6252300</v>
       </c>
       <c r="E17" s="3">
-        <v>6104700</v>
+        <v>6765000</v>
       </c>
       <c r="F17" s="3">
-        <v>6201800</v>
+        <v>5808100</v>
       </c>
       <c r="G17" s="3">
-        <v>5877800</v>
+        <v>5900500</v>
       </c>
       <c r="H17" s="3">
-        <v>5325800</v>
+        <v>5592200</v>
       </c>
       <c r="I17" s="3">
-        <v>5522200</v>
+        <v>5067000</v>
       </c>
       <c r="J17" s="3">
+        <v>5253800</v>
+      </c>
+      <c r="K17" s="3">
         <v>5955300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5996700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6930900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6262100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6826600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7449900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5948800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5298800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5440600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4651100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5431600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4797600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5447300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5413600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5601400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1596000</v>
+        <v>1092900</v>
       </c>
       <c r="E18" s="3">
-        <v>1362500</v>
+        <v>1518400</v>
       </c>
       <c r="F18" s="3">
-        <v>1073500</v>
+        <v>1296300</v>
       </c>
       <c r="G18" s="3">
-        <v>1047300</v>
+        <v>1021300</v>
       </c>
       <c r="H18" s="3">
-        <v>2897500</v>
+        <v>996400</v>
       </c>
       <c r="I18" s="3">
-        <v>1606900</v>
+        <v>2756700</v>
       </c>
       <c r="J18" s="3">
+        <v>1528800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1400700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1366200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2455100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2056800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>972900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-162700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2837800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1369000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1146300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1125500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2203600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1474300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1039000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>790000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2290100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>538900</v>
+        <v>-112100</v>
       </c>
       <c r="E20" s="3">
-        <v>545500</v>
+        <v>512700</v>
       </c>
       <c r="F20" s="3">
-        <v>894500</v>
+        <v>519000</v>
       </c>
       <c r="G20" s="3">
-        <v>411300</v>
+        <v>851100</v>
       </c>
       <c r="H20" s="3">
-        <v>54500</v>
+        <v>391300</v>
       </c>
       <c r="I20" s="3">
-        <v>698200</v>
+        <v>51900</v>
       </c>
       <c r="J20" s="3">
+        <v>664300</v>
+      </c>
+      <c r="K20" s="3">
         <v>41500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-99400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>193800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>89400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>10800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-113600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>74200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-27500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-41700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>111100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>85300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-20200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-5900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>14100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2644400</v>
+        <v>1458200</v>
       </c>
       <c r="E21" s="3">
-        <v>2384700</v>
+        <v>2515900</v>
       </c>
       <c r="F21" s="3">
-        <v>2442500</v>
+        <v>2268800</v>
       </c>
       <c r="G21" s="3">
-        <v>1934200</v>
+        <v>2323900</v>
       </c>
       <c r="H21" s="3">
-        <v>3456000</v>
+        <v>1840200</v>
       </c>
       <c r="I21" s="3">
-        <v>2789500</v>
+        <v>3288100</v>
       </c>
       <c r="J21" s="3">
+        <v>2653900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1945100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1790800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3233700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2726800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1509300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>376800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3169000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1832000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1483400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1416400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2663600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1917500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1380000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1159700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2698600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1643,41 +1683,41 @@
       <c r="H22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="3">
-        <v>46900</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="I22" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J22" s="3">
+        <v>44600</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3">
         <v>58400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15600</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>25500</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>2134900</v>
+        <v>980800</v>
       </c>
       <c r="E23" s="3">
-        <v>1908000</v>
+        <v>2031200</v>
       </c>
       <c r="F23" s="3">
-        <v>1968000</v>
+        <v>1815300</v>
       </c>
       <c r="G23" s="3">
-        <v>1458500</v>
+        <v>1872400</v>
       </c>
       <c r="H23" s="3">
-        <v>2952000</v>
+        <v>1387700</v>
       </c>
       <c r="I23" s="3">
-        <v>2258200</v>
+        <v>2808600</v>
       </c>
       <c r="J23" s="3">
+        <v>2148500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1442200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1266900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2590500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2084900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>958800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-167500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2724200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1417700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1118900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1083700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2314700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1559600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1018800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>784100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2304200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>564000</v>
+        <v>324900</v>
       </c>
       <c r="E24" s="3">
-        <v>361100</v>
+        <v>536600</v>
       </c>
       <c r="F24" s="3">
-        <v>387300</v>
+        <v>343500</v>
       </c>
       <c r="G24" s="3">
-        <v>291300</v>
+        <v>368500</v>
       </c>
       <c r="H24" s="3">
-        <v>842200</v>
+        <v>277100</v>
       </c>
       <c r="I24" s="3">
-        <v>456000</v>
+        <v>801300</v>
       </c>
       <c r="J24" s="3">
+        <v>433800</v>
+      </c>
+      <c r="K24" s="3">
         <v>476700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>350000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>679400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>542700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>275300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-39500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>728700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>342200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>329400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>307400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>231100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>446600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>270400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>162000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>513000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1570900</v>
+        <v>656000</v>
       </c>
       <c r="E26" s="3">
-        <v>1546900</v>
+        <v>1494600</v>
       </c>
       <c r="F26" s="3">
-        <v>1580700</v>
+        <v>1471700</v>
       </c>
       <c r="G26" s="3">
-        <v>1167300</v>
+        <v>1503900</v>
       </c>
       <c r="H26" s="3">
-        <v>2109800</v>
+        <v>1110600</v>
       </c>
       <c r="I26" s="3">
-        <v>1802200</v>
+        <v>2007300</v>
       </c>
       <c r="J26" s="3">
+        <v>1714600</v>
+      </c>
+      <c r="K26" s="3">
         <v>965500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>916800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1911100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1542300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>683500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-128000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1995600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1075500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>789500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>776300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2083500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1113000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>748400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>622100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1791200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1586200</v>
+        <v>768000</v>
       </c>
       <c r="E27" s="3">
-        <v>1533800</v>
+        <v>1509100</v>
       </c>
       <c r="F27" s="3">
-        <v>1479300</v>
+        <v>1459300</v>
       </c>
       <c r="G27" s="3">
-        <v>1134500</v>
+        <v>1407400</v>
       </c>
       <c r="H27" s="3">
-        <v>2081500</v>
+        <v>1079400</v>
       </c>
       <c r="I27" s="3">
-        <v>1697500</v>
+        <v>1980300</v>
       </c>
       <c r="J27" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="K27" s="3">
         <v>945800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>919100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1891200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1526300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>669400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-136400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1990800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1075500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>787300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>776300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2060000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1102900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>749500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>611600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1793600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2243,8 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-538900</v>
+        <v>112100</v>
       </c>
       <c r="E32" s="3">
-        <v>-545500</v>
+        <v>-512700</v>
       </c>
       <c r="F32" s="3">
-        <v>-894500</v>
+        <v>-519000</v>
       </c>
       <c r="G32" s="3">
-        <v>-411300</v>
+        <v>-851100</v>
       </c>
       <c r="H32" s="3">
-        <v>-54500</v>
+        <v>-391300</v>
       </c>
       <c r="I32" s="3">
-        <v>-698200</v>
+        <v>-51900</v>
       </c>
       <c r="J32" s="3">
+        <v>-664300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-41500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>99400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-193800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-89400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-10800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>113600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-74200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>27500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>41700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-111100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-85300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>20200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>5900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-14100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1586200</v>
+        <v>768000</v>
       </c>
       <c r="E33" s="3">
-        <v>1533800</v>
+        <v>1509100</v>
       </c>
       <c r="F33" s="3">
-        <v>1479300</v>
+        <v>1459300</v>
       </c>
       <c r="G33" s="3">
-        <v>1134500</v>
+        <v>1407400</v>
       </c>
       <c r="H33" s="3">
-        <v>2081500</v>
+        <v>1079400</v>
       </c>
       <c r="I33" s="3">
-        <v>1697500</v>
+        <v>1980300</v>
       </c>
       <c r="J33" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="K33" s="3">
         <v>945800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>919100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1891200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1526300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>669400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-136400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1990800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1075500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>787300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>776300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>2060000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1102900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>749500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>611600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1793600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1586200</v>
+        <v>768000</v>
       </c>
       <c r="E35" s="3">
-        <v>1533800</v>
+        <v>1509100</v>
       </c>
       <c r="F35" s="3">
-        <v>1479300</v>
+        <v>1459300</v>
       </c>
       <c r="G35" s="3">
-        <v>1134500</v>
+        <v>1407400</v>
       </c>
       <c r="H35" s="3">
-        <v>2081500</v>
+        <v>1079400</v>
       </c>
       <c r="I35" s="3">
-        <v>1697500</v>
+        <v>1980300</v>
       </c>
       <c r="J35" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="K35" s="3">
         <v>945800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>919100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1891200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1526300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>669400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-136400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1990800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1075500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>787300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>776300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>2060000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1102900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>749500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>611600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1793600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,221 +2833,231 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9706900</v>
+        <v>9280900</v>
       </c>
       <c r="E41" s="3">
-        <v>8665100</v>
+        <v>9235200</v>
       </c>
       <c r="F41" s="3">
-        <v>8469800</v>
+        <v>8244000</v>
       </c>
       <c r="G41" s="3">
-        <v>11271300</v>
+        <v>8058300</v>
       </c>
       <c r="H41" s="3">
-        <v>5793800</v>
+        <v>10723600</v>
       </c>
       <c r="I41" s="3">
-        <v>8109800</v>
+        <v>5512300</v>
       </c>
       <c r="J41" s="3">
+        <v>7715700</v>
+      </c>
+      <c r="K41" s="3">
         <v>6769100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8825000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6203600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6768100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6079600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8770500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>10204900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4992000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4957500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8342600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4500300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4734800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4752700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6968900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4345400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3008700</v>
+        <v>2640400</v>
       </c>
       <c r="E42" s="3">
-        <v>1698500</v>
+        <v>2862500</v>
       </c>
       <c r="F42" s="3">
-        <v>958900</v>
+        <v>1616000</v>
       </c>
       <c r="G42" s="3">
-        <v>1541500</v>
+        <v>912300</v>
       </c>
       <c r="H42" s="3">
-        <v>1783600</v>
+        <v>1466600</v>
       </c>
       <c r="I42" s="3">
-        <v>578200</v>
+        <v>1697000</v>
       </c>
       <c r="J42" s="3">
+        <v>550100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1548000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>404200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>346700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>401800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>472900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>707000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>529900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>536100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>434800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>942100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1154500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1136600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>973900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1813500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1319400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7369100</v>
+        <v>557400</v>
       </c>
       <c r="E43" s="3">
-        <v>825800</v>
+        <v>7011000</v>
       </c>
       <c r="F43" s="3">
-        <v>6858600</v>
+        <v>785700</v>
       </c>
       <c r="G43" s="3">
-        <v>307600</v>
+        <v>6525300</v>
       </c>
       <c r="H43" s="3">
-        <v>7421500</v>
+        <v>292700</v>
       </c>
       <c r="I43" s="3">
-        <v>748400</v>
+        <v>7060800</v>
       </c>
       <c r="J43" s="3">
+        <v>712000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7701800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>709100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>9822600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1321800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7964200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>405500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>346600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5953400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6073000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>374400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>20987900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5868000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6488500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>345100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>273500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,363 +3127,381 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1781500</v>
+        <v>1959600</v>
       </c>
       <c r="E45" s="3">
-        <v>1789100</v>
+        <v>1694900</v>
       </c>
       <c r="F45" s="3">
-        <v>1714900</v>
+        <v>1702200</v>
       </c>
       <c r="G45" s="3">
-        <v>1564400</v>
+        <v>1631600</v>
       </c>
       <c r="H45" s="3">
-        <v>1440000</v>
+        <v>1488300</v>
       </c>
       <c r="I45" s="3">
-        <v>1496700</v>
+        <v>1370000</v>
       </c>
       <c r="J45" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="K45" s="3">
         <v>1482500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1412500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1386900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1601100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1424600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1250000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1052800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1135300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1104600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>932200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>989600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>848200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>842600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>909700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>682000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21866200</v>
+        <v>24252600</v>
       </c>
       <c r="E46" s="3">
-        <v>18465800</v>
+        <v>20803700</v>
       </c>
       <c r="F46" s="3">
-        <v>18002200</v>
+        <v>17568500</v>
       </c>
       <c r="G46" s="3">
-        <v>21903300</v>
+        <v>17127400</v>
       </c>
       <c r="H46" s="3">
-        <v>16438900</v>
+        <v>20839000</v>
       </c>
       <c r="I46" s="3">
-        <v>17036700</v>
+        <v>15640100</v>
       </c>
       <c r="J46" s="3">
+        <v>16208900</v>
+      </c>
+      <c r="K46" s="3">
         <v>17501500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>19570700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17759800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17254000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15941400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19213400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19659800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>12616700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12569900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>16556700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13385300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12587600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13057700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>17779700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13573900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7292700</v>
+        <v>7261100</v>
       </c>
       <c r="E47" s="3">
-        <v>6728700</v>
+        <v>6938400</v>
       </c>
       <c r="F47" s="3">
-        <v>5829800</v>
+        <v>6401800</v>
       </c>
       <c r="G47" s="3">
-        <v>4941800</v>
+        <v>5546500</v>
       </c>
       <c r="H47" s="3">
-        <v>4425800</v>
+        <v>4701700</v>
       </c>
       <c r="I47" s="3">
-        <v>3891300</v>
+        <v>4210800</v>
       </c>
       <c r="J47" s="3">
+        <v>3702200</v>
+      </c>
+      <c r="K47" s="3">
         <v>3271600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3404200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3385500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3617400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2953900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2730900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2565700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2239600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2159800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1878700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1955600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2009500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2305700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2371100</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2270100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5429500</v>
+        <v>5180200</v>
       </c>
       <c r="E48" s="3">
-        <v>5273500</v>
+        <v>5165600</v>
       </c>
       <c r="F48" s="3">
-        <v>5265800</v>
+        <v>5017200</v>
       </c>
       <c r="G48" s="3">
-        <v>5396700</v>
+        <v>5009900</v>
       </c>
       <c r="H48" s="3">
-        <v>10998600</v>
+        <v>5134500</v>
       </c>
       <c r="I48" s="3">
-        <v>5578900</v>
+        <v>10464100</v>
       </c>
       <c r="J48" s="3">
+        <v>5307800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5751300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6077900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6416100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6675000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6358400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6606600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4202800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3788000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3605800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3342300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3328900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3148300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3050700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3075400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3028400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38242900</v>
+        <v>37562600</v>
       </c>
       <c r="E49" s="3">
-        <v>36506200</v>
+        <v>36384600</v>
       </c>
       <c r="F49" s="3">
-        <v>35974900</v>
+        <v>34732300</v>
       </c>
       <c r="G49" s="3">
-        <v>36497500</v>
+        <v>34226800</v>
       </c>
       <c r="H49" s="3">
-        <v>34169500</v>
+        <v>34724000</v>
       </c>
       <c r="I49" s="3">
-        <v>34938600</v>
+        <v>32509100</v>
       </c>
       <c r="J49" s="3">
+        <v>33240800</v>
+      </c>
+      <c r="K49" s="3">
         <v>36405800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>38537300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39286800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42346700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39445900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40703100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>31894500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>29648200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29382500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>26013800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>27194800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27366500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>28298800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>31375900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31806700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4807600</v>
+        <v>5012000</v>
       </c>
       <c r="E52" s="3">
-        <v>3967600</v>
+        <v>4574000</v>
       </c>
       <c r="F52" s="3">
-        <v>3758200</v>
+        <v>3774800</v>
       </c>
       <c r="G52" s="3">
-        <v>3800700</v>
+        <v>3575600</v>
       </c>
       <c r="H52" s="3">
-        <v>3393800</v>
+        <v>3616000</v>
       </c>
       <c r="I52" s="3">
-        <v>3221500</v>
+        <v>3228900</v>
       </c>
       <c r="J52" s="3">
+        <v>3064900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3297800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3483300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3447400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3361400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3186900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3230900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2737200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2265000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2220200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2137800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1935400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1372200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1420400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1416800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1293500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77639000</v>
+        <v>79268600</v>
       </c>
       <c r="E54" s="3">
-        <v>70941900</v>
+        <v>73866300</v>
       </c>
       <c r="F54" s="3">
-        <v>68831000</v>
+        <v>67494600</v>
       </c>
       <c r="G54" s="3">
-        <v>72540100</v>
+        <v>65486300</v>
       </c>
       <c r="H54" s="3">
-        <v>63779000</v>
+        <v>69015200</v>
       </c>
       <c r="I54" s="3">
-        <v>64667000</v>
+        <v>60679800</v>
       </c>
       <c r="J54" s="3">
+        <v>61524600</v>
+      </c>
+      <c r="K54" s="3">
         <v>66228100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71073500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70295600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>73254400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>67886500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72484900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>60921700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>50557500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49938100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49929400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>47666600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46484000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>48133400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>56018900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>51972800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1723600</v>
+        <v>1757200</v>
       </c>
       <c r="E57" s="3">
-        <v>1245800</v>
+        <v>1639900</v>
       </c>
       <c r="F57" s="3">
-        <v>1173800</v>
+        <v>1185300</v>
       </c>
       <c r="G57" s="3">
-        <v>1312400</v>
+        <v>1116800</v>
       </c>
       <c r="H57" s="3">
-        <v>1323300</v>
+        <v>1248600</v>
       </c>
       <c r="I57" s="3">
-        <v>1395300</v>
+        <v>1259000</v>
       </c>
       <c r="J57" s="3">
+        <v>1327500</v>
+      </c>
+      <c r="K57" s="3">
         <v>1430200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1646200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1845700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1849700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1731700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1968900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1763700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1380100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1290200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1170500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1291400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1221800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1281300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1388600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1503700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4545800</v>
+        <v>7413700</v>
       </c>
       <c r="E58" s="3">
-        <v>4587300</v>
+        <v>4324900</v>
       </c>
       <c r="F58" s="3">
-        <v>4182500</v>
+        <v>4364400</v>
       </c>
       <c r="G58" s="3">
-        <v>5011600</v>
+        <v>3979300</v>
       </c>
       <c r="H58" s="3">
-        <v>4592700</v>
+        <v>4768100</v>
       </c>
       <c r="I58" s="3">
-        <v>4218500</v>
+        <v>4369600</v>
       </c>
       <c r="J58" s="3">
+        <v>4013600</v>
+      </c>
+      <c r="K58" s="3">
         <v>2820000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5805800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3408800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3418900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2134000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1935500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2239200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1243800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1281400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1750200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3207800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1446200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>608100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2083500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2128100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11333500</v>
+        <v>12653000</v>
       </c>
       <c r="E59" s="3">
-        <v>9997100</v>
+        <v>10782700</v>
       </c>
       <c r="F59" s="3">
-        <v>11402200</v>
+        <v>9511300</v>
       </c>
       <c r="G59" s="3">
-        <v>11988000</v>
+        <v>10848100</v>
       </c>
       <c r="H59" s="3">
-        <v>10654900</v>
+        <v>11405500</v>
       </c>
       <c r="I59" s="3">
-        <v>9451600</v>
+        <v>10137200</v>
       </c>
       <c r="J59" s="3">
+        <v>8992400</v>
+      </c>
+      <c r="K59" s="3">
         <v>12440700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12269900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11628600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11739100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12854500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>13619900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9731700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8556200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9986300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9629500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12110800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7998700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9687300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>11375400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7723700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17602900</v>
+        <v>21823900</v>
       </c>
       <c r="E60" s="3">
-        <v>15830200</v>
+        <v>16747600</v>
       </c>
       <c r="F60" s="3">
-        <v>16758600</v>
+        <v>15061000</v>
       </c>
       <c r="G60" s="3">
-        <v>18312000</v>
+        <v>15944200</v>
       </c>
       <c r="H60" s="3">
-        <v>14009500</v>
+        <v>17422200</v>
       </c>
       <c r="I60" s="3">
-        <v>15065500</v>
+        <v>13328700</v>
       </c>
       <c r="J60" s="3">
+        <v>14333400</v>
+      </c>
+      <c r="K60" s="3">
         <v>16690900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19722000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16883100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17007800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16720200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17524300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12403900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11180100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12557800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12550100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11455500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10666800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11576700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>14847500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11355400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>11978200</v>
+        <v>10451700</v>
       </c>
       <c r="E61" s="3">
-        <v>12373100</v>
+        <v>11396100</v>
       </c>
       <c r="F61" s="3">
-        <v>12389500</v>
+        <v>11771900</v>
       </c>
       <c r="G61" s="3">
-        <v>13493500</v>
+        <v>11787400</v>
       </c>
       <c r="H61" s="3">
-        <v>14841800</v>
+        <v>12837800</v>
       </c>
       <c r="I61" s="3">
-        <v>15429800</v>
+        <v>14120600</v>
       </c>
       <c r="J61" s="3">
+        <v>14680100</v>
+      </c>
+      <c r="K61" s="3">
         <v>15809500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14121700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15059600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>16719900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16548400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>17626000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12461900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7533900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7146900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7113900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5612200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6519900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6984400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7575800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7569900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2760000</v>
+        <v>2759800</v>
       </c>
       <c r="E62" s="3">
-        <v>2568000</v>
+        <v>2625900</v>
       </c>
       <c r="F62" s="3">
-        <v>2458900</v>
+        <v>2443200</v>
       </c>
       <c r="G62" s="3">
-        <v>2731600</v>
+        <v>2339400</v>
       </c>
       <c r="H62" s="3">
-        <v>2285500</v>
+        <v>2598900</v>
       </c>
       <c r="I62" s="3">
-        <v>2131600</v>
+        <v>2174400</v>
       </c>
       <c r="J62" s="3">
+        <v>2028100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2012700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2487400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2371000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2497800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2101100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2372100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1897400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1931700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1842400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2059800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2093600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1954500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2055500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2175100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2062400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35253800</v>
+        <v>37908300</v>
       </c>
       <c r="E66" s="3">
-        <v>32539700</v>
+        <v>33540800</v>
       </c>
       <c r="F66" s="3">
-        <v>33234600</v>
+        <v>30958500</v>
       </c>
       <c r="G66" s="3">
-        <v>35931300</v>
+        <v>31619600</v>
       </c>
       <c r="H66" s="3">
-        <v>31361500</v>
+        <v>34185300</v>
       </c>
       <c r="I66" s="3">
-        <v>32823300</v>
+        <v>29837500</v>
       </c>
       <c r="J66" s="3">
+        <v>31228300</v>
+      </c>
+      <c r="K66" s="3">
         <v>34610200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>36413500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34402400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36309900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35440200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37583400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>26816300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20693300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>21595500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21756900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19073800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19142300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20624400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24634800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21012400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>40387700</v>
+        <v>41708000</v>
       </c>
       <c r="E72" s="3">
-        <v>38662900</v>
+        <v>38425100</v>
       </c>
       <c r="F72" s="3">
-        <v>36121100</v>
+        <v>36784200</v>
       </c>
       <c r="G72" s="3">
-        <v>37562200</v>
+        <v>34365900</v>
       </c>
       <c r="H72" s="3">
-        <v>33833500</v>
+        <v>35737000</v>
       </c>
       <c r="I72" s="3">
-        <v>33257500</v>
+        <v>32189400</v>
       </c>
       <c r="J72" s="3">
+        <v>31641400</v>
+      </c>
+      <c r="K72" s="3">
         <v>31122600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36124400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33601600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36706800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30553500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34669500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33879400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>29653800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>27163400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27940800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>28360500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26873900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24688300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>30535500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>30105900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42385100</v>
+        <v>41360300</v>
       </c>
       <c r="E76" s="3">
-        <v>38402200</v>
+        <v>40325500</v>
       </c>
       <c r="F76" s="3">
-        <v>35596400</v>
+        <v>36536200</v>
       </c>
       <c r="G76" s="3">
-        <v>36608800</v>
+        <v>33866700</v>
       </c>
       <c r="H76" s="3">
-        <v>32417500</v>
+        <v>34829800</v>
       </c>
       <c r="I76" s="3">
-        <v>31843700</v>
+        <v>30842200</v>
       </c>
       <c r="J76" s="3">
+        <v>30296300</v>
+      </c>
+      <c r="K76" s="3">
         <v>31617800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34660000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>35893200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>36944500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32446300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34901500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34105400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29864200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>28342700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28172500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28592800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>27341800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27509000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31384200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>30960400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1586200</v>
+        <v>768000</v>
       </c>
       <c r="E81" s="3">
-        <v>1533800</v>
+        <v>1509100</v>
       </c>
       <c r="F81" s="3">
-        <v>1479300</v>
+        <v>1459300</v>
       </c>
       <c r="G81" s="3">
-        <v>1134500</v>
+        <v>1407400</v>
       </c>
       <c r="H81" s="3">
-        <v>2081500</v>
+        <v>1079400</v>
       </c>
       <c r="I81" s="3">
-        <v>1697500</v>
+        <v>1980300</v>
       </c>
       <c r="J81" s="3">
+        <v>1615000</v>
+      </c>
+      <c r="K81" s="3">
         <v>945800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>919100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1891200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1526300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>669400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-136400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1990800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1075500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>787300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>776300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>2060000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1102900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>749500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>611600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1793600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>509500</v>
+        <v>477400</v>
       </c>
       <c r="E83" s="3">
-        <v>476700</v>
+        <v>484700</v>
       </c>
       <c r="F83" s="3">
-        <v>474500</v>
+        <v>453600</v>
       </c>
       <c r="G83" s="3">
-        <v>475600</v>
+        <v>451500</v>
       </c>
       <c r="H83" s="3">
-        <v>504000</v>
+        <v>452500</v>
       </c>
       <c r="I83" s="3">
-        <v>484400</v>
+        <v>479500</v>
       </c>
       <c r="J83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="K83" s="3">
         <v>502900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>523900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>584900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>580600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>535300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>528700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>444800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>388800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>364500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>332700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>348900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>357900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>361300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>375600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>394400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1383300</v>
+        <v>2575000</v>
       </c>
       <c r="E89" s="3">
-        <v>1290500</v>
+        <v>1316100</v>
       </c>
       <c r="F89" s="3">
-        <v>748400</v>
+        <v>1227800</v>
       </c>
       <c r="G89" s="3">
-        <v>3365500</v>
+        <v>712000</v>
       </c>
       <c r="H89" s="3">
-        <v>2290900</v>
+        <v>3201900</v>
       </c>
       <c r="I89" s="3">
-        <v>1441100</v>
+        <v>2179600</v>
       </c>
       <c r="J89" s="3">
+        <v>1371100</v>
+      </c>
+      <c r="K89" s="3">
         <v>859600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3369200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>210100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>780300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-144700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3351800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>968800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>552700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>448000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2829500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1032200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>686700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>719200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>3371200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1173800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-277100</v>
+        <v>-229400</v>
       </c>
       <c r="E91" s="3">
-        <v>-220400</v>
+        <v>-263600</v>
       </c>
       <c r="F91" s="3">
-        <v>-208400</v>
+        <v>-209700</v>
       </c>
       <c r="G91" s="3">
-        <v>-166900</v>
+        <v>-198200</v>
       </c>
       <c r="H91" s="3">
+        <v>-158800</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-160900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-178900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-169100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-178900</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-376000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-133100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-211800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-429400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-369100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-363300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-429300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-468800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-348900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-397200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-357900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-341600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-393200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1521800</v>
+        <v>-1828800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1025500</v>
+        <v>-1447900</v>
       </c>
       <c r="F94" s="3">
-        <v>260700</v>
+        <v>-975600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1054900</v>
+        <v>248100</v>
       </c>
       <c r="H94" s="3">
-        <v>-2145800</v>
+        <v>-1003600</v>
       </c>
       <c r="I94" s="3">
-        <v>685100</v>
+        <v>-2041500</v>
       </c>
       <c r="J94" s="3">
+        <v>651800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-421200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-42000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-349100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-232900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-540600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-422000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-405200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-534100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-304100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>313000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-755900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1006900</v>
+        <v>-752500</v>
       </c>
       <c r="E100" s="3">
-        <v>-272700</v>
+        <v>958000</v>
       </c>
       <c r="F100" s="3">
-        <v>-3698200</v>
+        <v>-259500</v>
       </c>
       <c r="G100" s="3">
-        <v>2902900</v>
+        <v>-3518500</v>
       </c>
       <c r="H100" s="3">
-        <v>-2283300</v>
+        <v>2761900</v>
       </c>
       <c r="I100" s="3">
-        <v>-679600</v>
+        <v>-2172300</v>
       </c>
       <c r="J100" s="3">
+        <v>-646600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-251800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-339700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-151900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2910400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4439400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-162800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1627200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-673200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-336600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-422600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>172400</v>
+        <v>51900</v>
       </c>
       <c r="E101" s="3">
-        <v>204000</v>
+        <v>164000</v>
       </c>
       <c r="F101" s="3">
-        <v>-113500</v>
+        <v>194100</v>
       </c>
       <c r="G101" s="3">
-        <v>265100</v>
+        <v>-107900</v>
       </c>
       <c r="H101" s="3">
-        <v>-177800</v>
+        <v>252200</v>
       </c>
       <c r="I101" s="3">
-        <v>-105800</v>
+        <v>-169200</v>
       </c>
       <c r="J101" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-73100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>127600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-74700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>158000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>85900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-33500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>23300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>190000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-113100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-59500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-64000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-126800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>5900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-29300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1040700</v>
+        <v>45700</v>
       </c>
       <c r="E102" s="3">
-        <v>196400</v>
+        <v>990200</v>
       </c>
       <c r="F102" s="3">
-        <v>-2802500</v>
+        <v>186800</v>
       </c>
       <c r="G102" s="3">
-        <v>5478600</v>
+        <v>-2666400</v>
       </c>
       <c r="H102" s="3">
-        <v>-2316000</v>
+        <v>5212300</v>
       </c>
       <c r="I102" s="3">
-        <v>1340700</v>
+        <v>-2203500</v>
       </c>
       <c r="J102" s="3">
+        <v>1275600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2823900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-246300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>437300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4874700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3938500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-234500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2622300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-482400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7345200</v>
+        <v>7497500</v>
       </c>
       <c r="E8" s="3">
-        <v>8283500</v>
+        <v>7058600</v>
       </c>
       <c r="F8" s="3">
-        <v>7104400</v>
+        <v>7960200</v>
       </c>
       <c r="G8" s="3">
-        <v>6921800</v>
+        <v>6827200</v>
       </c>
       <c r="H8" s="3">
-        <v>6588600</v>
+        <v>6651700</v>
       </c>
       <c r="I8" s="3">
-        <v>7823700</v>
+        <v>6331500</v>
       </c>
       <c r="J8" s="3">
+        <v>7518400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6782700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7356000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7362900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9386000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8318900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7799500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7287300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8786600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6667800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6586900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5776600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7635100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6271900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6486200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6203600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7891500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2121500</v>
+        <v>2137400</v>
       </c>
       <c r="E9" s="3">
-        <v>2176500</v>
+        <v>2038700</v>
       </c>
       <c r="F9" s="3">
-        <v>1975100</v>
+        <v>2091500</v>
       </c>
       <c r="G9" s="3">
-        <v>1963700</v>
+        <v>1898100</v>
       </c>
       <c r="H9" s="3">
-        <v>1901400</v>
+        <v>1887100</v>
       </c>
       <c r="I9" s="3">
-        <v>1908700</v>
+        <v>1827200</v>
       </c>
       <c r="J9" s="3">
+        <v>1834200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1898300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2142500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2259300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2457400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2371600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2386900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2355300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2296000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2034700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1992900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1752400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1963500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1794100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1920800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1966100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2021300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5223800</v>
+        <v>5360000</v>
       </c>
       <c r="E10" s="3">
-        <v>6107000</v>
+        <v>5019900</v>
       </c>
       <c r="F10" s="3">
-        <v>5129300</v>
+        <v>5868700</v>
       </c>
       <c r="G10" s="3">
-        <v>4958000</v>
+        <v>4929200</v>
       </c>
       <c r="H10" s="3">
-        <v>4687200</v>
+        <v>4764600</v>
       </c>
       <c r="I10" s="3">
-        <v>5915000</v>
+        <v>4504300</v>
       </c>
       <c r="J10" s="3">
+        <v>5684200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4884400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5213500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5103500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6928600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5947300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5412600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4931900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6490600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4633100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4594000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4024200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>5671700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4477900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4565400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4237500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5870200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1476900</v>
+        <v>1538000</v>
       </c>
       <c r="E12" s="3">
-        <v>1461400</v>
+        <v>1419300</v>
       </c>
       <c r="F12" s="3">
-        <v>1347200</v>
+        <v>1404300</v>
       </c>
       <c r="G12" s="3">
-        <v>1355500</v>
+        <v>1294600</v>
       </c>
       <c r="H12" s="3">
-        <v>1213300</v>
+        <v>1302600</v>
       </c>
       <c r="I12" s="3">
-        <v>1172800</v>
+        <v>1166000</v>
       </c>
       <c r="J12" s="3">
+        <v>1127100</v>
+      </c>
+      <c r="K12" s="3">
         <v>1153100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1262200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1184400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1402100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1191900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1237600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1264400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1111900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1014600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1038700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>891600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>980600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>872900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>942500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>996600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1006000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>159800</v>
+        <v>292200</v>
       </c>
       <c r="E14" s="3">
-        <v>177500</v>
+        <v>153600</v>
       </c>
       <c r="F14" s="3">
-        <v>72700</v>
+        <v>170600</v>
       </c>
       <c r="G14" s="3">
-        <v>158800</v>
+        <v>69800</v>
       </c>
       <c r="H14" s="3">
-        <v>312400</v>
+        <v>152600</v>
       </c>
       <c r="I14" s="3">
-        <v>164000</v>
+        <v>300200</v>
       </c>
       <c r="J14" s="3">
+        <v>157600</v>
+      </c>
+      <c r="K14" s="3">
         <v>149500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>174500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>199900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>238200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>230300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>423500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1210600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>173900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>162800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>175700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>151500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>164900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>80800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>435300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>189000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>213600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6252300</v>
+        <v>6826200</v>
       </c>
       <c r="E17" s="3">
-        <v>6765000</v>
+        <v>6008300</v>
       </c>
       <c r="F17" s="3">
-        <v>5808100</v>
+        <v>6501100</v>
       </c>
       <c r="G17" s="3">
-        <v>5900500</v>
+        <v>5581500</v>
       </c>
       <c r="H17" s="3">
-        <v>5592200</v>
+        <v>5670200</v>
       </c>
       <c r="I17" s="3">
-        <v>5067000</v>
+        <v>5374000</v>
       </c>
       <c r="J17" s="3">
+        <v>4869300</v>
+      </c>
+      <c r="K17" s="3">
         <v>5253800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5955300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5996700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6930900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6262100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6826600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7449900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5948800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5298800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5440600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4651100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5431600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4797600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5447300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5413600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5601400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1092900</v>
+        <v>671300</v>
       </c>
       <c r="E18" s="3">
-        <v>1518400</v>
+        <v>1050300</v>
       </c>
       <c r="F18" s="3">
-        <v>1296300</v>
+        <v>1459200</v>
       </c>
       <c r="G18" s="3">
-        <v>1021300</v>
+        <v>1245800</v>
       </c>
       <c r="H18" s="3">
-        <v>996400</v>
+        <v>981400</v>
       </c>
       <c r="I18" s="3">
-        <v>2756700</v>
+        <v>957500</v>
       </c>
       <c r="J18" s="3">
+        <v>2649100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1528800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1400700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1366200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2455100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2056800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>972900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-162700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2837800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1369000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1146300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1125500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2203600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1474300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1039000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>790000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2290100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-112100</v>
+        <v>-134600</v>
       </c>
       <c r="E20" s="3">
-        <v>512700</v>
+        <v>-107700</v>
       </c>
       <c r="F20" s="3">
-        <v>519000</v>
+        <v>492700</v>
       </c>
       <c r="G20" s="3">
-        <v>851100</v>
+        <v>498700</v>
       </c>
       <c r="H20" s="3">
-        <v>391300</v>
+        <v>817900</v>
       </c>
       <c r="I20" s="3">
-        <v>51900</v>
+        <v>376000</v>
       </c>
       <c r="J20" s="3">
+        <v>49900</v>
+      </c>
+      <c r="K20" s="3">
         <v>664300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>41500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-99400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>193800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>89400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>10800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-113600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>74200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-27500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-41700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>111100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>85300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>14100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1458200</v>
+        <v>1008400</v>
       </c>
       <c r="E21" s="3">
-        <v>2515900</v>
+        <v>1401300</v>
       </c>
       <c r="F21" s="3">
-        <v>2268800</v>
+        <v>2417700</v>
       </c>
       <c r="G21" s="3">
-        <v>2323900</v>
+        <v>2180300</v>
       </c>
       <c r="H21" s="3">
-        <v>1840200</v>
+        <v>2233200</v>
       </c>
       <c r="I21" s="3">
-        <v>3288100</v>
+        <v>1768400</v>
       </c>
       <c r="J21" s="3">
+        <v>3159800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2653900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1945100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1790800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3233700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2726800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1509300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>376800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3169000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1832000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1483400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1416400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2663600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1917500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1380000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1159700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2698600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1686,41 +1726,41 @@
       <c r="I22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="3">
         <v>44600</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3">
         <v>58400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15600</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>25500</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>980800</v>
+        <v>536600</v>
       </c>
       <c r="E23" s="3">
-        <v>2031200</v>
+        <v>942500</v>
       </c>
       <c r="F23" s="3">
-        <v>1815300</v>
+        <v>1951900</v>
       </c>
       <c r="G23" s="3">
-        <v>1872400</v>
+        <v>1744500</v>
       </c>
       <c r="H23" s="3">
-        <v>1387700</v>
+        <v>1799300</v>
       </c>
       <c r="I23" s="3">
-        <v>2808600</v>
+        <v>1333500</v>
       </c>
       <c r="J23" s="3">
+        <v>2699000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2148500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1442200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1266900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2590500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2084900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>958800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-167500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2724200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1417700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1118900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1083700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2314700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1559600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1018800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>784100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2304200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>324900</v>
+        <v>334100</v>
       </c>
       <c r="E24" s="3">
-        <v>536600</v>
+        <v>312200</v>
       </c>
       <c r="F24" s="3">
-        <v>343500</v>
+        <v>515700</v>
       </c>
       <c r="G24" s="3">
-        <v>368500</v>
+        <v>330100</v>
       </c>
       <c r="H24" s="3">
-        <v>277100</v>
+        <v>354100</v>
       </c>
       <c r="I24" s="3">
-        <v>801300</v>
+        <v>266300</v>
       </c>
       <c r="J24" s="3">
+        <v>770000</v>
+      </c>
+      <c r="K24" s="3">
         <v>433800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>476700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>350000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>679400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>542700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>275300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-39500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>728700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>342200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>329400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>307400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>231100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>446600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>270400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>162000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>513000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>656000</v>
+        <v>202500</v>
       </c>
       <c r="E26" s="3">
-        <v>1494600</v>
+        <v>630400</v>
       </c>
       <c r="F26" s="3">
-        <v>1471700</v>
+        <v>1436300</v>
       </c>
       <c r="G26" s="3">
-        <v>1503900</v>
+        <v>1414300</v>
       </c>
       <c r="H26" s="3">
-        <v>1110600</v>
+        <v>1445200</v>
       </c>
       <c r="I26" s="3">
-        <v>2007300</v>
+        <v>1067200</v>
       </c>
       <c r="J26" s="3">
+        <v>1929000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1714600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>965500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>916800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1911100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1542300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>683500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-128000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1995600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1075500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>789500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>776300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2083500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1113000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>748400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>622100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1791200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>768000</v>
+        <v>333100</v>
       </c>
       <c r="E27" s="3">
-        <v>1509100</v>
+        <v>738100</v>
       </c>
       <c r="F27" s="3">
-        <v>1459300</v>
+        <v>1450200</v>
       </c>
       <c r="G27" s="3">
-        <v>1407400</v>
+        <v>1402300</v>
       </c>
       <c r="H27" s="3">
-        <v>1079400</v>
+        <v>1352500</v>
       </c>
       <c r="I27" s="3">
-        <v>1980300</v>
+        <v>1037300</v>
       </c>
       <c r="J27" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="K27" s="3">
         <v>1615000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>945800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>919100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1891200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1526300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>669400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1990800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1075500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>787300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>776300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2060000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1102900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>749500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>611600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1793600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2246,8 +2307,8 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
+      <c r="X29" s="3">
+        <v>0</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>112100</v>
+        <v>134600</v>
       </c>
       <c r="E32" s="3">
-        <v>-512700</v>
+        <v>107700</v>
       </c>
       <c r="F32" s="3">
-        <v>-519000</v>
+        <v>-492700</v>
       </c>
       <c r="G32" s="3">
-        <v>-851100</v>
+        <v>-498700</v>
       </c>
       <c r="H32" s="3">
-        <v>-391300</v>
+        <v>-817900</v>
       </c>
       <c r="I32" s="3">
-        <v>-51900</v>
+        <v>-376000</v>
       </c>
       <c r="J32" s="3">
+        <v>-49900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-664300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-41500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>99400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-193800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-89400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>113600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-74200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>27500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>41700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-111100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-85300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>5900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-14100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>768000</v>
+        <v>333100</v>
       </c>
       <c r="E33" s="3">
-        <v>1509100</v>
+        <v>738100</v>
       </c>
       <c r="F33" s="3">
-        <v>1459300</v>
+        <v>1450200</v>
       </c>
       <c r="G33" s="3">
-        <v>1407400</v>
+        <v>1402300</v>
       </c>
       <c r="H33" s="3">
-        <v>1079400</v>
+        <v>1352500</v>
       </c>
       <c r="I33" s="3">
-        <v>1980300</v>
+        <v>1037300</v>
       </c>
       <c r="J33" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="K33" s="3">
         <v>1615000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>945800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>919100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1891200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1526300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>669400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1990800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1075500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>787300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>776300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>2060000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1102900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>749500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>611600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1793600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>768000</v>
+        <v>333100</v>
       </c>
       <c r="E35" s="3">
-        <v>1509100</v>
+        <v>738100</v>
       </c>
       <c r="F35" s="3">
-        <v>1459300</v>
+        <v>1450200</v>
       </c>
       <c r="G35" s="3">
-        <v>1407400</v>
+        <v>1402300</v>
       </c>
       <c r="H35" s="3">
-        <v>1079400</v>
+        <v>1352500</v>
       </c>
       <c r="I35" s="3">
-        <v>1980300</v>
+        <v>1037300</v>
       </c>
       <c r="J35" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="K35" s="3">
         <v>1615000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>945800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>919100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1891200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1526300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>669400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1990800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1075500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>787300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>776300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>2060000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1102900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>749500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>611600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1793600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,230 +2920,240 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9280900</v>
+        <v>7472500</v>
       </c>
       <c r="E41" s="3">
-        <v>9235200</v>
+        <v>8918800</v>
       </c>
       <c r="F41" s="3">
-        <v>8244000</v>
+        <v>8874900</v>
       </c>
       <c r="G41" s="3">
-        <v>8058300</v>
+        <v>7922300</v>
       </c>
       <c r="H41" s="3">
-        <v>10723600</v>
+        <v>8874900</v>
       </c>
       <c r="I41" s="3">
-        <v>5512300</v>
+        <v>10305100</v>
       </c>
       <c r="J41" s="3">
+        <v>5297200</v>
+      </c>
+      <c r="K41" s="3">
         <v>7715700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6769100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8825000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6203600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6768100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6079600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8770500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>10204900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4992000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4957500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8342600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4500300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4734800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4752700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6968900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4345400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2640400</v>
+        <v>984400</v>
       </c>
       <c r="E42" s="3">
-        <v>2862500</v>
+        <v>2537400</v>
       </c>
       <c r="F42" s="3">
-        <v>1616000</v>
+        <v>2750800</v>
       </c>
       <c r="G42" s="3">
-        <v>912300</v>
+        <v>1553000</v>
       </c>
       <c r="H42" s="3">
-        <v>1466600</v>
+        <v>2750800</v>
       </c>
       <c r="I42" s="3">
-        <v>1697000</v>
+        <v>1409300</v>
       </c>
       <c r="J42" s="3">
+        <v>1630700</v>
+      </c>
+      <c r="K42" s="3">
         <v>550100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1548000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>404200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>346700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>401800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>472900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>707000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>529900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>536100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>434800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>942100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1154500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1136600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>973900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1813500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1319400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>557400</v>
+        <v>9505200</v>
       </c>
       <c r="E43" s="3">
-        <v>7011000</v>
+        <v>535600</v>
       </c>
       <c r="F43" s="3">
-        <v>785700</v>
+        <v>6737400</v>
       </c>
       <c r="G43" s="3">
-        <v>6525300</v>
+        <v>755000</v>
       </c>
       <c r="H43" s="3">
-        <v>292700</v>
+        <v>6737400</v>
       </c>
       <c r="I43" s="3">
-        <v>7060800</v>
+        <v>281300</v>
       </c>
       <c r="J43" s="3">
+        <v>6785300</v>
+      </c>
+      <c r="K43" s="3">
         <v>712000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7701800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>709100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>9822600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1321800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7964200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>405500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>346600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5953400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6073000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>374400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>20987900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5868000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6488500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>345100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>273500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,378 +3226,396 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1959600</v>
+        <v>2106500</v>
       </c>
       <c r="E45" s="3">
-        <v>1694900</v>
+        <v>1883100</v>
       </c>
       <c r="F45" s="3">
-        <v>1702200</v>
+        <v>1628800</v>
       </c>
       <c r="G45" s="3">
-        <v>1631600</v>
+        <v>1635700</v>
       </c>
       <c r="H45" s="3">
-        <v>1488300</v>
+        <v>1629800</v>
       </c>
       <c r="I45" s="3">
-        <v>1370000</v>
+        <v>1430300</v>
       </c>
       <c r="J45" s="3">
+        <v>1316600</v>
+      </c>
+      <c r="K45" s="3">
         <v>1424000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1482500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1412500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1386900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1601100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1424600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1250000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1052800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1135300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1104600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>932200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>989600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>848200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>842600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>909700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>682000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24252600</v>
+        <v>20068700</v>
       </c>
       <c r="E46" s="3">
-        <v>20803700</v>
+        <v>23306200</v>
       </c>
       <c r="F46" s="3">
-        <v>17568500</v>
+        <v>19991900</v>
       </c>
       <c r="G46" s="3">
-        <v>17127400</v>
+        <v>16883000</v>
       </c>
       <c r="H46" s="3">
-        <v>20839000</v>
+        <v>19991900</v>
       </c>
       <c r="I46" s="3">
-        <v>15640100</v>
+        <v>20025800</v>
       </c>
       <c r="J46" s="3">
+        <v>15029800</v>
+      </c>
+      <c r="K46" s="3">
         <v>16208900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17501500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>19570700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17759800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17254000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15941400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19213400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19659800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>12616700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12569900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>16556700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>13385300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12587600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13057700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>17779700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13573900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7261100</v>
+        <v>7320900</v>
       </c>
       <c r="E47" s="3">
-        <v>6938400</v>
+        <v>6977800</v>
       </c>
       <c r="F47" s="3">
-        <v>6401800</v>
+        <v>6667600</v>
       </c>
       <c r="G47" s="3">
-        <v>5546500</v>
+        <v>6152000</v>
       </c>
       <c r="H47" s="3">
-        <v>4701700</v>
+        <v>6667600</v>
       </c>
       <c r="I47" s="3">
-        <v>4210800</v>
+        <v>4518200</v>
       </c>
       <c r="J47" s="3">
+        <v>4046500</v>
+      </c>
+      <c r="K47" s="3">
         <v>3702200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3271600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3404200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3385500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3617400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2953900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2730900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2565700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2239600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2159800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1878700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1955600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2009500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2305700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2371100</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2270100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5180200</v>
+        <v>4983000</v>
       </c>
       <c r="E48" s="3">
-        <v>5165600</v>
+        <v>4978000</v>
       </c>
       <c r="F48" s="3">
-        <v>5017200</v>
+        <v>4964100</v>
       </c>
       <c r="G48" s="3">
-        <v>5009900</v>
+        <v>4821400</v>
       </c>
       <c r="H48" s="3">
-        <v>5134500</v>
+        <v>4964100</v>
       </c>
       <c r="I48" s="3">
-        <v>10464100</v>
+        <v>4934100</v>
       </c>
       <c r="J48" s="3">
+        <v>10055800</v>
+      </c>
+      <c r="K48" s="3">
         <v>5307800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5751300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6077900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6416100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6675000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6358400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6606600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4202800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3788000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3605800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3342300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3328900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3148300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3050700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3075400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3028400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37562600</v>
+        <v>38108700</v>
       </c>
       <c r="E49" s="3">
-        <v>36384600</v>
+        <v>36096900</v>
       </c>
       <c r="F49" s="3">
-        <v>34732300</v>
+        <v>34964900</v>
       </c>
       <c r="G49" s="3">
-        <v>34226800</v>
+        <v>33377000</v>
       </c>
       <c r="H49" s="3">
-        <v>34724000</v>
+        <v>34963900</v>
       </c>
       <c r="I49" s="3">
-        <v>32509100</v>
+        <v>33369000</v>
       </c>
       <c r="J49" s="3">
+        <v>31240600</v>
+      </c>
+      <c r="K49" s="3">
         <v>33240800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36405800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>38537300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39286800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42346700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39445900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40703100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>31894500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>29648200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29382500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>26013800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>27194800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27366500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>28298800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>31375900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>31806700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5012000</v>
+        <v>4897200</v>
       </c>
       <c r="E52" s="3">
-        <v>4574000</v>
+        <v>4816400</v>
       </c>
       <c r="F52" s="3">
-        <v>3774800</v>
+        <v>4395500</v>
       </c>
       <c r="G52" s="3">
-        <v>3575600</v>
+        <v>3627500</v>
       </c>
       <c r="H52" s="3">
-        <v>3616000</v>
+        <v>4396500</v>
       </c>
       <c r="I52" s="3">
-        <v>3228900</v>
+        <v>3474900</v>
       </c>
       <c r="J52" s="3">
+        <v>3102900</v>
+      </c>
+      <c r="K52" s="3">
         <v>3064900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3297800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3483300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3447400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3361400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3186900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3230900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2737200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2265000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2220200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2137800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1935400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1372200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1420400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1416800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1293500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79268600</v>
+        <v>75378500</v>
       </c>
       <c r="E54" s="3">
-        <v>73866300</v>
+        <v>76175400</v>
       </c>
       <c r="F54" s="3">
-        <v>67494600</v>
+        <v>70984000</v>
       </c>
       <c r="G54" s="3">
-        <v>65486300</v>
+        <v>64860900</v>
       </c>
       <c r="H54" s="3">
-        <v>69015200</v>
+        <v>70984000</v>
       </c>
       <c r="I54" s="3">
-        <v>60679800</v>
+        <v>66322100</v>
       </c>
       <c r="J54" s="3">
+        <v>58312000</v>
+      </c>
+      <c r="K54" s="3">
         <v>61524600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66228100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71073500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70295600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73254400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67886500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72484900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>60921700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>50557500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49938100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>49929400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>47666600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>46484000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>48133400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>56018900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>51972800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1757200</v>
+        <v>1934000</v>
       </c>
       <c r="E57" s="3">
-        <v>1639900</v>
+        <v>1688600</v>
       </c>
       <c r="F57" s="3">
-        <v>1185300</v>
+        <v>1575900</v>
       </c>
       <c r="G57" s="3">
-        <v>1116800</v>
+        <v>1139000</v>
       </c>
       <c r="H57" s="3">
-        <v>1248600</v>
+        <v>1575900</v>
       </c>
       <c r="I57" s="3">
-        <v>1259000</v>
+        <v>1199900</v>
       </c>
       <c r="J57" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1327500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1430200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1646200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1845700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1849700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1731700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1968900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1763700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1380100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1290200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1170500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1291400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1221800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1281300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1388600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1503700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7413700</v>
+        <v>4861300</v>
       </c>
       <c r="E58" s="3">
-        <v>4324900</v>
+        <v>7124400</v>
       </c>
       <c r="F58" s="3">
-        <v>4364400</v>
+        <v>4156200</v>
       </c>
       <c r="G58" s="3">
-        <v>3979300</v>
+        <v>4194100</v>
       </c>
       <c r="H58" s="3">
-        <v>4768100</v>
+        <v>4156200</v>
       </c>
       <c r="I58" s="3">
-        <v>4369600</v>
+        <v>4582100</v>
       </c>
       <c r="J58" s="3">
+        <v>4199100</v>
+      </c>
+      <c r="K58" s="3">
         <v>4013600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2820000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5805800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3408800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3418900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2134000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1935500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2239200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1243800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1281400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1750200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3207800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1446200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>608100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2083500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2128100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12653000</v>
+        <v>14044400</v>
       </c>
       <c r="E59" s="3">
-        <v>10782700</v>
+        <v>12159300</v>
       </c>
       <c r="F59" s="3">
-        <v>9511300</v>
+        <v>10362000</v>
       </c>
       <c r="G59" s="3">
-        <v>10848100</v>
+        <v>9140200</v>
       </c>
       <c r="H59" s="3">
-        <v>11405500</v>
+        <v>10362000</v>
       </c>
       <c r="I59" s="3">
-        <v>10137200</v>
+        <v>10960400</v>
       </c>
       <c r="J59" s="3">
+        <v>9741600</v>
+      </c>
+      <c r="K59" s="3">
         <v>8992400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12440700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12269900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11628600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11739100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12854500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>13619900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>9731700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8556200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9986300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9629500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>12110800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7998700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9687300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>11375400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7723700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21823900</v>
+        <v>20839700</v>
       </c>
       <c r="E60" s="3">
-        <v>16747600</v>
+        <v>20972300</v>
       </c>
       <c r="F60" s="3">
-        <v>15061000</v>
+        <v>16094000</v>
       </c>
       <c r="G60" s="3">
-        <v>15944200</v>
+        <v>14473300</v>
       </c>
       <c r="H60" s="3">
-        <v>17422200</v>
+        <v>16094000</v>
       </c>
       <c r="I60" s="3">
-        <v>13328700</v>
+        <v>16742400</v>
       </c>
       <c r="J60" s="3">
+        <v>12808600</v>
+      </c>
+      <c r="K60" s="3">
         <v>14333400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>16690900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19722000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16883100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17007800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16720200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17524300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12403900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11180100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12557800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12550100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11455500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>10666800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11576700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>14847500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11355400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10451700</v>
+        <v>8934700</v>
       </c>
       <c r="E61" s="3">
-        <v>11396100</v>
+        <v>10043800</v>
       </c>
       <c r="F61" s="3">
-        <v>11771900</v>
+        <v>10951500</v>
       </c>
       <c r="G61" s="3">
-        <v>11787400</v>
+        <v>11312500</v>
       </c>
       <c r="H61" s="3">
-        <v>12837800</v>
+        <v>10951500</v>
       </c>
       <c r="I61" s="3">
-        <v>14120600</v>
+        <v>12336800</v>
       </c>
       <c r="J61" s="3">
+        <v>13569600</v>
+      </c>
+      <c r="K61" s="3">
         <v>14680100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>15809500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14121700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15059600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>16719900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16548400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>17626000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>12461900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7533900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7146900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7113900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5612200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>6519900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6984400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7575800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7569900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2759800</v>
+        <v>2928400</v>
       </c>
       <c r="E62" s="3">
-        <v>2625900</v>
+        <v>2652100</v>
       </c>
       <c r="F62" s="3">
-        <v>2443200</v>
+        <v>2523400</v>
       </c>
       <c r="G62" s="3">
-        <v>2339400</v>
+        <v>2347900</v>
       </c>
       <c r="H62" s="3">
-        <v>2598900</v>
+        <v>2523400</v>
       </c>
       <c r="I62" s="3">
-        <v>2174400</v>
+        <v>2497500</v>
       </c>
       <c r="J62" s="3">
+        <v>2089600</v>
+      </c>
+      <c r="K62" s="3">
         <v>2028100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2012700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2487400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2371000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2497800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2101100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2372100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1897400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1931700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1842400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2059800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2093600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1954500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2055500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2175100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2062400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37908300</v>
+        <v>35638100</v>
       </c>
       <c r="E66" s="3">
-        <v>33540800</v>
+        <v>36429000</v>
       </c>
       <c r="F66" s="3">
-        <v>30958500</v>
+        <v>32232000</v>
       </c>
       <c r="G66" s="3">
-        <v>31619600</v>
+        <v>29750400</v>
       </c>
       <c r="H66" s="3">
-        <v>34185300</v>
+        <v>32232000</v>
       </c>
       <c r="I66" s="3">
-        <v>29837500</v>
+        <v>32851400</v>
       </c>
       <c r="J66" s="3">
+        <v>28673300</v>
+      </c>
+      <c r="K66" s="3">
         <v>31228300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34610200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>36413500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34402400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36309900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>35440200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>37583400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>26816300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20693300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>21595500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21756900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>19073800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19142300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20624400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24634800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21012400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>41708000</v>
+        <v>35017700</v>
       </c>
       <c r="E72" s="3">
-        <v>38425100</v>
+        <v>40080500</v>
       </c>
       <c r="F72" s="3">
-        <v>36784200</v>
+        <v>36925700</v>
       </c>
       <c r="G72" s="3">
-        <v>34365900</v>
+        <v>35348900</v>
       </c>
       <c r="H72" s="3">
-        <v>35737000</v>
+        <v>36925700</v>
       </c>
       <c r="I72" s="3">
-        <v>32189400</v>
+        <v>34342500</v>
       </c>
       <c r="J72" s="3">
+        <v>30933400</v>
+      </c>
+      <c r="K72" s="3">
         <v>31641400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31122600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36124400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33601600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36706800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>30553500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34669500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33879400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>29653800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>27163400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27940800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>28360500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26873900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24688300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>30535500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>30105900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>41360300</v>
+        <v>39740400</v>
       </c>
       <c r="E76" s="3">
-        <v>40325500</v>
+        <v>39746400</v>
       </c>
       <c r="F76" s="3">
-        <v>36536200</v>
+        <v>38752000</v>
       </c>
       <c r="G76" s="3">
-        <v>33866700</v>
+        <v>35110500</v>
       </c>
       <c r="H76" s="3">
-        <v>34829800</v>
+        <v>38752000</v>
       </c>
       <c r="I76" s="3">
-        <v>30842200</v>
+        <v>33470700</v>
       </c>
       <c r="J76" s="3">
+        <v>29638700</v>
+      </c>
+      <c r="K76" s="3">
         <v>30296300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31617800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34660000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>35893200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36944500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32446300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34901500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34105400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>29864200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28342700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28172500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28592800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>27341800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27509000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>31384200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>30960400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>768000</v>
+        <v>333100</v>
       </c>
       <c r="E81" s="3">
-        <v>1509100</v>
+        <v>738100</v>
       </c>
       <c r="F81" s="3">
-        <v>1459300</v>
+        <v>1450200</v>
       </c>
       <c r="G81" s="3">
-        <v>1407400</v>
+        <v>1402300</v>
       </c>
       <c r="H81" s="3">
-        <v>1079400</v>
+        <v>1352500</v>
       </c>
       <c r="I81" s="3">
-        <v>1980300</v>
+        <v>1037300</v>
       </c>
       <c r="J81" s="3">
+        <v>1903000</v>
+      </c>
+      <c r="K81" s="3">
         <v>1615000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>945800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>919100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1891200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1526300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>669400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-136400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1990800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1075500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>787300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>776300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>2060000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1102900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>749500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>611600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1793600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>477400</v>
+        <v>471800</v>
       </c>
       <c r="E83" s="3">
-        <v>484700</v>
+        <v>458800</v>
       </c>
       <c r="F83" s="3">
-        <v>453600</v>
+        <v>465800</v>
       </c>
       <c r="G83" s="3">
-        <v>451500</v>
+        <v>435900</v>
       </c>
       <c r="H83" s="3">
-        <v>452500</v>
+        <v>433900</v>
       </c>
       <c r="I83" s="3">
-        <v>479500</v>
+        <v>434900</v>
       </c>
       <c r="J83" s="3">
         <v>460800</v>
       </c>
       <c r="K83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="L83" s="3">
         <v>502900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>523900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>584900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>580600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>535300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>528700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>444800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>388800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>364500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>332700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>348900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>357900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>361300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>375600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>394400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2575000</v>
+        <v>268300</v>
       </c>
       <c r="E89" s="3">
-        <v>1316100</v>
+        <v>2474500</v>
       </c>
       <c r="F89" s="3">
-        <v>1227800</v>
+        <v>1264700</v>
       </c>
       <c r="G89" s="3">
-        <v>712000</v>
+        <v>1179900</v>
       </c>
       <c r="H89" s="3">
-        <v>3201900</v>
+        <v>684200</v>
       </c>
       <c r="I89" s="3">
-        <v>2179600</v>
+        <v>3077000</v>
       </c>
       <c r="J89" s="3">
+        <v>2094500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1371100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>859600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3369200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>210100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>780300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-144700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3351800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>968800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>552700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>448000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2829500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1032200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>686700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>719200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>3371200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1173800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-229400</v>
+        <v>-234400</v>
       </c>
       <c r="E91" s="3">
-        <v>-263600</v>
+        <v>-220400</v>
       </c>
       <c r="F91" s="3">
-        <v>-209700</v>
+        <v>-253300</v>
       </c>
       <c r="G91" s="3">
-        <v>-198200</v>
+        <v>-201500</v>
       </c>
       <c r="H91" s="3">
-        <v>-158800</v>
+        <v>-190500</v>
       </c>
       <c r="I91" s="3">
-        <v>-170200</v>
+        <v>-152600</v>
       </c>
       <c r="J91" s="3">
+        <v>-163600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-160900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-178900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-376000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-133100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-200900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-211800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-429400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-369100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-363300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-429300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-468800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-348900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-397200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-357900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-341600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-393200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1828800</v>
+        <v>1044300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1447900</v>
+        <v>-1757400</v>
       </c>
       <c r="F94" s="3">
-        <v>-975600</v>
+        <v>-1391400</v>
       </c>
       <c r="G94" s="3">
-        <v>248100</v>
+        <v>-937600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1003600</v>
+        <v>238400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2041500</v>
+        <v>-964500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1961900</v>
+      </c>
+      <c r="K94" s="3">
         <v>651800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-421200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-42000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-349100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-232900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-540600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-422000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-405200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-534100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-304100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>313000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-755900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-752500</v>
+        <v>-3049100</v>
       </c>
       <c r="E100" s="3">
-        <v>958000</v>
+        <v>-723100</v>
       </c>
       <c r="F100" s="3">
-        <v>-259500</v>
+        <v>920600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3518500</v>
+        <v>-249400</v>
       </c>
       <c r="H100" s="3">
-        <v>2761900</v>
+        <v>-3381200</v>
       </c>
       <c r="I100" s="3">
-        <v>-2172300</v>
+        <v>2654100</v>
       </c>
       <c r="J100" s="3">
+        <v>-2087600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-646600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-251800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-339700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-151900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2910400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>4439400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-162800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1627200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-673200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-336600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-422600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>51900</v>
+        <v>290200</v>
       </c>
       <c r="E101" s="3">
-        <v>164000</v>
+        <v>49900</v>
       </c>
       <c r="F101" s="3">
-        <v>194100</v>
+        <v>157600</v>
       </c>
       <c r="G101" s="3">
-        <v>-107900</v>
+        <v>186500</v>
       </c>
       <c r="H101" s="3">
-        <v>252200</v>
+        <v>-103700</v>
       </c>
       <c r="I101" s="3">
-        <v>-169200</v>
+        <v>242400</v>
       </c>
       <c r="J101" s="3">
+        <v>-162600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-73100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>127600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-74700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>158000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>85900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>23300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>190000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-113100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-59500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-64000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-126800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>5900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-29300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>45700</v>
+        <v>-1446200</v>
       </c>
       <c r="E102" s="3">
-        <v>990200</v>
+        <v>43900</v>
       </c>
       <c r="F102" s="3">
-        <v>186800</v>
+        <v>951500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2666400</v>
+        <v>179500</v>
       </c>
       <c r="H102" s="3">
-        <v>5212300</v>
+        <v>-2562300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2203500</v>
+        <v>5008900</v>
       </c>
       <c r="J102" s="3">
+        <v>-2117500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1275600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2823900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-246300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>437300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4874700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3938500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-234500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2622300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-482400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7497500</v>
+        <v>8004100</v>
       </c>
       <c r="E8" s="3">
-        <v>7058600</v>
+        <v>7673400</v>
       </c>
       <c r="F8" s="3">
-        <v>7960200</v>
+        <v>7224200</v>
       </c>
       <c r="G8" s="3">
-        <v>6827200</v>
+        <v>8147000</v>
       </c>
       <c r="H8" s="3">
-        <v>6651700</v>
+        <v>6987400</v>
       </c>
       <c r="I8" s="3">
-        <v>6331500</v>
+        <v>6807700</v>
       </c>
       <c r="J8" s="3">
+        <v>6480000</v>
+      </c>
+      <c r="K8" s="3">
         <v>7518400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6782700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7356000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7362900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9386000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8318900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7799500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7287300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8786600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6667800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6586900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5776600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7635100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6271900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6486200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6203600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7891500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2137400</v>
+        <v>2252900</v>
       </c>
       <c r="E9" s="3">
-        <v>2038700</v>
+        <v>2187600</v>
       </c>
       <c r="F9" s="3">
-        <v>2091500</v>
+        <v>2086500</v>
       </c>
       <c r="G9" s="3">
-        <v>1898100</v>
+        <v>2140600</v>
       </c>
       <c r="H9" s="3">
-        <v>1887100</v>
+        <v>1942600</v>
       </c>
       <c r="I9" s="3">
-        <v>1827200</v>
+        <v>1931400</v>
       </c>
       <c r="J9" s="3">
+        <v>1870100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1834200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1898300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2142500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2259300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2457400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2371600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2386900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2355300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2296000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2034700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1992900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1752400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1963500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1794100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1920800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1966100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2021300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5360000</v>
+        <v>5751200</v>
       </c>
       <c r="E10" s="3">
-        <v>5019900</v>
+        <v>5485800</v>
       </c>
       <c r="F10" s="3">
-        <v>5868700</v>
+        <v>5137700</v>
       </c>
       <c r="G10" s="3">
-        <v>4929200</v>
+        <v>6006400</v>
       </c>
       <c r="H10" s="3">
-        <v>4764600</v>
+        <v>5044800</v>
       </c>
       <c r="I10" s="3">
-        <v>4504300</v>
+        <v>4876400</v>
       </c>
       <c r="J10" s="3">
+        <v>4609900</v>
+      </c>
+      <c r="K10" s="3">
         <v>5684200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4884400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5213500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5103500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6928600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5947300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5412600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4931900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6490600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4633100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4594000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4024200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>5671700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4477900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4565400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4237500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5870200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1538000</v>
+        <v>1603700</v>
       </c>
       <c r="E12" s="3">
-        <v>1419300</v>
+        <v>1574100</v>
       </c>
       <c r="F12" s="3">
-        <v>1404300</v>
+        <v>1452600</v>
       </c>
       <c r="G12" s="3">
-        <v>1294600</v>
+        <v>1437300</v>
       </c>
       <c r="H12" s="3">
-        <v>1302600</v>
+        <v>1325000</v>
       </c>
       <c r="I12" s="3">
-        <v>1166000</v>
+        <v>1333200</v>
       </c>
       <c r="J12" s="3">
+        <v>1193300</v>
+      </c>
+      <c r="K12" s="3">
         <v>1127100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1153100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1262200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1184400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1402100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1191900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1237600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1264400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1111900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1014600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1038700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>891600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>980600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>872900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>942500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>996600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1006000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,85 +1203,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>292200</v>
+        <v>169500</v>
       </c>
       <c r="E14" s="3">
-        <v>153600</v>
+        <v>299100</v>
       </c>
       <c r="F14" s="3">
-        <v>170600</v>
+        <v>157200</v>
       </c>
       <c r="G14" s="3">
-        <v>69800</v>
+        <v>174600</v>
       </c>
       <c r="H14" s="3">
-        <v>152600</v>
+        <v>71500</v>
       </c>
       <c r="I14" s="3">
-        <v>300200</v>
+        <v>156200</v>
       </c>
       <c r="J14" s="3">
+        <v>307300</v>
+      </c>
+      <c r="K14" s="3">
         <v>157600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>149500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>174500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>199900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>238200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>230300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>423500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1210600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>173900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>162800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>175700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>151500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>164900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>80800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>435300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>189000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>213600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6826200</v>
+        <v>6739300</v>
       </c>
       <c r="E17" s="3">
-        <v>6008300</v>
+        <v>6986400</v>
       </c>
       <c r="F17" s="3">
-        <v>6501100</v>
+        <v>6149300</v>
       </c>
       <c r="G17" s="3">
-        <v>5581500</v>
+        <v>6653600</v>
       </c>
       <c r="H17" s="3">
-        <v>5670200</v>
+        <v>5712400</v>
       </c>
       <c r="I17" s="3">
-        <v>5374000</v>
+        <v>5803200</v>
       </c>
       <c r="J17" s="3">
+        <v>5500100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4869300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5253800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5955300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5996700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6930900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6262100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6826600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7449900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5948800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5298800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5440600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4651100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5431600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4797600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5447300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5413600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5601400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>671300</v>
+        <v>1264800</v>
       </c>
       <c r="E18" s="3">
-        <v>1050300</v>
+        <v>687000</v>
       </c>
       <c r="F18" s="3">
-        <v>1459200</v>
+        <v>1074900</v>
       </c>
       <c r="G18" s="3">
-        <v>1245800</v>
+        <v>1493400</v>
       </c>
       <c r="H18" s="3">
-        <v>981400</v>
+        <v>1275000</v>
       </c>
       <c r="I18" s="3">
-        <v>957500</v>
+        <v>1004500</v>
       </c>
       <c r="J18" s="3">
+        <v>980000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2649100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1528800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1400700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1366200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2455100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2056800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>972900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-162700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2837800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1369000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1146300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1125500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2203600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1474300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1039000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>790000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2290100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-134600</v>
+        <v>-397100</v>
       </c>
       <c r="E20" s="3">
-        <v>-107700</v>
+        <v>-137800</v>
       </c>
       <c r="F20" s="3">
-        <v>492700</v>
+        <v>-110200</v>
       </c>
       <c r="G20" s="3">
-        <v>498700</v>
+        <v>504300</v>
       </c>
       <c r="H20" s="3">
-        <v>817900</v>
+        <v>510400</v>
       </c>
       <c r="I20" s="3">
-        <v>376000</v>
+        <v>837100</v>
       </c>
       <c r="J20" s="3">
+        <v>384800</v>
+      </c>
+      <c r="K20" s="3">
         <v>49900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>664300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>41500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-99400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>193800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>89400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>10800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-113600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>74200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-27500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-41700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>111100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>85300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>14100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1008400</v>
+        <v>1369900</v>
       </c>
       <c r="E21" s="3">
-        <v>1401300</v>
+        <v>1032000</v>
       </c>
       <c r="F21" s="3">
-        <v>2417700</v>
+        <v>1434200</v>
       </c>
       <c r="G21" s="3">
-        <v>2180300</v>
+        <v>2474400</v>
       </c>
       <c r="H21" s="3">
-        <v>2233200</v>
+        <v>2231500</v>
       </c>
       <c r="I21" s="3">
-        <v>1768400</v>
+        <v>2285600</v>
       </c>
       <c r="J21" s="3">
+        <v>1809900</v>
+      </c>
+      <c r="K21" s="3">
         <v>3159800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2653900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1945100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1790800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3233700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2726800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1509300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>376800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3169000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1832000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1483400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1416400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2663600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1917500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1380000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1159700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2698600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1729,41 +1769,41 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3">
         <v>44600</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="3">
         <v>58400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15600</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>25500</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1780,162 +1820,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>536600</v>
+        <v>867700</v>
       </c>
       <c r="E23" s="3">
-        <v>942500</v>
+        <v>549200</v>
       </c>
       <c r="F23" s="3">
-        <v>1951900</v>
+        <v>964700</v>
       </c>
       <c r="G23" s="3">
-        <v>1744500</v>
+        <v>1997700</v>
       </c>
       <c r="H23" s="3">
-        <v>1799300</v>
+        <v>1785400</v>
       </c>
       <c r="I23" s="3">
-        <v>1333500</v>
+        <v>1841500</v>
       </c>
       <c r="J23" s="3">
+        <v>1364800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2699000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2148500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1442200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1266900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2590500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2084900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>958800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-167500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2724200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1417700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1118900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1083700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2314700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1559600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>784100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2304200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>334100</v>
+        <v>310300</v>
       </c>
       <c r="E24" s="3">
-        <v>312200</v>
+        <v>342000</v>
       </c>
       <c r="F24" s="3">
-        <v>515700</v>
+        <v>319500</v>
       </c>
       <c r="G24" s="3">
-        <v>330100</v>
+        <v>527800</v>
       </c>
       <c r="H24" s="3">
-        <v>354100</v>
+        <v>337900</v>
       </c>
       <c r="I24" s="3">
-        <v>266300</v>
+        <v>362400</v>
       </c>
       <c r="J24" s="3">
+        <v>272600</v>
+      </c>
+      <c r="K24" s="3">
         <v>770000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>433800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>476700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>350000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>679400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>542700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>275300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-39500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>728700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>342200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>329400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>307400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>231100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>446600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>270400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>162000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>513000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>202500</v>
+        <v>557400</v>
       </c>
       <c r="E26" s="3">
-        <v>630400</v>
+        <v>207200</v>
       </c>
       <c r="F26" s="3">
-        <v>1436300</v>
+        <v>645100</v>
       </c>
       <c r="G26" s="3">
-        <v>1414300</v>
+        <v>1470000</v>
       </c>
       <c r="H26" s="3">
-        <v>1445200</v>
+        <v>1447500</v>
       </c>
       <c r="I26" s="3">
-        <v>1067200</v>
+        <v>1479100</v>
       </c>
       <c r="J26" s="3">
+        <v>1092300</v>
+      </c>
+      <c r="K26" s="3">
         <v>1929000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1714600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>965500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>916800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1911100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1542300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>683500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-128000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1995600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1075500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>789500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>776300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2083500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1113000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>748400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>622100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1791200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>333100</v>
+        <v>682900</v>
       </c>
       <c r="E27" s="3">
-        <v>738100</v>
+        <v>340900</v>
       </c>
       <c r="F27" s="3">
-        <v>1450200</v>
+        <v>755400</v>
       </c>
       <c r="G27" s="3">
-        <v>1402300</v>
+        <v>1484200</v>
       </c>
       <c r="H27" s="3">
-        <v>1352500</v>
+        <v>1435200</v>
       </c>
       <c r="I27" s="3">
-        <v>1037300</v>
+        <v>1384200</v>
       </c>
       <c r="J27" s="3">
+        <v>1061600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1903000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1615000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>945800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>919100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1891200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1526300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>669400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-136400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1990800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1075500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>787300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>776300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2060000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1102900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>749500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>611600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1793600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2310,8 +2371,8 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
+      <c r="Y29" s="3">
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>134600</v>
+        <v>397100</v>
       </c>
       <c r="E32" s="3">
-        <v>107700</v>
+        <v>137800</v>
       </c>
       <c r="F32" s="3">
-        <v>-492700</v>
+        <v>110200</v>
       </c>
       <c r="G32" s="3">
-        <v>-498700</v>
+        <v>-504300</v>
       </c>
       <c r="H32" s="3">
-        <v>-817900</v>
+        <v>-510400</v>
       </c>
       <c r="I32" s="3">
-        <v>-376000</v>
+        <v>-837100</v>
       </c>
       <c r="J32" s="3">
+        <v>-384800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-49900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-664300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-41500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>99400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-193800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-89400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-10800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>113600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-74200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>27500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>41700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-111100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-85300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>5900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-14100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>333100</v>
+        <v>682900</v>
       </c>
       <c r="E33" s="3">
-        <v>738100</v>
+        <v>340900</v>
       </c>
       <c r="F33" s="3">
-        <v>1450200</v>
+        <v>755400</v>
       </c>
       <c r="G33" s="3">
-        <v>1402300</v>
+        <v>1484200</v>
       </c>
       <c r="H33" s="3">
-        <v>1352500</v>
+        <v>1435200</v>
       </c>
       <c r="I33" s="3">
-        <v>1037300</v>
+        <v>1384200</v>
       </c>
       <c r="J33" s="3">
+        <v>1061600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1903000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1615000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>945800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>919100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1891200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1526300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>669400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-136400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1990800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1075500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>787300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>776300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>2060000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1102900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>749500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>611600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1793600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>333100</v>
+        <v>682900</v>
       </c>
       <c r="E35" s="3">
-        <v>738100</v>
+        <v>340900</v>
       </c>
       <c r="F35" s="3">
-        <v>1450200</v>
+        <v>755400</v>
       </c>
       <c r="G35" s="3">
-        <v>1402300</v>
+        <v>1484200</v>
       </c>
       <c r="H35" s="3">
-        <v>1352500</v>
+        <v>1435200</v>
       </c>
       <c r="I35" s="3">
-        <v>1037300</v>
+        <v>1384200</v>
       </c>
       <c r="J35" s="3">
+        <v>1061600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1903000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1615000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>945800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>919100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1891200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1526300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>669400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-136400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1990800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1075500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>787300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>776300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>2060000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1102900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>749500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>611600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1793600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,239 +3007,249 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7472500</v>
+        <v>7492700</v>
       </c>
       <c r="E41" s="3">
-        <v>8918800</v>
+        <v>7647800</v>
       </c>
       <c r="F41" s="3">
-        <v>8874900</v>
+        <v>9128000</v>
       </c>
       <c r="G41" s="3">
-        <v>7922300</v>
+        <v>9083100</v>
       </c>
       <c r="H41" s="3">
-        <v>8874900</v>
+        <v>8108200</v>
       </c>
       <c r="I41" s="3">
-        <v>10305100</v>
+        <v>9083100</v>
       </c>
       <c r="J41" s="3">
+        <v>10546900</v>
+      </c>
+      <c r="K41" s="3">
         <v>5297200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7715700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6769100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8825000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6203600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6768100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6079600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8770500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>10204900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4992000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4957500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8342600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4500300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4734800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4752700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6968900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4345400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>984400</v>
+        <v>1512800</v>
       </c>
       <c r="E42" s="3">
-        <v>2537400</v>
+        <v>1007500</v>
       </c>
       <c r="F42" s="3">
-        <v>2750800</v>
+        <v>2596900</v>
       </c>
       <c r="G42" s="3">
-        <v>1553000</v>
+        <v>2815400</v>
       </c>
       <c r="H42" s="3">
-        <v>2750800</v>
+        <v>1589400</v>
       </c>
       <c r="I42" s="3">
-        <v>1409300</v>
+        <v>2815400</v>
       </c>
       <c r="J42" s="3">
+        <v>1442400</v>
+      </c>
+      <c r="K42" s="3">
         <v>1630700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>550100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1548000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>404200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>346700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>401800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>472900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>707000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>529900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>536100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>434800</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>942100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1154500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1136600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>973900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1813500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1319400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9505200</v>
+        <v>1029000</v>
       </c>
       <c r="E43" s="3">
-        <v>535600</v>
+        <v>9728200</v>
       </c>
       <c r="F43" s="3">
-        <v>6737400</v>
+        <v>10200900</v>
       </c>
       <c r="G43" s="3">
-        <v>755000</v>
+        <v>6895500</v>
       </c>
       <c r="H43" s="3">
-        <v>6737400</v>
+        <v>5907400</v>
       </c>
       <c r="I43" s="3">
-        <v>281300</v>
+        <v>6895500</v>
       </c>
       <c r="J43" s="3">
+        <v>7042500</v>
+      </c>
+      <c r="K43" s="3">
         <v>6785300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>712000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7701800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>709100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9822600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1321800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7964200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>405500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>346600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5953400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>6073000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>374400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>20987900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5868000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6488500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>345100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>273500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,393 +3325,411 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2106500</v>
+        <v>2281500</v>
       </c>
       <c r="E45" s="3">
-        <v>1883100</v>
+        <v>2155900</v>
       </c>
       <c r="F45" s="3">
-        <v>1628800</v>
+        <v>1927300</v>
       </c>
       <c r="G45" s="3">
-        <v>1635700</v>
+        <v>1667000</v>
       </c>
       <c r="H45" s="3">
-        <v>1629800</v>
+        <v>1674100</v>
       </c>
       <c r="I45" s="3">
-        <v>1430300</v>
+        <v>1668000</v>
       </c>
       <c r="J45" s="3">
+        <v>1463800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1316600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1424000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1482500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1412500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1386900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1601100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1424600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1250000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1052800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1135300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1104600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>932200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>989600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>848200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>842600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>909700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>682000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20068700</v>
+        <v>21272500</v>
       </c>
       <c r="E46" s="3">
-        <v>23306200</v>
+        <v>20539500</v>
       </c>
       <c r="F46" s="3">
-        <v>19991900</v>
+        <v>23853000</v>
       </c>
       <c r="G46" s="3">
-        <v>16883000</v>
+        <v>20460900</v>
       </c>
       <c r="H46" s="3">
-        <v>19991900</v>
+        <v>17279100</v>
       </c>
       <c r="I46" s="3">
-        <v>20025800</v>
+        <v>20460900</v>
       </c>
       <c r="J46" s="3">
+        <v>20495600</v>
+      </c>
+      <c r="K46" s="3">
         <v>15029800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16208900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17501500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>19570700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17759800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17254000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15941400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19213400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19659800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>12616700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12569900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>16556700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13385300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12587600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13057700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>17779700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13573900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7320900</v>
+        <v>7474300</v>
       </c>
       <c r="E47" s="3">
-        <v>6977800</v>
+        <v>7492700</v>
       </c>
       <c r="F47" s="3">
-        <v>6667600</v>
+        <v>7141500</v>
       </c>
       <c r="G47" s="3">
-        <v>6152000</v>
+        <v>6824000</v>
       </c>
       <c r="H47" s="3">
-        <v>6667600</v>
+        <v>6296300</v>
       </c>
       <c r="I47" s="3">
-        <v>4518200</v>
+        <v>6824000</v>
       </c>
       <c r="J47" s="3">
+        <v>4624200</v>
+      </c>
+      <c r="K47" s="3">
         <v>4046500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3702200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3271600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3404200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3385500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3617400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2953900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2730900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2565700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2239600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2159800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1878700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1955600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2009500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2305700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2371100</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2270100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4983000</v>
+        <v>5136700</v>
       </c>
       <c r="E48" s="3">
-        <v>4978000</v>
+        <v>5099900</v>
       </c>
       <c r="F48" s="3">
-        <v>4964100</v>
+        <v>5094800</v>
       </c>
       <c r="G48" s="3">
-        <v>4821400</v>
+        <v>5080500</v>
       </c>
       <c r="H48" s="3">
-        <v>4964100</v>
+        <v>4934500</v>
       </c>
       <c r="I48" s="3">
-        <v>4934100</v>
+        <v>5080500</v>
       </c>
       <c r="J48" s="3">
+        <v>5049900</v>
+      </c>
+      <c r="K48" s="3">
         <v>10055800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5307800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5751300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6077900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6416100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6675000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6358400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6606600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4202800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3788000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3605800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3342300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3328900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3148300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3050700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3075400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3028400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>38108700</v>
+        <v>40859600</v>
       </c>
       <c r="E49" s="3">
-        <v>36096900</v>
+        <v>39002700</v>
       </c>
       <c r="F49" s="3">
-        <v>34964900</v>
+        <v>36943800</v>
       </c>
       <c r="G49" s="3">
-        <v>33377000</v>
+        <v>35785200</v>
       </c>
       <c r="H49" s="3">
-        <v>34963900</v>
+        <v>34160100</v>
       </c>
       <c r="I49" s="3">
-        <v>33369000</v>
+        <v>35784100</v>
       </c>
       <c r="J49" s="3">
+        <v>34151900</v>
+      </c>
+      <c r="K49" s="3">
         <v>31240600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33240800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>36405800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>38537300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39286800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42346700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39445900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40703100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>31894500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>29648200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29382500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>26013800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>27194800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27366500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>28298800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>31375900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>31806700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4897200</v>
+        <v>5118300</v>
       </c>
       <c r="E52" s="3">
-        <v>4816400</v>
+        <v>5012100</v>
       </c>
       <c r="F52" s="3">
-        <v>4395500</v>
+        <v>4929400</v>
       </c>
       <c r="G52" s="3">
-        <v>3627500</v>
+        <v>4498700</v>
       </c>
       <c r="H52" s="3">
-        <v>4396500</v>
+        <v>3712600</v>
       </c>
       <c r="I52" s="3">
-        <v>3474900</v>
+        <v>4499700</v>
       </c>
       <c r="J52" s="3">
+        <v>3556500</v>
+      </c>
+      <c r="K52" s="3">
         <v>3102900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3064900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3297800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3483300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3447400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3361400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3186900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3230900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2737200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2265000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2220200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2137800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1935400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1372200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1420400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1416800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1293500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75378500</v>
+        <v>79861300</v>
       </c>
       <c r="E54" s="3">
-        <v>76175400</v>
+        <v>77147000</v>
       </c>
       <c r="F54" s="3">
-        <v>70984000</v>
+        <v>77962600</v>
       </c>
       <c r="G54" s="3">
-        <v>64860900</v>
+        <v>72649300</v>
       </c>
       <c r="H54" s="3">
-        <v>70984000</v>
+        <v>66382600</v>
       </c>
       <c r="I54" s="3">
-        <v>66322100</v>
+        <v>72649300</v>
       </c>
       <c r="J54" s="3">
+        <v>67878100</v>
+      </c>
+      <c r="K54" s="3">
         <v>58312000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>61524600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>66228100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71073500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70295600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>73254400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>67886500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72484900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>60921700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>50557500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>49938100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>49929400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>47666600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>46484000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>48133400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>56018900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>51972800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1934000</v>
+        <v>1966100</v>
       </c>
       <c r="E57" s="3">
-        <v>1688600</v>
+        <v>1979300</v>
       </c>
       <c r="F57" s="3">
-        <v>1575900</v>
+        <v>1728200</v>
       </c>
       <c r="G57" s="3">
-        <v>1139000</v>
+        <v>1612900</v>
       </c>
       <c r="H57" s="3">
-        <v>1575900</v>
+        <v>1165800</v>
       </c>
       <c r="I57" s="3">
-        <v>1199900</v>
+        <v>1612900</v>
       </c>
       <c r="J57" s="3">
+        <v>1228000</v>
+      </c>
+      <c r="K57" s="3">
         <v>1209800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1327500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1430200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1646200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1845700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1849700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1731700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1968900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1763700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1380100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1290200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1170500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1291400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1221800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1281300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1388600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1503700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4861300</v>
+        <v>8757400</v>
       </c>
       <c r="E58" s="3">
-        <v>7124400</v>
+        <v>4975400</v>
       </c>
       <c r="F58" s="3">
-        <v>4156200</v>
+        <v>7291600</v>
       </c>
       <c r="G58" s="3">
-        <v>4194100</v>
+        <v>4253700</v>
       </c>
       <c r="H58" s="3">
-        <v>4156200</v>
+        <v>4292500</v>
       </c>
       <c r="I58" s="3">
-        <v>4582100</v>
+        <v>4253700</v>
       </c>
       <c r="J58" s="3">
+        <v>4689600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4199100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4013600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2820000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5805800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3408800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3418900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2134000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1935500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2239200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1243800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1281400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1750200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3207800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1446200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>608100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2083500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2128100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14044400</v>
+        <v>9930300</v>
       </c>
       <c r="E59" s="3">
-        <v>12159300</v>
+        <v>14373900</v>
       </c>
       <c r="F59" s="3">
-        <v>10362000</v>
+        <v>12444600</v>
       </c>
       <c r="G59" s="3">
-        <v>9140200</v>
+        <v>10605100</v>
       </c>
       <c r="H59" s="3">
-        <v>10362000</v>
+        <v>9354600</v>
       </c>
       <c r="I59" s="3">
-        <v>10960400</v>
+        <v>10605100</v>
       </c>
       <c r="J59" s="3">
+        <v>11217600</v>
+      </c>
+      <c r="K59" s="3">
         <v>9741600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8992400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12440700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12269900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11628600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11739100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12854500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>13619900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>9731700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>8556200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9986300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9629500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>12110800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7998700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9687300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>11375400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7723700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20839700</v>
+        <v>20653800</v>
       </c>
       <c r="E60" s="3">
-        <v>20972300</v>
+        <v>21328600</v>
       </c>
       <c r="F60" s="3">
-        <v>16094000</v>
+        <v>21464400</v>
       </c>
       <c r="G60" s="3">
-        <v>14473300</v>
+        <v>16471600</v>
       </c>
       <c r="H60" s="3">
-        <v>16094000</v>
+        <v>14812800</v>
       </c>
       <c r="I60" s="3">
-        <v>16742400</v>
+        <v>16471600</v>
       </c>
       <c r="J60" s="3">
+        <v>17135100</v>
+      </c>
+      <c r="K60" s="3">
         <v>12808600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14333400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16690900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19722000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16883100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17007800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16720200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17524300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12403900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11180100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12557800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12550100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11455500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>10666800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11576700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14847500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11355400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8934700</v>
+        <v>9764000</v>
       </c>
       <c r="E61" s="3">
-        <v>10043800</v>
+        <v>9144300</v>
       </c>
       <c r="F61" s="3">
-        <v>10951500</v>
+        <v>10279500</v>
       </c>
       <c r="G61" s="3">
-        <v>11312500</v>
+        <v>11208400</v>
       </c>
       <c r="H61" s="3">
-        <v>10951500</v>
+        <v>11577900</v>
       </c>
       <c r="I61" s="3">
-        <v>12336800</v>
+        <v>11208400</v>
       </c>
       <c r="J61" s="3">
+        <v>12626300</v>
+      </c>
+      <c r="K61" s="3">
         <v>13569600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14680100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>15809500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14121700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15059600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>16719900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16548400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>17626000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>12461900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7533900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7146900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7113900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5612200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>6519900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6984400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7575800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7569900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2928400</v>
+        <v>2439700</v>
       </c>
       <c r="E62" s="3">
-        <v>2652100</v>
+        <v>2997100</v>
       </c>
       <c r="F62" s="3">
-        <v>2523400</v>
+        <v>2714300</v>
       </c>
       <c r="G62" s="3">
-        <v>2347900</v>
+        <v>2582600</v>
       </c>
       <c r="H62" s="3">
-        <v>2523400</v>
+        <v>2403000</v>
       </c>
       <c r="I62" s="3">
-        <v>2497500</v>
+        <v>2582600</v>
       </c>
       <c r="J62" s="3">
+        <v>2556100</v>
+      </c>
+      <c r="K62" s="3">
         <v>2089600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2028100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2012700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2487400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2371000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2497800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2101100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2372100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1897400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1931700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1842400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2059800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2093600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1954500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2055500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2175100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2062400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35638100</v>
+        <v>36017900</v>
       </c>
       <c r="E66" s="3">
-        <v>36429000</v>
+        <v>36474200</v>
       </c>
       <c r="F66" s="3">
-        <v>32232000</v>
+        <v>37283700</v>
       </c>
       <c r="G66" s="3">
-        <v>29750400</v>
+        <v>32988200</v>
       </c>
       <c r="H66" s="3">
-        <v>32232000</v>
+        <v>30448400</v>
       </c>
       <c r="I66" s="3">
-        <v>32851400</v>
+        <v>32988200</v>
       </c>
       <c r="J66" s="3">
+        <v>33622100</v>
+      </c>
+      <c r="K66" s="3">
         <v>28673300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31228300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34610200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>36413500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34402400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36309900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>35440200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>37583400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26816300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20693300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>21595500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21756900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>19073800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19142300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20624400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24634800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>21012400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>35017700</v>
+        <v>44207800</v>
       </c>
       <c r="E72" s="3">
-        <v>40080500</v>
+        <v>35839300</v>
       </c>
       <c r="F72" s="3">
-        <v>36925700</v>
+        <v>41020800</v>
       </c>
       <c r="G72" s="3">
-        <v>35348900</v>
+        <v>37792100</v>
       </c>
       <c r="H72" s="3">
-        <v>36925700</v>
+        <v>36178200</v>
       </c>
       <c r="I72" s="3">
-        <v>34342500</v>
+        <v>37792100</v>
       </c>
       <c r="J72" s="3">
+        <v>35148200</v>
+      </c>
+      <c r="K72" s="3">
         <v>30933400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31641400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31122600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36124400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33601600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36706800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>30553500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34669500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33879400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>29653800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>27163400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27940800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>28360500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26873900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>24688300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>30535500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>30105900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>39740400</v>
+        <v>43843400</v>
       </c>
       <c r="E76" s="3">
-        <v>39746400</v>
+        <v>40672800</v>
       </c>
       <c r="F76" s="3">
-        <v>38752000</v>
+        <v>40678900</v>
       </c>
       <c r="G76" s="3">
-        <v>35110500</v>
+        <v>39661100</v>
       </c>
       <c r="H76" s="3">
-        <v>38752000</v>
+        <v>35934200</v>
       </c>
       <c r="I76" s="3">
-        <v>33470700</v>
+        <v>39661100</v>
       </c>
       <c r="J76" s="3">
+        <v>34256000</v>
+      </c>
+      <c r="K76" s="3">
         <v>29638700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30296300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31617800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34660000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>35893200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36944500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32446300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34901500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34105400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>29864200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28342700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28172500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28592800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>27341800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27509000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>31384200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>30960400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>333100</v>
+        <v>682900</v>
       </c>
       <c r="E81" s="3">
-        <v>738100</v>
+        <v>340900</v>
       </c>
       <c r="F81" s="3">
-        <v>1450200</v>
+        <v>755400</v>
       </c>
       <c r="G81" s="3">
-        <v>1402300</v>
+        <v>1484200</v>
       </c>
       <c r="H81" s="3">
-        <v>1352500</v>
+        <v>1435200</v>
       </c>
       <c r="I81" s="3">
-        <v>1037300</v>
+        <v>1384200</v>
       </c>
       <c r="J81" s="3">
+        <v>1061600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1903000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1615000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>945800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>919100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1891200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1526300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>669400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-136400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1990800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1075500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>787300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>776300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>2060000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1102900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>749500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>611600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1793600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>471800</v>
+        <v>502200</v>
       </c>
       <c r="E83" s="3">
-        <v>458800</v>
+        <v>482800</v>
       </c>
       <c r="F83" s="3">
-        <v>465800</v>
+        <v>469600</v>
       </c>
       <c r="G83" s="3">
-        <v>435900</v>
+        <v>476700</v>
       </c>
       <c r="H83" s="3">
-        <v>433900</v>
+        <v>446100</v>
       </c>
       <c r="I83" s="3">
-        <v>434900</v>
+        <v>444000</v>
       </c>
       <c r="J83" s="3">
-        <v>460800</v>
+        <v>445100</v>
       </c>
       <c r="K83" s="3">
         <v>460800</v>
       </c>
       <c r="L83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="M83" s="3">
         <v>502900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>523900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>584900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>580600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>535300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>528700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>444800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>388800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>364500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>332700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>348900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>357900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>361300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>375600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>394400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>268300</v>
+        <v>866700</v>
       </c>
       <c r="E89" s="3">
-        <v>2474500</v>
+        <v>274600</v>
       </c>
       <c r="F89" s="3">
-        <v>1264700</v>
+        <v>2532600</v>
       </c>
       <c r="G89" s="3">
-        <v>1179900</v>
+        <v>1294400</v>
       </c>
       <c r="H89" s="3">
-        <v>684200</v>
+        <v>1207600</v>
       </c>
       <c r="I89" s="3">
-        <v>3077000</v>
+        <v>700300</v>
       </c>
       <c r="J89" s="3">
+        <v>3149200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2094500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1371100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>859600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3369200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>210100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>780300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-144700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3351800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>968800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>552700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>448000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2829500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1032200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>686700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>719200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>3371200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1173800</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-234400</v>
+        <v>-287900</v>
       </c>
       <c r="E91" s="3">
-        <v>-220400</v>
+        <v>-239900</v>
       </c>
       <c r="F91" s="3">
-        <v>-253300</v>
+        <v>-225600</v>
       </c>
       <c r="G91" s="3">
-        <v>-201500</v>
+        <v>-259300</v>
       </c>
       <c r="H91" s="3">
-        <v>-190500</v>
+        <v>-206200</v>
       </c>
       <c r="I91" s="3">
-        <v>-152600</v>
+        <v>-195000</v>
       </c>
       <c r="J91" s="3">
+        <v>-156200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-163600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-160900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-178900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-376000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-133100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-211800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-429400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-369100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-363300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-429300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-468800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-348900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-397200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-357900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-341600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-393200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1044300</v>
+        <v>-966700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1757400</v>
+        <v>1068800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1391400</v>
+        <v>-1798600</v>
       </c>
       <c r="G94" s="3">
-        <v>-937600</v>
+        <v>-1424000</v>
       </c>
       <c r="H94" s="3">
-        <v>238400</v>
+        <v>-959600</v>
       </c>
       <c r="I94" s="3">
-        <v>-964500</v>
+        <v>244000</v>
       </c>
       <c r="J94" s="3">
+        <v>-987100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1961900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>651800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-421200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-42000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-349100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-232900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-540600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-422000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-405200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-534100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-304100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>313000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-755900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3049100</v>
+        <v>-392000</v>
       </c>
       <c r="E100" s="3">
-        <v>-723100</v>
+        <v>-3120600</v>
       </c>
       <c r="F100" s="3">
-        <v>920600</v>
+        <v>-740100</v>
       </c>
       <c r="G100" s="3">
-        <v>-249400</v>
+        <v>942200</v>
       </c>
       <c r="H100" s="3">
-        <v>-3381200</v>
+        <v>-255200</v>
       </c>
       <c r="I100" s="3">
-        <v>2654100</v>
+        <v>-3460500</v>
       </c>
       <c r="J100" s="3">
+        <v>2716300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2087600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-646600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-251800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-339700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-151900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2910400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>4439400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-162800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1627200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-673200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-336600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-422600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>290200</v>
+        <v>336900</v>
       </c>
       <c r="E101" s="3">
-        <v>49900</v>
+        <v>297100</v>
       </c>
       <c r="F101" s="3">
-        <v>157600</v>
+        <v>51000</v>
       </c>
       <c r="G101" s="3">
-        <v>186500</v>
+        <v>161300</v>
       </c>
       <c r="H101" s="3">
-        <v>-103700</v>
+        <v>190900</v>
       </c>
       <c r="I101" s="3">
-        <v>242400</v>
+        <v>-106200</v>
       </c>
       <c r="J101" s="3">
+        <v>248100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-162600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-73100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>127600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-74700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>158000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>85900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>23300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>190000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-113100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-59500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-64000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-126800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>5900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-29300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1446200</v>
+        <v>-155200</v>
       </c>
       <c r="E102" s="3">
-        <v>43900</v>
+        <v>-1480200</v>
       </c>
       <c r="F102" s="3">
-        <v>951500</v>
+        <v>44900</v>
       </c>
       <c r="G102" s="3">
-        <v>179500</v>
+        <v>973800</v>
       </c>
       <c r="H102" s="3">
-        <v>-2562300</v>
+        <v>183700</v>
       </c>
       <c r="I102" s="3">
-        <v>5008900</v>
+        <v>-2622400</v>
       </c>
       <c r="J102" s="3">
+        <v>5126500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2117500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1275600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2823900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-246300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>437300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4874700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3938500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-234500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>2622300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-482400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,371 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8004100</v>
+        <v>8925300</v>
       </c>
       <c r="E8" s="3">
-        <v>7673400</v>
+        <v>8295800</v>
       </c>
       <c r="F8" s="3">
-        <v>7224200</v>
+        <v>7953000</v>
       </c>
       <c r="G8" s="3">
-        <v>8147000</v>
+        <v>7487500</v>
       </c>
       <c r="H8" s="3">
-        <v>6987400</v>
+        <v>8443900</v>
       </c>
       <c r="I8" s="3">
-        <v>6807700</v>
+        <v>7242000</v>
       </c>
       <c r="J8" s="3">
+        <v>7055800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6480000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7518400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6782700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7356000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7362900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9386000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8318900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7799500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7287300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8786600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6667800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6586900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5776600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7635100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6271900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6486200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6203600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7891500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2252900</v>
+        <v>2447200</v>
       </c>
       <c r="E9" s="3">
-        <v>2187600</v>
+        <v>2335000</v>
       </c>
       <c r="F9" s="3">
-        <v>2086500</v>
+        <v>2267300</v>
       </c>
       <c r="G9" s="3">
-        <v>2140600</v>
+        <v>2162600</v>
       </c>
       <c r="H9" s="3">
-        <v>1942600</v>
+        <v>2218600</v>
       </c>
       <c r="I9" s="3">
-        <v>1931400</v>
+        <v>2013400</v>
       </c>
       <c r="J9" s="3">
+        <v>2001700</v>
+      </c>
+      <c r="K9" s="3">
         <v>1870100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1834200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1898300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2142500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2259300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2457400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2371600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2386900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2355300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2296000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2034700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1992900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1752400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1963500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1794100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1920800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1966100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2021300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5751200</v>
+        <v>6478100</v>
       </c>
       <c r="E10" s="3">
-        <v>5485800</v>
+        <v>5960800</v>
       </c>
       <c r="F10" s="3">
-        <v>5137700</v>
+        <v>5685700</v>
       </c>
       <c r="G10" s="3">
-        <v>6006400</v>
+        <v>5324900</v>
       </c>
       <c r="H10" s="3">
-        <v>5044800</v>
+        <v>6225300</v>
       </c>
       <c r="I10" s="3">
-        <v>4876400</v>
+        <v>5228600</v>
       </c>
       <c r="J10" s="3">
+        <v>5054100</v>
+      </c>
+      <c r="K10" s="3">
         <v>4609900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5684200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4884400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5213500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5103500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6928600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5947300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5412600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4931900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>6490600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4633100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4594000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4024200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>5671700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4477900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4565400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4237500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>5870200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1058,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1603700</v>
+        <v>1712900</v>
       </c>
       <c r="E12" s="3">
-        <v>1574100</v>
+        <v>1662100</v>
       </c>
       <c r="F12" s="3">
-        <v>1452600</v>
+        <v>1631400</v>
       </c>
       <c r="G12" s="3">
-        <v>1437300</v>
+        <v>1505500</v>
       </c>
       <c r="H12" s="3">
-        <v>1325000</v>
+        <v>1489700</v>
       </c>
       <c r="I12" s="3">
-        <v>1333200</v>
+        <v>1373300</v>
       </c>
       <c r="J12" s="3">
+        <v>1381700</v>
+      </c>
+      <c r="K12" s="3">
         <v>1193300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1127100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1153100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1262200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1184400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1402100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1191900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1237600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1264400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1111900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1014600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1038700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>891600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>980600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>872900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>942500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>996600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>1006000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,88 +1222,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>169500</v>
+        <v>214800</v>
       </c>
       <c r="E14" s="3">
-        <v>299100</v>
+        <v>175600</v>
       </c>
       <c r="F14" s="3">
-        <v>157200</v>
+        <v>310000</v>
       </c>
       <c r="G14" s="3">
-        <v>174600</v>
+        <v>162900</v>
       </c>
       <c r="H14" s="3">
-        <v>71500</v>
+        <v>180900</v>
       </c>
       <c r="I14" s="3">
-        <v>156200</v>
+        <v>74100</v>
       </c>
       <c r="J14" s="3">
+        <v>161900</v>
+      </c>
+      <c r="K14" s="3">
         <v>307300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>157600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>149500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>174500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>199900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>238200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>230300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>423500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1210600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>173900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>162800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>175700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>151500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>164900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>80800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>435300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>189000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>213600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6739300</v>
+        <v>7121400</v>
       </c>
       <c r="E17" s="3">
-        <v>6986400</v>
+        <v>6984900</v>
       </c>
       <c r="F17" s="3">
-        <v>6149300</v>
+        <v>7241000</v>
       </c>
       <c r="G17" s="3">
-        <v>6653600</v>
+        <v>6373400</v>
       </c>
       <c r="H17" s="3">
-        <v>5712400</v>
+        <v>6896000</v>
       </c>
       <c r="I17" s="3">
-        <v>5803200</v>
+        <v>5920600</v>
       </c>
       <c r="J17" s="3">
+        <v>6014700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5500100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4869300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5253800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5955300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5996700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6930900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6262100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6826600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7449900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5948800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5298800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5440600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4651100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5431600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4797600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5447300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5413600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5601400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1264800</v>
+        <v>1803900</v>
       </c>
       <c r="E18" s="3">
-        <v>687000</v>
+        <v>1310900</v>
       </c>
       <c r="F18" s="3">
-        <v>1074900</v>
+        <v>712000</v>
       </c>
       <c r="G18" s="3">
-        <v>1493400</v>
+        <v>1114100</v>
       </c>
       <c r="H18" s="3">
-        <v>1275000</v>
+        <v>1547900</v>
       </c>
       <c r="I18" s="3">
-        <v>1004500</v>
+        <v>1321400</v>
       </c>
       <c r="J18" s="3">
+        <v>1041100</v>
+      </c>
+      <c r="K18" s="3">
         <v>980000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2649100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1528800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1400700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1366200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2455100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2056800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>972900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-162700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2837800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1369000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1146300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1125500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2203600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1474300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1039000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>790000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>2290100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-397100</v>
+        <v>-1003000</v>
       </c>
       <c r="E20" s="3">
-        <v>-137800</v>
+        <v>-411600</v>
       </c>
       <c r="F20" s="3">
-        <v>-110200</v>
+        <v>-142800</v>
       </c>
       <c r="G20" s="3">
-        <v>504300</v>
+        <v>-114300</v>
       </c>
       <c r="H20" s="3">
-        <v>510400</v>
+        <v>522700</v>
       </c>
       <c r="I20" s="3">
-        <v>837100</v>
+        <v>529000</v>
       </c>
       <c r="J20" s="3">
+        <v>867600</v>
+      </c>
+      <c r="K20" s="3">
         <v>384800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>49900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>664300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>41500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-99400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>193800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>89400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>10800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-113600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>74200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-27500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-41700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>111100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>85300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-20200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>14100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1369900</v>
+        <v>1299200</v>
       </c>
       <c r="E21" s="3">
-        <v>1032000</v>
+        <v>1419800</v>
       </c>
       <c r="F21" s="3">
-        <v>1434200</v>
+        <v>1069600</v>
       </c>
       <c r="G21" s="3">
-        <v>2474400</v>
+        <v>1486500</v>
       </c>
       <c r="H21" s="3">
-        <v>2231500</v>
+        <v>2564600</v>
       </c>
       <c r="I21" s="3">
-        <v>2285600</v>
+        <v>2312800</v>
       </c>
       <c r="J21" s="3">
+        <v>2368900</v>
+      </c>
+      <c r="K21" s="3">
         <v>1809900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3159800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2653900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1945100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1790800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3233700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2726800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1509300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>376800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3169000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1832000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1483400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1416400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>2663600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1917500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1380000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1159700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>2698600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1772,41 +1811,41 @@
       <c r="K22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="3">
         <v>44600</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3">
         <v>58400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>61200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15600</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>25500</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1823,168 +1862,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>867700</v>
+        <v>800900</v>
       </c>
       <c r="E23" s="3">
-        <v>549200</v>
+        <v>899300</v>
       </c>
       <c r="F23" s="3">
-        <v>964700</v>
+        <v>569200</v>
       </c>
       <c r="G23" s="3">
-        <v>1997700</v>
+        <v>999800</v>
       </c>
       <c r="H23" s="3">
-        <v>1785400</v>
+        <v>2070500</v>
       </c>
       <c r="I23" s="3">
-        <v>1841500</v>
+        <v>1850400</v>
       </c>
       <c r="J23" s="3">
+        <v>1908600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1364800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2699000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2148500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1442200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1266900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2590500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2084900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>958800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-167500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2724200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1417700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1118900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1083700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>2314700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1559600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1018800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>784100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>2304200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>310300</v>
+        <v>456000</v>
       </c>
       <c r="E24" s="3">
-        <v>342000</v>
+        <v>321600</v>
       </c>
       <c r="F24" s="3">
-        <v>319500</v>
+        <v>354400</v>
       </c>
       <c r="G24" s="3">
-        <v>527800</v>
+        <v>331200</v>
       </c>
       <c r="H24" s="3">
-        <v>337900</v>
+        <v>547000</v>
       </c>
       <c r="I24" s="3">
-        <v>362400</v>
+        <v>350200</v>
       </c>
       <c r="J24" s="3">
+        <v>375600</v>
+      </c>
+      <c r="K24" s="3">
         <v>272600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>770000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>433800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>476700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>350000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>679400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>542700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>275300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-39500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>728700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>342200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>329400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>307400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>231100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>446600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>270400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>162000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>513000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>557400</v>
+        <v>344900</v>
       </c>
       <c r="E26" s="3">
-        <v>207200</v>
+        <v>577700</v>
       </c>
       <c r="F26" s="3">
-        <v>645100</v>
+        <v>214800</v>
       </c>
       <c r="G26" s="3">
-        <v>1470000</v>
+        <v>668700</v>
       </c>
       <c r="H26" s="3">
-        <v>1447500</v>
+        <v>1523500</v>
       </c>
       <c r="I26" s="3">
-        <v>1479100</v>
+        <v>1500200</v>
       </c>
       <c r="J26" s="3">
+        <v>1533000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1092300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1929000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1714600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>965500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>916800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1911100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1542300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>683500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-128000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1995600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1075500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>789500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>776300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2083500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1113000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>748400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>622100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1791200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>682900</v>
+        <v>572400</v>
       </c>
       <c r="E27" s="3">
-        <v>340900</v>
+        <v>707800</v>
       </c>
       <c r="F27" s="3">
-        <v>755400</v>
+        <v>353400</v>
       </c>
       <c r="G27" s="3">
-        <v>1484200</v>
+        <v>782900</v>
       </c>
       <c r="H27" s="3">
-        <v>1435200</v>
+        <v>1538300</v>
       </c>
       <c r="I27" s="3">
-        <v>1384200</v>
+        <v>1487500</v>
       </c>
       <c r="J27" s="3">
+        <v>1434600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1061600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1903000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1615000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>945800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>919100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1891200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1526300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>669400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-136400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1990800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1075500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>787300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>776300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2060000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>749500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>611600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1793600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2374,8 +2434,8 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+      <c r="Z29" s="3">
+        <v>0</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>397100</v>
+        <v>1003000</v>
       </c>
       <c r="E32" s="3">
-        <v>137800</v>
+        <v>411600</v>
       </c>
       <c r="F32" s="3">
-        <v>110200</v>
+        <v>142800</v>
       </c>
       <c r="G32" s="3">
-        <v>-504300</v>
+        <v>114300</v>
       </c>
       <c r="H32" s="3">
-        <v>-510400</v>
+        <v>-522700</v>
       </c>
       <c r="I32" s="3">
-        <v>-837100</v>
+        <v>-529000</v>
       </c>
       <c r="J32" s="3">
+        <v>-867600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-384800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-49900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-664300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-41500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>99400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-193800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-89400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-10800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>113600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-74200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>27500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>41700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-111100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-85300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>20200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>5900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-14100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>682900</v>
+        <v>572400</v>
       </c>
       <c r="E33" s="3">
-        <v>340900</v>
+        <v>707800</v>
       </c>
       <c r="F33" s="3">
-        <v>755400</v>
+        <v>353400</v>
       </c>
       <c r="G33" s="3">
-        <v>1484200</v>
+        <v>782900</v>
       </c>
       <c r="H33" s="3">
-        <v>1435200</v>
+        <v>1538300</v>
       </c>
       <c r="I33" s="3">
-        <v>1384200</v>
+        <v>1487500</v>
       </c>
       <c r="J33" s="3">
+        <v>1434600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1061600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1903000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1615000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>945800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>919100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1891200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1526300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>669400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-136400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1990800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1075500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>787300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>776300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>2060000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>749500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>611600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1793600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>682900</v>
+        <v>572400</v>
       </c>
       <c r="E35" s="3">
-        <v>340900</v>
+        <v>707800</v>
       </c>
       <c r="F35" s="3">
-        <v>755400</v>
+        <v>353400</v>
       </c>
       <c r="G35" s="3">
-        <v>1484200</v>
+        <v>782900</v>
       </c>
       <c r="H35" s="3">
-        <v>1435200</v>
+        <v>1538300</v>
       </c>
       <c r="I35" s="3">
-        <v>1384200</v>
+        <v>1487500</v>
       </c>
       <c r="J35" s="3">
+        <v>1434600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1061600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1903000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1615000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>945800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>919100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1891200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1526300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>669400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-136400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1990800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1075500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>787300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>776300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>2060000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>749500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>611600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1793600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,248 +3093,258 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7492700</v>
+        <v>9530500</v>
       </c>
       <c r="E41" s="3">
-        <v>7647800</v>
+        <v>7765700</v>
       </c>
       <c r="F41" s="3">
-        <v>9128000</v>
+        <v>7926500</v>
       </c>
       <c r="G41" s="3">
-        <v>9083100</v>
+        <v>9460600</v>
       </c>
       <c r="H41" s="3">
-        <v>8108200</v>
+        <v>9414100</v>
       </c>
       <c r="I41" s="3">
-        <v>9083100</v>
+        <v>8403700</v>
       </c>
       <c r="J41" s="3">
+        <v>9414100</v>
+      </c>
+      <c r="K41" s="3">
         <v>10546900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5297200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>7715700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6769100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8825000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6203600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6768100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6079600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8770500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>10204900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4992000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4957500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8342600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4500300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4734800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4752700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6968900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4345400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1512800</v>
+        <v>902500</v>
       </c>
       <c r="E42" s="3">
-        <v>1007500</v>
+        <v>1568000</v>
       </c>
       <c r="F42" s="3">
-        <v>2596900</v>
+        <v>1044200</v>
       </c>
       <c r="G42" s="3">
-        <v>2815400</v>
+        <v>2691600</v>
       </c>
       <c r="H42" s="3">
-        <v>1589400</v>
+        <v>2918000</v>
       </c>
       <c r="I42" s="3">
-        <v>2815400</v>
+        <v>1647300</v>
       </c>
       <c r="J42" s="3">
+        <v>2918000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1442400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1630700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>550100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1548000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>404200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>346700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>401800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>472900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>707000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>529900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>536100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>434800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>942100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1154500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1136600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>973900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1813500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1319400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1029000</v>
+        <v>6901300</v>
       </c>
       <c r="E43" s="3">
-        <v>9728200</v>
+        <v>10349400</v>
       </c>
       <c r="F43" s="3">
-        <v>10200900</v>
+        <v>10082700</v>
       </c>
       <c r="G43" s="3">
-        <v>6895500</v>
+        <v>10572600</v>
       </c>
       <c r="H43" s="3">
-        <v>5907400</v>
+        <v>7146800</v>
       </c>
       <c r="I43" s="3">
-        <v>6895500</v>
+        <v>6122600</v>
       </c>
       <c r="J43" s="3">
+        <v>7146800</v>
+      </c>
+      <c r="K43" s="3">
         <v>7042500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6785300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>712000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7701800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>709100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9822600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1321800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>7964200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>405500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>346600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5953400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6073000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>374400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>20987900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>5868000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>6488500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>345100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>273500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,408 +3423,426 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2281500</v>
+        <v>2262000</v>
       </c>
       <c r="E45" s="3">
-        <v>2155900</v>
+        <v>2364600</v>
       </c>
       <c r="F45" s="3">
-        <v>1927300</v>
+        <v>2234500</v>
       </c>
       <c r="G45" s="3">
-        <v>1667000</v>
+        <v>1997500</v>
       </c>
       <c r="H45" s="3">
-        <v>1674100</v>
+        <v>1727700</v>
       </c>
       <c r="I45" s="3">
-        <v>1668000</v>
+        <v>1735100</v>
       </c>
       <c r="J45" s="3">
+        <v>1728800</v>
+      </c>
+      <c r="K45" s="3">
         <v>1463800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1316600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1424000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1482500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1412500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1386900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1601100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1424600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1250000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1052800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1135300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1104600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>932200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>989600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>848200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>842600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>909700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>682000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21272500</v>
+        <v>19596300</v>
       </c>
       <c r="E46" s="3">
-        <v>20539500</v>
+        <v>22047700</v>
       </c>
       <c r="F46" s="3">
-        <v>23853000</v>
+        <v>21288000</v>
       </c>
       <c r="G46" s="3">
-        <v>20460900</v>
+        <v>24722300</v>
       </c>
       <c r="H46" s="3">
-        <v>17279100</v>
+        <v>21206600</v>
       </c>
       <c r="I46" s="3">
-        <v>20460900</v>
+        <v>17908800</v>
       </c>
       <c r="J46" s="3">
+        <v>21206600</v>
+      </c>
+      <c r="K46" s="3">
         <v>20495600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15029800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16208900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17501500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>19570700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17759800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17254000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15941400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>19213400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19659800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>12616700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12569900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>16556700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13385300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12587600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13057700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>17779700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>13573900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7474300</v>
+        <v>6472800</v>
       </c>
       <c r="E47" s="3">
-        <v>7492700</v>
+        <v>7746700</v>
       </c>
       <c r="F47" s="3">
-        <v>7141500</v>
+        <v>7765700</v>
       </c>
       <c r="G47" s="3">
-        <v>6824000</v>
+        <v>7401800</v>
       </c>
       <c r="H47" s="3">
-        <v>6296300</v>
+        <v>7072700</v>
       </c>
       <c r="I47" s="3">
-        <v>6824000</v>
+        <v>6525700</v>
       </c>
       <c r="J47" s="3">
+        <v>7072700</v>
+      </c>
+      <c r="K47" s="3">
         <v>4624200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4046500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3702200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3271600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3404200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3385500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3617400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2953900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2730900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2565700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2239600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2159800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1878700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1955600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2009500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2305700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2371100</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2270100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5136700</v>
+        <v>5220200</v>
       </c>
       <c r="E48" s="3">
-        <v>5099900</v>
+        <v>5323900</v>
       </c>
       <c r="F48" s="3">
-        <v>5094800</v>
+        <v>5285800</v>
       </c>
       <c r="G48" s="3">
-        <v>5080500</v>
+        <v>5280500</v>
       </c>
       <c r="H48" s="3">
-        <v>4934500</v>
+        <v>5265700</v>
       </c>
       <c r="I48" s="3">
-        <v>5080500</v>
+        <v>5114400</v>
       </c>
       <c r="J48" s="3">
+        <v>5265700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5049900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10055800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5307800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5751300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6077900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6416100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6675000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6358400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6606600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4202800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3788000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3605800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3342300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3328900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3148300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3050700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3075400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3028400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>40859600</v>
+        <v>39083600</v>
       </c>
       <c r="E49" s="3">
-        <v>39002700</v>
+        <v>42348600</v>
       </c>
       <c r="F49" s="3">
-        <v>36943800</v>
+        <v>40424100</v>
       </c>
       <c r="G49" s="3">
-        <v>35785200</v>
+        <v>38290100</v>
       </c>
       <c r="H49" s="3">
-        <v>34160100</v>
+        <v>37089200</v>
       </c>
       <c r="I49" s="3">
-        <v>35784100</v>
+        <v>35404900</v>
       </c>
       <c r="J49" s="3">
+        <v>37088200</v>
+      </c>
+      <c r="K49" s="3">
         <v>34151900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31240600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33240800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36405800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>38537300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39286800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42346700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39445900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40703100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>31894500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>29648200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29382500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>26013800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>27194800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27366500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>28298800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>31375900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>31806700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4004,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5118300</v>
+        <v>5971400</v>
       </c>
       <c r="E52" s="3">
-        <v>5012100</v>
+        <v>5304800</v>
       </c>
       <c r="F52" s="3">
-        <v>4929400</v>
+        <v>5194800</v>
       </c>
       <c r="G52" s="3">
-        <v>4498700</v>
+        <v>5109100</v>
       </c>
       <c r="H52" s="3">
-        <v>3712600</v>
+        <v>4662600</v>
       </c>
       <c r="I52" s="3">
-        <v>4499700</v>
+        <v>3847900</v>
       </c>
       <c r="J52" s="3">
+        <v>4663700</v>
+      </c>
+      <c r="K52" s="3">
         <v>3556500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3102900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3064900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3297800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3483300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3447400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3361400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3186900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3230900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2737200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2265000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2220200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2137800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1935400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1372200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1420400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1416800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1293500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79861300</v>
+        <v>76344200</v>
       </c>
       <c r="E54" s="3">
-        <v>77147000</v>
+        <v>82771600</v>
       </c>
       <c r="F54" s="3">
-        <v>77962600</v>
+        <v>79958400</v>
       </c>
       <c r="G54" s="3">
-        <v>72649300</v>
+        <v>80803700</v>
       </c>
       <c r="H54" s="3">
-        <v>66382600</v>
+        <v>75296800</v>
       </c>
       <c r="I54" s="3">
-        <v>72649300</v>
+        <v>68801700</v>
       </c>
       <c r="J54" s="3">
+        <v>75296800</v>
+      </c>
+      <c r="K54" s="3">
         <v>67878100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>58312000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>61524600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>66228100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71073500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70295600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>73254400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>67886500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>72484900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>60921700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>50557500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>49938100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>49929400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>47666600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>46484000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>48133400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>56018900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>51972800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4317,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1966100</v>
+        <v>2270500</v>
       </c>
       <c r="E57" s="3">
-        <v>1979300</v>
+        <v>2037700</v>
       </c>
       <c r="F57" s="3">
-        <v>1728200</v>
+        <v>2051500</v>
       </c>
       <c r="G57" s="3">
-        <v>1612900</v>
+        <v>1791200</v>
       </c>
       <c r="H57" s="3">
-        <v>1165800</v>
+        <v>1671600</v>
       </c>
       <c r="I57" s="3">
-        <v>1612900</v>
+        <v>1208200</v>
       </c>
       <c r="J57" s="3">
+        <v>1671600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1228000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1209800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1327500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1430200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1646200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1845700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1849700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1731700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1968900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1763700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1380100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1290200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1170500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1291400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1221800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1281300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1388600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1503700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8757400</v>
+        <v>4584300</v>
       </c>
       <c r="E58" s="3">
-        <v>4975400</v>
+        <v>9076600</v>
       </c>
       <c r="F58" s="3">
-        <v>7291600</v>
+        <v>5156700</v>
       </c>
       <c r="G58" s="3">
-        <v>4253700</v>
+        <v>7557300</v>
       </c>
       <c r="H58" s="3">
-        <v>4292500</v>
+        <v>4408700</v>
       </c>
       <c r="I58" s="3">
-        <v>4253700</v>
+        <v>4448900</v>
       </c>
       <c r="J58" s="3">
+        <v>4408700</v>
+      </c>
+      <c r="K58" s="3">
         <v>4689600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4199100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4013600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2820000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5805800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3408800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3418900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2134000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1935500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2239200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1243800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1281400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1750200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3207800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1446200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>608100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2083500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2128100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9930300</v>
+        <v>11610500</v>
       </c>
       <c r="E59" s="3">
-        <v>14373900</v>
+        <v>10292200</v>
       </c>
       <c r="F59" s="3">
-        <v>12444600</v>
+        <v>14897700</v>
       </c>
       <c r="G59" s="3">
-        <v>10605100</v>
+        <v>12898100</v>
       </c>
       <c r="H59" s="3">
-        <v>9354600</v>
+        <v>10991600</v>
       </c>
       <c r="I59" s="3">
-        <v>10605100</v>
+        <v>9695500</v>
       </c>
       <c r="J59" s="3">
+        <v>10991600</v>
+      </c>
+      <c r="K59" s="3">
         <v>11217600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9741600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8992400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12440700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12269900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>11628600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11739100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12854500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>13619900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9731700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8556200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9986300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9629500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>12110800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7998700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9687300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>11375400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7723700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20653800</v>
+        <v>18465300</v>
       </c>
       <c r="E60" s="3">
-        <v>21328600</v>
+        <v>21406500</v>
       </c>
       <c r="F60" s="3">
-        <v>21464400</v>
+        <v>22105900</v>
       </c>
       <c r="G60" s="3">
-        <v>16471600</v>
+        <v>22246600</v>
       </c>
       <c r="H60" s="3">
-        <v>14812800</v>
+        <v>17071900</v>
       </c>
       <c r="I60" s="3">
-        <v>16471600</v>
+        <v>15352600</v>
       </c>
       <c r="J60" s="3">
+        <v>17071900</v>
+      </c>
+      <c r="K60" s="3">
         <v>17135100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12808600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14333400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16690900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19722000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16883100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17007800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16720200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17524300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12403900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11180100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12557800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12550100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11455500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>10666800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11576700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14847500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11355400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9764000</v>
+        <v>9259600</v>
       </c>
       <c r="E61" s="3">
-        <v>9144300</v>
+        <v>10119800</v>
       </c>
       <c r="F61" s="3">
-        <v>10279500</v>
+        <v>9477600</v>
       </c>
       <c r="G61" s="3">
-        <v>11208400</v>
+        <v>10654100</v>
       </c>
       <c r="H61" s="3">
-        <v>11577900</v>
+        <v>11616800</v>
       </c>
       <c r="I61" s="3">
-        <v>11208400</v>
+        <v>11999800</v>
       </c>
       <c r="J61" s="3">
+        <v>11616800</v>
+      </c>
+      <c r="K61" s="3">
         <v>12626300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>13569600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>14680100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>15809500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14121700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15059600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>16719900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16548400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>17626000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>12461900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7533900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7146900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7113900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5612200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>6519900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6984400</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>7575800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7569900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2439700</v>
+        <v>3286100</v>
       </c>
       <c r="E62" s="3">
-        <v>2997100</v>
+        <v>2528600</v>
       </c>
       <c r="F62" s="3">
-        <v>2714300</v>
+        <v>3106300</v>
       </c>
       <c r="G62" s="3">
-        <v>2582600</v>
+        <v>2813200</v>
       </c>
       <c r="H62" s="3">
-        <v>2403000</v>
+        <v>2676700</v>
       </c>
       <c r="I62" s="3">
-        <v>2582600</v>
+        <v>2490500</v>
       </c>
       <c r="J62" s="3">
+        <v>2676700</v>
+      </c>
+      <c r="K62" s="3">
         <v>2556100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2089600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2028100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2012700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2487400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2371000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2497800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2101100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2372100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1897400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1931700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1842400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2059800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2093600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1954500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2055500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2175100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2062400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>36017900</v>
+        <v>33827400</v>
       </c>
       <c r="E66" s="3">
-        <v>36474200</v>
+        <v>37330500</v>
       </c>
       <c r="F66" s="3">
-        <v>37283700</v>
+        <v>37803400</v>
       </c>
       <c r="G66" s="3">
-        <v>32988200</v>
+        <v>38642400</v>
       </c>
       <c r="H66" s="3">
-        <v>30448400</v>
+        <v>34190300</v>
       </c>
       <c r="I66" s="3">
-        <v>32988200</v>
+        <v>31558000</v>
       </c>
       <c r="J66" s="3">
+        <v>34190300</v>
+      </c>
+      <c r="K66" s="3">
         <v>33622100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28673300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31228300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>34610200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>36413500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34402400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36309900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>35440200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>37583400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26816300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20693300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>21595500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21756900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>19073800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19142300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>20624400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24634800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>21012400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>44207800</v>
+        <v>38530200</v>
       </c>
       <c r="E72" s="3">
-        <v>35839300</v>
+        <v>45818800</v>
       </c>
       <c r="F72" s="3">
-        <v>41020800</v>
+        <v>37145300</v>
       </c>
       <c r="G72" s="3">
-        <v>37792100</v>
+        <v>42515700</v>
       </c>
       <c r="H72" s="3">
-        <v>36178200</v>
+        <v>39169300</v>
       </c>
       <c r="I72" s="3">
-        <v>37792100</v>
+        <v>37496600</v>
       </c>
       <c r="J72" s="3">
+        <v>39169300</v>
+      </c>
+      <c r="K72" s="3">
         <v>35148200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>30933400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31641400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31122600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36124400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33601600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36706800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>30553500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34669500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33879400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>29653800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>27163400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27940800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>28360500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26873900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>24688300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>30535500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>30105900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43843400</v>
+        <v>42516800</v>
       </c>
       <c r="E76" s="3">
-        <v>40672800</v>
+        <v>45441100</v>
       </c>
       <c r="F76" s="3">
-        <v>40678900</v>
+        <v>42155000</v>
       </c>
       <c r="G76" s="3">
-        <v>39661100</v>
+        <v>42161300</v>
       </c>
       <c r="H76" s="3">
-        <v>35934200</v>
+        <v>41106500</v>
       </c>
       <c r="I76" s="3">
-        <v>39661100</v>
+        <v>37243700</v>
       </c>
       <c r="J76" s="3">
+        <v>41106500</v>
+      </c>
+      <c r="K76" s="3">
         <v>34256000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>29638700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>30296300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31617800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>34660000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35893200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36944500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32446300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>34901500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34105400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29864200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>28342700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28172500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28592800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>27341800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27509000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>31384200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>30960400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>682900</v>
+        <v>572400</v>
       </c>
       <c r="E81" s="3">
-        <v>340900</v>
+        <v>707800</v>
       </c>
       <c r="F81" s="3">
-        <v>755400</v>
+        <v>353400</v>
       </c>
       <c r="G81" s="3">
-        <v>1484200</v>
+        <v>782900</v>
       </c>
       <c r="H81" s="3">
-        <v>1435200</v>
+        <v>1538300</v>
       </c>
       <c r="I81" s="3">
-        <v>1384200</v>
+        <v>1487500</v>
       </c>
       <c r="J81" s="3">
+        <v>1434600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1061600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1903000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1615000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>945800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>919100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1891200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1526300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>669400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-136400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1990800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1075500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>787300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>776300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>2060000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1102900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>749500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>611600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1793600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6210,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>502200</v>
+        <v>498300</v>
       </c>
       <c r="E83" s="3">
-        <v>482800</v>
+        <v>520500</v>
       </c>
       <c r="F83" s="3">
-        <v>469600</v>
+        <v>500400</v>
       </c>
       <c r="G83" s="3">
-        <v>476700</v>
+        <v>486700</v>
       </c>
       <c r="H83" s="3">
-        <v>446100</v>
+        <v>494100</v>
       </c>
       <c r="I83" s="3">
-        <v>444000</v>
+        <v>462300</v>
       </c>
       <c r="J83" s="3">
+        <v>460200</v>
+      </c>
+      <c r="K83" s="3">
         <v>445100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>460800</v>
       </c>
       <c r="L83" s="3">
         <v>460800</v>
       </c>
       <c r="M83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="N83" s="3">
         <v>502900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>523900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>584900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>580600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>535300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>528700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>444800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>388800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>364500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>332700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>348900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>357900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>361300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>375600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>394400</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>866700</v>
+        <v>2164700</v>
       </c>
       <c r="E89" s="3">
-        <v>274600</v>
+        <v>898200</v>
       </c>
       <c r="F89" s="3">
-        <v>2532600</v>
+        <v>284600</v>
       </c>
       <c r="G89" s="3">
-        <v>1294400</v>
+        <v>2624900</v>
       </c>
       <c r="H89" s="3">
-        <v>1207600</v>
+        <v>1341500</v>
       </c>
       <c r="I89" s="3">
-        <v>700300</v>
+        <v>1251600</v>
       </c>
       <c r="J89" s="3">
+        <v>725800</v>
+      </c>
+      <c r="K89" s="3">
         <v>3149200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2094500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1371100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>859600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3369200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>210100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>780300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-144700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3351800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>968800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>552700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>448000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2829500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1032200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>686700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>719200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>3371200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1173800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6822,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-287900</v>
+        <v>-143900</v>
       </c>
       <c r="E91" s="3">
-        <v>-239900</v>
+        <v>-298400</v>
       </c>
       <c r="F91" s="3">
-        <v>-225600</v>
+        <v>-248600</v>
       </c>
       <c r="G91" s="3">
-        <v>-259300</v>
+        <v>-233800</v>
       </c>
       <c r="H91" s="3">
-        <v>-206200</v>
+        <v>-268700</v>
       </c>
       <c r="I91" s="3">
-        <v>-195000</v>
+        <v>-213700</v>
       </c>
       <c r="J91" s="3">
+        <v>-202100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-156200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-163600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-160900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-178900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-376000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-133100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-211800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-429400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-369100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-363300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-429300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-468800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-348900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-397200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-357900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-341600</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-393200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7069,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-966700</v>
+        <v>2464100</v>
       </c>
       <c r="E94" s="3">
-        <v>1068800</v>
+        <v>-1001900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1798600</v>
+        <v>1107700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1424000</v>
+        <v>-1864200</v>
       </c>
       <c r="H94" s="3">
-        <v>-959600</v>
+        <v>-1475900</v>
       </c>
       <c r="I94" s="3">
-        <v>244000</v>
+        <v>-994500</v>
       </c>
       <c r="J94" s="3">
+        <v>252900</v>
+      </c>
+      <c r="K94" s="3">
         <v>-987100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1961900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>651800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-421200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-349100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-232900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-540600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-422000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-405200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-534100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>313000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-755900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7515,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-392000</v>
+        <v>-2296900</v>
       </c>
       <c r="E100" s="3">
-        <v>-3120600</v>
+        <v>-406300</v>
       </c>
       <c r="F100" s="3">
-        <v>-740100</v>
+        <v>-3234300</v>
       </c>
       <c r="G100" s="3">
-        <v>942200</v>
+        <v>-767100</v>
       </c>
       <c r="H100" s="3">
-        <v>-255200</v>
+        <v>976500</v>
       </c>
       <c r="I100" s="3">
-        <v>-3460500</v>
+        <v>-264500</v>
       </c>
       <c r="J100" s="3">
+        <v>-3586600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2716300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2087600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-646600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-251800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-339700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-151900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2910400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>4439400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-162800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1627200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-673200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-336600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-422600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>336900</v>
+        <v>-568100</v>
       </c>
       <c r="E101" s="3">
-        <v>297100</v>
+        <v>349100</v>
       </c>
       <c r="F101" s="3">
-        <v>51000</v>
+        <v>307900</v>
       </c>
       <c r="G101" s="3">
-        <v>161300</v>
+        <v>52900</v>
       </c>
       <c r="H101" s="3">
-        <v>190900</v>
+        <v>167200</v>
       </c>
       <c r="I101" s="3">
-        <v>-106200</v>
+        <v>197800</v>
       </c>
       <c r="J101" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="K101" s="3">
         <v>248100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-162600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-73100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>127600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-74700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>158000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>85900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-33500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>23300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>190000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-113100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-59500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-64000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-126800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>5900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-29300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-155200</v>
+        <v>1763700</v>
       </c>
       <c r="E102" s="3">
-        <v>-1480200</v>
+        <v>-160800</v>
       </c>
       <c r="F102" s="3">
-        <v>44900</v>
+        <v>-1534100</v>
       </c>
       <c r="G102" s="3">
-        <v>973800</v>
+        <v>46600</v>
       </c>
       <c r="H102" s="3">
-        <v>183700</v>
+        <v>1009300</v>
       </c>
       <c r="I102" s="3">
-        <v>-2622400</v>
+        <v>190400</v>
       </c>
       <c r="J102" s="3">
+        <v>-2718000</v>
+      </c>
+      <c r="K102" s="3">
         <v>5126500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2117500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1275600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2823900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-246300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>437300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4874700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3938500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-234500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>2622300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-482400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SAP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8925300</v>
+        <v>8013200</v>
       </c>
       <c r="E8" s="3">
-        <v>8295800</v>
+        <v>9084700</v>
       </c>
       <c r="F8" s="3">
-        <v>7953000</v>
+        <v>8444000</v>
       </c>
       <c r="G8" s="3">
-        <v>7487500</v>
+        <v>8095100</v>
       </c>
       <c r="H8" s="3">
-        <v>8443900</v>
+        <v>7293800</v>
       </c>
       <c r="I8" s="3">
-        <v>7242000</v>
+        <v>8594700</v>
       </c>
       <c r="J8" s="3">
+        <v>7371400</v>
+      </c>
+      <c r="K8" s="3">
         <v>7055800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6480000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7518400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6782700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7356000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7362900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9386000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8318900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7799500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7287300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8786600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6667800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6586900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5776600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7635100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6271900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6486200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6203600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7891500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2447200</v>
+        <v>2299200</v>
       </c>
       <c r="E9" s="3">
-        <v>2335000</v>
+        <v>2490900</v>
       </c>
       <c r="F9" s="3">
-        <v>2267300</v>
+        <v>2376700</v>
       </c>
       <c r="G9" s="3">
-        <v>2162600</v>
+        <v>2307800</v>
       </c>
       <c r="H9" s="3">
-        <v>2218600</v>
+        <v>2007300</v>
       </c>
       <c r="I9" s="3">
-        <v>2013400</v>
+        <v>2258300</v>
       </c>
       <c r="J9" s="3">
+        <v>2049300</v>
+      </c>
+      <c r="K9" s="3">
         <v>2001700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1870100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1834200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1898300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2142500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2259300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2457400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2371600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2386900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2355300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2296000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2034700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1992900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1752400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1963500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1794100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1920800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1966100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2021300</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6478100</v>
+        <v>5714000</v>
       </c>
       <c r="E10" s="3">
-        <v>5960800</v>
+        <v>6593900</v>
       </c>
       <c r="F10" s="3">
-        <v>5685700</v>
+        <v>6067300</v>
       </c>
       <c r="G10" s="3">
-        <v>5324900</v>
+        <v>5787300</v>
       </c>
       <c r="H10" s="3">
-        <v>6225300</v>
+        <v>5286500</v>
       </c>
       <c r="I10" s="3">
-        <v>5228600</v>
+        <v>6336500</v>
       </c>
       <c r="J10" s="3">
+        <v>5322000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5054100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4609900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5684200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4884400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5213500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5103500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>6928600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5947300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5412600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4931900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>6490600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4633100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4594000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4024200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>5671700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4477900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4565400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4237500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>5870200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,91 +1072,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1712900</v>
+        <v>1691800</v>
       </c>
       <c r="E12" s="3">
-        <v>1662100</v>
+        <v>1743500</v>
       </c>
       <c r="F12" s="3">
-        <v>1631400</v>
+        <v>1691800</v>
       </c>
       <c r="G12" s="3">
-        <v>1505500</v>
+        <v>1660600</v>
       </c>
       <c r="H12" s="3">
-        <v>1489700</v>
+        <v>1501200</v>
       </c>
       <c r="I12" s="3">
-        <v>1373300</v>
+        <v>1516300</v>
       </c>
       <c r="J12" s="3">
+        <v>1397800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1381700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1193300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1127100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1153100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1262200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1184400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1402100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1191900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1237600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1264400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1111900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1014600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1038700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>891600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>980600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>872900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>942500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>996600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1006000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,91 +1242,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>214800</v>
+        <v>374800</v>
       </c>
       <c r="E14" s="3">
-        <v>175600</v>
+        <v>218600</v>
       </c>
       <c r="F14" s="3">
-        <v>310000</v>
+        <v>178800</v>
       </c>
       <c r="G14" s="3">
-        <v>162900</v>
+        <v>315500</v>
       </c>
       <c r="H14" s="3">
-        <v>180900</v>
+        <v>93700</v>
       </c>
       <c r="I14" s="3">
-        <v>74100</v>
+        <v>184100</v>
       </c>
       <c r="J14" s="3">
+        <v>75400</v>
+      </c>
+      <c r="K14" s="3">
         <v>161900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>307300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>157600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>149500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>174500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>199900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>238200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>230300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>423500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1210600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>173900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>162800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>175700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>151500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>164900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>80800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>435300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>189000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>213600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7121400</v>
+        <v>7148500</v>
       </c>
       <c r="E17" s="3">
-        <v>6984900</v>
+        <v>7248600</v>
       </c>
       <c r="F17" s="3">
-        <v>7241000</v>
+        <v>7109700</v>
       </c>
       <c r="G17" s="3">
-        <v>6373400</v>
+        <v>7370300</v>
       </c>
       <c r="H17" s="3">
-        <v>6896000</v>
+        <v>5709700</v>
       </c>
       <c r="I17" s="3">
-        <v>5920600</v>
+        <v>7019200</v>
       </c>
       <c r="J17" s="3">
+        <v>6026300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6014700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4869300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5253800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5955300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5996700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6930900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6262100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6826600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7449900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5948800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5298800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5440600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4651100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5431600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4797600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5447300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5413600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5601400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1803900</v>
+        <v>864800</v>
       </c>
       <c r="E18" s="3">
-        <v>1310900</v>
+        <v>1836100</v>
       </c>
       <c r="F18" s="3">
-        <v>712000</v>
+        <v>1334300</v>
       </c>
       <c r="G18" s="3">
-        <v>1114100</v>
+        <v>724800</v>
       </c>
       <c r="H18" s="3">
-        <v>1547900</v>
+        <v>1584100</v>
       </c>
       <c r="I18" s="3">
-        <v>1321400</v>
+        <v>1575500</v>
       </c>
       <c r="J18" s="3">
+        <v>1345000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1041100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>980000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2649100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1528800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1400700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1366200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2455100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2056800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>972900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-162700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2837800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1369000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1146300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1125500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2203600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1474300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1039000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>790000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2290100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1003000</v>
+        <v>-135700</v>
       </c>
       <c r="E20" s="3">
-        <v>-411600</v>
+        <v>-1020900</v>
       </c>
       <c r="F20" s="3">
-        <v>-142800</v>
+        <v>-418900</v>
       </c>
       <c r="G20" s="3">
-        <v>-114300</v>
+        <v>-145400</v>
       </c>
       <c r="H20" s="3">
-        <v>522700</v>
+        <v>-114200</v>
       </c>
       <c r="I20" s="3">
-        <v>529000</v>
+        <v>532000</v>
       </c>
       <c r="J20" s="3">
+        <v>538500</v>
+      </c>
+      <c r="K20" s="3">
         <v>867600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>384800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>49900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>664300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>41500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-99400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>193800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>89400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>10800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-113600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>74200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-27500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-41700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>111100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>85300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>14100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1299200</v>
+        <v>1122100</v>
       </c>
       <c r="E21" s="3">
-        <v>1419800</v>
+        <v>1322400</v>
       </c>
       <c r="F21" s="3">
-        <v>1069600</v>
+        <v>1445200</v>
       </c>
       <c r="G21" s="3">
-        <v>1486500</v>
+        <v>1171700</v>
       </c>
       <c r="H21" s="3">
-        <v>2564600</v>
+        <v>1882400</v>
       </c>
       <c r="I21" s="3">
-        <v>2312800</v>
+        <v>2610400</v>
       </c>
       <c r="J21" s="3">
+        <v>2354100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2368900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1809900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3159800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2653900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1945100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1790800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3233700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2726800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1509300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>376800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3169000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1832000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1483400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1416400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>2663600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1917500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1380000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1159700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>2698600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1814,41 +1854,41 @@
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N22" s="3">
         <v>44600</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="3">
         <v>58400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>61200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>15300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15600</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>25500</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>800900</v>
+        <v>729100</v>
       </c>
       <c r="E23" s="3">
-        <v>899300</v>
+        <v>815200</v>
       </c>
       <c r="F23" s="3">
-        <v>569200</v>
+        <v>915400</v>
       </c>
       <c r="G23" s="3">
-        <v>999800</v>
+        <v>579400</v>
       </c>
       <c r="H23" s="3">
-        <v>2070500</v>
+        <v>1470000</v>
       </c>
       <c r="I23" s="3">
-        <v>1850400</v>
+        <v>2107500</v>
       </c>
       <c r="J23" s="3">
+        <v>1883500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1908600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1364800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2699000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2148500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1442200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1266900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2590500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2084900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>958800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-167500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2724200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1417700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1118900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1083700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>2314700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1559600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>784100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>2304200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>456000</v>
+        <v>295100</v>
       </c>
       <c r="E24" s="3">
-        <v>321600</v>
+        <v>464100</v>
       </c>
       <c r="F24" s="3">
-        <v>354400</v>
+        <v>327400</v>
       </c>
       <c r="G24" s="3">
-        <v>331200</v>
+        <v>360800</v>
       </c>
       <c r="H24" s="3">
-        <v>547000</v>
+        <v>375800</v>
       </c>
       <c r="I24" s="3">
-        <v>350200</v>
+        <v>556800</v>
       </c>
       <c r="J24" s="3">
+        <v>356500</v>
+      </c>
+      <c r="K24" s="3">
         <v>375600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>272600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>770000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>433800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>476700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>350000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>679400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>542700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>275300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-39500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>728700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>342200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>329400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>307400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>231100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>446600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>270400</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>162000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>513000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>344900</v>
+        <v>434000</v>
       </c>
       <c r="E26" s="3">
-        <v>577700</v>
+        <v>351100</v>
       </c>
       <c r="F26" s="3">
-        <v>214800</v>
+        <v>588000</v>
       </c>
       <c r="G26" s="3">
-        <v>668700</v>
+        <v>218600</v>
       </c>
       <c r="H26" s="3">
-        <v>1523500</v>
+        <v>1094100</v>
       </c>
       <c r="I26" s="3">
-        <v>1500200</v>
+        <v>1550700</v>
       </c>
       <c r="J26" s="3">
+        <v>1527000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1533000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1092300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1929000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1714600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>965500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>916800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1911100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1542300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>683500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-128000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1995600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1075500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>789500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>776300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2083500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1113000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>748400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>622100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>1791200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>572400</v>
+        <v>401700</v>
       </c>
       <c r="E27" s="3">
-        <v>707800</v>
+        <v>582600</v>
       </c>
       <c r="F27" s="3">
-        <v>353400</v>
+        <v>720400</v>
       </c>
       <c r="G27" s="3">
-        <v>782900</v>
+        <v>359700</v>
       </c>
       <c r="H27" s="3">
-        <v>1538300</v>
+        <v>1210400</v>
       </c>
       <c r="I27" s="3">
-        <v>1487500</v>
+        <v>1565800</v>
       </c>
       <c r="J27" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="K27" s="3">
         <v>1434600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1061600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1903000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1615000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>945800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>919100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1891200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1526300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>669400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-136400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1990800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1075500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>787300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>776300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>749500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>611600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>1793600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,31 +2421,34 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>114200</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-413500</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -2437,8 +2498,8 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
+      <c r="AA29" s="3">
+        <v>0</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1003000</v>
+        <v>135700</v>
       </c>
       <c r="E32" s="3">
-        <v>411600</v>
+        <v>1020900</v>
       </c>
       <c r="F32" s="3">
-        <v>142800</v>
+        <v>418900</v>
       </c>
       <c r="G32" s="3">
-        <v>114300</v>
+        <v>145400</v>
       </c>
       <c r="H32" s="3">
-        <v>-522700</v>
+        <v>114200</v>
       </c>
       <c r="I32" s="3">
-        <v>-529000</v>
+        <v>-532000</v>
       </c>
       <c r="J32" s="3">
+        <v>-538500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-867600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-384800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-49900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-664300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-41500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>99400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-193800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-89400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-10800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>113600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-74200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>27500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>41700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-111100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-85300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>20200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>5900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-14100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>572400</v>
+        <v>515800</v>
       </c>
       <c r="E33" s="3">
-        <v>707800</v>
+        <v>582600</v>
       </c>
       <c r="F33" s="3">
-        <v>353400</v>
+        <v>720400</v>
       </c>
       <c r="G33" s="3">
-        <v>782900</v>
+        <v>359700</v>
       </c>
       <c r="H33" s="3">
-        <v>1538300</v>
+        <v>796900</v>
       </c>
       <c r="I33" s="3">
-        <v>1487500</v>
+        <v>1565800</v>
       </c>
       <c r="J33" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="K33" s="3">
         <v>1434600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1061600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1903000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1615000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>945800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>919100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1891200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1526300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>669400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-136400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1990800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1075500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>787300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>776300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>749500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>611600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>1793600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>572400</v>
+        <v>515800</v>
       </c>
       <c r="E35" s="3">
-        <v>707800</v>
+        <v>582600</v>
       </c>
       <c r="F35" s="3">
-        <v>353400</v>
+        <v>720400</v>
       </c>
       <c r="G35" s="3">
-        <v>782900</v>
+        <v>359700</v>
       </c>
       <c r="H35" s="3">
-        <v>1538300</v>
+        <v>796900</v>
       </c>
       <c r="I35" s="3">
-        <v>1487500</v>
+        <v>1565800</v>
       </c>
       <c r="J35" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="K35" s="3">
         <v>1434600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1061600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1903000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1615000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>945800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>919100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1891200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1526300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>669400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-136400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1990800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1075500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>787300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>776300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>749500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>611600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>1793600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,257 +3180,267 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9530500</v>
+        <v>9440100</v>
       </c>
       <c r="E41" s="3">
-        <v>7765700</v>
+        <v>9700700</v>
       </c>
       <c r="F41" s="3">
-        <v>7926500</v>
+        <v>7904400</v>
       </c>
       <c r="G41" s="3">
-        <v>9460600</v>
+        <v>8068100</v>
       </c>
       <c r="H41" s="3">
+        <v>9629600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>9582300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8553800</v>
+      </c>
+      <c r="K41" s="3">
         <v>9414100</v>
       </c>
-      <c r="I41" s="3">
-        <v>8403700</v>
-      </c>
-      <c r="J41" s="3">
-        <v>9414100</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>10546900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5297200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>7715700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6769100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8825000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6203600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6768100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6079600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>8770500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>10204900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4992000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4957500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8342600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4500300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4734800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4752700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>6968900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4345400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>902500</v>
+        <v>1210400</v>
       </c>
       <c r="E42" s="3">
-        <v>1568000</v>
+        <v>918600</v>
       </c>
       <c r="F42" s="3">
-        <v>1044200</v>
+        <v>1596000</v>
       </c>
       <c r="G42" s="3">
-        <v>2691600</v>
+        <v>1062900</v>
       </c>
       <c r="H42" s="3">
+        <v>2739600</v>
+      </c>
+      <c r="I42" s="3">
+        <v>2970100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="K42" s="3">
         <v>2918000</v>
       </c>
-      <c r="I42" s="3">
-        <v>1647300</v>
-      </c>
-      <c r="J42" s="3">
-        <v>2918000</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1442400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1630700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>550100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1548000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>404200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>346700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>401800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>472900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>707000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>529900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>536100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>434800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>942100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1154500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1136600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>973900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1813500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1319400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6901300</v>
+        <v>7528600</v>
       </c>
       <c r="E43" s="3">
-        <v>10349400</v>
+        <v>7024600</v>
       </c>
       <c r="F43" s="3">
-        <v>10082700</v>
+        <v>10534200</v>
       </c>
       <c r="G43" s="3">
-        <v>10572600</v>
+        <v>10262900</v>
       </c>
       <c r="H43" s="3">
+        <v>10761500</v>
+      </c>
+      <c r="I43" s="3">
+        <v>7274500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>6232000</v>
+      </c>
+      <c r="K43" s="3">
         <v>7146800</v>
       </c>
-      <c r="I43" s="3">
-        <v>6122600</v>
-      </c>
-      <c r="J43" s="3">
-        <v>7146800</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7042500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6785300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>712000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>7701800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>709100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>9822600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1321800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>7964200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>405500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>346600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5953400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>6073000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>374400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>20987900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5868000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>6488500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>345100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>273500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,423 +3522,441 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2262000</v>
+        <v>10366200</v>
       </c>
       <c r="E45" s="3">
-        <v>2364600</v>
+        <v>2302400</v>
       </c>
       <c r="F45" s="3">
-        <v>2234500</v>
+        <v>2406900</v>
       </c>
       <c r="G45" s="3">
-        <v>1997500</v>
+        <v>2274400</v>
       </c>
       <c r="H45" s="3">
-        <v>1727700</v>
+        <v>2033200</v>
       </c>
       <c r="I45" s="3">
-        <v>1735100</v>
+        <v>1758600</v>
       </c>
       <c r="J45" s="3">
+        <v>1766100</v>
+      </c>
+      <c r="K45" s="3">
         <v>1728800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1463800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1316600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1424000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1482500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1412500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1386900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1601100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1424600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1250000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1052800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1135300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1104600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>932200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>989600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>848200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>842600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>909700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>682000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19596300</v>
+        <v>28545400</v>
       </c>
       <c r="E46" s="3">
-        <v>22047700</v>
+        <v>19946300</v>
       </c>
       <c r="F46" s="3">
-        <v>21288000</v>
+        <v>22441500</v>
       </c>
       <c r="G46" s="3">
-        <v>24722300</v>
+        <v>21668300</v>
       </c>
       <c r="H46" s="3">
+        <v>25163900</v>
+      </c>
+      <c r="I46" s="3">
+        <v>21585400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18228700</v>
+      </c>
+      <c r="K46" s="3">
         <v>21206600</v>
       </c>
-      <c r="I46" s="3">
-        <v>17908800</v>
-      </c>
-      <c r="J46" s="3">
-        <v>21206600</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20495600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15029800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16208900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>17501500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>19570700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17759800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17254000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>15941400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>19213400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19659800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>12616700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12569900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>16556700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>13385300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>12587600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13057700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>17779700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>13573900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6472800</v>
+        <v>6388200</v>
       </c>
       <c r="E47" s="3">
-        <v>7746700</v>
+        <v>6588500</v>
       </c>
       <c r="F47" s="3">
-        <v>7765700</v>
+        <v>7885100</v>
       </c>
       <c r="G47" s="3">
-        <v>7401800</v>
+        <v>7904400</v>
       </c>
       <c r="H47" s="3">
+        <v>7534000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>7199100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>6642300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7072700</v>
       </c>
-      <c r="I47" s="3">
-        <v>6525700</v>
-      </c>
-      <c r="J47" s="3">
-        <v>7072700</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4624200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4046500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3702200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3271600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3404200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3385500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3617400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2953900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2730900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2565700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2239600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2159800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1878700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1955600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>2009500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2305700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2371100</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2270100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5220200</v>
+        <v>4808400</v>
       </c>
       <c r="E48" s="3">
-        <v>5323900</v>
+        <v>5313400</v>
       </c>
       <c r="F48" s="3">
-        <v>5285800</v>
+        <v>5419000</v>
       </c>
       <c r="G48" s="3">
-        <v>5280500</v>
+        <v>5380200</v>
       </c>
       <c r="H48" s="3">
+        <v>5374800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5359700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5205700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5265700</v>
       </c>
-      <c r="I48" s="3">
-        <v>5114400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5265700</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5049900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10055800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5307800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5751300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6077900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6416100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6675000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6358400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6606600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4202800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3788000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3605800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3342300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3328900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3148300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3050700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3075400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3028400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>39083600</v>
+        <v>33289100</v>
       </c>
       <c r="E49" s="3">
-        <v>42348600</v>
+        <v>39781800</v>
       </c>
       <c r="F49" s="3">
-        <v>40424100</v>
+        <v>43105100</v>
       </c>
       <c r="G49" s="3">
-        <v>38290100</v>
+        <v>41146200</v>
       </c>
       <c r="H49" s="3">
-        <v>37089200</v>
+        <v>38974100</v>
       </c>
       <c r="I49" s="3">
-        <v>35404900</v>
+        <v>37751800</v>
       </c>
       <c r="J49" s="3">
+        <v>36037400</v>
+      </c>
+      <c r="K49" s="3">
         <v>37088200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>34151900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31240600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33240800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36405800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>38537300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39286800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42346700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39445900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>40703100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>31894500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>29648200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29382500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>26013800</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>27194800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27366500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>28298800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>31375900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>31806700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5971400</v>
+        <v>6156600</v>
       </c>
       <c r="E52" s="3">
-        <v>5304800</v>
+        <v>6078000</v>
       </c>
       <c r="F52" s="3">
-        <v>5194800</v>
+        <v>5399600</v>
       </c>
       <c r="G52" s="3">
-        <v>5109100</v>
+        <v>5287600</v>
       </c>
       <c r="H52" s="3">
-        <v>4662600</v>
+        <v>5200400</v>
       </c>
       <c r="I52" s="3">
-        <v>3847900</v>
+        <v>4745900</v>
       </c>
       <c r="J52" s="3">
+        <v>3916700</v>
+      </c>
+      <c r="K52" s="3">
         <v>4663700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3556500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3102900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3064900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3297800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3483300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3447400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3361400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3186900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3230900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2737200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2265000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2220200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2137800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1935400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1372200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1420400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1416800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1293500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76344200</v>
+        <v>79187700</v>
       </c>
       <c r="E54" s="3">
-        <v>82771600</v>
+        <v>77708000</v>
       </c>
       <c r="F54" s="3">
-        <v>79958400</v>
+        <v>84250200</v>
       </c>
       <c r="G54" s="3">
-        <v>80803700</v>
+        <v>81386700</v>
       </c>
       <c r="H54" s="3">
+        <v>82247200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>76641900</v>
+      </c>
+      <c r="J54" s="3">
+        <v>70030800</v>
+      </c>
+      <c r="K54" s="3">
         <v>75296800</v>
       </c>
-      <c r="I54" s="3">
-        <v>68801700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>75296800</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67878100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>58312000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>61524600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>66228100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71073500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70295600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>73254400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>67886500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>72484900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>60921700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>50557500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>49938100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>49929400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>47666600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>46484000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>48133400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>56018900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>51972800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,506 +4448,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2270500</v>
+        <v>1730600</v>
       </c>
       <c r="E57" s="3">
-        <v>2037700</v>
+        <v>2311000</v>
       </c>
       <c r="F57" s="3">
-        <v>2051500</v>
+        <v>2074100</v>
       </c>
       <c r="G57" s="3">
-        <v>1791200</v>
+        <v>2088100</v>
       </c>
       <c r="H57" s="3">
+        <v>1823200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1701500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1229800</v>
+      </c>
+      <c r="K57" s="3">
         <v>1671600</v>
       </c>
-      <c r="I57" s="3">
-        <v>1208200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1671600</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1228000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1209800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1327500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1430200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1646200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1845700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1849700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1731700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1968900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1763700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1380100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1290200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1170500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1291400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1221800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1281300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1388600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1503700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4584300</v>
+        <v>3972700</v>
       </c>
       <c r="E58" s="3">
-        <v>9076600</v>
+        <v>4666200</v>
       </c>
       <c r="F58" s="3">
-        <v>5156700</v>
+        <v>9238700</v>
       </c>
       <c r="G58" s="3">
-        <v>7557300</v>
+        <v>5248800</v>
       </c>
       <c r="H58" s="3">
+        <v>7692300</v>
+      </c>
+      <c r="I58" s="3">
+        <v>4487400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4528400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4408700</v>
       </c>
-      <c r="I58" s="3">
-        <v>4448900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4408700</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4689600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4199100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4013600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2820000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5805800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3408800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3418900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2134000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1935500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2239200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1243800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1281400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1750200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3207800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1446200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>608100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2083500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2128100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11610500</v>
+        <v>14595200</v>
       </c>
       <c r="E59" s="3">
-        <v>10292200</v>
+        <v>11817900</v>
       </c>
       <c r="F59" s="3">
-        <v>14897700</v>
+        <v>10476100</v>
       </c>
       <c r="G59" s="3">
-        <v>12898100</v>
+        <v>15163800</v>
       </c>
       <c r="H59" s="3">
+        <v>13128500</v>
+      </c>
+      <c r="I59" s="3">
+        <v>11187900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>9868700</v>
+      </c>
+      <c r="K59" s="3">
         <v>10991600</v>
       </c>
-      <c r="I59" s="3">
-        <v>9695500</v>
-      </c>
-      <c r="J59" s="3">
-        <v>10991600</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11217600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9741600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8992400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>12440700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12269900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>11628600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11739100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>12854500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>13619900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9731700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8556200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9986300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9629500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>12110800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7998700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>9687300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>11375400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>7723700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18465300</v>
+        <v>20298500</v>
       </c>
       <c r="E60" s="3">
-        <v>21406500</v>
+        <v>18795100</v>
       </c>
       <c r="F60" s="3">
-        <v>22105900</v>
+        <v>21788900</v>
       </c>
       <c r="G60" s="3">
-        <v>22246600</v>
+        <v>22500700</v>
       </c>
       <c r="H60" s="3">
+        <v>22644000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>17376900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>15626900</v>
+      </c>
+      <c r="K60" s="3">
         <v>17071900</v>
       </c>
-      <c r="I60" s="3">
-        <v>15352600</v>
-      </c>
-      <c r="J60" s="3">
-        <v>17071900</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17135100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12808600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14333400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16690900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19722000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16883100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>17007800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16720200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17524300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12403900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11180100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12557800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12550100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>11455500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>10666800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11576700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>14847500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>11355400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9259600</v>
+        <v>9949500</v>
       </c>
       <c r="E61" s="3">
-        <v>10119800</v>
+        <v>9425000</v>
       </c>
       <c r="F61" s="3">
-        <v>9477600</v>
+        <v>10300500</v>
       </c>
       <c r="G61" s="3">
-        <v>10654100</v>
+        <v>9646900</v>
       </c>
       <c r="H61" s="3">
+        <v>10844400</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11824400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>12214200</v>
+      </c>
+      <c r="K61" s="3">
         <v>11616800</v>
       </c>
-      <c r="I61" s="3">
-        <v>11999800</v>
-      </c>
-      <c r="J61" s="3">
-        <v>11616800</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12626300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>13569600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>14680100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>15809500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14121700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15059600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>16719900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16548400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>17626000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>12461900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7533900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7146900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7113900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5612200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>6519900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6984400</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>7575800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7569900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3286100</v>
+        <v>2637300</v>
       </c>
       <c r="E62" s="3">
-        <v>2528600</v>
+        <v>3344900</v>
       </c>
       <c r="F62" s="3">
-        <v>3106300</v>
+        <v>2573800</v>
       </c>
       <c r="G62" s="3">
-        <v>2813200</v>
+        <v>3161800</v>
       </c>
       <c r="H62" s="3">
+        <v>2863500</v>
+      </c>
+      <c r="I62" s="3">
+        <v>2724600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2535000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2676700</v>
       </c>
-      <c r="I62" s="3">
-        <v>2490500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>2676700</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2556100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2089600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2028100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2012700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2487400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2371000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2497800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2101100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2372100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>1897400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1931700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1842400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2059800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2093600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>1954500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2055500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2175100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2062400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>33827400</v>
+        <v>35842500</v>
       </c>
       <c r="E66" s="3">
-        <v>37330500</v>
+        <v>34431700</v>
       </c>
       <c r="F66" s="3">
-        <v>37803400</v>
+        <v>37997300</v>
       </c>
       <c r="G66" s="3">
-        <v>38642400</v>
+        <v>38478700</v>
       </c>
       <c r="H66" s="3">
+        <v>39332700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>34801100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>32121800</v>
+      </c>
+      <c r="K66" s="3">
         <v>34190300</v>
       </c>
-      <c r="I66" s="3">
-        <v>31558000</v>
-      </c>
-      <c r="J66" s="3">
-        <v>34190300</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33622100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>28673300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31228300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>34610200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>36413500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34402400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36309900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>35440200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>37583400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>26816300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>20693300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>21595500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21756900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>19073800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19142300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20624400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>24634800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>21012400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>38530200</v>
+        <v>42952200</v>
       </c>
       <c r="E72" s="3">
-        <v>45818800</v>
+        <v>39218500</v>
       </c>
       <c r="F72" s="3">
-        <v>37145300</v>
+        <v>46637300</v>
       </c>
       <c r="G72" s="3">
-        <v>42515700</v>
+        <v>37808900</v>
       </c>
       <c r="H72" s="3">
+        <v>43275200</v>
+      </c>
+      <c r="I72" s="3">
+        <v>39869000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>38166400</v>
+      </c>
+      <c r="K72" s="3">
         <v>39169300</v>
       </c>
-      <c r="I72" s="3">
-        <v>37496600</v>
-      </c>
-      <c r="J72" s="3">
-        <v>39169300</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35148200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>30933400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31641400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31122600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36124400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33601600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36706800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>30553500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34669500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33879400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>29653800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>27163400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27940800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>28360500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26873900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24688300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>30535500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>30105900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>42516800</v>
+        <v>43345200</v>
       </c>
       <c r="E76" s="3">
-        <v>45441100</v>
+        <v>43276300</v>
       </c>
       <c r="F76" s="3">
-        <v>42155000</v>
+        <v>46252900</v>
       </c>
       <c r="G76" s="3">
-        <v>42161300</v>
+        <v>42908000</v>
       </c>
       <c r="H76" s="3">
+        <v>42914500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>41840800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>37909000</v>
+      </c>
+      <c r="K76" s="3">
         <v>41106500</v>
       </c>
-      <c r="I76" s="3">
-        <v>37243700</v>
-      </c>
-      <c r="J76" s="3">
-        <v>41106500</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>34256000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>29638700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>30296300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>31617800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>34660000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35893200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36944500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32446300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>34901500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34105400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29864200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>28342700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28172500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28592800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>27341800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27509000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>31384200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>30960400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>572400</v>
+        <v>515800</v>
       </c>
       <c r="E81" s="3">
-        <v>707800</v>
+        <v>582600</v>
       </c>
       <c r="F81" s="3">
-        <v>353400</v>
+        <v>720400</v>
       </c>
       <c r="G81" s="3">
-        <v>782900</v>
+        <v>359700</v>
       </c>
       <c r="H81" s="3">
-        <v>1538300</v>
+        <v>796900</v>
       </c>
       <c r="I81" s="3">
-        <v>1487500</v>
+        <v>1565800</v>
       </c>
       <c r="J81" s="3">
+        <v>1514100</v>
+      </c>
+      <c r="K81" s="3">
         <v>1434600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1061600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1903000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1615000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>945800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>919100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1891200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1526300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>669400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-136400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1990800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1075500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>787300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>776300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>2060000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1102900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>749500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>611600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>1793600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>498300</v>
+        <v>393100</v>
       </c>
       <c r="E83" s="3">
-        <v>520500</v>
+        <v>507200</v>
       </c>
       <c r="F83" s="3">
-        <v>500400</v>
+        <v>529800</v>
       </c>
       <c r="G83" s="3">
-        <v>486700</v>
+        <v>509400</v>
       </c>
       <c r="H83" s="3">
-        <v>494100</v>
+        <v>495400</v>
       </c>
       <c r="I83" s="3">
-        <v>462300</v>
+        <v>502900</v>
       </c>
       <c r="J83" s="3">
+        <v>470600</v>
+      </c>
+      <c r="K83" s="3">
         <v>460200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>445100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>460800</v>
       </c>
       <c r="M83" s="3">
         <v>460800</v>
       </c>
       <c r="N83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="O83" s="3">
         <v>502900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>523900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>584900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>580600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>535300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>528700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>444800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>388800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>364500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>332700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>348900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>357900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>361300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>375600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>394400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2164700</v>
+        <v>2555500</v>
       </c>
       <c r="E89" s="3">
-        <v>898200</v>
+        <v>2203300</v>
       </c>
       <c r="F89" s="3">
-        <v>284600</v>
+        <v>914300</v>
       </c>
       <c r="G89" s="3">
-        <v>2624900</v>
+        <v>288600</v>
       </c>
       <c r="H89" s="3">
-        <v>1341500</v>
+        <v>2672900</v>
       </c>
       <c r="I89" s="3">
-        <v>1251600</v>
+        <v>1365500</v>
       </c>
       <c r="J89" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="K89" s="3">
         <v>725800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3149200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2094500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1371100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>859600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3369200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>210100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>780300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-144700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3351800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>968800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>552700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>448000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2829500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1032200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>686700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>719200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>3371200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1173800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-143900</v>
+        <v>-257000</v>
       </c>
       <c r="E91" s="3">
-        <v>-298400</v>
+        <v>-136000</v>
       </c>
       <c r="F91" s="3">
-        <v>-248600</v>
+        <v>-282000</v>
       </c>
       <c r="G91" s="3">
-        <v>-233800</v>
+        <v>-244000</v>
       </c>
       <c r="H91" s="3">
-        <v>-268700</v>
+        <v>-212000</v>
       </c>
       <c r="I91" s="3">
-        <v>-213700</v>
+        <v>-254000</v>
       </c>
       <c r="J91" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-202100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-156200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-163600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-160900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-178900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-376000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-133100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-211800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-429400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-369100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-363300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-429300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-468800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-348900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-397200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-357900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-341600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-393200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>2464100</v>
+        <v>-537400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1001900</v>
+        <v>2508100</v>
       </c>
       <c r="F94" s="3">
-        <v>1107700</v>
+        <v>-1019800</v>
       </c>
       <c r="G94" s="3">
-        <v>-1864200</v>
+        <v>5400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1475900</v>
+        <v>-775400</v>
       </c>
       <c r="I94" s="3">
-        <v>-994500</v>
+        <v>-1502300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1012300</v>
+      </c>
+      <c r="K94" s="3">
         <v>252900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-987100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1961900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>651800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-421200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-349100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-232900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-540600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-422000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-405200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-534100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-304100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>313000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-755900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2296900</v>
+        <v>-1306300</v>
       </c>
       <c r="E100" s="3">
-        <v>-406300</v>
+        <v>-2337900</v>
       </c>
       <c r="F100" s="3">
-        <v>-3234300</v>
+        <v>-413500</v>
       </c>
       <c r="G100" s="3">
-        <v>-767100</v>
+        <v>-3292100</v>
       </c>
       <c r="H100" s="3">
-        <v>976500</v>
+        <v>-780800</v>
       </c>
       <c r="I100" s="3">
-        <v>-264500</v>
+        <v>994000</v>
       </c>
       <c r="J100" s="3">
+        <v>-269200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-3586600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2716300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2087600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-646600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-251800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-339700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-151900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>2910400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>4439400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-162800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1627200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-673200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-336600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>1200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-422600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-568100</v>
+        <v>-173400</v>
       </c>
       <c r="E101" s="3">
-        <v>349100</v>
+        <v>-578300</v>
       </c>
       <c r="F101" s="3">
-        <v>307900</v>
+        <v>355400</v>
       </c>
       <c r="G101" s="3">
-        <v>52900</v>
+        <v>304800</v>
       </c>
       <c r="H101" s="3">
-        <v>167200</v>
+        <v>62500</v>
       </c>
       <c r="I101" s="3">
-        <v>197800</v>
+        <v>170200</v>
       </c>
       <c r="J101" s="3">
+        <v>201400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-110000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>248100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-162600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-100700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-73100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>127600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-74700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>158000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>85900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-33500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>7100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>23300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>190000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-113100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-64000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-126800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>5900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-29300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1763700</v>
+        <v>538500</v>
       </c>
       <c r="E102" s="3">
-        <v>-160800</v>
+        <v>1795200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1534100</v>
+        <v>-163700</v>
       </c>
       <c r="G102" s="3">
-        <v>46600</v>
+        <v>-1561500</v>
       </c>
       <c r="H102" s="3">
-        <v>1009300</v>
+        <v>47400</v>
       </c>
       <c r="I102" s="3">
-        <v>190400</v>
+        <v>1027400</v>
       </c>
       <c r="J102" s="3">
+        <v>193800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-2718000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5126500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2117500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1275600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2823900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-246300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>437300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4874700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3938500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-234500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>2622300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-482400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8013200</v>
+        <v>8189300</v>
       </c>
       <c r="E8" s="3">
-        <v>9084700</v>
+        <v>8066800</v>
       </c>
       <c r="F8" s="3">
-        <v>8444000</v>
+        <v>9145500</v>
       </c>
       <c r="G8" s="3">
-        <v>8095100</v>
+        <v>8500400</v>
       </c>
       <c r="H8" s="3">
-        <v>7293800</v>
+        <v>7813100</v>
       </c>
       <c r="I8" s="3">
-        <v>8594700</v>
+        <v>7342600</v>
       </c>
       <c r="J8" s="3">
+        <v>8652200</v>
+      </c>
+      <c r="K8" s="3">
         <v>7371400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7055800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6480000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7518400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6782700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7356000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7362900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9386000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8318900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7799500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7287300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>8786600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6667800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6586900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5776600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7635100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6271900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6486200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6203600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7891500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2299200</v>
+        <v>2301500</v>
       </c>
       <c r="E9" s="3">
-        <v>2490900</v>
+        <v>2314600</v>
       </c>
       <c r="F9" s="3">
-        <v>2376700</v>
+        <v>2507500</v>
       </c>
       <c r="G9" s="3">
-        <v>2307800</v>
+        <v>2392600</v>
       </c>
       <c r="H9" s="3">
-        <v>2007300</v>
+        <v>2109700</v>
       </c>
       <c r="I9" s="3">
-        <v>2258300</v>
+        <v>2020800</v>
       </c>
       <c r="J9" s="3">
+        <v>2273400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2049300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2001700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1870100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1834200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1898300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2142500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2259300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2457400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2371600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2386900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2355300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2296000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2034700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1992900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1752400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1963500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1794100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1920800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1966100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>2021300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5714000</v>
+        <v>5887700</v>
       </c>
       <c r="E10" s="3">
-        <v>6593900</v>
+        <v>5752200</v>
       </c>
       <c r="F10" s="3">
-        <v>6067300</v>
+        <v>6637900</v>
       </c>
       <c r="G10" s="3">
-        <v>5787300</v>
+        <v>6107800</v>
       </c>
       <c r="H10" s="3">
-        <v>5286500</v>
+        <v>5703500</v>
       </c>
       <c r="I10" s="3">
-        <v>6336500</v>
+        <v>5321800</v>
       </c>
       <c r="J10" s="3">
+        <v>6378800</v>
+      </c>
+      <c r="K10" s="3">
         <v>5322000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5054100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4609900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5684200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4884400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>5213500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5103500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>6928600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>5947300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5412600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4931900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>6490600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>4633100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4594000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4024200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>5671700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>4477900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4565400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4237500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>5870200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1691800</v>
+        <v>1694400</v>
       </c>
       <c r="E12" s="3">
-        <v>1743500</v>
+        <v>1703100</v>
       </c>
       <c r="F12" s="3">
-        <v>1691800</v>
+        <v>1755200</v>
       </c>
       <c r="G12" s="3">
-        <v>1660600</v>
+        <v>1703100</v>
       </c>
       <c r="H12" s="3">
-        <v>1501200</v>
+        <v>1638100</v>
       </c>
       <c r="I12" s="3">
-        <v>1516300</v>
+        <v>1511200</v>
       </c>
       <c r="J12" s="3">
+        <v>1526400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1397800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1381700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1193300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1127100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1153100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1262200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1184400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1402100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1191900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1237600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1264400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1111900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1014600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1038700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>891600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>980600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>872900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>942500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>996600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1006000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,94 +1262,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>374800</v>
+        <v>93200</v>
       </c>
       <c r="E14" s="3">
-        <v>218600</v>
+        <v>561600</v>
       </c>
       <c r="F14" s="3">
-        <v>178800</v>
+        <v>220100</v>
       </c>
       <c r="G14" s="3">
-        <v>315500</v>
+        <v>180000</v>
       </c>
       <c r="H14" s="3">
-        <v>93700</v>
+        <v>242800</v>
       </c>
       <c r="I14" s="3">
-        <v>184100</v>
+        <v>94300</v>
       </c>
       <c r="J14" s="3">
+        <v>185400</v>
+      </c>
+      <c r="K14" s="3">
         <v>75400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>161900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>307300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>157600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>149500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>174500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>199900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>238200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>230300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>423500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1210600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>173900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>162800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>175700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>151500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>164900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>80800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>435300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>189000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>213600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>7148500</v>
+        <v>6717100</v>
       </c>
       <c r="E17" s="3">
-        <v>7248600</v>
+        <v>7196300</v>
       </c>
       <c r="F17" s="3">
-        <v>7109700</v>
+        <v>7297100</v>
       </c>
       <c r="G17" s="3">
-        <v>7370300</v>
+        <v>7157200</v>
       </c>
       <c r="H17" s="3">
-        <v>5709700</v>
+        <v>6664000</v>
       </c>
       <c r="I17" s="3">
-        <v>7019200</v>
+        <v>5747900</v>
       </c>
       <c r="J17" s="3">
+        <v>7066200</v>
+      </c>
+      <c r="K17" s="3">
         <v>6026300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6014700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4869300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5253800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5955300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5996700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6930900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6262100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6826600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7449900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5948800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5298800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5440600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4651100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5431600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4797600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5447300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5413600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5601400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>864800</v>
+        <v>1472200</v>
       </c>
       <c r="E18" s="3">
-        <v>1836100</v>
+        <v>870500</v>
       </c>
       <c r="F18" s="3">
-        <v>1334300</v>
+        <v>1848400</v>
       </c>
       <c r="G18" s="3">
-        <v>724800</v>
+        <v>1343200</v>
       </c>
       <c r="H18" s="3">
-        <v>1584100</v>
+        <v>1149100</v>
       </c>
       <c r="I18" s="3">
-        <v>1575500</v>
+        <v>1594700</v>
       </c>
       <c r="J18" s="3">
+        <v>1586000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1345000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1041100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>980000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2649100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1528800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1400700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1366200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2455100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2056800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>972900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-162700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2837800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1369000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1146300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1125500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2203600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1474300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1039000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>790000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2290100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-135700</v>
+        <v>-286200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1020900</v>
+        <v>-136600</v>
       </c>
       <c r="F20" s="3">
-        <v>-418900</v>
+        <v>-1027700</v>
       </c>
       <c r="G20" s="3">
-        <v>-145400</v>
+        <v>-421700</v>
       </c>
       <c r="H20" s="3">
-        <v>-114200</v>
+        <v>-140900</v>
       </c>
       <c r="I20" s="3">
-        <v>532000</v>
+        <v>-114900</v>
       </c>
       <c r="J20" s="3">
+        <v>535500</v>
+      </c>
+      <c r="K20" s="3">
         <v>538500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>867600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>384800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>49900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>664300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>41500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-99400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>193800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>89400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>10800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-113600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>74200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-27500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-41700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>111100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>85300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>14100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1122100</v>
+        <v>1564400</v>
       </c>
       <c r="E21" s="3">
-        <v>1322400</v>
+        <v>1129600</v>
       </c>
       <c r="F21" s="3">
-        <v>1445200</v>
+        <v>1331300</v>
       </c>
       <c r="G21" s="3">
-        <v>1171700</v>
+        <v>1454900</v>
       </c>
       <c r="H21" s="3">
-        <v>1882400</v>
+        <v>1604500</v>
       </c>
       <c r="I21" s="3">
-        <v>2610400</v>
+        <v>1895000</v>
       </c>
       <c r="J21" s="3">
+        <v>2627900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2354100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2368900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1809900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3159800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2653900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1945100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1790800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3233700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2726800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1509300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>376800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3169000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1832000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1483400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1416400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>2663600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1917500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1380000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1159700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>2698600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1857,41 +1897,41 @@
       <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O22" s="3">
         <v>44600</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="3">
         <v>58400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>61200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>15300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15600</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>25500</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>729100</v>
+        <v>1186000</v>
       </c>
       <c r="E23" s="3">
-        <v>815200</v>
+        <v>733900</v>
       </c>
       <c r="F23" s="3">
-        <v>915400</v>
+        <v>820700</v>
       </c>
       <c r="G23" s="3">
-        <v>579400</v>
+        <v>921500</v>
       </c>
       <c r="H23" s="3">
-        <v>1470000</v>
+        <v>1008200</v>
       </c>
       <c r="I23" s="3">
-        <v>2107500</v>
+        <v>1479800</v>
       </c>
       <c r="J23" s="3">
+        <v>2121600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1883500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1908600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1364800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2699000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2148500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1442200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1266900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2590500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2084900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>958800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-167500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>2724200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1417700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1118900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1083700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>2314700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1559600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>784100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>2304200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>295100</v>
+        <v>400000</v>
       </c>
       <c r="E24" s="3">
-        <v>464100</v>
+        <v>297000</v>
       </c>
       <c r="F24" s="3">
-        <v>327400</v>
+        <v>467200</v>
       </c>
       <c r="G24" s="3">
-        <v>360800</v>
+        <v>329600</v>
       </c>
       <c r="H24" s="3">
-        <v>375800</v>
+        <v>343700</v>
       </c>
       <c r="I24" s="3">
-        <v>556800</v>
+        <v>378400</v>
       </c>
       <c r="J24" s="3">
+        <v>560500</v>
+      </c>
+      <c r="K24" s="3">
         <v>356500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>375600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>272600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>770000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>433800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>476700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>350000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>679400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>542700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>275300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-39500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>728700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>342200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>329400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>307400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>231100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>446600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>270400</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>162000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>513000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>434000</v>
+        <v>786000</v>
       </c>
       <c r="E26" s="3">
-        <v>351100</v>
+        <v>436900</v>
       </c>
       <c r="F26" s="3">
-        <v>588000</v>
+        <v>353400</v>
       </c>
       <c r="G26" s="3">
-        <v>218600</v>
+        <v>591900</v>
       </c>
       <c r="H26" s="3">
-        <v>1094100</v>
+        <v>664600</v>
       </c>
       <c r="I26" s="3">
-        <v>1550700</v>
+        <v>1101400</v>
       </c>
       <c r="J26" s="3">
+        <v>1561100</v>
+      </c>
+      <c r="K26" s="3">
         <v>1527000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1533000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1092300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1929000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1714600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>965500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>916800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1911100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1542300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>683500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-128000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1995600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1075500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>789500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>776300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2083500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1113000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>748400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>622100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>1791200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>401700</v>
+        <v>864000</v>
       </c>
       <c r="E27" s="3">
-        <v>582600</v>
+        <v>404400</v>
       </c>
       <c r="F27" s="3">
-        <v>720400</v>
+        <v>586500</v>
       </c>
       <c r="G27" s="3">
-        <v>359700</v>
+        <v>725300</v>
       </c>
       <c r="H27" s="3">
-        <v>1210400</v>
+        <v>806600</v>
       </c>
       <c r="I27" s="3">
-        <v>1565800</v>
+        <v>1218500</v>
       </c>
       <c r="J27" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="K27" s="3">
         <v>1514100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1434600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1061600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1903000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1615000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>945800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>919100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1891200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1526300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>669400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-136400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1990800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1075500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>787300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>776300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2060000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>749500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>611600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>1793600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2424,16 +2482,19 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>114200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+        <v>2880500</v>
+      </c>
+      <c r="E29" s="3">
+        <v>114900</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -2442,16 +2503,16 @@
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>-413500</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+        <v>-444500</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-416300</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -2501,8 +2562,8 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-      <c r="AB29" s="3" t="s">
-        <v>24</v>
+      <c r="AB29" s="3">
+        <v>0</v>
       </c>
       <c r="AC29" s="3" t="s">
         <v>24</v>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>135700</v>
+        <v>286200</v>
       </c>
       <c r="E32" s="3">
-        <v>1020900</v>
+        <v>136600</v>
       </c>
       <c r="F32" s="3">
-        <v>418900</v>
+        <v>1027700</v>
       </c>
       <c r="G32" s="3">
-        <v>145400</v>
+        <v>421700</v>
       </c>
       <c r="H32" s="3">
-        <v>114200</v>
+        <v>140900</v>
       </c>
       <c r="I32" s="3">
-        <v>-532000</v>
+        <v>114900</v>
       </c>
       <c r="J32" s="3">
+        <v>-535500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-538500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-867600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-384800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-49900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-664300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-41500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>99400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-193800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-89400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-10800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>113600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-74200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>27500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>41700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-111100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-85300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>20200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>5900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-14100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>515800</v>
+        <v>3744500</v>
       </c>
       <c r="E33" s="3">
-        <v>582600</v>
+        <v>519300</v>
       </c>
       <c r="F33" s="3">
-        <v>720400</v>
+        <v>586500</v>
       </c>
       <c r="G33" s="3">
-        <v>359700</v>
+        <v>725300</v>
       </c>
       <c r="H33" s="3">
-        <v>796900</v>
+        <v>362100</v>
       </c>
       <c r="I33" s="3">
-        <v>1565800</v>
+        <v>802200</v>
       </c>
       <c r="J33" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1514100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1434600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1061600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1903000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1615000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>945800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>919100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1891200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1526300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>669400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-136400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1990800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1075500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>787300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>776300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>2060000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>749500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>611600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>1793600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>515800</v>
+        <v>3744500</v>
       </c>
       <c r="E35" s="3">
-        <v>582600</v>
+        <v>519300</v>
       </c>
       <c r="F35" s="3">
-        <v>720400</v>
+        <v>586500</v>
       </c>
       <c r="G35" s="3">
-        <v>359700</v>
+        <v>725300</v>
       </c>
       <c r="H35" s="3">
-        <v>796900</v>
+        <v>362100</v>
       </c>
       <c r="I35" s="3">
-        <v>1565800</v>
+        <v>802200</v>
       </c>
       <c r="J35" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1514100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1434600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1061600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1903000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1615000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>945800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>919100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1891200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1526300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>669400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-136400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1990800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1075500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>787300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>776300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>2060000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>749500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>611600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>1793600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,266 +3267,276 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>9440100</v>
+        <v>15331300</v>
       </c>
       <c r="E41" s="3">
-        <v>9700700</v>
+        <v>9503200</v>
       </c>
       <c r="F41" s="3">
-        <v>7904400</v>
+        <v>9765600</v>
       </c>
       <c r="G41" s="3">
-        <v>8068100</v>
+        <v>7957300</v>
       </c>
       <c r="H41" s="3">
-        <v>9629600</v>
+        <v>8122100</v>
       </c>
       <c r="I41" s="3">
-        <v>9582300</v>
+        <v>9694000</v>
       </c>
       <c r="J41" s="3">
+        <v>9646300</v>
+      </c>
+      <c r="K41" s="3">
         <v>8553800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9414100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>10546900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5297200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7715700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6769100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8825000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6203600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6768100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6079600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>8770500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>10204900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4992000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4957500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>8342600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4500300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4734800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4752700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6968900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4345400</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1210400</v>
+        <v>520400</v>
       </c>
       <c r="E42" s="3">
-        <v>918600</v>
+        <v>1218500</v>
       </c>
       <c r="F42" s="3">
-        <v>1596000</v>
+        <v>924700</v>
       </c>
       <c r="G42" s="3">
-        <v>1062900</v>
+        <v>1606600</v>
       </c>
       <c r="H42" s="3">
-        <v>2739600</v>
+        <v>1070000</v>
       </c>
       <c r="I42" s="3">
-        <v>2970100</v>
+        <v>2758000</v>
       </c>
       <c r="J42" s="3">
+        <v>2989900</v>
+      </c>
+      <c r="K42" s="3">
         <v>1676700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2918000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1442400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1630700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>550100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1548000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>404200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>346700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>401800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>472900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>707000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>529900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>536100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>434800</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>942100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1154500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1136600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>973900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>1813500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1319400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>7528600</v>
+        <v>6501300</v>
       </c>
       <c r="E43" s="3">
-        <v>7024600</v>
+        <v>7578900</v>
       </c>
       <c r="F43" s="3">
-        <v>10534200</v>
+        <v>7071600</v>
       </c>
       <c r="G43" s="3">
-        <v>10262900</v>
+        <v>10604700</v>
       </c>
       <c r="H43" s="3">
-        <v>10761500</v>
+        <v>10331500</v>
       </c>
       <c r="I43" s="3">
-        <v>7274500</v>
+        <v>10833400</v>
       </c>
       <c r="J43" s="3">
+        <v>7323100</v>
+      </c>
+      <c r="K43" s="3">
         <v>6232000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7146800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7042500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6785300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>712000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>7701800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>709100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>9822600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1321800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>7964200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>405500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>346600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5953400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>6073000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>374400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>20987900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>5868000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>6488500</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>345100</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>273500</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,438 +3621,456 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10366200</v>
+        <v>2570400</v>
       </c>
       <c r="E45" s="3">
-        <v>2302400</v>
+        <v>10435500</v>
       </c>
       <c r="F45" s="3">
-        <v>2406900</v>
+        <v>2317800</v>
       </c>
       <c r="G45" s="3">
-        <v>2274400</v>
+        <v>2423000</v>
       </c>
       <c r="H45" s="3">
-        <v>2033200</v>
+        <v>2289600</v>
       </c>
       <c r="I45" s="3">
-        <v>1758600</v>
+        <v>2046800</v>
       </c>
       <c r="J45" s="3">
+        <v>1770300</v>
+      </c>
+      <c r="K45" s="3">
         <v>1766100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1728800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1463800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1316600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1424000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1482500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1412500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1386900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1601100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1424600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1250000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1052800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1135300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1104600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>932200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>989600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>848200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>842600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>909700</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>682000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28545400</v>
+        <v>24923500</v>
       </c>
       <c r="E46" s="3">
-        <v>19946300</v>
+        <v>28736200</v>
       </c>
       <c r="F46" s="3">
-        <v>22441500</v>
+        <v>20079700</v>
       </c>
       <c r="G46" s="3">
-        <v>21668300</v>
+        <v>22591600</v>
       </c>
       <c r="H46" s="3">
-        <v>25163900</v>
+        <v>21813200</v>
       </c>
       <c r="I46" s="3">
-        <v>21585400</v>
+        <v>25332200</v>
       </c>
       <c r="J46" s="3">
+        <v>21729700</v>
+      </c>
+      <c r="K46" s="3">
         <v>18228700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21206600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20495600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15029800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>16208900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>17501500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>19570700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>17759800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17254000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>15941400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>19213400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19659800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>12616700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12569900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>16556700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>13385300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>12587600</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>13057700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>17779700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>13573900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6388200</v>
+        <v>6449300</v>
       </c>
       <c r="E47" s="3">
-        <v>6588500</v>
+        <v>6430900</v>
       </c>
       <c r="F47" s="3">
-        <v>7885100</v>
+        <v>6632500</v>
       </c>
       <c r="G47" s="3">
-        <v>7904400</v>
+        <v>7937800</v>
       </c>
       <c r="H47" s="3">
-        <v>7534000</v>
+        <v>7957300</v>
       </c>
       <c r="I47" s="3">
-        <v>7199100</v>
+        <v>7584400</v>
       </c>
       <c r="J47" s="3">
+        <v>7247200</v>
+      </c>
+      <c r="K47" s="3">
         <v>6642300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7072700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4624200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4046500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3702200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3271600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3404200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3385500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3617400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2953900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2730900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2565700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2239600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2159800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1878700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1955600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>2009500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2305700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2371100</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2270100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4808400</v>
+        <v>4727800</v>
       </c>
       <c r="E48" s="3">
-        <v>5313400</v>
+        <v>4840500</v>
       </c>
       <c r="F48" s="3">
-        <v>5419000</v>
+        <v>5348900</v>
       </c>
       <c r="G48" s="3">
-        <v>5380200</v>
+        <v>5455200</v>
       </c>
       <c r="H48" s="3">
-        <v>5374800</v>
+        <v>5416200</v>
       </c>
       <c r="I48" s="3">
-        <v>5359700</v>
+        <v>5410700</v>
       </c>
       <c r="J48" s="3">
+        <v>5395600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5205700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5265700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5049900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10055800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5307800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5751300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6077900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6416100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6675000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6358400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6606600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4202800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3788000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3605800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3342300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3328900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3148300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3050700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3075400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3028400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33289100</v>
+        <v>33433600</v>
       </c>
       <c r="E49" s="3">
-        <v>39781800</v>
+        <v>33511700</v>
       </c>
       <c r="F49" s="3">
-        <v>43105100</v>
+        <v>40047700</v>
       </c>
       <c r="G49" s="3">
-        <v>41146200</v>
+        <v>43393300</v>
       </c>
       <c r="H49" s="3">
-        <v>38974100</v>
+        <v>41421300</v>
       </c>
       <c r="I49" s="3">
-        <v>37751800</v>
+        <v>39234700</v>
       </c>
       <c r="J49" s="3">
+        <v>38004200</v>
+      </c>
+      <c r="K49" s="3">
         <v>36037400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37088200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>34151900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>31240600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33240800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36405800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>38537300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39286800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42346700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>39445900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40703100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>31894500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>29648200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29382500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>26013800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>27194800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>27366500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>28298800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>31375900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>31806700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6156600</v>
+        <v>6048200</v>
       </c>
       <c r="E52" s="3">
-        <v>6078000</v>
+        <v>6197800</v>
       </c>
       <c r="F52" s="3">
-        <v>5399600</v>
+        <v>6118700</v>
       </c>
       <c r="G52" s="3">
-        <v>5287600</v>
+        <v>5435700</v>
       </c>
       <c r="H52" s="3">
-        <v>5200400</v>
+        <v>5322900</v>
       </c>
       <c r="I52" s="3">
-        <v>4745900</v>
+        <v>5235100</v>
       </c>
       <c r="J52" s="3">
+        <v>4777600</v>
+      </c>
+      <c r="K52" s="3">
         <v>3916700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4663700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3556500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3102900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3064900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3297800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3483300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3447400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3361400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3186900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3230900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2737200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2265000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2220200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2137800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1935400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1372200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1420400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1416800</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1293500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79187700</v>
+        <v>75582400</v>
       </c>
       <c r="E54" s="3">
-        <v>77708000</v>
+        <v>79717100</v>
       </c>
       <c r="F54" s="3">
-        <v>84250200</v>
+        <v>78227600</v>
       </c>
       <c r="G54" s="3">
-        <v>81386700</v>
+        <v>84813500</v>
       </c>
       <c r="H54" s="3">
-        <v>82247200</v>
+        <v>81930900</v>
       </c>
       <c r="I54" s="3">
-        <v>76641900</v>
+        <v>82797100</v>
       </c>
       <c r="J54" s="3">
+        <v>77154300</v>
+      </c>
+      <c r="K54" s="3">
         <v>70030800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>75296800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67878100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>58312000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>61524600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>66228100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71073500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>70295600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>73254400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>67886500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>72484900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>60921700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>50557500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>49938100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>49929400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>47666600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>46484000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>48133400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>56018900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>51972800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1730600</v>
+        <v>1717200</v>
       </c>
       <c r="E57" s="3">
-        <v>2311000</v>
+        <v>1742100</v>
       </c>
       <c r="F57" s="3">
-        <v>2074100</v>
+        <v>2326500</v>
       </c>
       <c r="G57" s="3">
-        <v>2088100</v>
+        <v>2088000</v>
       </c>
       <c r="H57" s="3">
-        <v>1823200</v>
+        <v>2102100</v>
       </c>
       <c r="I57" s="3">
-        <v>1701500</v>
+        <v>1835400</v>
       </c>
       <c r="J57" s="3">
+        <v>1712900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1229800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1671600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1228000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1209800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1327500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1430200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1646200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1845700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1849700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1731700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1968900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1763700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1380100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1290200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1170500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1291400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1221800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1281300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1388600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1503700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3972700</v>
+        <v>2924900</v>
       </c>
       <c r="E58" s="3">
-        <v>4666200</v>
+        <v>3999200</v>
       </c>
       <c r="F58" s="3">
-        <v>9238700</v>
+        <v>4697400</v>
       </c>
       <c r="G58" s="3">
-        <v>5248800</v>
+        <v>9300500</v>
       </c>
       <c r="H58" s="3">
-        <v>7692300</v>
+        <v>5283900</v>
       </c>
       <c r="I58" s="3">
-        <v>4487400</v>
+        <v>7743700</v>
       </c>
       <c r="J58" s="3">
+        <v>4517400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4528400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4408700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4689600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4199100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4013600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2820000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5805800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3408800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3418900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2134000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1935500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2239200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1243800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1281400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1750200</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3207800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1446200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>608100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>2083500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2128100</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>14595200</v>
+        <v>12894300</v>
       </c>
       <c r="E59" s="3">
-        <v>11817900</v>
+        <v>14692800</v>
       </c>
       <c r="F59" s="3">
-        <v>10476100</v>
+        <v>11896900</v>
       </c>
       <c r="G59" s="3">
-        <v>15163800</v>
+        <v>10546100</v>
       </c>
       <c r="H59" s="3">
-        <v>13128500</v>
+        <v>15265200</v>
       </c>
       <c r="I59" s="3">
-        <v>11187900</v>
+        <v>13216300</v>
       </c>
       <c r="J59" s="3">
+        <v>11262700</v>
+      </c>
+      <c r="K59" s="3">
         <v>9868700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10991600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11217600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9741600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8992400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>12440700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12269900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>11628600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11739100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>12854500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>13619900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>9731700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8556200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>9986300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9629500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>12110800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7998700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>9687300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>11375400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>7723700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20298500</v>
+        <v>17536400</v>
       </c>
       <c r="E60" s="3">
-        <v>18795100</v>
+        <v>20434200</v>
       </c>
       <c r="F60" s="3">
-        <v>21788900</v>
+        <v>18920800</v>
       </c>
       <c r="G60" s="3">
-        <v>22500700</v>
+        <v>21934600</v>
       </c>
       <c r="H60" s="3">
-        <v>22644000</v>
+        <v>22651200</v>
       </c>
       <c r="I60" s="3">
-        <v>17376900</v>
+        <v>22795400</v>
       </c>
       <c r="J60" s="3">
+        <v>17493000</v>
+      </c>
+      <c r="K60" s="3">
         <v>15626900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17071900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17135100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12808600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>14333400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>16690900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19722000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16883100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17007800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>16720200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17524300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12403900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11180100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>12557800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12550100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>11455500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>10666800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>11576700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>14847500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>11355400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9949500</v>
+        <v>9105400</v>
       </c>
       <c r="E61" s="3">
-        <v>9425000</v>
+        <v>10016000</v>
       </c>
       <c r="F61" s="3">
-        <v>10300500</v>
+        <v>9488000</v>
       </c>
       <c r="G61" s="3">
-        <v>9646900</v>
+        <v>10369400</v>
       </c>
       <c r="H61" s="3">
-        <v>10844400</v>
+        <v>9711400</v>
       </c>
       <c r="I61" s="3">
-        <v>11824400</v>
+        <v>10916900</v>
       </c>
       <c r="J61" s="3">
+        <v>11903400</v>
+      </c>
+      <c r="K61" s="3">
         <v>12214200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11616800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12626300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>13569600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>14680100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>15809500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>14121700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>15059600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>16719900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16548400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>17626000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>12461900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7533900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7146900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7113900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5612200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>6519900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6984400</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>7575800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7569900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2637300</v>
+        <v>3160200</v>
       </c>
       <c r="E62" s="3">
-        <v>3344900</v>
+        <v>2655000</v>
       </c>
       <c r="F62" s="3">
-        <v>2573800</v>
+        <v>3367200</v>
       </c>
       <c r="G62" s="3">
-        <v>3161800</v>
+        <v>2591000</v>
       </c>
       <c r="H62" s="3">
-        <v>2863500</v>
+        <v>3182900</v>
       </c>
       <c r="I62" s="3">
-        <v>2724600</v>
+        <v>2882600</v>
       </c>
       <c r="J62" s="3">
+        <v>2742800</v>
+      </c>
+      <c r="K62" s="3">
         <v>2535000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2676700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2556100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2089600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2028100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2012700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2487400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2371000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2497800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2101100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2372100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>1897400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1931700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1842400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2059800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2093600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>1954500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2055500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2175100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2062400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35842500</v>
+        <v>30108700</v>
       </c>
       <c r="E66" s="3">
-        <v>34431700</v>
+        <v>36082100</v>
       </c>
       <c r="F66" s="3">
-        <v>37997300</v>
+        <v>34661900</v>
       </c>
       <c r="G66" s="3">
-        <v>38478700</v>
+        <v>38251400</v>
       </c>
       <c r="H66" s="3">
-        <v>39332700</v>
+        <v>38736000</v>
       </c>
       <c r="I66" s="3">
-        <v>34801100</v>
+        <v>39595700</v>
       </c>
       <c r="J66" s="3">
+        <v>35033800</v>
+      </c>
+      <c r="K66" s="3">
         <v>32121800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>34190300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33622100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>28673300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31228300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>34610200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>36413500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>34402400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>36309900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>35440200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>37583400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>26816300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20693300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>21595500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21756900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>19073800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19142300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20624400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>24634800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>21012400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>42952200</v>
+        <v>43607900</v>
       </c>
       <c r="E72" s="3">
-        <v>39218500</v>
+        <v>43239300</v>
       </c>
       <c r="F72" s="3">
-        <v>46637300</v>
+        <v>39480800</v>
       </c>
       <c r="G72" s="3">
-        <v>37808900</v>
+        <v>46949100</v>
       </c>
       <c r="H72" s="3">
-        <v>43275200</v>
+        <v>38061700</v>
       </c>
       <c r="I72" s="3">
-        <v>39869000</v>
+        <v>43564600</v>
       </c>
       <c r="J72" s="3">
+        <v>40135600</v>
+      </c>
+      <c r="K72" s="3">
         <v>38166400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39169300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35148200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>30933400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31641400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31122600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36124400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33601600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36706800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>30553500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34669500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33879400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>29653800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>27163400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27940800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>28360500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>26873900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24688300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>30535500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>30105900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43345200</v>
+        <v>45473700</v>
       </c>
       <c r="E76" s="3">
-        <v>43276300</v>
+        <v>43635000</v>
       </c>
       <c r="F76" s="3">
-        <v>46252900</v>
+        <v>43565600</v>
       </c>
       <c r="G76" s="3">
-        <v>42908000</v>
+        <v>46562100</v>
       </c>
       <c r="H76" s="3">
-        <v>42914500</v>
+        <v>43194900</v>
       </c>
       <c r="I76" s="3">
-        <v>41840800</v>
+        <v>43201400</v>
       </c>
       <c r="J76" s="3">
+        <v>42120500</v>
+      </c>
+      <c r="K76" s="3">
         <v>37909000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41106500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>34256000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29638700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30296300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31617800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34660000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35893200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36944500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>32446300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>34901500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34105400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>29864200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>28342700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28172500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28592800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>27341800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27509000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>31384200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>30960400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>515800</v>
+        <v>3744500</v>
       </c>
       <c r="E81" s="3">
-        <v>582600</v>
+        <v>519300</v>
       </c>
       <c r="F81" s="3">
-        <v>720400</v>
+        <v>586500</v>
       </c>
       <c r="G81" s="3">
-        <v>359700</v>
+        <v>725300</v>
       </c>
       <c r="H81" s="3">
-        <v>796900</v>
+        <v>362100</v>
       </c>
       <c r="I81" s="3">
-        <v>1565800</v>
+        <v>802200</v>
       </c>
       <c r="J81" s="3">
+        <v>1576300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1514100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1434600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1061600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1903000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1615000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>945800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>919100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1891200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1526300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>669400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-136400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1990800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1075500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>787300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>776300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>2060000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1102900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>749500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>611600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>1793600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>393100</v>
+        <v>378400</v>
       </c>
       <c r="E83" s="3">
-        <v>507200</v>
+        <v>395700</v>
       </c>
       <c r="F83" s="3">
-        <v>529800</v>
+        <v>510600</v>
       </c>
       <c r="G83" s="3">
-        <v>509400</v>
+        <v>533400</v>
       </c>
       <c r="H83" s="3">
-        <v>495400</v>
+        <v>512800</v>
       </c>
       <c r="I83" s="3">
-        <v>502900</v>
+        <v>498700</v>
       </c>
       <c r="J83" s="3">
+        <v>506300</v>
+      </c>
+      <c r="K83" s="3">
         <v>470600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>460200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>445100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>460800</v>
       </c>
       <c r="N83" s="3">
         <v>460800</v>
       </c>
       <c r="O83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="P83" s="3">
         <v>502900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>523900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>584900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>580600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>535300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>528700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>444800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>388800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>364500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>332700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>348900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>357900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>361300</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>375600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>394400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2555500</v>
+        <v>941000</v>
       </c>
       <c r="E89" s="3">
-        <v>2203300</v>
+        <v>2572600</v>
       </c>
       <c r="F89" s="3">
-        <v>914300</v>
+        <v>2218100</v>
       </c>
       <c r="G89" s="3">
-        <v>288600</v>
+        <v>920400</v>
       </c>
       <c r="H89" s="3">
-        <v>2672900</v>
+        <v>290500</v>
       </c>
       <c r="I89" s="3">
-        <v>1365500</v>
+        <v>2690700</v>
       </c>
       <c r="J89" s="3">
+        <v>1374600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1274000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>725800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3149200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2094500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1371100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>859600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3369200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>210100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>780300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-144700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3351800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>968800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>552700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>448000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2829500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1032200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>686700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>719200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>3371200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1173800</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-156000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-257000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-136000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-282000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-244000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-212000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-254000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-202000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-156200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-163600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-160900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-178900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-376000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-133100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-211800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-429400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-369100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-363300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-429300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-468800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-348900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-397200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-357900</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-341600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-393200</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-537400</v>
+        <v>7440200</v>
       </c>
       <c r="E94" s="3">
-        <v>2508100</v>
+        <v>-541000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1019800</v>
+        <v>2524900</v>
       </c>
       <c r="G94" s="3">
+        <v>-1026600</v>
+      </c>
+      <c r="H94" s="3">
         <v>5400</v>
       </c>
-      <c r="H94" s="3">
-        <v>-775400</v>
-      </c>
       <c r="I94" s="3">
-        <v>-1502300</v>
+        <v>-780600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1512300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1012300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>252900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-987100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1961900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>651800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-421200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-349100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-232900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-540600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-422000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-405200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-534100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-304100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>313000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-755900</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1306300</v>
+        <v>-3302200</v>
       </c>
       <c r="E100" s="3">
-        <v>-2337900</v>
+        <v>-1315000</v>
       </c>
       <c r="F100" s="3">
-        <v>-413500</v>
+        <v>-2353600</v>
       </c>
       <c r="G100" s="3">
-        <v>-3292100</v>
+        <v>-416300</v>
       </c>
       <c r="H100" s="3">
-        <v>-780800</v>
+        <v>-3314100</v>
       </c>
       <c r="I100" s="3">
-        <v>994000</v>
+        <v>-786000</v>
       </c>
       <c r="J100" s="3">
+        <v>1000600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-269200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-3586600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2716300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2087600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-646600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-251800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-339700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-151900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2910400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>4439400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-162800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1627200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-673200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-336600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-422600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-173400</v>
+        <v>-55300</v>
       </c>
       <c r="E101" s="3">
-        <v>-578300</v>
+        <v>-174500</v>
       </c>
       <c r="F101" s="3">
-        <v>355400</v>
+        <v>-582200</v>
       </c>
       <c r="G101" s="3">
-        <v>304800</v>
+        <v>357800</v>
       </c>
       <c r="H101" s="3">
-        <v>62500</v>
+        <v>306800</v>
       </c>
       <c r="I101" s="3">
-        <v>170200</v>
+        <v>62900</v>
       </c>
       <c r="J101" s="3">
+        <v>171300</v>
+      </c>
+      <c r="K101" s="3">
         <v>201400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-110000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>248100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-162600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-73100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>127600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-74700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>158000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>85900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-33500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>23300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>190000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-113100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-59500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-64000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-126800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>5900</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-29300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>538500</v>
+        <v>5023700</v>
       </c>
       <c r="E102" s="3">
-        <v>1795200</v>
+        <v>542100</v>
       </c>
       <c r="F102" s="3">
-        <v>-163700</v>
+        <v>1807200</v>
       </c>
       <c r="G102" s="3">
-        <v>-1561500</v>
+        <v>-164800</v>
       </c>
       <c r="H102" s="3">
-        <v>47400</v>
+        <v>-1571900</v>
       </c>
       <c r="I102" s="3">
-        <v>1027400</v>
+        <v>47700</v>
       </c>
       <c r="J102" s="3">
+        <v>1034200</v>
+      </c>
+      <c r="K102" s="3">
         <v>193800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2718000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5126500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2117500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1275600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2823900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-246300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>437300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4874700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3938500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-234500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>2622300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-482400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-110300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SAP_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8189300</v>
+        <v>8402200</v>
       </c>
       <c r="E8" s="3">
-        <v>8066800</v>
+        <v>8196100</v>
       </c>
       <c r="F8" s="3">
-        <v>9145500</v>
+        <v>8073500</v>
       </c>
       <c r="G8" s="3">
-        <v>8500400</v>
+        <v>9153100</v>
       </c>
       <c r="H8" s="3">
-        <v>7813100</v>
+        <v>8111500</v>
       </c>
       <c r="I8" s="3">
-        <v>7342600</v>
+        <v>7819600</v>
       </c>
       <c r="J8" s="3">
+        <v>7348700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8652200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7371400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7055800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6480000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7518400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6782700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7356000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7362900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>9386000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8318900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7799500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7287300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>8786600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6667800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6586900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5776600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7635100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6271900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6486200</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6203600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7891500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6309200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2301500</v>
+        <v>2272000</v>
       </c>
       <c r="E9" s="3">
-        <v>2314600</v>
+        <v>2303500</v>
       </c>
       <c r="F9" s="3">
-        <v>2507500</v>
+        <v>2316500</v>
       </c>
       <c r="G9" s="3">
-        <v>2392600</v>
+        <v>2509600</v>
       </c>
       <c r="H9" s="3">
-        <v>2109700</v>
+        <v>2186300</v>
       </c>
       <c r="I9" s="3">
-        <v>2020800</v>
+        <v>2111400</v>
       </c>
       <c r="J9" s="3">
+        <v>2022400</v>
+      </c>
+      <c r="K9" s="3">
         <v>2273400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2049300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2001700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1870100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1834200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1898300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2142500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2259300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2457400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2371600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2386900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2355300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2296000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2034700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1992900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1752400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1963500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1794100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1920800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1966100</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>2021300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>1817100</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5887700</v>
+        <v>6130300</v>
       </c>
       <c r="E10" s="3">
-        <v>5752200</v>
+        <v>5892600</v>
       </c>
       <c r="F10" s="3">
-        <v>6637900</v>
+        <v>5757000</v>
       </c>
       <c r="G10" s="3">
-        <v>6107800</v>
+        <v>6643500</v>
       </c>
       <c r="H10" s="3">
-        <v>5703500</v>
+        <v>5925200</v>
       </c>
       <c r="I10" s="3">
-        <v>5321800</v>
+        <v>5708200</v>
       </c>
       <c r="J10" s="3">
+        <v>5326300</v>
+      </c>
+      <c r="K10" s="3">
         <v>6378800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5322000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5054100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4609900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>5684200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4884400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5213500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>5103500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6928600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>5947300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>5412600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4931900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>6490600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4633100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4594000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4024200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>5671700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>4477900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>4565400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>4237500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>5870200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>4492200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1694400</v>
+        <v>1641600</v>
       </c>
       <c r="E12" s="3">
-        <v>1703100</v>
+        <v>1695900</v>
       </c>
       <c r="F12" s="3">
-        <v>1755200</v>
+        <v>1704500</v>
       </c>
       <c r="G12" s="3">
-        <v>1703100</v>
+        <v>1756600</v>
       </c>
       <c r="H12" s="3">
-        <v>1638100</v>
+        <v>1701300</v>
       </c>
       <c r="I12" s="3">
-        <v>1511200</v>
+        <v>1639400</v>
       </c>
       <c r="J12" s="3">
+        <v>1512500</v>
+      </c>
+      <c r="K12" s="3">
         <v>1526400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1397800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1381700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1193300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1127100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1153100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1262200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1184400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1402100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1191900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1237600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1264400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1111900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1014600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1038700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>891600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>980600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>872900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>942500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>996600</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>1006000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>895600</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,97 +1282,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>93200</v>
+        <v>47700</v>
       </c>
       <c r="E14" s="3">
-        <v>561600</v>
+        <v>93300</v>
       </c>
       <c r="F14" s="3">
-        <v>220100</v>
+        <v>562000</v>
       </c>
       <c r="G14" s="3">
-        <v>180000</v>
+        <v>220300</v>
       </c>
       <c r="H14" s="3">
-        <v>242800</v>
+        <v>102000</v>
       </c>
       <c r="I14" s="3">
-        <v>94300</v>
+        <v>243000</v>
       </c>
       <c r="J14" s="3">
+        <v>94400</v>
+      </c>
+      <c r="K14" s="3">
         <v>185400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>75400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>161900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>307300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>157600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>149500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>174500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>199900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>238200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>230300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>423500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1210600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>173900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>162800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>175700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>151500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>164900</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>80800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>435300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>189000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>213600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>193700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>6717100</v>
+        <v>6531700</v>
       </c>
       <c r="E17" s="3">
-        <v>7196300</v>
+        <v>6722700</v>
       </c>
       <c r="F17" s="3">
-        <v>7297100</v>
+        <v>7202200</v>
       </c>
       <c r="G17" s="3">
-        <v>7157200</v>
+        <v>7303100</v>
       </c>
       <c r="H17" s="3">
-        <v>6664000</v>
+        <v>6422100</v>
       </c>
       <c r="I17" s="3">
-        <v>5747900</v>
+        <v>6669500</v>
       </c>
       <c r="J17" s="3">
+        <v>5752700</v>
+      </c>
+      <c r="K17" s="3">
         <v>7066200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6026300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6014700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4869300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5253800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5955300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5996700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6930900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6262100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6826600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7449900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5948800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5298800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5440600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4651100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5431600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4797600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5447300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5413600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>5601400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>5015700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1472200</v>
+        <v>1870500</v>
       </c>
       <c r="E18" s="3">
-        <v>870500</v>
+        <v>1473400</v>
       </c>
       <c r="F18" s="3">
-        <v>1848400</v>
+        <v>871300</v>
       </c>
       <c r="G18" s="3">
-        <v>1343200</v>
+        <v>1849900</v>
       </c>
       <c r="H18" s="3">
-        <v>1149100</v>
+        <v>1689300</v>
       </c>
       <c r="I18" s="3">
-        <v>1594700</v>
+        <v>1150100</v>
       </c>
       <c r="J18" s="3">
+        <v>1596000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1586000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1345000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1041100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>980000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2649100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1528800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1400700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1366200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2455100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2056800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>972900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-162700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2837800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1369000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1146300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1125500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>2203600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>1474300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1039000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>790000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2290100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>1293500</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,186 +1717,193 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-286200</v>
+        <v>40100</v>
       </c>
       <c r="E20" s="3">
-        <v>-136600</v>
+        <v>-286400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1027700</v>
+        <v>-136700</v>
       </c>
       <c r="G20" s="3">
-        <v>-421700</v>
+        <v>-1028600</v>
       </c>
       <c r="H20" s="3">
-        <v>-140900</v>
+        <v>-419900</v>
       </c>
       <c r="I20" s="3">
-        <v>-114900</v>
+        <v>-141000</v>
       </c>
       <c r="J20" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="K20" s="3">
         <v>535500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>538500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>867600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>384800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>49900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>664300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>41500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-99400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>193800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>89400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>10800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-113600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>74200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-27500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-41700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>111100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>85300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-20200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-5900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>14100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-104500</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1564400</v>
+        <v>2266600</v>
       </c>
       <c r="E21" s="3">
-        <v>1129600</v>
+        <v>1565700</v>
       </c>
       <c r="F21" s="3">
-        <v>1331300</v>
+        <v>1130600</v>
       </c>
       <c r="G21" s="3">
-        <v>1454900</v>
+        <v>1598200</v>
       </c>
       <c r="H21" s="3">
-        <v>1604500</v>
+        <v>1537400</v>
       </c>
       <c r="I21" s="3">
-        <v>1895000</v>
+        <v>1605800</v>
       </c>
       <c r="J21" s="3">
+        <v>1896600</v>
+      </c>
+      <c r="K21" s="3">
         <v>2627900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2354100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2368900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1809900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3159800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2653900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1945100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1790800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3233700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2726800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1509300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>376800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3169000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1832000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1483400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1416400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>2663600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1917500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1380000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1159700</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>2698600</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1561200</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1900,41 +1940,41 @@
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P22" s="3">
         <v>44600</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S22" s="3">
         <v>58400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>61200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>15300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>15600</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>25500</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1951,186 +1991,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1186000</v>
+        <v>1910700</v>
       </c>
       <c r="E23" s="3">
-        <v>733900</v>
+        <v>1187000</v>
       </c>
       <c r="F23" s="3">
-        <v>820700</v>
+        <v>734500</v>
       </c>
       <c r="G23" s="3">
-        <v>921500</v>
+        <v>821300</v>
       </c>
       <c r="H23" s="3">
-        <v>1008200</v>
+        <v>1269500</v>
       </c>
       <c r="I23" s="3">
-        <v>1479800</v>
+        <v>1009100</v>
       </c>
       <c r="J23" s="3">
+        <v>1481000</v>
+      </c>
+      <c r="K23" s="3">
         <v>2121600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1883500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1908600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1364800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2699000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2148500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1442200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1266900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2590500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2084900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>958800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-167500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>2724200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1417700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1118900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1083700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>2314700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1559600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1018800</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>784100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>2304200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>1189100</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>400000</v>
+        <v>530600</v>
       </c>
       <c r="E24" s="3">
-        <v>297000</v>
+        <v>400400</v>
       </c>
       <c r="F24" s="3">
-        <v>467200</v>
+        <v>297300</v>
       </c>
       <c r="G24" s="3">
-        <v>329600</v>
+        <v>467600</v>
       </c>
       <c r="H24" s="3">
-        <v>343700</v>
+        <v>360200</v>
       </c>
       <c r="I24" s="3">
-        <v>378400</v>
+        <v>343900</v>
       </c>
       <c r="J24" s="3">
+        <v>378700</v>
+      </c>
+      <c r="K24" s="3">
         <v>560500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>356500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>375600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>272600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>770000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>433800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>476700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>350000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>679400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>542700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>275300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-39500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>728700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>342200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>329400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>307400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>231100</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>446600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>270400</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>162000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>513000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>338100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>786000</v>
+        <v>1380100</v>
       </c>
       <c r="E26" s="3">
-        <v>436900</v>
+        <v>786600</v>
       </c>
       <c r="F26" s="3">
-        <v>353400</v>
+        <v>437300</v>
       </c>
       <c r="G26" s="3">
-        <v>591900</v>
+        <v>353700</v>
       </c>
       <c r="H26" s="3">
-        <v>664600</v>
+        <v>909200</v>
       </c>
       <c r="I26" s="3">
-        <v>1101400</v>
+        <v>665100</v>
       </c>
       <c r="J26" s="3">
+        <v>1102400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1561100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1527000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1533000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1092300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1929000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1714600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>965500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>916800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1911100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1542300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>683500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-128000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>1995600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1075500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>789500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>776300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2083500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1113000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>748400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>622100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>1791200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>851000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>864000</v>
+        <v>1386600</v>
       </c>
       <c r="E27" s="3">
-        <v>404400</v>
+        <v>978700</v>
       </c>
       <c r="F27" s="3">
-        <v>586500</v>
+        <v>404700</v>
       </c>
       <c r="G27" s="3">
-        <v>725300</v>
+        <v>587000</v>
       </c>
       <c r="H27" s="3">
-        <v>806600</v>
+        <v>1042700</v>
       </c>
       <c r="I27" s="3">
-        <v>1218500</v>
+        <v>807200</v>
       </c>
       <c r="J27" s="3">
+        <v>1219500</v>
+      </c>
+      <c r="K27" s="3">
         <v>1576300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1514100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1434600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1061600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1903000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1615000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>945800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>919100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1891200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1526300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>669400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-136400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>1990800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1075500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>787300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>776300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2060000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1102900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>749500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>611600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>1793600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2485,37 +2543,40 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>2880500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>114900</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
+        <v>2350100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>115000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="H29" s="3">
-        <v>-444500</v>
+        <v>-316800</v>
       </c>
       <c r="I29" s="3">
-        <v>-416300</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+        <v>-444900</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-416600</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -2565,8 +2626,8 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-      <c r="AC29" s="3" t="s">
-        <v>24</v>
+      <c r="AC29" s="3">
+        <v>0</v>
       </c>
       <c r="AD29" s="3" t="s">
         <v>24</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>286200</v>
+        <v>-40100</v>
       </c>
       <c r="E32" s="3">
-        <v>136600</v>
+        <v>286400</v>
       </c>
       <c r="F32" s="3">
-        <v>1027700</v>
+        <v>136700</v>
       </c>
       <c r="G32" s="3">
-        <v>421700</v>
+        <v>1028600</v>
       </c>
       <c r="H32" s="3">
-        <v>140900</v>
+        <v>419900</v>
       </c>
       <c r="I32" s="3">
-        <v>114900</v>
+        <v>141000</v>
       </c>
       <c r="J32" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-535500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-538500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-867600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-384800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-49900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-664300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>99400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-193800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-89400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-10800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>113600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-74200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>27500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>41700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-111100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-85300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>20200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>5900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-14100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>104500</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3744500</v>
+        <v>1386600</v>
       </c>
       <c r="E33" s="3">
-        <v>519300</v>
+        <v>3328800</v>
       </c>
       <c r="F33" s="3">
-        <v>586500</v>
+        <v>519700</v>
       </c>
       <c r="G33" s="3">
-        <v>725300</v>
+        <v>587000</v>
       </c>
       <c r="H33" s="3">
-        <v>362100</v>
+        <v>725900</v>
       </c>
       <c r="I33" s="3">
-        <v>802200</v>
+        <v>362400</v>
       </c>
       <c r="J33" s="3">
+        <v>802900</v>
+      </c>
+      <c r="K33" s="3">
         <v>1576300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1514100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1434600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1061600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1903000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1615000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>945800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>919100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1891200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1526300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>669400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-136400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1990800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1075500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>787300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>776300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>2060000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1102900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>749500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>611600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>1793600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3744500</v>
+        <v>1386600</v>
       </c>
       <c r="E35" s="3">
-        <v>519300</v>
+        <v>3328800</v>
       </c>
       <c r="F35" s="3">
-        <v>586500</v>
+        <v>519700</v>
       </c>
       <c r="G35" s="3">
-        <v>725300</v>
+        <v>587000</v>
       </c>
       <c r="H35" s="3">
-        <v>362100</v>
+        <v>725900</v>
       </c>
       <c r="I35" s="3">
-        <v>802200</v>
+        <v>362400</v>
       </c>
       <c r="J35" s="3">
+        <v>802900</v>
+      </c>
+      <c r="K35" s="3">
         <v>1576300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1514100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1434600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1061600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1903000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1615000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>945800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>919100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1891200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1526300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>669400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-136400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1990800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1075500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>787300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>776300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>2060000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1102900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>749500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>611600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>1793600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,275 +3354,285 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15331300</v>
+        <v>10175100</v>
       </c>
       <c r="E41" s="3">
-        <v>9503200</v>
+        <v>15344100</v>
       </c>
       <c r="F41" s="3">
-        <v>9765600</v>
+        <v>9511100</v>
       </c>
       <c r="G41" s="3">
-        <v>7957300</v>
+        <v>9773700</v>
       </c>
       <c r="H41" s="3">
-        <v>8122100</v>
+        <v>7963900</v>
       </c>
       <c r="I41" s="3">
-        <v>9694000</v>
+        <v>8128800</v>
       </c>
       <c r="J41" s="3">
+        <v>9702100</v>
+      </c>
+      <c r="K41" s="3">
         <v>9646300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8553800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9414100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>10546900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5297200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7715700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6769100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8825000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6203600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6768100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6079600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>8770500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>10204900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4992000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4957500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>8342600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4500300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4734800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4752700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6968900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4345400</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>4826700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>520400</v>
+        <v>3309300</v>
       </c>
       <c r="E42" s="3">
-        <v>1218500</v>
+        <v>520800</v>
       </c>
       <c r="F42" s="3">
-        <v>924700</v>
+        <v>1219500</v>
       </c>
       <c r="G42" s="3">
-        <v>1606600</v>
+        <v>925500</v>
       </c>
       <c r="H42" s="3">
-        <v>1070000</v>
+        <v>1608000</v>
       </c>
       <c r="I42" s="3">
-        <v>2758000</v>
+        <v>1070900</v>
       </c>
       <c r="J42" s="3">
+        <v>2760200</v>
+      </c>
+      <c r="K42" s="3">
         <v>2989900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1676700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2918000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1442400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1630700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>550100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1548000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>404200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>346700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>401800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>472900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>707000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>529900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>536100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>434800</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>942100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1154500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1136600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>973900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1813500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1319400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>588100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6501300</v>
+        <v>716100</v>
       </c>
       <c r="E43" s="3">
-        <v>7578900</v>
+        <v>6506700</v>
       </c>
       <c r="F43" s="3">
-        <v>7071600</v>
+        <v>7585200</v>
       </c>
       <c r="G43" s="3">
-        <v>10604700</v>
+        <v>7077500</v>
       </c>
       <c r="H43" s="3">
-        <v>10331500</v>
+        <v>10613500</v>
       </c>
       <c r="I43" s="3">
-        <v>10833400</v>
+        <v>10340100</v>
       </c>
       <c r="J43" s="3">
+        <v>10842400</v>
+      </c>
+      <c r="K43" s="3">
         <v>7323100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6232000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7146800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>7042500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6785300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>712000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>7701800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>709100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>9822600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1321800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>7964200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>405500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>346600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5953400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>6073000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>374400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>20987900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>5868000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>6488500</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>345100</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>273500</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>352100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,453 +3720,471 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2570400</v>
+        <v>2575800</v>
       </c>
       <c r="E45" s="3">
-        <v>10435500</v>
+        <v>2572500</v>
       </c>
       <c r="F45" s="3">
-        <v>2317800</v>
+        <v>10444200</v>
       </c>
       <c r="G45" s="3">
-        <v>2423000</v>
+        <v>2319700</v>
       </c>
       <c r="H45" s="3">
-        <v>2289600</v>
+        <v>2425000</v>
       </c>
       <c r="I45" s="3">
-        <v>2046800</v>
+        <v>2291500</v>
       </c>
       <c r="J45" s="3">
+        <v>2048500</v>
+      </c>
+      <c r="K45" s="3">
         <v>1770300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1766100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1728800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1463800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1316600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1424000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1482500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1412500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1386900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1601100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1424600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1250000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1052800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1135300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1104600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>932200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>989600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>848200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>842600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>909700</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>682000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>747700</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24923500</v>
+        <v>22586400</v>
       </c>
       <c r="E46" s="3">
-        <v>28736200</v>
+        <v>24944200</v>
       </c>
       <c r="F46" s="3">
-        <v>20079700</v>
+        <v>28760100</v>
       </c>
       <c r="G46" s="3">
-        <v>22591600</v>
+        <v>20096400</v>
       </c>
       <c r="H46" s="3">
-        <v>21813200</v>
+        <v>22610300</v>
       </c>
       <c r="I46" s="3">
-        <v>25332200</v>
+        <v>21831300</v>
       </c>
       <c r="J46" s="3">
+        <v>25353200</v>
+      </c>
+      <c r="K46" s="3">
         <v>21729700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18228700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21206600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20495600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15029800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>16208900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>17501500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>19570700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>17759800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>17254000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>15941400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>19213400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>19659800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>12616700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>12569900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>16556700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>13385300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>12587600</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>13057700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>17779700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>13573900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>12177100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6449300</v>
+        <v>6599000</v>
       </c>
       <c r="E47" s="3">
-        <v>6430900</v>
+        <v>6454700</v>
       </c>
       <c r="F47" s="3">
-        <v>6632500</v>
+        <v>6436200</v>
       </c>
       <c r="G47" s="3">
-        <v>7937800</v>
+        <v>6638000</v>
       </c>
       <c r="H47" s="3">
-        <v>7957300</v>
+        <v>7944400</v>
       </c>
       <c r="I47" s="3">
-        <v>7584400</v>
+        <v>7963900</v>
       </c>
       <c r="J47" s="3">
+        <v>7590700</v>
+      </c>
+      <c r="K47" s="3">
         <v>7247200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6642300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7072700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4624200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4046500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3702200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3271600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3404200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3385500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3617400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2953900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2730900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2565700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>2239600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2159800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1878700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1955600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>2009500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>2305700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>2371100</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>2270100</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>2245500</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4727800</v>
+        <v>4776200</v>
       </c>
       <c r="E48" s="3">
-        <v>4840500</v>
+        <v>4731700</v>
       </c>
       <c r="F48" s="3">
-        <v>5348900</v>
+        <v>4844500</v>
       </c>
       <c r="G48" s="3">
-        <v>5455200</v>
+        <v>5353400</v>
       </c>
       <c r="H48" s="3">
-        <v>5416200</v>
+        <v>5459700</v>
       </c>
       <c r="I48" s="3">
-        <v>5410700</v>
+        <v>5420700</v>
       </c>
       <c r="J48" s="3">
+        <v>5415200</v>
+      </c>
+      <c r="K48" s="3">
         <v>5395600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5205700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5265700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5049900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10055800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5307800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5751300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6077900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6416100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6675000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6358400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6606600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4202800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3788000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3605800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3342300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3328900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3148300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3050700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3075400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3028400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>2785500</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33433600</v>
+        <v>33997400</v>
       </c>
       <c r="E49" s="3">
-        <v>33511700</v>
+        <v>33461400</v>
       </c>
       <c r="F49" s="3">
-        <v>40047700</v>
+        <v>33539500</v>
       </c>
       <c r="G49" s="3">
-        <v>43393300</v>
+        <v>40081000</v>
       </c>
       <c r="H49" s="3">
-        <v>41421300</v>
+        <v>43429300</v>
       </c>
       <c r="I49" s="3">
-        <v>39234700</v>
+        <v>41455700</v>
       </c>
       <c r="J49" s="3">
+        <v>39267200</v>
+      </c>
+      <c r="K49" s="3">
         <v>38004200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>36037400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37088200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>34151900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>31240600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>33240800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>36405800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>38537300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39286800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42346700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39445900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40703100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>31894500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>29648200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>29382500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>26013800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>27194800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>27366500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>28298800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>31375900</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>31806700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>30526100</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6048200</v>
+        <v>5833000</v>
       </c>
       <c r="E52" s="3">
-        <v>6197800</v>
+        <v>6053200</v>
       </c>
       <c r="F52" s="3">
-        <v>6118700</v>
+        <v>6202900</v>
       </c>
       <c r="G52" s="3">
-        <v>5435700</v>
+        <v>6123700</v>
       </c>
       <c r="H52" s="3">
-        <v>5322900</v>
+        <v>5440200</v>
       </c>
       <c r="I52" s="3">
-        <v>5235100</v>
+        <v>5327400</v>
       </c>
       <c r="J52" s="3">
+        <v>5239500</v>
+      </c>
+      <c r="K52" s="3">
         <v>4777600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3916700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4663700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3556500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3102900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3064900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3297800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3483300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3447400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3361400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3186900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3230900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2737200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2265000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2220200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2137800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1935400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1372200</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1420400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>1416800</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>1293500</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>1097500</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75582400</v>
+        <v>73791900</v>
       </c>
       <c r="E54" s="3">
-        <v>79717100</v>
+        <v>75645100</v>
       </c>
       <c r="F54" s="3">
-        <v>78227600</v>
+        <v>79783300</v>
       </c>
       <c r="G54" s="3">
-        <v>84813500</v>
+        <v>78292500</v>
       </c>
       <c r="H54" s="3">
-        <v>81930900</v>
+        <v>84883900</v>
       </c>
       <c r="I54" s="3">
-        <v>82797100</v>
+        <v>81998900</v>
       </c>
       <c r="J54" s="3">
+        <v>82865800</v>
+      </c>
+      <c r="K54" s="3">
         <v>77154300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70030800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>75296800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>67878100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>58312000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>61524600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>66228100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>71073500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70295600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>73254400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>67886500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>72484900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>60921700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>50557500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>49938100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>49929400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>47666600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>46484000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>48133400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>56018900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>51972800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>48831700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1717200</v>
+        <v>1755500</v>
       </c>
       <c r="E57" s="3">
-        <v>1742100</v>
+        <v>1718600</v>
       </c>
       <c r="F57" s="3">
-        <v>2326500</v>
+        <v>1743600</v>
       </c>
       <c r="G57" s="3">
-        <v>2088000</v>
+        <v>2328400</v>
       </c>
       <c r="H57" s="3">
-        <v>2102100</v>
+        <v>2089700</v>
       </c>
       <c r="I57" s="3">
-        <v>1835400</v>
+        <v>2103800</v>
       </c>
       <c r="J57" s="3">
+        <v>1836900</v>
+      </c>
+      <c r="K57" s="3">
         <v>1712900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1229800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1671600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1228000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1209800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1327500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1430200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1646200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1845700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1849700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1731700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1968900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1763700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1380100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1290200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1170500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1291400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1221800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1281300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>1388600</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>1503700</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>1307600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2924900</v>
+        <v>1779400</v>
       </c>
       <c r="E58" s="3">
-        <v>3999200</v>
+        <v>2927300</v>
       </c>
       <c r="F58" s="3">
-        <v>4697400</v>
+        <v>4002600</v>
       </c>
       <c r="G58" s="3">
-        <v>9300500</v>
+        <v>4701300</v>
       </c>
       <c r="H58" s="3">
-        <v>5283900</v>
+        <v>9308200</v>
       </c>
       <c r="I58" s="3">
-        <v>7743700</v>
+        <v>5288300</v>
       </c>
       <c r="J58" s="3">
+        <v>7750200</v>
+      </c>
+      <c r="K58" s="3">
         <v>4517400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4528400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4408700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4689600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4199100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4013600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2820000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5805800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3408800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3418900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2134000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1935500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2239200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1243800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1281400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1750200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3207800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>1446200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>608100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>2083500</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>2128100</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>1489600</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12894300</v>
+        <v>10994300</v>
       </c>
       <c r="E59" s="3">
-        <v>14692800</v>
+        <v>12905000</v>
       </c>
       <c r="F59" s="3">
-        <v>11896900</v>
+        <v>14705000</v>
       </c>
       <c r="G59" s="3">
-        <v>10546100</v>
+        <v>11906800</v>
       </c>
       <c r="H59" s="3">
-        <v>15265200</v>
+        <v>10554900</v>
       </c>
       <c r="I59" s="3">
-        <v>13216300</v>
+        <v>15277900</v>
       </c>
       <c r="J59" s="3">
+        <v>13227200</v>
+      </c>
+      <c r="K59" s="3">
         <v>11262700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9868700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10991600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11217600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9741600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8992400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>12440700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>12269900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>11628600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>11739100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>12854500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>13619900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>9731700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>8556200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>9986300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>9629500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>12110800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>7998700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>9687300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>11375400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>7723700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>7707200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17536400</v>
+        <v>14529200</v>
       </c>
       <c r="E60" s="3">
-        <v>20434200</v>
+        <v>17551000</v>
       </c>
       <c r="F60" s="3">
-        <v>18920800</v>
+        <v>20451200</v>
       </c>
       <c r="G60" s="3">
-        <v>21934600</v>
+        <v>18936500</v>
       </c>
       <c r="H60" s="3">
-        <v>22651200</v>
+        <v>21952800</v>
       </c>
       <c r="I60" s="3">
-        <v>22795400</v>
+        <v>22670000</v>
       </c>
       <c r="J60" s="3">
+        <v>22814300</v>
+      </c>
+      <c r="K60" s="3">
         <v>17493000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15626900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17071900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>17135100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12808600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14333400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16690900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19722000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16883100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17007800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16720200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>17524300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>12403900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11180100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>12557800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>12550100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>11455500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>10666800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>11576700</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>14847500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>11355400</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>10504400</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9105400</v>
+        <v>10012400</v>
       </c>
       <c r="E61" s="3">
-        <v>10016000</v>
+        <v>9112900</v>
       </c>
       <c r="F61" s="3">
-        <v>9488000</v>
+        <v>10024300</v>
       </c>
       <c r="G61" s="3">
-        <v>10369400</v>
+        <v>9495900</v>
       </c>
       <c r="H61" s="3">
-        <v>9711400</v>
+        <v>10378000</v>
       </c>
       <c r="I61" s="3">
-        <v>10916900</v>
+        <v>9719400</v>
       </c>
       <c r="J61" s="3">
+        <v>10926000</v>
+      </c>
+      <c r="K61" s="3">
         <v>11903400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12214200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>11616800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>12626300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>13569600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>14680100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>15809500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>14121700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>15059600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>16719900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>16548400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>17626000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>12461900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>7533900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>7146900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>7113900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5612200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>6519900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>6984400</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>7575800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>7569900</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>8507800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3160200</v>
+        <v>2333800</v>
       </c>
       <c r="E62" s="3">
-        <v>2655000</v>
+        <v>3162800</v>
       </c>
       <c r="F62" s="3">
-        <v>3367200</v>
+        <v>2657200</v>
       </c>
       <c r="G62" s="3">
-        <v>2591000</v>
+        <v>3370000</v>
       </c>
       <c r="H62" s="3">
-        <v>3182900</v>
+        <v>2593200</v>
       </c>
       <c r="I62" s="3">
-        <v>2882600</v>
+        <v>3185600</v>
       </c>
       <c r="J62" s="3">
+        <v>2885000</v>
+      </c>
+      <c r="K62" s="3">
         <v>2742800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2535000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2676700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2556100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2089600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2028100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2012700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2487400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2371000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2497800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2101100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2372100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1897400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1931700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1842400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2059800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2093600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>1954500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2055500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2175100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2062400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>1925000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30108700</v>
+        <v>27180300</v>
       </c>
       <c r="E66" s="3">
-        <v>36082100</v>
+        <v>30133700</v>
       </c>
       <c r="F66" s="3">
-        <v>34661900</v>
+        <v>36112100</v>
       </c>
       <c r="G66" s="3">
-        <v>38251400</v>
+        <v>34690700</v>
       </c>
       <c r="H66" s="3">
-        <v>38736000</v>
+        <v>38283100</v>
       </c>
       <c r="I66" s="3">
-        <v>39595700</v>
+        <v>38768100</v>
       </c>
       <c r="J66" s="3">
+        <v>39628500</v>
+      </c>
+      <c r="K66" s="3">
         <v>35033800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32121800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>34190300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33622100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>28673300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>31228300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>34610200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>36413500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>34402400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>36309900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>35440200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>37583400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26816300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20693300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>21595500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>21756900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>19073800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>19142300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20624400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24634800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>21012400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>20963100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>43607900</v>
+        <v>48691500</v>
       </c>
       <c r="E72" s="3">
-        <v>43239300</v>
+        <v>43644100</v>
       </c>
       <c r="F72" s="3">
-        <v>39480800</v>
+        <v>43275200</v>
       </c>
       <c r="G72" s="3">
-        <v>46949100</v>
+        <v>39513500</v>
       </c>
       <c r="H72" s="3">
-        <v>38061700</v>
+        <v>46988100</v>
       </c>
       <c r="I72" s="3">
-        <v>43564600</v>
+        <v>38093300</v>
       </c>
       <c r="J72" s="3">
+        <v>43600700</v>
+      </c>
+      <c r="K72" s="3">
         <v>40135600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>38166400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39169300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35148200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>30933400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31641400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31122600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36124400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33601600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36706800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>30553500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34669500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>33879400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>29653800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>27163400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>27940800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>28360500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>26873900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>24688300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>30535500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>30105900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>27054000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45473700</v>
+        <v>46611600</v>
       </c>
       <c r="E76" s="3">
-        <v>43635000</v>
+        <v>45511400</v>
       </c>
       <c r="F76" s="3">
-        <v>43565600</v>
+        <v>43671300</v>
       </c>
       <c r="G76" s="3">
-        <v>46562100</v>
+        <v>43601800</v>
       </c>
       <c r="H76" s="3">
-        <v>43194900</v>
+        <v>46600800</v>
       </c>
       <c r="I76" s="3">
-        <v>43201400</v>
+        <v>43230700</v>
       </c>
       <c r="J76" s="3">
+        <v>43237300</v>
+      </c>
+      <c r="K76" s="3">
         <v>42120500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37909000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41106500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34256000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29638700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30296300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31617800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34660000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35893200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36944500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>32446300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>34901500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>34105400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>29864200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>28342700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>28172500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>28592800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>27341800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>27509000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>31384200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>30960400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>27868600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3744500</v>
+        <v>1386600</v>
       </c>
       <c r="E81" s="3">
-        <v>519300</v>
+        <v>3328800</v>
       </c>
       <c r="F81" s="3">
-        <v>586500</v>
+        <v>519700</v>
       </c>
       <c r="G81" s="3">
-        <v>725300</v>
+        <v>587000</v>
       </c>
       <c r="H81" s="3">
-        <v>362100</v>
+        <v>725900</v>
       </c>
       <c r="I81" s="3">
-        <v>802200</v>
+        <v>362400</v>
       </c>
       <c r="J81" s="3">
+        <v>802900</v>
+      </c>
+      <c r="K81" s="3">
         <v>1576300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1514100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1434600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1061600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1903000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1615000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>945800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>919100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1891200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1526300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>669400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-136400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1990800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1075500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>787300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>776300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>2060000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1102900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>749500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>611600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>1793600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>856900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>378400</v>
+        <v>355900</v>
       </c>
       <c r="E83" s="3">
-        <v>395700</v>
+        <v>378700</v>
       </c>
       <c r="F83" s="3">
-        <v>510600</v>
+        <v>396000</v>
       </c>
       <c r="G83" s="3">
-        <v>533400</v>
+        <v>511000</v>
       </c>
       <c r="H83" s="3">
-        <v>512800</v>
+        <v>533800</v>
       </c>
       <c r="I83" s="3">
-        <v>498700</v>
+        <v>513200</v>
       </c>
       <c r="J83" s="3">
+        <v>499100</v>
+      </c>
+      <c r="K83" s="3">
         <v>506300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>470600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>460200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>445100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>460800</v>
       </c>
       <c r="O83" s="3">
         <v>460800</v>
       </c>
       <c r="P83" s="3">
+        <v>460800</v>
+      </c>
+      <c r="Q83" s="3">
         <v>502900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>523900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>584900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>580600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>535300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>528700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>444800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>388800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>364500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>332700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>348900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>357900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>361300</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>375600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>394400</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>372100</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>941000</v>
+        <v>1218500</v>
       </c>
       <c r="E89" s="3">
-        <v>2572600</v>
+        <v>941800</v>
       </c>
       <c r="F89" s="3">
-        <v>2218100</v>
+        <v>2574700</v>
       </c>
       <c r="G89" s="3">
-        <v>920400</v>
+        <v>2217700</v>
       </c>
       <c r="H89" s="3">
-        <v>290500</v>
+        <v>923300</v>
       </c>
       <c r="I89" s="3">
-        <v>2690700</v>
+        <v>290800</v>
       </c>
       <c r="J89" s="3">
+        <v>2693000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1374600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1274000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>725800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3149200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2094500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1371100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>859600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3369200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>210100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>780300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-144700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>3351800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>968800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>552700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>448000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>2829500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>1032200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>686700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>719200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>3371200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>1173800</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>828700</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-156000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-257000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-136000</v>
-      </c>
       <c r="G91" s="3">
-        <v>-282000</v>
+        <v>-189000</v>
       </c>
       <c r="H91" s="3">
+        <v>-229000</v>
+      </c>
+      <c r="I91" s="3">
         <v>-244000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-212000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-254000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-202000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-202100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-156200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-163600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-160900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-178900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-376000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-133100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-200900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-211800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-429400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-369100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-363300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-429300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-468800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-348900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-397200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-357900</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-341600</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-393200</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-305200</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>7440200</v>
+        <v>-3750800</v>
       </c>
       <c r="E94" s="3">
-        <v>-541000</v>
+        <v>7446400</v>
       </c>
       <c r="F94" s="3">
-        <v>2524900</v>
+        <v>-541400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1026600</v>
+        <v>643400</v>
       </c>
       <c r="H94" s="3">
+        <v>856100</v>
+      </c>
+      <c r="I94" s="3">
         <v>5400</v>
       </c>
-      <c r="I94" s="3">
-        <v>-780600</v>
-      </c>
       <c r="J94" s="3">
+        <v>-781200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1512300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1012300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>252900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-987100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1961900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>651800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1389800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-421200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-42000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-349100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-232900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7777700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-540600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-422000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2041200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-405200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-534100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-304100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>313000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-755900</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-1204300</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-436700</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3302200</v>
+        <v>-2727700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1315000</v>
+        <v>-3304900</v>
       </c>
       <c r="F100" s="3">
-        <v>-2353600</v>
+        <v>-1316100</v>
       </c>
       <c r="G100" s="3">
-        <v>-416300</v>
+        <v>-2355500</v>
       </c>
       <c r="H100" s="3">
-        <v>-3314100</v>
+        <v>-416600</v>
       </c>
       <c r="I100" s="3">
-        <v>-786000</v>
+        <v>-3316800</v>
       </c>
       <c r="J100" s="3">
+        <v>-786600</v>
+      </c>
+      <c r="K100" s="3">
         <v>1000600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-269200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-3586600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2716300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2087600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-646600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1154200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-251800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-339700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-151900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2254000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2910400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>4439400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-162800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1981900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1627200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-673200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-336600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-2812800</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>1200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-422600</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-520000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>91100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-55300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-174500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-582200</v>
+        <v>-174700</v>
       </c>
       <c r="G101" s="3">
-        <v>357800</v>
+        <v>-582600</v>
       </c>
       <c r="H101" s="3">
-        <v>306800</v>
+        <v>358100</v>
       </c>
       <c r="I101" s="3">
+        <v>307100</v>
+      </c>
+      <c r="J101" s="3">
         <v>62900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>171300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>201400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-110000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>248100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-162600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-73100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>127600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-74700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>158000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>85900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-33500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>23300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>190000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-113100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-59500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-64000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-126800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>5900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-29300</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>17600</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5023700</v>
+        <v>-5168900</v>
       </c>
       <c r="E102" s="3">
-        <v>542100</v>
+        <v>5027900</v>
       </c>
       <c r="F102" s="3">
-        <v>1807200</v>
+        <v>542500</v>
       </c>
       <c r="G102" s="3">
-        <v>-164800</v>
+        <v>1808700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1571900</v>
+        <v>-164900</v>
       </c>
       <c r="I102" s="3">
+        <v>-1573300</v>
+      </c>
+      <c r="J102" s="3">
         <v>47700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1034200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>193800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2718000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5126500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2117500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1275600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1757500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2823900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-246300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>437300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2545700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1549100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4874700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3385100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3938500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-234500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1907400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2622300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-482400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-110300</v>
       </c>
     </row>
